--- a/examples/99_tower_gbf/15mw/50m/outputs_mono/mono_turb_output.xlsx
+++ b/examples/99_tower_gbf/15mw/50m/outputs_mono/mono_turb_output.xlsx
@@ -1249,7 +1249,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[12.11186105]</t>
+          <t>[12.91830963]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -5634,8 +5634,8 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>[12.11186105 12.11186105 12.11186105 12.11186105 11.66280973 11.16368893
- 11.11555345]</t>
+          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963]</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
@@ -6212,7 +6212,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>[11.11555345]</t>
+          <t>[12.91830963]</t>
         </is>
       </c>
       <c r="E251" t="inlineStr"/>
@@ -6235,7 +6235,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>[11.11555345]</t>
+          <t>[12.91830963]</t>
         </is>
       </c>
       <c r="E252" t="inlineStr"/>
@@ -9453,7 +9453,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>[2.67367731]</t>
+          <t>[2.97392115]</t>
         </is>
       </c>
       <c r="E380" t="inlineStr"/>
@@ -9688,7 +9688,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>[11.11555345 11.11555345 11.11555345  9.93972013  5.999     ]</t>
+          <t>[12.91830963 12.91830963 12.91830963  6.78865256  5.999     ]</t>
         </is>
       </c>
       <c r="E391" t="inlineStr"/>
@@ -10162,7 +10162,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>[[0.0853113  0.05280258 0.01634223 0.00804929 0.01475924]]</t>
+          <t>[[0.03203324 0.02       0.02       0.02       0.02      ]]</t>
         </is>
       </c>
       <c r="E413" t="inlineStr"/>
@@ -10185,7 +10185,7 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>[11.11555345 11.11555345 11.11555345  9.93972013  5.999     ]</t>
+          <t>[12.91830963 12.91830963 12.91830963  6.78865256  5.999     ]</t>
         </is>
       </c>
       <c r="E414" t="inlineStr"/>
@@ -13844,7 +13844,7 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>[1128.5248101]</t>
+          <t>[1061.97005646]</t>
         </is>
       </c>
       <c r="E526" t="inlineStr"/>
@@ -13867,7 +13867,7 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>[3416.55889046]</t>
+          <t>[3464.16716261]</t>
         </is>
       </c>
       <c r="E527" t="inlineStr"/>
@@ -13967,7 +13967,7 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>[1128.5248101]</t>
+          <t>[1061.97005646]</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
@@ -14048,7 +14048,7 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>[1363.5211642]</t>
+          <t>[890.1924554]</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
@@ -14183,7 +14183,7 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>[2379.80258812]</t>
+          <t>[2562.9290508]</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
@@ -14210,7 +14210,7 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>[6041560.01827584]</t>
+          <t>[6483171.69572365]</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
@@ -14283,7 +14283,7 @@
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>[87.94541163]</t>
+          <t>[87.70708606]</t>
         </is>
       </c>
       <c r="E543" t="inlineStr"/>
@@ -18257,8 +18257,8 @@
         <is>
           <t>[   0.            0.            0.            0.            0.
     0.            0.            0.            0.            0.
-    0.            0.            0.          761.39369247  886.21837616
-  963.07607596  998.44701584 1030.03618304 1058.62612625]</t>
+    0.            0.            0.          856.50407323 1015.96749656
+ 1124.64457056 1169.39022896 1209.80273224 1246.78305078]</t>
         </is>
       </c>
       <c r="E715" t="inlineStr"/>
@@ -18402,10 +18402,10 @@
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          24247.11758293
-  25419.45680455  29060.60430209  35572.88881567  45641.68090641
-  60344.7167887   81340.8022067   92702.80983411 106015.05336073
- 121697.97462647      0.              0.              0.
+          <t>[     0.              0.              0.          27567.58323521
+  28898.60721297  33033.98623873  40422.94053529  51829.86773143
+  68473.56384445  92230.32452283 107649.77263452 126112.4806614
+ 148353.48280055      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -18656,10 +18656,10 @@
       </c>
       <c r="D731" t="inlineStr">
         <is>
-          <t>[12.11186105 12.11186105 12.11186105 12.11186105 12.11186105 12.11186105
- 12.11186105 12.11186105 12.11186105 12.11186105 11.96217728 11.81249351
- 11.66280973 11.49643613 11.33006253 11.16368893 11.14764377 11.13159861
- 11.11555345]</t>
+          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963]</t>
         </is>
       </c>
       <c r="E731" t="inlineStr"/>
@@ -18826,11 +18826,11 @@
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          24247.11758293
-  25419.45680455  29060.60430209  35572.88881567  45641.68090641
-  60344.7167887   81340.8022067   92702.80983411 106015.05336073
- 121697.97462647    761.39369247    886.21837616    963.07607596
-    998.44701584   1030.03618304   1058.62612625]</t>
+          <t>[     0.              0.              0.          27567.58323521
+  28898.60721297  33033.98623873  40422.94053529  51829.86773143
+  68473.56384445  92230.32452283 107649.77263452 126112.4806614
+ 148353.48280055    856.50407323   1015.96749656   1124.64457056
+   1169.39022896   1209.80273224   1246.78305078]</t>
         </is>
       </c>
       <c r="E738" t="inlineStr"/>
@@ -18972,11 +18972,11 @@
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t>[      0.               0.               0.          -24247.11758293
-  -25419.45680455  -29060.60430209  -35572.88881567  -45641.68090641
-  -60344.7167887   -81340.8022067   -92702.80983411 -106015.05336073
- -121697.97462647    -761.39369247    -886.21837616    -963.07607596
-    -998.44701584   -1030.03618304   -1058.62612625]</t>
+          <t>[      0.               0.               0.          -27567.58323521
+  -28898.60721297  -33033.98623873  -40422.94053529  -51829.86773143
+  -68473.56384445  -92230.32452283 -107649.77263452 -126112.4806614
+ -148353.48280055    -856.50407323   -1015.96749656   -1124.64457056
+   -1169.39022896   -1209.80273224   -1246.78305078]</t>
         </is>
       </c>
       <c r="E744" t="inlineStr"/>
@@ -19026,8 +19026,8 @@
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>[12.11186105 12.11186105 12.11186105 12.11186105 11.66280973 11.16368893
- 11.11555345]</t>
+          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963]</t>
         </is>
       </c>
       <c r="E746" t="inlineStr"/>
@@ -19116,8 +19116,8 @@
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t>[12.11186105 12.11186105 12.11186105 12.11186105 11.66280973 11.16368893
- 11.11555345]</t>
+          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963]</t>
         </is>
       </c>
       <c r="E750" t="inlineStr"/>
@@ -19568,7 +19568,7 @@
       </c>
       <c r="D769" t="inlineStr">
         <is>
-          <t>[2279802.58812205]</t>
+          <t>[2462929.0507968]</t>
         </is>
       </c>
       <c r="E769" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
       </c>
       <c r="D770" t="inlineStr">
         <is>
-          <t>[5541560.01827584]</t>
+          <t>[5983171.69572365]</t>
         </is>
       </c>
       <c r="E770" t="inlineStr"/>
@@ -19614,7 +19614,7 @@
       </c>
       <c r="D771" t="inlineStr">
         <is>
-          <t>[47.01251305]</t>
+          <t>[47.5]</t>
         </is>
       </c>
       <c r="E771" t="inlineStr"/>
@@ -19637,7 +19637,7 @@
       </c>
       <c r="D772" t="inlineStr">
         <is>
-          <t>[6.77018795e+09 6.77018795e+09 8.06801159e+07 0.00000000e+00
+          <t>[7.46008028e+09 7.46008028e+09 1.01537429e+08 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -19661,7 +19661,7 @@
       </c>
       <c r="D773" t="inlineStr">
         <is>
-          <t>[1363521.1641994]</t>
+          <t>[890192.45540134]</t>
         </is>
       </c>
       <c r="E773" t="inlineStr"/>
@@ -19684,7 +19684,7 @@
       </c>
       <c r="D774" t="inlineStr">
         <is>
-          <t>[3646837.66209974]</t>
+          <t>[2648516.35740918]</t>
         </is>
       </c>
       <c r="E774" t="inlineStr"/>
@@ -19731,26 +19731,26 @@
       </c>
       <c r="D776" t="inlineStr">
         <is>
-          <t>[[2.29583003e+10 6.00709619e+12 2.29583003e+10 6.00709619e+12
-  1.57322018e+10 1.65832412e+11]
- [2.08833530e+10 4.35206587e+12 2.08833530e+10 4.35206587e+12
-  1.46122018e+10 1.65832412e+11]
- [1.88084056e+10 3.05101086e+12 1.88084056e+10 3.05101086e+12
-  1.34922018e+10 1.65832412e+11]
- [1.67334582e+10 2.05968424e+12 1.67334582e+10 2.05968424e+12
-  1.23722018e+10 1.65832412e+11]
- [1.46585109e+10 1.33383911e+12 1.46585109e+10 1.33383911e+12
-  1.12522018e+10 1.65832412e+11]
- [1.25835635e+10 8.29228541e+11 1.25835635e+10 8.29228541e+11
-  1.01322018e+10 1.65832412e+11]
- [1.05086161e+10 5.01605627e+11 1.05086161e+10 5.01605627e+11
-  9.01220182e+09 1.65832412e+11]
- [8.43366875e+09 3.06723454e+11 8.43366875e+09 3.06723454e+11
-  7.89220182e+09 1.65832412e+11]
- [6.35872138e+09 2.00335108e+11 6.35872138e+09 2.00335108e+11
-  6.77220182e+09 1.65832412e+11]
- [4.28377401e+09 1.38193676e+11 4.28377401e+09 1.38193676e+11
-  5.65220182e+09 1.65832412e+11]]</t>
+          <t>[[2.32435285e+10 6.10440261e+12 2.32435285e+10 6.10440261e+12
+  1.61085445e+10 2.01211985e+11]
+ [2.11685811e+10 4.44183635e+12 2.11685811e+10 4.44183635e+12
+  1.49885445e+10 2.01211985e+11]
+ [1.90936337e+10 3.13324540e+12 1.90936337e+10 3.13324540e+12
+  1.38685445e+10 2.01211985e+11]
+ [1.70186864e+10 2.13438284e+12 1.70186864e+10 2.13438284e+12
+  1.27485445e+10 2.01211985e+11]
+ [1.49437390e+10 1.40100177e+12 1.49437390e+10 1.40100177e+12
+  1.16285445e+10 2.01211985e+11]
+ [1.28687916e+10 8.88855266e+11 1.28687916e+10 8.88855266e+11
+  1.05085445e+10 2.01211985e+11]
+ [1.07938442e+10 5.53696416e+11 1.07938442e+10 5.53696416e+11
+  9.38854449e+09 2.01211985e+11]
+ [8.71889688e+09 3.51278306e+11 8.71889688e+09 3.51278306e+11
+  8.26854449e+09 2.01211985e+11]
+ [6.64394951e+09 2.37354023e+11 6.64394951e+09 2.37354023e+11
+  7.14854449e+09 2.01211985e+11]
+ [4.56900214e+09 1.67676654e+11 4.56900214e+09 1.67676654e+11
+  6.02854449e+09 2.01211985e+11]]</t>
         </is>
       </c>
       <c r="E776" t="inlineStr"/>
@@ -19773,9 +19773,9 @@
       </c>
       <c r="D777" t="inlineStr">
         <is>
-          <t>[3.11505311 3.11505311 3.11505311 3.11505311 3.11505311 3.11505311
- 3.11505311 3.11505311 3.11505311 3.09568135 3.05693783 3.01819431
- 2.97729082 2.93422738 2.89116393 2.86755568 2.86340261 2.85924955]</t>
+          <t>[3.32379089 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089
+ 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089
+ 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089]</t>
         </is>
       </c>
       <c r="E777" t="inlineStr"/>
@@ -19798,9 +19798,9 @@
       </c>
       <c r="D778" t="inlineStr">
         <is>
-          <t>[1.77276002 1.77276002 1.77276002 1.77276002 1.77276002 1.77276002
- 1.77276002 1.77276002 1.77276002 1.76176785 1.73978354 1.71779927
- 1.69458941 1.67015397 1.64571859 1.63232264 1.62996608 1.62760953]</t>
+          <t>[1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
+ 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
+ 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517]</t>
         </is>
       </c>
       <c r="E778" t="inlineStr"/>
@@ -19823,9 +19823,9 @@
       </c>
       <c r="D779" t="inlineStr">
         <is>
-          <t>[1.77276002 1.77276002 1.77276002 1.77276002 1.77276002 1.77276002
- 1.77276002 1.77276002 1.77276002 1.76176785 1.73978354 1.71779927
- 1.69458941 1.67015397 1.64571859 1.63232264 1.62996608 1.62760953]</t>
+          <t>[1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
+ 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
+ 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517]</t>
         </is>
       </c>
       <c r="E779" t="inlineStr"/>
@@ -19848,9 +19848,9 @@
       </c>
       <c r="D780" t="inlineStr">
         <is>
-          <t>[56.39951998 56.39951998 56.39951998 56.39951998 56.39951998 56.39951998
- 56.39951998 56.39951998 56.39951998 55.3538734  53.30151355 51.30052225
- 49.24299957 47.13707097 45.09205732 43.99646838 43.80559187 43.61526824]</t>
+          <t>[68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
+ 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
+ 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444]</t>
         </is>
       </c>
       <c r="E780" t="inlineStr"/>
@@ -19873,9 +19873,9 @@
       </c>
       <c r="D781" t="inlineStr">
         <is>
-          <t>[56.39951998 56.39951998 56.39951998 56.39951998 56.39951998 56.39951998
- 56.39951998 56.39951998 56.39951998 55.3538734  53.30151355 51.30052225
- 49.24299957 47.13707097 45.09205732 43.99646838 43.80559187 43.61526824]</t>
+          <t>[68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
+ 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
+ 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444]</t>
         </is>
       </c>
       <c r="E781" t="inlineStr"/>
@@ -19898,10 +19898,10 @@
       </c>
       <c r="D782" t="inlineStr">
         <is>
-          <t>[112.79903997 112.79903997 112.79903997 112.79903997 112.79903997
- 112.79903997 112.79903997 112.79903997 112.79903997 110.7077468
- 106.6030271  102.6010445   98.48599915  94.27414194  90.18411463
-  87.99293676  87.61118373  87.23053647]</t>
+          <t>[137.02756889 137.02756889 137.02756889 137.02756889 137.02756889
+ 137.02756889 137.02756889 137.02756889 137.02756889 137.02756889
+ 137.02756889 137.02756889 137.02756889 137.02756889 137.02756889
+ 137.02756889 137.02756889 137.02756889]</t>
         </is>
       </c>
       <c r="E782" t="inlineStr"/>
@@ -20096,8 +20096,8 @@
       </c>
       <c r="D789" t="inlineStr">
         <is>
-          <t>[2.5642805  2.5642805  2.5642805  1.28777924 1.28777924 1.28777924
- 0.44716025 0.43109206 0.41502386 0.35542864 0.30507216 0.25471568]</t>
+          <t>[1.12749527 1.12749527 1.12749527 0.86715442 0.86715442 0.86715442
+ 0.79847153 0.66110575 0.52373996 0.446209   0.42851287 0.41081673]</t>
         </is>
       </c>
       <c r="E789" t="inlineStr"/>
@@ -20120,8 +20120,8 @@
       </c>
       <c r="D790" t="inlineStr">
         <is>
-          <t>[1.45922069 1.45922069 1.45922069 0.73178436 0.73178436 0.73178436
- 0.25387466 0.24475646 0.23563826 0.20180411 0.17322838 0.14465268]</t>
+          <t>[0.64038852 0.64038852 0.64038852 0.49241973 0.49241973 0.49241973
+ 0.45344439 0.37549382 0.29754348 0.25354752 0.24350565 0.23346378]</t>
         </is>
       </c>
       <c r="E790" t="inlineStr"/>
@@ -20144,8 +20144,8 @@
       </c>
       <c r="D791" t="inlineStr">
         <is>
-          <t>[1.45922069 1.45922069 1.45922069 0.73178436 0.73178436 0.73178436
- 0.25387466 0.24475646 0.23563826 0.20180411 0.17322838 0.14465268]</t>
+          <t>[0.64038852 0.64038852 0.64038852 0.49241973 0.49241973 0.49241973
+ 0.45344439 0.37549382 0.29754348 0.25354752 0.24350565 0.23346378]</t>
         </is>
       </c>
       <c r="E791" t="inlineStr"/>
@@ -20168,8 +20168,8 @@
       </c>
       <c r="D792" t="inlineStr">
         <is>
-          <t>[39.1148469  39.1148469  39.1148469  19.7656947  19.7656947  19.7656947
-  6.64989932  5.95848161  5.31673232  3.81914221  2.41499661  1.40564679]</t>
+          <t>[23.42539084 23.42539084 23.42539084 18.03321239 18.03321239 18.03321239
+ 14.07869055  7.99092984  3.97312955  2.45698019  2.17609877  1.91748399]</t>
         </is>
       </c>
       <c r="E792" t="inlineStr"/>
@@ -20192,8 +20192,8 @@
       </c>
       <c r="D793" t="inlineStr">
         <is>
-          <t>[39.1148469  39.1148469  39.1148469  19.7656947  19.7656947  19.7656947
-  6.64989932  5.95848161  5.31673232  3.81914221  2.41499661  1.40564679]</t>
+          <t>[23.42539084 23.42539084 23.42539084 18.03321239 18.03321239 18.03321239
+ 14.07869055  7.99092984  3.97312955  2.45698019  2.17609877  1.91748399]</t>
         </is>
       </c>
       <c r="E793" t="inlineStr"/>
@@ -20216,8 +20216,8 @@
       </c>
       <c r="D794" t="inlineStr">
         <is>
-          <t>[78.22969381 78.22969381 78.22969381 39.5313894  39.5313894  39.5313894
- 13.29979863 11.91696322 10.63346464  7.63828443  4.82999322  2.81129359]</t>
+          <t>[46.85078168 46.85078168 46.85078168 36.06642479 36.06642479 36.06642479
+ 28.1573811  15.98185968  7.9462591   4.91396038  4.35219754  3.83496798]</t>
         </is>
       </c>
       <c r="E794" t="inlineStr"/>
@@ -20311,8 +20311,8 @@
       </c>
       <c r="D798" t="inlineStr">
         <is>
-          <t>[11.11555345 11.11555345 11.11555345 11.11555345 11.11555345 11.11555345
- 11.11555345 10.72360901 10.33166457  9.93972013  8.62614676  7.31257338
+          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963 10.87509061  8.83187159  6.78865256  6.52543504  6.26221752
   5.999     ]</t>
         </is>
       </c>
@@ -20336,8 +20336,8 @@
       </c>
       <c r="D799" t="inlineStr">
         <is>
-          <t>[0.06905694 0.06905694 0.06905694 0.0345724  0.0345724  0.0345724
- 0.01219576 0.01219576 0.01219576 0.01140427 0.01140427 0.01140427]</t>
+          <t>[0.02601662 0.02601662 0.02601662 0.02       0.02       0.02
+ 0.02       0.02       0.02       0.02       0.02       0.02      ]</t>
         </is>
       </c>
       <c r="E799" t="inlineStr"/>
@@ -20494,7 +20494,7 @@
         <is>
           <t>[[ 2.93771262e+06]
  [ 8.73815973e+03]
- [-2.04265776e+07]]</t>
+ [-1.57986383e+07]]</t>
         </is>
       </c>
       <c r="E805" t="inlineStr"/>
@@ -20517,8 +20517,8 @@
       </c>
       <c r="D806" t="inlineStr">
         <is>
-          <t>[[-1.97473643e+06]
- [ 4.13196970e+08]
+          <t>[[-1.98280983e+06]
+ [ 4.14705733e+08]
  [ 6.20262840e+06]]</t>
         </is>
       </c>
@@ -20542,7 +20542,7 @@
       </c>
       <c r="D807" t="inlineStr">
         <is>
-          <t>[1544444.10716692 1544444.10716692 3088888.21433384       0.
+          <t>[2086034.04636477 2086034.04636477 4172068.09272954       0.
        0.               0.        ]</t>
         </is>
       </c>
@@ -20635,7 +20635,7 @@
       </c>
       <c r="D811" t="inlineStr">
         <is>
-          <t>[2311916.36645306]</t>
+          <t>[1838587.65765499]</t>
         </is>
       </c>
       <c r="E811" t="inlineStr"/>
@@ -20658,7 +20658,7 @@
       </c>
       <c r="D812" t="inlineStr">
         <is>
-          <t>[-2.77239697e+00 -3.93245327e-02  9.25607268e+01]</t>
+          <t>[-3.48612692e+00 -4.94482982e-02  1.12073001e+02]</t>
         </is>
       </c>
       <c r="E812" t="inlineStr"/>
@@ -20681,7 +20681,7 @@
       </c>
       <c r="D813" t="inlineStr">
         <is>
-          <t>[2.81602258e+10 2.80292929e+10 3.06810782e+08 5.41253437e+02
+          <t>[2.83314992e+10 2.82005663e+10 2.98073522e+08 5.41253437e+02
  1.42357768e+07 1.69892134e+05]</t>
         </is>
       </c>
@@ -20860,22 +20860,22 @@
           <t>[[      0.        ]
  [      0.        ]
  [      0.        ]
- [ -24247.11758293]
- [ -25419.45680455]
- [ -29060.60430209]
- [ -35572.88881567]
- [ -45641.68090641]
- [ -60344.7167887 ]
- [ -81340.8022067 ]
- [ -92702.80983411]
- [-106015.05336073]
- [-121697.97462647]
- [   -761.39369247]
- [   -886.21837616]
- [   -963.07607596]
- [   -998.44701584]
- [  -1030.03618304]
- [  -1058.62612625]]</t>
+ [ -27567.58323521]
+ [ -28898.60721297]
+ [ -33033.98623873]
+ [ -40422.94053529]
+ [ -51829.86773143]
+ [ -68473.56384445]
+ [ -92230.32452283]
+ [-107649.77263452]
+ [-126112.4806614 ]
+ [-148353.48280055]
+ [   -856.50407323]
+ [  -1015.96749656]
+ [  -1124.64457056]
+ [  -1169.39022896]
+ [  -1209.80273224]
+ [  -1246.78305078]]</t>
         </is>
       </c>
       <c r="E819" t="inlineStr"/>
@@ -20968,18 +20968,18 @@
       </c>
       <c r="D822" t="inlineStr">
         <is>
-          <t>[[-1058.62612625]
- [-1220.20669547]
- [-1336.59589005]
- [-1429.92909802]
- [-1539.57410864]
- [-1631.35079773]
- [-1711.06902513]
- [-1681.42732924]
- [-1646.94911602]
- [-1608.49760464]
- [-1402.18244698]
- [-1203.69129954]
+          <t>[[-1246.78305078]
+ [-1446.48399981]
+ [-1591.66958163]
+ [-1708.81406164]
+ [-1847.17223036]
+ [-1963.54487504]
+ [-2065.00945692]
+ [-1709.42839836]
+ [-1385.52219487]
+ [-1084.0713091 ]
+ [-1060.5672786 ]
+ [-1034.9627571 ]
  [-1007.39469272]]</t>
         </is>
       </c>
@@ -21003,24 +21003,24 @@
       </c>
       <c r="D823" t="inlineStr">
         <is>
-          <t>[[-44343740.15067592]
- [-41961055.6125307 ]
- [-39458347.84893215]
- [-37705991.79761501]
- [-35937751.23519944]
- [-34136004.35529906]
- [-32279539.91837709]
- [-30341328.47560496]
- [-28285309.9220351 ]
- [-27208848.87419012]
- [-26101553.53170824]
- [-24956294.46322261]
- [-23995132.80360328]
- [-23244290.1788196 ]
- [-22504094.48372472]
- [-22136913.68420447]
- [-21770207.06311811]
- [-21403980.24682099]]</t>
+          <t>[[-41816667.59630071]
+ [-39274320.87933679]
+ [-36595514.62690829]
+ [-34714278.38665088]
+ [-32815003.01891976]
+ [-30877697.36892555]
+ [-28878365.28076517]
+ [-26786466.15722359]
+ [-24561245.5145147 ]
+ [-23383994.45893836]
+ [-22150837.84635697]
+ [-20850520.09880878]
+ [-19756874.72249306]
+ [-18906336.2388129 ]
+ [-18055355.32330915]
+ [-17629738.29190804]
+ [-17204051.00499037]
+ [-16778299.8687938 ]]</t>
         </is>
       </c>
       <c r="E823" t="inlineStr"/>
@@ -21043,24 +21043,24 @@
       </c>
       <c r="D824" t="inlineStr">
         <is>
-          <t>[[ -5071530.76954904]
- [-11757769.1637948 ]
- [-11495512.73689797]
- [  2938425.00868529]
- [  2938725.75229176]
- [  2939033.26201806]
- [  2939358.31769071]
- [  2939715.28896778]
- [  2940124.54134488]
- [  2939095.12186776]
- [  2939211.31068241]
- [  2939342.95628316]
- [  2939258.14338768]
- [  2938895.67181086]
- [  2938934.68082561]
- [  2938339.78609694]
- [  2938352.92692273]
- [  2938365.90648313]]</t>
+          <t>[[ -5078182.20680049]
+ [-11162845.32502018]
+ [-10531514.52079851]
+ [  2938359.42833771]
+ [  2938625.13144949]
+ [  2938897.86780649]
+ [  2939187.68687883]
+ [  2939507.97305019]
+ [  2939877.74122139]
+ [  2938963.90953056]
+ [  2939090.32890072]
+ [  2939234.16883282]
+ [  2939159.52224369]
+ [  2938802.62443647]
+ [  2938846.20614075]
+ [  2938295.40309895]
+ [  2938305.86374735]
+ [  2938316.18941484]]</t>
         </is>
       </c>
       <c r="E824" t="inlineStr"/>
@@ -21083,24 +21083,24 @@
       </c>
       <c r="D825" t="inlineStr">
         <is>
-          <t>[[-21618.85830093]
- [-50516.07893623]
- [-50880.66440748]
- [  8741.15954597]
- [  8742.45515503]
- [  8743.79312706]
- [  8745.22097733]
- [  8746.80281721]
- [  8748.63034301]
- [  8744.18810378]
- [  8744.71500077]
- [  8745.31394243]
- [  8744.96475097]
- [  8743.38723401]
- [  8743.57962681]
- [  8740.94920127]
- [  8741.01322255]
- [  8741.07678812]]</t>
+          <t>[[-21668.86051705]
+ [-48044.01252842]
+ [-46818.23703288]
+ [  8740.8817212 ]
+ [  8742.02685805]
+ [  8743.21393831]
+ [  8744.48727476]
+ [  8745.90660182]
+ [  8747.55754737]
+ [  8743.61523344]
+ [  8744.18465084]
+ [  8744.83410871]
+ [  8744.52637838]
+ [  8742.97104285]
+ [  8743.17935343]
+ [  8740.74656483]
+ [  8740.79727512]
+ [  8740.84757321]]</t>
         </is>
       </c>
       <c r="E825" t="inlineStr"/>
@@ -21123,24 +21123,24 @@
       </c>
       <c r="D826" t="inlineStr">
         <is>
-          <t>[[ -287288.46776055]
- [-1143925.7000077 ]
- [-2134180.39191294]
- [-2438160.26247003]
- [-2378683.08480909]
- [-2318926.36561652]
- [-2258933.01939648]
- [-2198746.90535578]
- [-2138413.90189641]
- [-2108226.79283695]
- [-2078021.87970399]
- [-2047803.12007124]
- [-2017575.66893537]
- [-1987334.66222497]
- [-1957072.77786385]
- [-1941939.24514394]
- [-1926801.47128652]
- [-1911659.87600171]]</t>
+          <t>[[ -323367.80621993]
+ [-1175946.85874431]
+ [-2118357.80616292]
+ [-2433751.7342214 ]
+ [-2374553.68238094]
+ [-2315154.48791798]
+ [-2255590.98778429]
+ [-2195900.96380984]
+ [-2136124.1470907 ]
+ [-2106234.29136752]
+ [-2076341.59026276]
+ [-2046451.96518472]
+ [-2016572.48624608]
+ [-1986700.14623783]
+ [-1956829.44915064]
+ [-1941900.01389477]
+ [-1926972.31105308]
+ [-1912046.67966512]]</t>
         </is>
       </c>
       <c r="E826" t="inlineStr"/>
@@ -21163,24 +21163,24 @@
       </c>
       <c r="D827" t="inlineStr">
         <is>
-          <t>[[6.83026425e+07]
- [2.70301383e+08]
- [4.99748936e+08]
- [5.65724592e+08]
- [5.45851431e+08]
- [5.25914488e+08]
- [5.05924455e+08]
- [4.85892109e+08]
- [4.65828546e+08]
- [4.55793105e+08]
- [4.45754338e+08]
- [4.35713212e+08]
- [4.25670952e+08]
- [4.15626508e+08]
- [4.05578286e+08]
- [4.00553959e+08]
- [3.95528930e+08]
- [3.90503297e+08]]</t>
+          <t>[[7.68539669e+07]
+ [2.77737456e+08]
+ [4.95781386e+08]
+ [5.64431410e+08]
+ [5.44623987e+08]
+ [5.24770772e+08]
+ [5.04880844e+08]
+ [4.84963382e+08]
+ [4.65027886e+08]
+ [4.55060591e+08]
+ [4.45093169e+08]
+ [4.35126984e+08]
+ [4.25163643e+08]
+ [4.15202456e+08]
+ [4.05242175e+08]
+ [4.00263569e+08]
+ [3.95285486e+08]
+ [3.90308002e+08]]</t>
         </is>
       </c>
       <c r="E827" t="inlineStr"/>
@@ -21203,24 +21203,24 @@
       </c>
       <c r="D828" t="inlineStr">
         <is>
-          <t>[[1022561.60576632]
- [2234712.16999949]
- [3861207.29592936]
- [6203619.33921979]
- [6203575.32478702]
- [6203530.91201148]
- [6203485.65831418]
- [6203439.03099028]
- [6203390.3512405 ]
- [6203343.15894746]
- [6203324.66926664]
- [6203304.90582395]
- [6203284.10701434]
- [6203268.10434553]
- [6203257.31623062]
- [6203242.30042478]
- [6203233.15893923]
- [6203224.00386856]]</t>
+          <t>[[1023007.82974812]
+ [2235457.23019551]
+ [3861886.48813949]
+ [6203489.70891149]
+ [6203445.4266583 ]
+ [6203400.72042499]
+ [6203355.11967693]
+ [6203308.05963918]
+ [6203258.82153407]
+ [6203206.44622975]
+ [6203178.73747807]
+ [6203149.71315252]
+ [6203119.10837574]
+ [6203093.36815293]
+ [6203073.3498828 ]
+ [6203053.32132894]
+ [6203043.30412152]
+ [6203033.28529286]]</t>
         </is>
       </c>
       <c r="E828" t="inlineStr"/>
@@ -21272,11 +21272,11 @@
       </c>
       <c r="D830" t="inlineStr">
         <is>
-          <t>[12.11186105 12.11186105 12.11186105 12.11186105 12.11186105 12.11186105
- 12.11186105 12.11186105 12.11186105 12.11186105 11.96217728 11.81249351
- 11.66280973 11.49643613 11.33006253 11.16368893 11.14764377 11.13159861
- 11.11555345 11.11555345 11.11555345 11.11555345 11.11555345 11.11555345
- 11.11555345 10.72360901 10.33166457  9.93972013  8.62614676  7.31257338
+          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963 10.87509061  8.83187159  6.78865256  6.52543504  6.26221752
   5.999     ]</t>
         </is>
       </c>
@@ -21303,8 +21303,8 @@
           <t>[0.077      0.077      0.077      0.077      0.077      0.077
  0.077      0.077      0.077      0.077      0.077      0.077
  0.077      0.077      0.077      0.077      0.077      0.077
- 0.06905694 0.06905694 0.06905694 0.0345724  0.0345724  0.0345724
- 0.01219576 0.01219576 0.01219576 0.01140427 0.01140427 0.01140427]</t>
+ 0.02601662 0.02601662 0.02601662 0.02       0.02       0.02
+ 0.02       0.02       0.02       0.02       0.02       0.02      ]</t>
         </is>
       </c>
       <c r="E831" t="inlineStr"/>
@@ -21452,11 +21452,11 @@
       </c>
       <c r="D837" t="inlineStr">
         <is>
-          <t>[3.11505311 3.11505311 3.11505311 3.11505311 3.11505311 3.11505311
- 3.11505311 3.11505311 3.11505311 3.09568135 3.05693783 3.01819431
- 2.97729082 2.93422738 2.89116393 2.86755568 2.86340261 2.85924955
- 2.5642805  2.5642805  2.5642805  1.28777924 1.28777924 1.28777924
- 0.44716025 0.43109206 0.41502386 0.35542864 0.30507216 0.25471568]</t>
+          <t>[3.32379089 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089
+ 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089
+ 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089
+ 1.12749527 1.12749527 1.12749527 0.86715442 0.86715442 0.86715442
+ 0.79847153 0.66110575 0.52373996 0.446209   0.42851287 0.41081673]</t>
         </is>
       </c>
       <c r="E837" t="inlineStr"/>
@@ -21479,11 +21479,11 @@
       </c>
       <c r="D838" t="inlineStr">
         <is>
-          <t>[1.77276002 1.77276002 1.77276002 1.77276002 1.77276002 1.77276002
- 1.77276002 1.77276002 1.77276002 1.76176785 1.73978354 1.71779927
- 1.69458941 1.67015397 1.64571859 1.63232264 1.62996608 1.62760953
- 1.45922069 1.45922069 1.45922069 0.73178436 0.73178436 0.73178436
- 0.25387466 0.24475646 0.23563826 0.20180411 0.17322838 0.14465268]</t>
+          <t>[1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
+ 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
+ 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
+ 0.64038852 0.64038852 0.64038852 0.49241973 0.49241973 0.49241973
+ 0.45344439 0.37549382 0.29754348 0.25354752 0.24350565 0.23346378]</t>
         </is>
       </c>
       <c r="E838" t="inlineStr"/>
@@ -21506,11 +21506,11 @@
       </c>
       <c r="D839" t="inlineStr">
         <is>
-          <t>[1.77276002 1.77276002 1.77276002 1.77276002 1.77276002 1.77276002
- 1.77276002 1.77276002 1.77276002 1.76176785 1.73978354 1.71779927
- 1.69458941 1.67015397 1.64571859 1.63232264 1.62996608 1.62760953
- 1.45922069 1.45922069 1.45922069 0.73178436 0.73178436 0.73178436
- 0.25387466 0.24475646 0.23563826 0.20180411 0.17322838 0.14465268]</t>
+          <t>[1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
+ 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
+ 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
+ 0.64038852 0.64038852 0.64038852 0.49241973 0.49241973 0.49241973
+ 0.45344439 0.37549382 0.29754348 0.25354752 0.24350565 0.23346378]</t>
         </is>
       </c>
       <c r="E839" t="inlineStr"/>
@@ -21533,11 +21533,11 @@
       </c>
       <c r="D840" t="inlineStr">
         <is>
-          <t>[56.39951998 56.39951998 56.39951998 56.39951998 56.39951998 56.39951998
- 56.39951998 56.39951998 56.39951998 55.3538734  53.30151355 51.30052225
- 49.24299957 47.13707097 45.09205732 43.99646838 43.80559187 43.61526824
- 39.1148469  39.1148469  39.1148469  19.7656947  19.7656947  19.7656947
-  6.64989932  5.95848161  5.31673232  3.81914221  2.41499661  1.40564679]</t>
+          <t>[68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
+ 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
+ 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
+ 23.42539084 23.42539084 23.42539084 18.03321239 18.03321239 18.03321239
+ 14.07869055  7.99092984  3.97312955  2.45698019  2.17609877  1.91748399]</t>
         </is>
       </c>
       <c r="E840" t="inlineStr"/>
@@ -21560,11 +21560,11 @@
       </c>
       <c r="D841" t="inlineStr">
         <is>
-          <t>[56.39951998 56.39951998 56.39951998 56.39951998 56.39951998 56.39951998
- 56.39951998 56.39951998 56.39951998 55.3538734  53.30151355 51.30052225
- 49.24299957 47.13707097 45.09205732 43.99646838 43.80559187 43.61526824
- 39.1148469  39.1148469  39.1148469  19.7656947  19.7656947  19.7656947
-  6.64989932  5.95848161  5.31673232  3.81914221  2.41499661  1.40564679]</t>
+          <t>[68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
+ 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
+ 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
+ 23.42539084 23.42539084 23.42539084 18.03321239 18.03321239 18.03321239
+ 14.07869055  7.99092984  3.97312955  2.45698019  2.17609877  1.91748399]</t>
         </is>
       </c>
       <c r="E841" t="inlineStr"/>
@@ -21587,12 +21587,12 @@
       </c>
       <c r="D842" t="inlineStr">
         <is>
-          <t>[112.79903997 112.79903997 112.79903997 112.79903997 112.79903997
- 112.79903997 112.79903997 112.79903997 112.79903997 110.7077468
- 106.6030271  102.6010445   98.48599915  94.27414194  90.18411463
-  87.99293676  87.61118373  87.23053647  78.22969381  78.22969381
-  78.22969381  39.5313894   39.5313894   39.5313894   13.29979863
-  11.91696322  10.63346464   7.63828443   4.82999322   2.81129359]</t>
+          <t>[137.02756889 137.02756889 137.02756889 137.02756889 137.02756889
+ 137.02756889 137.02756889 137.02756889 137.02756889 137.02756889
+ 137.02756889 137.02756889 137.02756889 137.02756889 137.02756889
+ 137.02756889 137.02756889 137.02756889  46.85078168  46.85078168
+  46.85078168  36.06642479  36.06642479  36.06642479  28.1573811
+  15.98185968   7.9462591    4.91396038   4.35219754   3.83496798]</t>
         </is>
       </c>
       <c r="E842" t="inlineStr"/>
@@ -21615,36 +21615,36 @@
       </c>
       <c r="D843" t="inlineStr">
         <is>
-          <t>[[-4.43437402e+07]
- [-4.19610556e+07]
- [-3.94583478e+07]
- [-3.77059918e+07]
- [-3.59377512e+07]
- [-3.41360044e+07]
- [-3.22795399e+07]
- [-3.03413285e+07]
- [-2.82853099e+07]
- [-2.72088489e+07]
- [-2.61015535e+07]
- [-2.49562945e+07]
- [-2.39951328e+07]
- [-2.32442902e+07]
- [-2.25040945e+07]
- [-2.21369137e+07]
- [-2.17702071e+07]
- [-2.14039802e+07]
- [-1.81333389e+07]
- [-1.58424018e+07]
- [-1.35498667e+07]
- [-1.18929650e+07]
- [-1.02343964e+07]
- [-8.57417374e+06]
- [-8.21723862e+06]
- [-7.87229100e+06]
- [-7.53989358e+06]
- [-7.27234188e+06]
- [-7.04170096e+06]
- [ 6.49015419e-09]]</t>
+          <t>[[-4.18166676e+07]
+ [-3.92743209e+07]
+ [-3.65955146e+07]
+ [-3.47142784e+07]
+ [-3.28150030e+07]
+ [-3.08776974e+07]
+ [-2.88783653e+07]
+ [-2.67864662e+07]
+ [-2.45612455e+07]
+ [-2.33839945e+07]
+ [-2.21508378e+07]
+ [-2.08505201e+07]
+ [-1.97568747e+07]
+ [-1.89063362e+07]
+ [-1.80553553e+07]
+ [-1.76297383e+07]
+ [-1.72040510e+07]
+ [-1.67782999e+07]
+ [-1.47817842e+07]
+ [-1.37647536e+07]
+ [-1.27457404e+07]
+ [-1.16182234e+07]
+ [-1.04886081e+07]
+ [-9.35690093e+06]
+ [-8.72909816e+06]
+ [-8.20713716e+06]
+ [-7.79311394e+06]
+ [-7.46466447e+06]
+ [-7.15028496e+06]
+ [ 1.90048013e-08]]</t>
         </is>
       </c>
       <c r="E843" t="inlineStr"/>
@@ -21667,36 +21667,36 @@
       </c>
       <c r="D844" t="inlineStr">
         <is>
-          <t>[[-5.07153077e+06]
- [-1.17577692e+07]
- [-1.14955127e+07]
- [ 2.93842501e+06]
- [ 2.93872575e+06]
- [ 2.93903326e+06]
- [ 2.93935832e+06]
- [ 2.93971529e+06]
- [ 2.94012454e+06]
- [ 2.93909512e+06]
- [ 2.93921131e+06]
- [ 2.93934296e+06]
- [ 2.93925814e+06]
- [ 2.93889567e+06]
- [ 2.93893468e+06]
- [ 2.93833979e+06]
- [ 2.93835293e+06]
- [ 2.93836591e+06]
- [ 2.94216586e+06]
- [ 2.94277151e+06]
- [ 2.94332048e+06]
- [ 2.94243765e+06]
- [ 2.94326157e+06]
- [ 2.94391298e+06]
- [ 2.93920374e+06]
- [ 2.93929867e+06]
- [ 2.93935224e+06]
- [ 2.93910019e+06]
- [ 2.93894148e+06]
- [ 1.00592027e+03]]</t>
+          <t>[[-5.07818221e+06]
+ [-1.11628453e+07]
+ [-1.05315145e+07]
+ [ 2.93835943e+06]
+ [ 2.93862513e+06]
+ [ 2.93889787e+06]
+ [ 2.93918769e+06]
+ [ 2.93950797e+06]
+ [ 2.93987774e+06]
+ [ 2.93896391e+06]
+ [ 2.93909033e+06]
+ [ 2.93923417e+06]
+ [ 2.93915952e+06]
+ [ 2.93880262e+06]
+ [ 2.93884621e+06]
+ [ 2.93829540e+06]
+ [ 2.93830586e+06]
+ [ 2.93831619e+06]
+ [ 2.93942342e+06]
+ [ 2.93987293e+06]
+ [ 2.94028250e+06]
+ [ 2.94112359e+06]
+ [ 2.94174247e+06]
+ [ 2.94223356e+06]
+ [ 2.94040217e+06]
+ [ 2.94008760e+06]
+ [ 2.93974271e+06]
+ [ 2.93944031e+06]
+ [ 2.93941838e+06]
+ [ 1.61033438e+03]]</t>
         </is>
       </c>
       <c r="E844" t="inlineStr"/>
@@ -21719,36 +21719,36 @@
       </c>
       <c r="D845" t="inlineStr">
         <is>
-          <t>[[-2.16188583e+04]
- [-5.05160789e+04]
- [-5.08806644e+04]
- [ 8.74115955e+03]
- [ 8.74245516e+03]
- [ 8.74379313e+03]
- [ 8.74522098e+03]
- [ 8.74680282e+03]
- [ 8.74863034e+03]
- [ 8.74418810e+03]
- [ 8.74471500e+03]
- [ 8.74531394e+03]
- [ 8.74496475e+03]
- [ 8.74338723e+03]
- [ 8.74357963e+03]
- [ 8.74094920e+03]
- [ 8.74101322e+03]
- [ 8.74107679e+03]
- [ 8.75821492e+03]
- [ 8.76129144e+03]
- [ 8.76420185e+03]
- [ 8.76073543e+03]
- [ 8.76578210e+03]
- [ 8.77031211e+03]
- [ 8.74631311e+03]
- [ 8.74747891e+03]
- [ 8.74855253e+03]
- [ 8.74778166e+03]
- [ 8.74787915e+03]
- [ 8.74057380e+00]]</t>
+          <t>[[-2.16688605e+04]
+ [-4.80440125e+04]
+ [-4.68182370e+04]
+ [ 8.74088172e+03]
+ [ 8.74202686e+03]
+ [ 8.74321394e+03]
+ [ 8.74448727e+03]
+ [ 8.74590660e+03]
+ [ 8.74755755e+03]
+ [ 8.74361523e+03]
+ [ 8.74418465e+03]
+ [ 8.74483411e+03]
+ [ 8.74452638e+03]
+ [ 8.74297104e+03]
+ [ 8.74317935e+03]
+ [ 8.74074656e+03]
+ [ 8.74079728e+03]
+ [ 8.74084757e+03]
+ [ 8.74587491e+03]
+ [ 8.74815951e+03]
+ [ 8.75033110e+03]
+ [ 8.75480691e+03]
+ [ 8.75859562e+03]
+ [ 8.76200471e+03]
+ [ 8.75287222e+03]
+ [ 8.75175334e+03]
+ [ 8.75080727e+03]
+ [ 8.75043594e+03]
+ [ 8.75236411e+03]
+ [ 1.47156308e+01]]</t>
         </is>
       </c>
       <c r="E845" t="inlineStr"/>
@@ -21771,36 +21771,36 @@
       </c>
       <c r="D846" t="inlineStr">
         <is>
-          <t>[[-2.87288468e+05]
- [-1.14392570e+06]
- [-2.13418039e+06]
- [-2.43816026e+06]
- [-2.37868308e+06]
- [-2.31892637e+06]
- [-2.25893302e+06]
- [-2.19874691e+06]
- [-2.13841390e+06]
- [-2.10822679e+06]
- [-2.07802188e+06]
- [-2.04780312e+06]
- [-2.01757567e+06]
- [-1.98733466e+06]
- [-1.95707278e+06]
- [-1.94193925e+06]
- [-1.92680147e+06]
- [-1.91165988e+06]
- [-1.80602993e+06]
- [-1.70029791e+06]
- [-1.59463880e+06]
- [-1.44354807e+06]
- [-1.29200561e+06]
- [-1.14045891e+06]
- [-1.04957357e+06]
- [-9.58174805e+05]
- [-8.66295986e+05]
- [-7.80078319e+05]
- [-6.93212345e+05]
- [-1.91398111e-04]]</t>
+          <t>[[-3.23367806e+05]
+ [-1.17594686e+06]
+ [-2.11835781e+06]
+ [-2.43375173e+06]
+ [-2.37455368e+06]
+ [-2.31515449e+06]
+ [-2.25559099e+06]
+ [-2.19590096e+06]
+ [-2.13612415e+06]
+ [-2.10623429e+06]
+ [-2.07634159e+06]
+ [-2.04645197e+06]
+ [-2.01657249e+06]
+ [-1.98670015e+06]
+ [-1.95682945e+06]
+ [-1.94190001e+06]
+ [-1.92697231e+06]
+ [-1.91204668e+06]
+ [-1.80778382e+06]
+ [-1.70292833e+06]
+ [-1.59763026e+06]
+ [-1.44641987e+06]
+ [-1.29447519e+06]
+ [-1.14217232e+06]
+ [-1.05082177e+06]
+ [-9.59320976e+05]
+ [-8.67356821e+05]
+ [-7.80771205e+05]
+ [-6.93324245e+05]
+ [-3.66747129e-04]]</t>
         </is>
       </c>
       <c r="E846" t="inlineStr"/>
@@ -21823,36 +21823,36 @@
       </c>
       <c r="D847" t="inlineStr">
         <is>
-          <t>[[ 6.83026425e+07]
- [ 2.70301383e+08]
- [ 4.99748936e+08]
- [ 5.65724592e+08]
- [ 5.45851431e+08]
- [ 5.25914488e+08]
- [ 5.05924455e+08]
- [ 4.85892109e+08]
- [ 4.65828546e+08]
- [ 4.55793105e+08]
- [ 4.45754338e+08]
- [ 4.35713212e+08]
- [ 4.25670952e+08]
- [ 4.15626508e+08]
- [ 4.05578286e+08]
- [ 4.00553959e+08]
- [ 3.95528930e+08]
- [ 3.90503297e+08]
- [ 3.55464951e+08]
- [ 3.20418231e+08]
- [ 2.85401504e+08]
- [ 2.35382349e+08]
- [ 1.85324039e+08]
- [ 1.35317765e+08]
- [ 1.05361356e+08]
- [ 7.53668751e+07]
- [ 4.53515489e+07]
- [ 1.73322866e+07]
- [-1.06794631e+07]
- [ 2.20271772e-02]]</t>
+          <t>[[ 7.68539669e+07]
+ [ 2.77737456e+08]
+ [ 4.95781386e+08]
+ [ 5.64431410e+08]
+ [ 5.44623987e+08]
+ [ 5.24770772e+08]
+ [ 5.04880844e+08]
+ [ 4.84963382e+08]
+ [ 4.65027886e+08]
+ [ 4.55060591e+08]
+ [ 4.45093169e+08]
+ [ 4.35126984e+08]
+ [ 4.25163643e+08]
+ [ 4.15202456e+08]
+ [ 4.05242175e+08]
+ [ 4.00263569e+08]
+ [ 3.95285486e+08]
+ [ 3.90308002e+08]
+ [ 3.55574078e+08]
+ [ 3.20728052e+08]
+ [ 2.85805107e+08]
+ [ 2.35788418e+08]
+ [ 1.85675068e+08]
+ [ 1.35546792e+08]
+ [ 1.05505570e+08]
+ [ 7.54732669e+07]
+ [ 4.54307511e+07]
+ [ 1.73772073e+07]
+ [-1.06682029e+07]
+ [ 4.01331964e-02]]</t>
         </is>
       </c>
       <c r="E847" t="inlineStr"/>
@@ -21875,35 +21875,35 @@
       </c>
       <c r="D848" t="inlineStr">
         <is>
-          <t>[[1022561.60576632]
- [2234712.16999949]
- [3861207.29592936]
- [6203619.33921979]
- [6203575.32478702]
- [6203530.91201148]
- [6203485.65831418]
- [6203439.03099028]
- [6203390.3512405 ]
- [6203343.15894746]
- [6203324.66926664]
- [6203304.90582395]
- [6203284.10701434]
- [6203268.10434553]
- [6203257.31623062]
- [6203242.30042478]
- [6203233.15893923]
- [6203224.00386856]
- [6203251.43179612]
- [6203181.56731522]
- [6203111.67607093]
- [6203451.50608727]
- [6203350.84395931]
- [6203250.08383279]
- [6204128.56072882]
- [6204119.69636144]
- [6204112.40598269]
- [6204288.11129269]
- [6204493.51553331]
+          <t>[[1023007.82974812]
+ [2235457.23019551]
+ [3861886.48813949]
+ [6203489.70891149]
+ [6203445.4266583 ]
+ [6203400.72042499]
+ [6203355.11967693]
+ [6203308.05963918]
+ [6203258.82153407]
+ [6203206.44622975]
+ [6203178.73747807]
+ [6203149.71315252]
+ [6203119.10837574]
+ [6203093.36815293]
+ [6203073.3498828 ]
+ [6203053.32132894]
+ [6203043.30412152]
+ [6203033.28529286]
+ [6203724.52230909]
+ [6203654.02380414]
+ [6203583.44723734]
+ [6203778.2816089 ]
+ [6203676.54362904]
+ [6203574.61966567]
+ [6203545.12933958]
+ [6203661.33953819]
+ [6203854.33007697]
+ [6203994.78189874]
+ [6203991.2422785 ]
  [      0.        ]]</t>
         </is>
       </c>
@@ -22049,7 +22049,7 @@
       </c>
       <c r="D853" t="inlineStr">
         <is>
-          <t>[12.11186105]</t>
+          <t>[12.91830963]</t>
         </is>
       </c>
       <c r="E853" t="inlineStr"/>
@@ -27187,7 +27187,7 @@
       </c>
       <c r="D1002" t="inlineStr">
         <is>
-          <t>[3646837.66209974]</t>
+          <t>[2648516.35740918]</t>
         </is>
       </c>
       <c r="E1002" t="inlineStr"/>
@@ -27210,7 +27210,7 @@
       </c>
       <c r="D1003" t="inlineStr">
         <is>
-          <t>[1363521.1641994]</t>
+          <t>[890192.45540134]</t>
         </is>
       </c>
       <c r="E1003" t="inlineStr"/>
@@ -27233,7 +27233,7 @@
       </c>
       <c r="D1004" t="inlineStr">
         <is>
-          <t>[16927872.15154383]</t>
+          <t>[15929550.84685328]</t>
         </is>
       </c>
       <c r="E1004" t="inlineStr"/>
@@ -27256,7 +27256,7 @@
       </c>
       <c r="D1005" t="inlineStr">
         <is>
-          <t>[1128.5248101]</t>
+          <t>[1061.97005646]</t>
         </is>
       </c>
       <c r="E1005" t="inlineStr"/>
@@ -27279,7 +27279,7 @@
       </c>
       <c r="D1006" t="inlineStr">
         <is>
-          <t>[2311916.36645306]</t>
+          <t>[1838587.65765499]</t>
         </is>
       </c>
       <c r="E1006" t="inlineStr"/>
@@ -27348,7 +27348,7 @@
       </c>
       <c r="D1009" t="inlineStr">
         <is>
-          <t>[3646837.66209974]</t>
+          <t>[2648516.35740918]</t>
         </is>
       </c>
       <c r="E1009" t="inlineStr"/>
@@ -27371,7 +27371,7 @@
       </c>
       <c r="D1010" t="inlineStr">
         <is>
-          <t>[3646837.66209974]</t>
+          <t>[2648516.35740918]</t>
         </is>
       </c>
       <c r="E1010" t="inlineStr"/>
@@ -27421,7 +27421,7 @@
       </c>
       <c r="D1012" t="inlineStr">
         <is>
-          <t>[0.31557146]</t>
+          <t>[0.28351821]</t>
         </is>
       </c>
       <c r="E1012" t="inlineStr"/>
@@ -27569,9 +27569,9 @@
       </c>
       <c r="D1017" t="inlineStr">
         <is>
-          <t>[1058.62612625 1220.20669547 1336.59589005 1429.92909802 1539.57410864
- 1631.35079773 1711.06902513 1681.42732924 1646.94911602 1608.49760464
- 1402.18244698 1203.69129954 1007.39469272]</t>
+          <t>[1246.78305078 1446.48399981 1591.66958163 1708.81406164 1847.17223036
+ 1963.54487504 2065.00945692 1709.42839836 1385.52219487 1084.0713091
+ 1060.5672786  1034.9627571  1007.39469272]</t>
         </is>
       </c>
       <c r="E1017" t="inlineStr"/>
@@ -27809,8 +27809,8 @@
       </c>
       <c r="D1027" t="inlineStr">
         <is>
-          <t>[11.11555345 11.11555345 11.11555345 11.11555345 11.11555345 11.11555345
- 11.11555345 10.72360901 10.33166457  9.93972013  8.62614676  7.31257338
+          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963 10.87509061  8.83187159  6.78865256  6.52543504  6.26221752
   5.999     ]</t>
         </is>
       </c>
@@ -27905,9 +27905,9 @@
       </c>
       <c r="D1031" t="inlineStr">
         <is>
-          <t>[1058.62612625 1220.20669547 1336.59589005 1429.92909802 1539.57410864
- 1631.35079773 1711.06902513 1681.42732924 1646.94911602 1608.49760464
- 1402.18244698 1203.69129954 1007.39469272]</t>
+          <t>[1246.78305078 1446.48399981 1591.66958163 1708.81406164 1847.17223036
+ 1963.54487504 2065.00945692 1709.42839836 1385.52219487 1084.0713091
+ 1060.5672786  1034.9627571  1007.39469272]</t>
         </is>
       </c>
       <c r="E1031" t="inlineStr"/>
@@ -28047,9 +28047,9 @@
       </c>
       <c r="D1037" t="inlineStr">
         <is>
-          <t>[-1058.62612625 -1220.20669547 -1336.59589005 -1429.92909802
- -1539.57410864 -1631.35079773 -1711.06902513 -1681.42732924
- -1646.94911602 -1608.49760464 -1402.18244698 -1203.69129954
+          <t>[-1246.78305078 -1446.48399981 -1591.66958163 -1708.81406164
+ -1847.17223036 -1963.54487504 -2065.00945692 -1709.42839836
+ -1385.52219487 -1084.0713091  -1060.5672786  -1034.9627571
  -1007.39469272]</t>
         </is>
       </c>
@@ -28098,7 +28098,7 @@
       </c>
       <c r="D1039" t="inlineStr">
         <is>
-          <t>[11.11555345 11.11555345 11.11555345  9.93972013  5.999     ]</t>
+          <t>[12.91830963 12.91830963 12.91830963  6.78865256  5.999     ]</t>
         </is>
       </c>
       <c r="E1039" t="inlineStr"/>
@@ -28121,7 +28121,7 @@
       </c>
       <c r="D1040" t="inlineStr">
         <is>
-          <t>[0.06905694 0.0345724  0.01219576 0.01140427]</t>
+          <t>[0.02601662 0.02       0.02       0.02      ]</t>
         </is>
       </c>
       <c r="E1040" t="inlineStr"/>
@@ -28186,7 +28186,7 @@
       </c>
       <c r="D1043" t="inlineStr">
         <is>
-          <t>[11.11555345 11.11555345 11.11555345  9.93972013  5.999     ]</t>
+          <t>[12.91830963 12.91830963 12.91830963  6.78865256  5.999     ]</t>
         </is>
       </c>
       <c r="E1043" t="inlineStr"/>
@@ -28209,7 +28209,7 @@
       </c>
       <c r="D1044" t="inlineStr">
         <is>
-          <t>[0.06905694 0.0345724  0.01219576 0.01140427]</t>
+          <t>[0.02601662 0.02       0.02       0.02      ]</t>
         </is>
       </c>
       <c r="E1044" t="inlineStr"/>
@@ -28445,8 +28445,8 @@
       </c>
       <c r="D1054" t="inlineStr">
         <is>
-          <t>[0.06905694 0.06905694 0.06905694 0.0345724  0.0345724  0.0345724
- 0.01219576 0.01219576 0.01219576 0.01140427 0.01140427 0.01140427]</t>
+          <t>[0.02601662 0.02601662 0.02601662 0.02       0.02       0.02
+ 0.02       0.02       0.02       0.02       0.02       0.02      ]</t>
         </is>
       </c>
       <c r="E1054" t="inlineStr"/>
@@ -28629,8 +28629,8 @@
       </c>
       <c r="D1062" t="inlineStr">
         <is>
-          <t>[2.5642805  2.5642805  2.5642805  1.28777924 1.28777924 1.28777924
- 0.44716025 0.43109206 0.41502386 0.35542864 0.30507216 0.25471568]</t>
+          <t>[1.12749527 1.12749527 1.12749527 0.86715442 0.86715442 0.86715442
+ 0.79847153 0.66110575 0.52373996 0.446209   0.42851287 0.41081673]</t>
         </is>
       </c>
       <c r="E1062" t="inlineStr"/>
@@ -28653,8 +28653,8 @@
       </c>
       <c r="D1063" t="inlineStr">
         <is>
-          <t>[1.45922069 1.45922069 1.45922069 0.73178436 0.73178436 0.73178436
- 0.25387466 0.24475646 0.23563826 0.20180411 0.17322838 0.14465268]</t>
+          <t>[0.64038852 0.64038852 0.64038852 0.49241973 0.49241973 0.49241973
+ 0.45344439 0.37549382 0.29754348 0.25354752 0.24350565 0.23346378]</t>
         </is>
       </c>
       <c r="E1063" t="inlineStr"/>
@@ -28677,8 +28677,8 @@
       </c>
       <c r="D1064" t="inlineStr">
         <is>
-          <t>[1.45922069 1.45922069 1.45922069 0.73178436 0.73178436 0.73178436
- 0.25387466 0.24475646 0.23563826 0.20180411 0.17322838 0.14465268]</t>
+          <t>[0.64038852 0.64038852 0.64038852 0.49241973 0.49241973 0.49241973
+ 0.45344439 0.37549382 0.29754348 0.25354752 0.24350565 0.23346378]</t>
         </is>
       </c>
       <c r="E1064" t="inlineStr"/>
@@ -28701,8 +28701,8 @@
       </c>
       <c r="D1065" t="inlineStr">
         <is>
-          <t>[39.1148469  39.1148469  39.1148469  19.7656947  19.7656947  19.7656947
-  6.64989932  5.95848161  5.31673232  3.81914221  2.41499661  1.40564679]</t>
+          <t>[23.42539084 23.42539084 23.42539084 18.03321239 18.03321239 18.03321239
+ 14.07869055  7.99092984  3.97312955  2.45698019  2.17609877  1.91748399]</t>
         </is>
       </c>
       <c r="E1065" t="inlineStr"/>
@@ -28725,8 +28725,8 @@
       </c>
       <c r="D1066" t="inlineStr">
         <is>
-          <t>[39.1148469  39.1148469  39.1148469  19.7656947  19.7656947  19.7656947
-  6.64989932  5.95848161  5.31673232  3.81914221  2.41499661  1.40564679]</t>
+          <t>[23.42539084 23.42539084 23.42539084 18.03321239 18.03321239 18.03321239
+ 14.07869055  7.99092984  3.97312955  2.45698019  2.17609877  1.91748399]</t>
         </is>
       </c>
       <c r="E1066" t="inlineStr"/>
@@ -28749,8 +28749,8 @@
       </c>
       <c r="D1067" t="inlineStr">
         <is>
-          <t>[78.22969381 78.22969381 78.22969381 39.5313894  39.5313894  39.5313894
- 13.29979863 11.91696322 10.63346464  7.63828443  4.82999322  2.81129359]</t>
+          <t>[46.85078168 46.85078168 46.85078168 36.06642479 36.06642479 36.06642479
+ 28.1573811  15.98185968  7.9462591   4.91396038  4.35219754  3.83496798]</t>
         </is>
       </c>
       <c r="E1067" t="inlineStr"/>
@@ -28844,17 +28844,17 @@
       </c>
       <c r="D1071" t="inlineStr">
         <is>
-          <t>[[-18135640.45889496]
- [-15843105.35825697]
- [-13549364.65116301]
- [-11890796.07870679]
- [-10230573.37766991]
- [ -8568942.31262778]
- [ -8211760.44915037]
- [ -7867128.76630011]
- [ -7535090.69704921]
- [ -7268664.65287872]
- [ -7039885.37762156]
+          <t>[[-14781607.61805424]
+ [-13762594.37474667]
+ [-12742073.10375252]
+ [-11612457.84998246]
+ [-10480750.67711409]
+ [ -9347254.56694155]
+ [ -8720703.91903967]
+ [ -8202090.99839579]
+ [ -7791149.13397046]
+ [ -7464194.09425032]
+ [ -7150040.42249746]
  [ -6848706.78611806]]</t>
         </is>
       </c>
@@ -28878,18 +28878,18 @@
       </c>
       <c r="D1072" t="inlineStr">
         <is>
-          <t>[[2938083.50667655]
- [2938728.77378512]
- [2939316.2512196 ]
- [2939603.5248539 ]
- [2940515.13946386]
- [2941255.73491422]
- [2938660.76515943]
- [2938808.69788188]
- [2938920.09060196]
- [2938789.54506018]
- [2938718.50729666]
- [2938594.63983278]]</t>
+          <t>[[2937996.32859235]
+ [2938477.5271477 ]
+ [2938916.56257145]
+ [2939665.20943868]
+ [2940351.44462232]
+ [2940909.88414805]
+ [2939698.04303113]
+ [2939525.78998292]
+ [2939347.77168919]
+ [2939200.0017046 ]
+ [2939284.25483703]
+ [2939278.58814025]]</t>
         </is>
       </c>
       <c r="E1072" t="inlineStr"/>
@@ -28912,18 +28912,18 @@
       </c>
       <c r="D1073" t="inlineStr">
         <is>
-          <t>[[8739.8969871 ]
- [8743.08559229]
- [8746.10294489]
- [8747.83312258]
- [8753.13980924]
- [8757.93611837]
- [8743.74007374]
- [8745.09233951]
- [8746.37451791]
- [8746.13237269]
- [8746.56591426]
- [8747.13525406]]</t>
+          <t>[[8739.47587932]
+ [8741.85440501]
+ [8744.10956291]
+ [8748.08471614]
+ [8752.07687573]
+ [8755.6886084 ]
+ [8749.44990145]
+ [8748.94881462]
+ [8748.72501776]
+ [8749.00798024]
+ [8751.32702121]
+ [8753.47008982]]</t>
         </is>
       </c>
       <c r="E1073" t="inlineStr"/>
@@ -28946,18 +28946,18 @@
       </c>
       <c r="D1074" t="inlineStr">
         <is>
-          <t>[[-1872900.91524215]
- [-1770516.76256794]
- [-1667763.3748648 ]
- [-1520176.63950922]
- [-1371646.56335047]
- [-1222636.323986  ]
- [-1132985.89339216]
- [-1042717.4986719 ]
- [ -951863.33241322]
- [ -866497.50215565]
- [ -780361.39215262]
- [ -693050.82302048]]</t>
+          <t>[[-1880858.33404185]
+ [-1778134.39985465]
+ [-1674791.6647656 ]
+ [-1526110.82723788]
+ [-1376402.42998317]
+ [-1226054.70072509]
+ [-1135720.0120295 ]
+ [-1045131.38826278]
+ [ -953958.42960266]
+ [ -867974.32070463]
+ [ -780980.96311697]
+ [ -693051.0995674 ]]</t>
         </is>
       </c>
       <c r="E1074" t="inlineStr"/>
@@ -28980,18 +28980,18 @@
       </c>
       <c r="D1075" t="inlineStr">
         <is>
-          <t>[[ 3.79004267e+08]
- [ 3.44700955e+08]
- [ 3.10327083e+08]
- [ 2.61077580e+08]
- [ 2.11673556e+08]
- [ 1.62211705e+08]
- [ 1.32515661e+08]
- [ 1.02753287e+08]
- [ 7.29413488e+07]
- [ 4.50831207e+07]
- [ 1.71972065e+07]
- [-1.06981122e+07]]</t>
+          <t>[[ 3.80487292e+08]
+ [ 3.46112971e+08]
+ [ 3.11619262e+08]
+ [ 2.62151223e+08]
+ [ 2.12514797e+08]
+ [ 1.62795914e+08]
+ [ 1.32963653e+08]
+ [ 1.03114736e+08]
+ [ 7.32233168e+07]
+ [ 4.52718456e+07]
+ [ 1.72851413e+07]
+ [-1.06981113e+07]]</t>
         </is>
       </c>
       <c r="E1075" t="inlineStr"/>
@@ -29014,18 +29014,18 @@
       </c>
       <c r="D1076" t="inlineStr">
         <is>
-          <t>[[6203251.53035086]
- [6203181.63753003]
- [6203111.69753537]
- [6203451.47558719]
- [6203350.71219158]
- [6203249.85158057]
- [6204127.64520492]
- [6204118.70192493]
- [6204111.43261997]
- [6204287.05378327]
- [6204492.57216358]
- [6204790.94242566]]</t>
+          <t>[[6203724.58972019]
+ [6203654.01154777]
+ [6203583.29740007]
+ [6203777.95070021]
+ [6203676.02340468]
+ [6203573.91070994]
+ [6203544.18411451]
+ [6203660.3460613 ]
+ [6203853.57616639]
+ [6203994.43733098]
+ [6203991.15638176]
+ [6203990.03108128]]</t>
         </is>
       </c>
       <c r="E1076" t="inlineStr"/>
@@ -29319,18 +29319,18 @@
       </c>
       <c r="D1087" t="inlineStr">
         <is>
-          <t>[[-1058.62612625]
- [-1220.20669547]
- [-1336.59589005]
- [-1429.92909802]
- [-1539.57410864]
- [-1631.35079773]
- [-1711.06902513]
- [-1681.42732924]
- [-1646.94911602]
- [-1608.49760464]
- [-1402.18244698]
- [-1203.69129954]
+          <t>[[-1246.78305078]
+ [-1446.48399981]
+ [-1591.66958163]
+ [-1708.81406164]
+ [-1847.17223036]
+ [-1963.54487504]
+ [-2065.00945692]
+ [-1709.42839836]
+ [-1385.52219487]
+ [-1084.0713091 ]
+ [-1060.5672786 ]
+ [-1034.9627571 ]
  [-1007.39469272]]</t>
         </is>
       </c>
@@ -29354,7 +29354,7 @@
       </c>
       <c r="D1088" t="inlineStr">
         <is>
-          <t>[1363521.1641994]</t>
+          <t>[890192.45540134]</t>
         </is>
       </c>
       <c r="E1088" t="inlineStr"/>
@@ -29377,7 +29377,7 @@
       </c>
       <c r="D1089" t="inlineStr">
         <is>
-          <t>[44.30140045]</t>
+          <t>[58.94149564]</t>
         </is>
       </c>
       <c r="E1089" t="inlineStr"/>
@@ -29400,7 +29400,7 @@
       </c>
       <c r="D1090" t="inlineStr">
         <is>
-          <t>[4.26394410e+09 4.26394410e+09 4.05046763e+07 0.00000000e+00
+          <t>[4.43521749e+09 4.43521749e+09 3.17674160e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -30535,7 +30535,7 @@
       </c>
       <c r="D1122" t="inlineStr">
         <is>
-          <t>[0.08794541]</t>
+          <t>[0.08770709]</t>
         </is>
       </c>
       <c r="E1122" t="inlineStr">
@@ -30612,7 +30612,7 @@
       </c>
       <c r="D1125" t="inlineStr">
         <is>
-          <t>[-213.44845563]</t>
+          <t>[-212.38745267]</t>
         </is>
       </c>
       <c r="E1125" t="inlineStr">
@@ -30639,7 +30639,7 @@
       </c>
       <c r="D1126" t="inlineStr">
         <is>
-          <t>[-0.04794541]</t>
+          <t>[-0.04770709]</t>
         </is>
       </c>
       <c r="E1126" t="inlineStr">
@@ -30666,7 +30666,7 @@
       </c>
       <c r="D1127" t="inlineStr">
         <is>
-          <t>[0.11894541]</t>
+          <t>[0.11870709]</t>
         </is>
       </c>
       <c r="E1127" t="inlineStr">
@@ -30689,7 +30689,7 @@
       <c r="C1128" t="inlineStr"/>
       <c r="D1128" t="inlineStr">
         <is>
-          <t>[0.45482759]</t>
+          <t>[0.45606349]</t>
         </is>
       </c>
       <c r="E1128" t="inlineStr">
@@ -30712,7 +30712,7 @@
       <c r="C1129" t="inlineStr"/>
       <c r="D1129" t="inlineStr">
         <is>
-          <t>[2.19863529]</t>
+          <t>[2.19267715]</t>
         </is>
       </c>
       <c r="E1129" t="inlineStr">
@@ -30735,7 +30735,7 @@
       <c r="C1130" t="inlineStr"/>
       <c r="D1130" t="inlineStr">
         <is>
-          <t>[-0.54517241]</t>
+          <t>[-0.54393651]</t>
         </is>
       </c>
       <c r="E1130" t="inlineStr">
@@ -30758,7 +30758,7 @@
       <c r="C1131" t="inlineStr"/>
       <c r="D1131" t="inlineStr">
         <is>
-          <t>[-1.19863529]</t>
+          <t>[-1.19267715]</t>
         </is>
       </c>
       <c r="E1131" t="inlineStr">
@@ -30785,7 +30785,7 @@
       </c>
       <c r="D1132" t="inlineStr">
         <is>
-          <t>[0.15610311]</t>
+          <t>[0.15568008]</t>
         </is>
       </c>
       <c r="E1132" t="inlineStr">
@@ -30812,7 +30812,7 @@
       </c>
       <c r="D1133" t="inlineStr">
         <is>
-          <t>[7.31685334e+08]</t>
+          <t>[7.60250298e+08]</t>
         </is>
       </c>
       <c r="E1133" t="inlineStr">
@@ -30839,7 +30839,7 @@
       </c>
       <c r="D1134" t="inlineStr">
         <is>
-          <t>[2.04993533e+09]</t>
+          <t>[2.0785003e+09]</t>
         </is>
       </c>
       <c r="E1134" t="inlineStr">
@@ -30866,7 +30866,7 @@
       </c>
       <c r="D1135" t="inlineStr">
         <is>
-          <t>[3416.55889046]</t>
+          <t>[3464.16716261]</t>
         </is>
       </c>
       <c r="E1135" t="inlineStr">
@@ -30893,7 +30893,7 @@
       </c>
       <c r="D1136" t="inlineStr">
         <is>
-          <t>[9625.85465355]</t>
+          <t>[10329.18798688]</t>
         </is>
       </c>
       <c r="E1136" t="inlineStr">
@@ -30920,7 +30920,7 @@
       </c>
       <c r="D1137" t="inlineStr">
         <is>
-          <t>[2.27399708e+08]</t>
+          <t>[2.37532204e+08]</t>
         </is>
       </c>
       <c r="E1137" t="inlineStr">
@@ -34423,11 +34423,11 @@
       </c>
       <c r="D1291" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          24247.11758293
-  25419.45680455  29060.60430209  35572.88881567  45641.68090641
-  60344.7167887   81340.8022067   92702.80983411 106015.05336073
- 121697.97462647    761.39369247    886.21837616    963.07607596
-    998.44701584   1030.03618304   1058.62612625]</t>
+          <t>[     0.              0.              0.          27567.58323521
+  28898.60721297  33033.98623873  40422.94053529  51829.86773143
+  68473.56384445  92230.32452283 107649.77263452 126112.4806614
+ 148353.48280055    856.50407323   1015.96749656   1124.64457056
+   1169.39022896   1209.80273224   1246.78305078]</t>
         </is>
       </c>
       <c r="E1291" t="inlineStr"/>
@@ -34677,10 +34677,10 @@
       </c>
       <c r="D1301" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          24247.11758293
-  25419.45680455  29060.60430209  35572.88881567  45641.68090641
-  60344.7167887   81340.8022067   92702.80983411 106015.05336073
- 121697.97462647      0.              0.              0.
+          <t>[     0.              0.              0.          27567.58323521
+  28898.60721297  33033.98623873  40422.94053529  51829.86773143
+  68473.56384445  92230.32452283 107649.77263452 126112.4806614
+ 148353.48280055      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -34880,8 +34880,8 @@
         <is>
           <t>[   0.            0.            0.            0.            0.
     0.            0.            0.            0.            0.
-    0.            0.            0.          761.39369247  886.21837616
-  963.07607596  998.44701584 1030.03618304 1058.62612625]</t>
+    0.            0.            0.          856.50407323 1015.96749656
+ 1124.64457056 1169.39022896 1209.80273224 1246.78305078]</t>
         </is>
       </c>
       <c r="E1309" t="inlineStr"/>
@@ -35071,11 +35071,11 @@
       </c>
       <c r="D1317" t="inlineStr">
         <is>
-          <t>[      0.               0.               0.          -24247.11758293
-  -25419.45680455  -29060.60430209  -35572.88881567  -45641.68090641
-  -60344.7167887   -81340.8022067   -92702.80983411 -106015.05336073
- -121697.97462647    -761.39369247    -886.21837616    -963.07607596
-    -998.44701584   -1030.03618304   -1058.62612625]</t>
+          <t>[      0.               0.               0.          -27567.58323521
+  -28898.60721297  -33033.98623873  -40422.94053529  -51829.86773143
+  -68473.56384445  -92230.32452283 -107649.77263452 -126112.4806614
+ -148353.48280055    -856.50407323   -1015.96749656   -1124.64457056
+   -1169.39022896   -1209.80273224   -1246.78305078]</t>
         </is>
       </c>
       <c r="E1317" t="inlineStr"/>
@@ -35121,8 +35121,8 @@
       <c r="C1319" t="inlineStr"/>
       <c r="D1319" t="inlineStr">
         <is>
-          <t>[157.29689677 157.29689677 157.29689677 154.38097911 148.22401728
- 144.67040508]</t>
+          <t>[167.77025494 167.77025494 167.77025494 167.77025494 167.77025494
+ 167.77025494]</t>
         </is>
       </c>
       <c r="E1319" t="inlineStr"/>
@@ -35141,7 +35141,7 @@
       <c r="C1320" t="inlineStr"/>
       <c r="D1320" t="inlineStr">
         <is>
-          <t>[1.         1.         1.         0.96292466 0.95720407 0.99568821]</t>
+          <t>[1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="E1320" t="inlineStr"/>
@@ -35160,7 +35160,7 @@
       <c r="C1321" t="inlineStr"/>
       <c r="D1321" t="inlineStr">
         <is>
-          <t>[1.         1.         1.         0.96292466 0.95720407 0.99568821]</t>
+          <t>[1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="E1321" t="inlineStr"/>
@@ -35223,10 +35223,10 @@
       </c>
       <c r="D1324" t="inlineStr">
         <is>
-          <t>[6.05593053 6.05593053 6.05593053 6.05593053 6.05593053 6.05593053
- 6.05593053 6.05593053 6.05593053 6.05593053 5.98108864 5.90624675
- 5.83140487 5.74821807 5.66503127 5.58184446 5.57382189 5.56579931
- 5.55777673]</t>
+          <t>[6.45915482 6.45915482 6.45915482 6.45915482 6.45915482 6.45915482
+ 6.45915482 6.45915482 6.45915482 6.45915482 6.45915482 6.45915482
+ 6.45915482 6.45915482 6.45915482 6.45915482 6.45915482 6.45915482
+ 6.45915482]</t>
         </is>
       </c>
       <c r="E1324" t="inlineStr"/>
@@ -35249,7 +35249,7 @@
       </c>
       <c r="D1325" t="inlineStr">
         <is>
-          <t>[  0.           0.         -40.16855233]</t>
+          <t>[  0.   0. -40.]</t>
         </is>
       </c>
       <c r="E1325" t="inlineStr"/>
@@ -35272,7 +35272,7 @@
       </c>
       <c r="D1326" t="inlineStr">
         <is>
-          <t>[9175.06684751]</t>
+          <t>[10485.55077632]</t>
         </is>
       </c>
       <c r="E1326" t="inlineStr"/>
@@ -35295,7 +35295,7 @@
       </c>
       <c r="D1327" t="inlineStr">
         <is>
-          <t>[92223076.61074828]</t>
+          <t>[1.0539539e+08]</t>
         </is>
       </c>
       <c r="E1327" t="inlineStr"/>
@@ -35314,7 +35314,7 @@
       <c r="C1328" t="inlineStr"/>
       <c r="D1328" t="inlineStr">
         <is>
-          <t>[4.]</t>
+          <t>[5.]</t>
         </is>
       </c>
       <c r="E1328" t="inlineStr"/>
@@ -35337,7 +35337,7 @@
       </c>
       <c r="D1329" t="inlineStr">
         <is>
-          <t>[106.83074635]</t>
+          <t>[131.0693847]</t>
         </is>
       </c>
       <c r="E1329" t="inlineStr"/>
@@ -35360,7 +35360,7 @@
       </c>
       <c r="D1330" t="inlineStr">
         <is>
-          <t>[908.20243292]</t>
+          <t>[1367.07599464]</t>
         </is>
       </c>
       <c r="E1330" t="inlineStr"/>
@@ -35383,7 +35383,7 @@
       </c>
       <c r="D1331" t="inlineStr">
         <is>
-          <t>[908.20243292]</t>
+          <t>[1367.07599464]</t>
         </is>
       </c>
       <c r="E1331" t="inlineStr"/>
@@ -35406,8 +35406,8 @@
       </c>
       <c r="D1332" t="inlineStr">
         <is>
-          <t>[9.40444352e+06 9.40444352e+06 3.03532539e+05 4.98038354e+09
- 4.98038354e+09 0.00000000e+00]</t>
+          <t>[1.07476895e+07 1.07476895e+07 3.68289794e+05 5.73239058e+09
+ 5.73239058e+09 0.00000000e+00]</t>
         </is>
       </c>
       <c r="E1332" t="inlineStr"/>
@@ -35479,10 +35479,10 @@
       </c>
       <c r="D1335" t="inlineStr">
         <is>
-          <t>[12.11186105 12.11186105 12.11186105 12.11186105 12.11186105 12.11186105
- 12.11186105 12.11186105 12.11186105 12.11186105 11.96217728 11.81249351
- 11.66280973 11.49643613 11.33006253 11.16368893 11.14764377 11.13159861
- 11.11555345]</t>
+          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963]</t>
         </is>
       </c>
       <c r="E1335" t="inlineStr"/>
@@ -35736,8 +35736,8 @@
       </c>
       <c r="D1346" t="inlineStr">
         <is>
-          <t>[24297.41428608 24297.41428609 24297.41428608 23844.11507866
- 22886.97353897 22334.54038398]</t>
+          <t>[25925.56895576 25925.56895576 25925.56895576 25925.56895576
+ 25925.56895576 25925.56895576]</t>
         </is>
       </c>
       <c r="E1346" t="inlineStr">
@@ -35764,8 +35764,8 @@
       </c>
       <c r="D1347" t="inlineStr">
         <is>
-          <t>[439916.2558744  439916.25587441 439916.25587431 415751.80569218
- 367669.15358234 341683.6165591 ]</t>
+          <t>[534407.51865842 534407.51865842 534407.51865842 534407.51865842
+ 534407.51865842 534407.51865842]</t>
         </is>
       </c>
       <c r="E1347" t="inlineStr">
@@ -35792,8 +35792,8 @@
       </c>
       <c r="D1348" t="inlineStr">
         <is>
-          <t>[439916.2558744  439916.25587441 439916.25587431 415751.80569218
- 367669.15358234 341683.6165591 ]</t>
+          <t>[534407.51865842 534407.51865842 534407.51865842 534407.51865842
+ 534407.51865842 534407.51865842]</t>
         </is>
       </c>
       <c r="E1348" t="inlineStr">
@@ -35820,8 +35820,8 @@
       </c>
       <c r="D1349" t="inlineStr">
         <is>
-          <t>[1.05419664e+13 1.05419664e+13 1.05419664e+13 9.96289973e+12
- 8.81066747e+12 8.18796110e+12]</t>
+          <t>[1.28063148e+13 1.28063148e+13 1.28063148e+13 1.28063148e+13
+ 1.28063148e+13 1.28063148e+13]</t>
         </is>
       </c>
       <c r="E1349" t="inlineStr">
@@ -35848,8 +35848,8 @@
       </c>
       <c r="D1350" t="inlineStr">
         <is>
-          <t>[1.05419664e+13 1.05419664e+13 1.05419664e+13 9.96289973e+12
- 8.81066747e+12 8.18796110e+12]</t>
+          <t>[1.28063148e+13 1.28063148e+13 1.28063148e+13 1.28063148e+13
+ 1.28063148e+13 1.28063148e+13]</t>
         </is>
       </c>
       <c r="E1350" t="inlineStr">
@@ -35876,8 +35876,8 @@
       </c>
       <c r="D1351" t="inlineStr">
         <is>
-          <t>[8.35977932e+12 8.35977932e+12 8.35977932e+12 7.90057949e+12
- 6.98685930e+12 6.49305315e+12]</t>
+          <t>[1.01554077e+13 1.01554077e+13 1.01554077e+13 1.01554077e+13
+ 1.01554077e+13 1.01554077e+13]</t>
         </is>
       </c>
       <c r="E1351" t="inlineStr">
@@ -35904,8 +35904,8 @@
       </c>
       <c r="D1352" t="inlineStr">
         <is>
-          <t>[5.82252918e+11 5.82252918e+11 5.82252918e+11 5.71390249e+11
- 5.48453715e+11 5.35215442e+11]</t>
+          <t>[6.21269326e+11 6.21269326e+11 6.21269326e+11 6.21269326e+11
+ 6.21269326e+11 6.21269326e+11]</t>
         </is>
       </c>
       <c r="E1352" t="inlineStr">
@@ -36013,12 +36013,12 @@
       </c>
       <c r="D1356" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.34349334 0.11489186 0.11489186 0.        ]
- [0.         0.         0.34349334 0.11489186 0.11489186 0.        ]
- [0.         0.         0.34349334 0.11489186 0.11489186 0.        ]
- [0.         0.         0.35002347 0.11931602 0.11931602 0.        ]
- [0.         0.         0.36466158 0.12953899 0.12953899 0.        ]
- [0.         0.         0.3736813  0.13604878 0.13604878 0.        ]]</t>
+          <t>[[0.         0.         0.32192158 0.10087453 0.10087453 0.        ]
+ [0.         0.         0.32192158 0.10087453 0.10087453 0.        ]
+ [0.         0.         0.32192158 0.10087453 0.10087453 0.        ]
+ [0.         0.         0.32192158 0.10087453 0.10087453 0.        ]
+ [0.         0.         0.32192158 0.10087453 0.10087453 0.        ]
+ [0.         0.         0.32192158 0.10087453 0.10087453 0.        ]]</t>
         </is>
       </c>
       <c r="E1356" t="inlineStr"/>
@@ -36041,12 +36041,12 @@
       </c>
       <c r="D1357" t="inlineStr">
         <is>
-          <t>[[0.56409214 0.56409214 0.         0.         0.         0.05744593]
- [0.56409214 0.56409214 0.         0.         0.         0.05744593]
- [0.56409214 0.56409214 0.         0.         0.         0.05744593]
- [0.57478415 0.57478415 0.         0.         0.         0.05965801]
- [0.59874719 0.59874719 0.         0.         0.         0.06476949]
- [0.6135097  0.6135097  0.         0.         0.         0.06802439]]</t>
+          <t>[[0.52876336 0.52876336 0.         0.         0.         0.05043726]
+ [0.52876336 0.52876336 0.         0.         0.         0.05043726]
+ [0.52876336 0.52876336 0.         0.         0.         0.05043726]
+ [0.52876336 0.52876336 0.         0.         0.         0.05043726]
+ [0.52876336 0.52876336 0.         0.         0.         0.05043726]
+ [0.52876336 0.52876336 0.         0.         0.         0.05043726]]</t>
         </is>
       </c>
       <c r="E1357" t="inlineStr"/>
@@ -36069,7 +36069,7 @@
       </c>
       <c r="D1358" t="inlineStr">
         <is>
-          <t>[1241.45122327]</t>
+          <t>[1292.17865451]</t>
         </is>
       </c>
       <c r="E1358" t="inlineStr"/>
@@ -36092,7 +36092,7 @@
       </c>
       <c r="D1359" t="inlineStr">
         <is>
-          <t>[5541560.01827584]</t>
+          <t>[5983171.69572365]</t>
         </is>
       </c>
       <c r="E1359" t="inlineStr"/>
@@ -36115,7 +36115,7 @@
       </c>
       <c r="D1360" t="inlineStr">
         <is>
-          <t>[2279802.58812205]</t>
+          <t>[2462929.0507968]</t>
         </is>
       </c>
       <c r="E1360" t="inlineStr"/>
@@ -36138,7 +36138,7 @@
       </c>
       <c r="D1361" t="inlineStr">
         <is>
-          <t>[47.01251305]</t>
+          <t>[47.5]</t>
         </is>
       </c>
       <c r="E1361" t="inlineStr"/>
@@ -36161,7 +36161,7 @@
       </c>
       <c r="D1362" t="inlineStr">
         <is>
-          <t>[6.77018795e+09 6.77018795e+09 8.06801159e+07 0.00000000e+00
+          <t>[7.46008028e+09 7.46008028e+09 1.01537429e+08 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -36185,9 +36185,9 @@
       </c>
       <c r="D1363" t="inlineStr">
         <is>
-          <t>[12.11186105 12.11186105 12.11186105 12.11186105 12.11186105 12.11186105
- 12.11186105 12.11186105 12.11186105 12.03701917 11.88733539 11.73765162
- 11.57962293 11.41324933 11.24687573 11.15566635 11.13962119 11.12357603]</t>
+          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963]</t>
         </is>
       </c>
       <c r="E1363" t="inlineStr"/>
@@ -36259,7 +36259,7 @@
       </c>
       <c r="D1366" t="inlineStr">
         <is>
-          <t>[2379802.58812205]</t>
+          <t>[2562929.0507968]</t>
         </is>
       </c>
       <c r="E1366" t="inlineStr"/>
@@ -36282,7 +36282,7 @@
       </c>
       <c r="D1367" t="inlineStr">
         <is>
-          <t>[6041560.01827584]</t>
+          <t>[6483171.69572365]</t>
         </is>
       </c>
       <c r="E1367" t="inlineStr"/>
@@ -36305,7 +36305,7 @@
       </c>
       <c r="D1368" t="inlineStr">
         <is>
-          <t>[49.02896127]</t>
+          <t>[49.35334822]</t>
         </is>
       </c>
       <c r="E1368" t="inlineStr"/>
@@ -36328,7 +36328,7 @@
       </c>
       <c r="D1369" t="inlineStr">
         <is>
-          <t>[7.67423239e+09 7.67423239e+09 8.37690041e+07 0.00000000e+00
+          <t>[8.36466631e+09 8.36466631e+09 1.05709497e+08 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -36352,7 +36352,7 @@
       </c>
       <c r="D1370" t="inlineStr">
         <is>
-          <t>[3743323.75232145]</t>
+          <t>[3453121.50619814]</t>
         </is>
       </c>
       <c r="E1370" t="inlineStr"/>
@@ -36375,7 +36375,7 @@
       </c>
       <c r="D1371" t="inlineStr">
         <is>
-          <t>[9688397.68037558]</t>
+          <t>[9131688.05313284]</t>
         </is>
       </c>
       <c r="E1371" t="inlineStr"/>
@@ -36425,7 +36425,7 @@
       </c>
       <c r="D1373" t="inlineStr">
         <is>
-          <t>[0.23144944]</t>
+          <t>[0.23236191]</t>
         </is>
       </c>
       <c r="E1373" t="inlineStr"/>
@@ -36448,7 +36448,7 @@
       </c>
       <c r="D1374" t="inlineStr">
         <is>
-          <t>[0.23263459]</t>
+          <t>[0.2336962]</t>
         </is>
       </c>
       <c r="E1374" t="inlineStr"/>
@@ -36471,7 +36471,7 @@
       </c>
       <c r="D1375" t="inlineStr">
         <is>
-          <t>[0.23144944 0.23263459 0.91892124 0.95661035 0.99630056 1.7107648 ]</t>
+          <t>[0.23236191 0.2336962  0.9113131  0.96547011 1.08794913 1.81453089]</t>
         </is>
       </c>
       <c r="E1375" t="inlineStr"/>
@@ -36494,7 +36494,7 @@
       </c>
       <c r="D1376" t="inlineStr">
         <is>
-          <t>[0.23263459 0.99630056 1.87054808]</t>
+          <t>[0.2336962  1.08794913 1.90838915]</t>
         </is>
       </c>
       <c r="E1376" t="inlineStr"/>
@@ -36517,7 +36517,7 @@
       </c>
       <c r="D1377" t="inlineStr">
         <is>
-          <t>[0.23144944 0.91892124 1.7107648 ]</t>
+          <t>[0.23236191 0.96547011 1.81453089]</t>
         </is>
       </c>
       <c r="E1377" t="inlineStr"/>
@@ -36540,7 +36540,7 @@
       </c>
       <c r="D1378" t="inlineStr">
         <is>
-          <t>[4.28628425 0.         0.        ]</t>
+          <t>[4.25041474 0.         0.        ]</t>
         </is>
       </c>
       <c r="E1378" t="inlineStr"/>
@@ -36559,9 +36559,9 @@
       <c r="C1379" t="inlineStr"/>
       <c r="D1379" t="inlineStr">
         <is>
-          <t>[[  0.96672062   0.74250138  -3.0309235    3.96250774  -1.64080624]
- [ -3.15427896   0.84645399   8.13856197  -9.11128804   4.28055105]
- [ -6.84909948   8.46588005   9.57319568   5.83028508 -16.02026133]]</t>
+          <t>[[  0.72478575  -0.03438688   1.21688727  -1.35310664   0.44582049]
+ [ -3.0290741   -0.95979584  15.81990498 -23.00253377  12.17149873]
+ [ -6.17069419   4.49134733  15.43757469  -4.36927872  -8.38894911]]</t>
         </is>
       </c>
       <c r="E1379" t="inlineStr"/>
@@ -36580,9 +36580,9 @@
       <c r="C1380" t="inlineStr"/>
       <c r="D1380" t="inlineStr">
         <is>
-          <t>[[  0.95876016   0.73841552  -2.99478131   3.90305167  -1.60544604]
- [ -3.17403688   0.51723484   9.17004529 -11.53581484   6.02257158]
- [ -5.55260399   6.17911733   6.29679999   6.70407554 -12.62738886]]</t>
+          <t>[[  0.71801827  -0.04021527   1.26013297  -1.43225495   0.49431898]
+ [ -3.04313934  -1.44260858  17.62828649 -27.3649984   15.22245982]
+ [ -5.44576832   3.45743504  13.85043741  -5.00403312  -5.85807102]]</t>
         </is>
       </c>
       <c r="E1380" t="inlineStr"/>
@@ -36601,7 +36601,7 @@
       <c r="C1381" t="inlineStr"/>
       <c r="D1381" t="inlineStr">
         <is>
-          <t>[[ -0.29092899   4.87883893 -25.56589464  42.34868094 -20.37069623]
+          <t>[[ -0.94767298   2.27949172   6.30007909 -11.61877785   4.98688002]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -36622,9 +36622,9 @@
       <c r="C1382" t="inlineStr"/>
       <c r="D1382" t="inlineStr">
         <is>
-          <t>[[  0.59098479   2.12562964  -5.50910869   6.40156672  -2.60907246]
- [ -0.24002582   3.61843868  -8.45480714   9.86699723  -3.79060294]
- [  2.73537939  -2.96440996  11.40548909 -11.28660242   1.11014391]]</t>
+          <t>[[  0.8844298    2.22814602  -6.25148855   6.42721894  -2.28830621]
+ [ -0.78946313   6.31023801 -13.70531581  13.25056527  -4.06602433]
+ [  1.97398075  -1.05498826   3.00607283  -1.74240999  -1.18265533]]</t>
         </is>
       </c>
       <c r="E1382" t="inlineStr"/>
@@ -36643,9 +36643,9 @@
       <c r="C1383" t="inlineStr"/>
       <c r="D1383" t="inlineStr">
         <is>
-          <t>[[ 0.57864567  2.15052267 -5.56800627  6.46007299 -2.62123506]
- [-0.33726238  3.84430722 -9.09866494 10.44594215 -3.85432205]
- [ 1.65874919 -0.6594986   4.34798864 -3.28060739 -1.06663183]]</t>
+          <t>[[  0.8673362    2.27050342  -6.333274     6.49530305  -2.29986867]
+ [ -0.9931264    6.83696693 -14.84225233  14.10945475  -4.11104295]
+ [  1.41103509   0.45331891  -0.45300408   1.60119661  -2.01254652]]</t>
         </is>
       </c>
       <c r="E1383" t="inlineStr"/>
@@ -36664,9 +36664,9 @@
       <c r="C1384" t="inlineStr"/>
       <c r="D1384" t="inlineStr">
         <is>
-          <t>[[ -3.28615059  26.94414561 -74.78354642  90.10082538 -37.97527397]
- [  0.           0.           0.           0.           0.        ]
- [  0.           0.           0.           0.           0.        ]]</t>
+          <t>[[ -18.16564777  140.6156358  -367.80593804  403.19422361 -156.8382736 ]
+ [   0.            0.            0.            0.            0.        ]
+ [   0.            0.            0.            0.            0.        ]]</t>
         </is>
       </c>
       <c r="E1384" t="inlineStr"/>
@@ -36689,37 +36689,37 @@
       </c>
       <c r="D1385" t="inlineStr">
         <is>
-          <t>[[2.20902907e-04]
- [3.99581032e-04]
- [2.49219477e-05]
- [3.36940290e-03]
- [8.78870885e-03]
- [1.64375809e-02]
- [2.62376437e-02]
- [3.81102714e-02]
- [5.19766284e-02]
- [6.77577104e-02]
- [7.63462641e-02]
- [8.54019522e-02]
- [9.49321922e-02]
- [1.04945091e-01]
- [1.15449988e-01]
- [1.26456920e-01]
- [1.32150413e-01]
- [1.37970692e-01]
- [1.43916710e-01]
- [1.89080695e-01]
- [2.40373222e-01]
- [2.97189829e-01]
- [3.91800617e-01]
- [5.02801865e-01]
- [6.26707314e-01]
- [7.09865626e-01]
- [8.01343587e-01]
- [8.99477519e-01]
- [9.95763533e-01]
- [1.09456002e+00]
- [1.19120140e+00]]</t>
+          <t>[[2.18478479e-04]
+ [3.57535863e-04]
+ [5.84596278e-05]
+ [2.94806663e-03]
+ [7.53134523e-03]
+ [1.39457095e-02]
+ [2.21268569e-02]
+ [3.20103369e-02]
+ [4.35315792e-02]
+ [5.66259224e-02]
+ [6.37427539e-02]
+ [7.12285850e-02]
+ [7.90753239e-02]
+ [8.72748785e-02]
+ [9.58191745e-02]
+ [1.04700143e-01]
+ [1.09264347e-01]
+ [1.13909689e-01]
+ [1.18635159e-01]
+ [1.57743224e-01]
+ [2.07089328e-01]
+ [2.65669783e-01]
+ [3.66041481e-01]
+ [4.84410383e-01]
+ [6.16950627e-01]
+ [7.02235061e-01]
+ [7.92685946e-01]
+ [8.90133580e-01]
+ [9.87688012e-01]
+ [1.08844434e+00]
+ [1.18762181e+00]]</t>
         </is>
       </c>
       <c r="E1385" t="inlineStr"/>
@@ -36742,7 +36742,7 @@
       </c>
       <c r="D1386" t="inlineStr">
         <is>
-          <t>[1.1912014]</t>
+          <t>[1.18762181]</t>
         </is>
       </c>
       <c r="E1386" t="inlineStr"/>
@@ -36765,24 +36765,24 @@
       </c>
       <c r="D1387" t="inlineStr">
         <is>
-          <t>[[-44343740.15067592]
- [-41961055.6125307 ]
- [-39458347.84893215]
- [-37705991.79761501]
- [-35937751.23519944]
- [-34136004.35529906]
- [-32279539.91837709]
- [-30341328.47560496]
- [-28285309.9220351 ]
- [-27208848.87419012]
- [-26101553.53170824]
- [-24956294.46322261]
- [-23995132.80360328]
- [-23244290.1788196 ]
- [-22504094.48372472]
- [-22136913.68420447]
- [-21770207.06311811]
- [-21403980.24682099]]</t>
+          <t>[[-41816667.59630071]
+ [-39274320.87933679]
+ [-36595514.62690829]
+ [-34714278.38665088]
+ [-32815003.01891976]
+ [-30877697.36892555]
+ [-28878365.28076517]
+ [-26786466.15722359]
+ [-24561245.5145147 ]
+ [-23383994.45893836]
+ [-22150837.84635697]
+ [-20850520.09880878]
+ [-19756874.72249306]
+ [-18906336.2388129 ]
+ [-18055355.32330915]
+ [-17629738.29190804]
+ [-17204051.00499037]
+ [-16778299.8687938 ]]</t>
         </is>
       </c>
       <c r="E1387" t="inlineStr"/>
@@ -36805,24 +36805,24 @@
       </c>
       <c r="D1388" t="inlineStr">
         <is>
-          <t>[[ -5071530.76954904]
- [-11757769.1637948 ]
- [-11495512.73689797]
- [  2938425.00868529]
- [  2938725.75229176]
- [  2939033.26201806]
- [  2939358.31769071]
- [  2939715.28896778]
- [  2940124.54134488]
- [  2939095.12186776]
- [  2939211.31068241]
- [  2939342.95628316]
- [  2939258.14338768]
- [  2938895.67181086]
- [  2938934.68082561]
- [  2938339.78609694]
- [  2938352.92692273]
- [  2938365.90648313]]</t>
+          <t>[[ -5078182.20680049]
+ [-11162845.32502018]
+ [-10531514.52079851]
+ [  2938359.42833771]
+ [  2938625.13144949]
+ [  2938897.86780649]
+ [  2939187.68687883]
+ [  2939507.97305019]
+ [  2939877.74122139]
+ [  2938963.90953056]
+ [  2939090.32890072]
+ [  2939234.16883282]
+ [  2939159.52224369]
+ [  2938802.62443647]
+ [  2938846.20614075]
+ [  2938295.40309895]
+ [  2938305.86374735]
+ [  2938316.18941484]]</t>
         </is>
       </c>
       <c r="E1388" t="inlineStr"/>
@@ -36845,24 +36845,24 @@
       </c>
       <c r="D1389" t="inlineStr">
         <is>
-          <t>[[-21618.85830093]
- [-50516.07893623]
- [-50880.66440748]
- [  8741.15954597]
- [  8742.45515503]
- [  8743.79312706]
- [  8745.22097733]
- [  8746.80281721]
- [  8748.63034301]
- [  8744.18810378]
- [  8744.71500077]
- [  8745.31394243]
- [  8744.96475097]
- [  8743.38723401]
- [  8743.57962681]
- [  8740.94920127]
- [  8741.01322255]
- [  8741.07678812]]</t>
+          <t>[[-21668.86051705]
+ [-48044.01252842]
+ [-46818.23703288]
+ [  8740.8817212 ]
+ [  8742.02685805]
+ [  8743.21393831]
+ [  8744.48727476]
+ [  8745.90660182]
+ [  8747.55754737]
+ [  8743.61523344]
+ [  8744.18465084]
+ [  8744.83410871]
+ [  8744.52637838]
+ [  8742.97104285]
+ [  8743.17935343]
+ [  8740.74656483]
+ [  8740.79727512]
+ [  8740.84757321]]</t>
         </is>
       </c>
       <c r="E1389" t="inlineStr"/>
@@ -36885,24 +36885,24 @@
       </c>
       <c r="D1390" t="inlineStr">
         <is>
-          <t>[[ -287288.46776055]
- [-1143925.7000077 ]
- [-2134180.39191294]
- [-2438160.26247003]
- [-2378683.08480909]
- [-2318926.36561652]
- [-2258933.01939648]
- [-2198746.90535578]
- [-2138413.90189641]
- [-2108226.79283695]
- [-2078021.87970399]
- [-2047803.12007124]
- [-2017575.66893537]
- [-1987334.66222497]
- [-1957072.77786385]
- [-1941939.24514394]
- [-1926801.47128652]
- [-1911659.87600171]]</t>
+          <t>[[ -323367.80621993]
+ [-1175946.85874431]
+ [-2118357.80616292]
+ [-2433751.7342214 ]
+ [-2374553.68238094]
+ [-2315154.48791798]
+ [-2255590.98778429]
+ [-2195900.96380984]
+ [-2136124.1470907 ]
+ [-2106234.29136752]
+ [-2076341.59026276]
+ [-2046451.96518472]
+ [-2016572.48624608]
+ [-1986700.14623783]
+ [-1956829.44915064]
+ [-1941900.01389477]
+ [-1926972.31105308]
+ [-1912046.67966512]]</t>
         </is>
       </c>
       <c r="E1390" t="inlineStr"/>
@@ -36925,24 +36925,24 @@
       </c>
       <c r="D1391" t="inlineStr">
         <is>
-          <t>[[6.83026425e+07]
- [2.70301383e+08]
- [4.99748936e+08]
- [5.65724592e+08]
- [5.45851431e+08]
- [5.25914488e+08]
- [5.05924455e+08]
- [4.85892109e+08]
- [4.65828546e+08]
- [4.55793105e+08]
- [4.45754338e+08]
- [4.35713212e+08]
- [4.25670952e+08]
- [4.15626508e+08]
- [4.05578286e+08]
- [4.00553959e+08]
- [3.95528930e+08]
- [3.90503297e+08]]</t>
+          <t>[[7.68539669e+07]
+ [2.77737456e+08]
+ [4.95781386e+08]
+ [5.64431410e+08]
+ [5.44623987e+08]
+ [5.24770772e+08]
+ [5.04880844e+08]
+ [4.84963382e+08]
+ [4.65027886e+08]
+ [4.55060591e+08]
+ [4.45093169e+08]
+ [4.35126984e+08]
+ [4.25163643e+08]
+ [4.15202456e+08]
+ [4.05242175e+08]
+ [4.00263569e+08]
+ [3.95285486e+08]
+ [3.90308002e+08]]</t>
         </is>
       </c>
       <c r="E1391" t="inlineStr"/>
@@ -36965,24 +36965,24 @@
       </c>
       <c r="D1392" t="inlineStr">
         <is>
-          <t>[[1022561.60576632]
- [2234712.16999949]
- [3861207.29592936]
- [6203619.33921979]
- [6203575.32478702]
- [6203530.91201148]
- [6203485.65831418]
- [6203439.03099028]
- [6203390.3512405 ]
- [6203343.15894746]
- [6203324.66926664]
- [6203304.90582395]
- [6203284.10701434]
- [6203268.10434553]
- [6203257.31623062]
- [6203242.30042478]
- [6203233.15893923]
- [6203224.00386856]]</t>
+          <t>[[1023007.82974812]
+ [2235457.23019551]
+ [3861886.48813949]
+ [6203489.70891149]
+ [6203445.4266583 ]
+ [6203400.72042499]
+ [6203355.11967693]
+ [6203308.05963918]
+ [6203258.82153407]
+ [6203206.44622975]
+ [6203178.73747807]
+ [6203149.71315252]
+ [6203119.10837574]
+ [6203093.36815293]
+ [6203073.3498828 ]
+ [6203053.32132894]
+ [6203043.30412152]
+ [6203033.28529286]]</t>
         </is>
       </c>
       <c r="E1392" t="inlineStr"/>
@@ -37005,9 +37005,9 @@
       </c>
       <c r="D1393" t="inlineStr">
         <is>
-          <t>[[ 2.93842501e+06]
- [ 8.74115955e+03]
- [-3.94583478e+07]]</t>
+          <t>[[ 2.93835943e+06]
+ [ 8.74088172e+03]
+ [-3.65955146e+07]]</t>
         </is>
       </c>
       <c r="E1393" t="inlineStr"/>
@@ -37030,9 +37030,9 @@
       </c>
       <c r="D1394" t="inlineStr">
         <is>
-          <t>[[-2.49731510e+06]
- [ 5.85523177e+08]
- [ 6.20361934e+06]]</t>
+          <t>[[-2.49271198e+06]
+ [ 5.84183887e+08]
+ [ 6.20348971e+06]]</t>
         </is>
       </c>
       <c r="E1394" t="inlineStr"/>
@@ -37084,11 +37084,11 @@
       </c>
       <c r="D1396" t="inlineStr">
         <is>
-          <t>[12.11186105 12.11186105 12.11186105 12.11186105 12.11186105 12.11186105
- 12.11186105 12.11186105 12.11186105 12.11186105 11.96217728 11.81249351
- 11.66280973 11.49643613 11.33006253 11.16368893 11.14764377 11.13159861
- 11.11555345 11.11555345 11.11555345 11.11555345 11.11555345 11.11555345
- 11.11555345 10.72360901 10.33166457  9.93972013  8.62614676  7.31257338
+          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963 10.87509061  8.83187159  6.78865256  6.52543504  6.26221752
   5.999     ]</t>
         </is>
       </c>
@@ -37115,8 +37115,8 @@
           <t>[0.077      0.077      0.077      0.077      0.077      0.077
  0.077      0.077      0.077      0.077      0.077      0.077
  0.077      0.077      0.077      0.077      0.077      0.077
- 0.06905694 0.06905694 0.06905694 0.0345724  0.0345724  0.0345724
- 0.01219576 0.01219576 0.01219576 0.01140427 0.01140427 0.01140427]</t>
+ 0.02601662 0.02601662 0.02601662 0.02       0.02       0.02
+ 0.02       0.02       0.02       0.02       0.02       0.02      ]</t>
         </is>
       </c>
       <c r="E1397" t="inlineStr"/>
@@ -37215,11 +37215,11 @@
       </c>
       <c r="D1401" t="inlineStr">
         <is>
-          <t>[3.11505311 3.11505311 3.11505311 3.11505311 3.11505311 3.11505311
- 3.11505311 3.11505311 3.11505311 3.09568135 3.05693783 3.01819431
- 2.97729082 2.93422738 2.89116393 2.86755568 2.86340261 2.85924955
- 2.5642805  2.5642805  2.5642805  1.28777924 1.28777924 1.28777924
- 0.44716025 0.43109206 0.41502386 0.35542864 0.30507216 0.25471568]</t>
+          <t>[3.32379089 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089
+ 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089
+ 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089 3.32379089
+ 1.12749527 1.12749527 1.12749527 0.86715442 0.86715442 0.86715442
+ 0.79847153 0.66110575 0.52373996 0.446209   0.42851287 0.41081673]</t>
         </is>
       </c>
       <c r="E1401" t="inlineStr"/>
@@ -37242,11 +37242,11 @@
       </c>
       <c r="D1402" t="inlineStr">
         <is>
-          <t>[1.77276002 1.77276002 1.77276002 1.77276002 1.77276002 1.77276002
- 1.77276002 1.77276002 1.77276002 1.76176785 1.73978354 1.71779927
- 1.69458941 1.67015397 1.64571859 1.63232264 1.62996608 1.62760953
- 1.45922069 1.45922069 1.45922069 0.73178436 0.73178436 0.73178436
- 0.25387466 0.24475646 0.23563826 0.20180411 0.17322838 0.14465268]</t>
+          <t>[1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
+ 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
+ 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
+ 0.64038852 0.64038852 0.64038852 0.49241973 0.49241973 0.49241973
+ 0.45344439 0.37549382 0.29754348 0.25354752 0.24350565 0.23346378]</t>
         </is>
       </c>
       <c r="E1402" t="inlineStr"/>
@@ -37269,11 +37269,11 @@
       </c>
       <c r="D1403" t="inlineStr">
         <is>
-          <t>[1.77276002 1.77276002 1.77276002 1.77276002 1.77276002 1.77276002
- 1.77276002 1.77276002 1.77276002 1.76176785 1.73978354 1.71779927
- 1.69458941 1.67015397 1.64571859 1.63232264 1.62996608 1.62760953
- 1.45922069 1.45922069 1.45922069 0.73178436 0.73178436 0.73178436
- 0.25387466 0.24475646 0.23563826 0.20180411 0.17322838 0.14465268]</t>
+          <t>[1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
+ 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
+ 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517 1.89120517
+ 0.64038852 0.64038852 0.64038852 0.49241973 0.49241973 0.49241973
+ 0.45344439 0.37549382 0.29754348 0.25354752 0.24350565 0.23346378]</t>
         </is>
       </c>
       <c r="E1403" t="inlineStr"/>
@@ -37296,12 +37296,12 @@
       </c>
       <c r="D1404" t="inlineStr">
         <is>
-          <t>[112.79903997 112.79903997 112.79903997 112.79903997 112.79903997
- 112.79903997 112.79903997 112.79903997 112.79903997 110.7077468
- 106.6030271  102.6010445   98.48599915  94.27414194  90.18411463
-  87.99293676  87.61118373  87.23053647  78.22969381  78.22969381
-  78.22969381  39.5313894   39.5313894   39.5313894   13.29979863
-  11.91696322  10.63346464   7.63828443   4.82999322   2.81129359]</t>
+          <t>[137.02756889 137.02756889 137.02756889 137.02756889 137.02756889
+ 137.02756889 137.02756889 137.02756889 137.02756889 137.02756889
+ 137.02756889 137.02756889 137.02756889 137.02756889 137.02756889
+ 137.02756889 137.02756889 137.02756889  46.85078168  46.85078168
+  46.85078168  36.06642479  36.06642479  36.06642479  28.1573811
+  15.98185968   7.9462591    4.91396038   4.35219754   3.83496798]</t>
         </is>
       </c>
       <c r="E1404" t="inlineStr"/>
@@ -37324,11 +37324,11 @@
       </c>
       <c r="D1405" t="inlineStr">
         <is>
-          <t>[56.39951998 56.39951998 56.39951998 56.39951998 56.39951998 56.39951998
- 56.39951998 56.39951998 56.39951998 55.3538734  53.30151355 51.30052225
- 49.24299957 47.13707097 45.09205732 43.99646838 43.80559187 43.61526824
- 39.1148469  39.1148469  39.1148469  19.7656947  19.7656947  19.7656947
-  6.64989932  5.95848161  5.31673232  3.81914221  2.41499661  1.40564679]</t>
+          <t>[68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
+ 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
+ 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
+ 23.42539084 23.42539084 23.42539084 18.03321239 18.03321239 18.03321239
+ 14.07869055  7.99092984  3.97312955  2.45698019  2.17609877  1.91748399]</t>
         </is>
       </c>
       <c r="E1405" t="inlineStr"/>
@@ -37351,11 +37351,11 @@
       </c>
       <c r="D1406" t="inlineStr">
         <is>
-          <t>[56.39951998 56.39951998 56.39951998 56.39951998 56.39951998 56.39951998
- 56.39951998 56.39951998 56.39951998 55.3538734  53.30151355 51.30052225
- 49.24299957 47.13707097 45.09205732 43.99646838 43.80559187 43.61526824
- 39.1148469  39.1148469  39.1148469  19.7656947  19.7656947  19.7656947
-  6.64989932  5.95848161  5.31673232  3.81914221  2.41499661  1.40564679]</t>
+          <t>[68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
+ 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
+ 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444 68.51378444
+ 23.42539084 23.42539084 23.42539084 18.03321239 18.03321239 18.03321239
+ 14.07869055  7.99092984  3.97312955  2.45698019  2.17609877  1.91748399]</t>
         </is>
       </c>
       <c r="E1406" t="inlineStr"/>
@@ -37480,36 +37480,36 @@
       </c>
       <c r="D1410" t="inlineStr">
         <is>
-          <t>[[-4.43437402e+07]
- [-4.19610556e+07]
- [-3.94583478e+07]
- [-3.77059918e+07]
- [-3.59377512e+07]
- [-3.41360044e+07]
- [-3.22795399e+07]
- [-3.03413285e+07]
- [-2.82853099e+07]
- [-2.72088489e+07]
- [-2.61015535e+07]
- [-2.49562945e+07]
- [-2.39951328e+07]
- [-2.32442902e+07]
- [-2.25040945e+07]
- [-2.21369137e+07]
- [-2.17702071e+07]
- [-2.14039802e+07]
- [-1.81333389e+07]
- [-1.58424018e+07]
- [-1.35498667e+07]
- [-1.18929650e+07]
- [-1.02343964e+07]
- [-8.57417374e+06]
- [-8.21723862e+06]
- [-7.87229100e+06]
- [-7.53989358e+06]
- [-7.27234188e+06]
- [-7.04170096e+06]
- [ 6.49015419e-09]]</t>
+          <t>[[-4.18166676e+07]
+ [-3.92743209e+07]
+ [-3.65955146e+07]
+ [-3.47142784e+07]
+ [-3.28150030e+07]
+ [-3.08776974e+07]
+ [-2.88783653e+07]
+ [-2.67864662e+07]
+ [-2.45612455e+07]
+ [-2.33839945e+07]
+ [-2.21508378e+07]
+ [-2.08505201e+07]
+ [-1.97568747e+07]
+ [-1.89063362e+07]
+ [-1.80553553e+07]
+ [-1.76297383e+07]
+ [-1.72040510e+07]
+ [-1.67782999e+07]
+ [-1.47817842e+07]
+ [-1.37647536e+07]
+ [-1.27457404e+07]
+ [-1.16182234e+07]
+ [-1.04886081e+07]
+ [-9.35690093e+06]
+ [-8.72909816e+06]
+ [-8.20713716e+06]
+ [-7.79311394e+06]
+ [-7.46466447e+06]
+ [-7.15028496e+06]
+ [ 1.90048013e-08]]</t>
         </is>
       </c>
       <c r="E1410" t="inlineStr"/>
@@ -37532,36 +37532,36 @@
       </c>
       <c r="D1411" t="inlineStr">
         <is>
-          <t>[[-5.07153077e+06]
- [-1.17577692e+07]
- [-1.14955127e+07]
- [ 2.93842501e+06]
- [ 2.93872575e+06]
- [ 2.93903326e+06]
- [ 2.93935832e+06]
- [ 2.93971529e+06]
- [ 2.94012454e+06]
- [ 2.93909512e+06]
- [ 2.93921131e+06]
- [ 2.93934296e+06]
- [ 2.93925814e+06]
- [ 2.93889567e+06]
- [ 2.93893468e+06]
- [ 2.93833979e+06]
- [ 2.93835293e+06]
- [ 2.93836591e+06]
- [ 2.94216586e+06]
- [ 2.94277151e+06]
- [ 2.94332048e+06]
- [ 2.94243765e+06]
- [ 2.94326157e+06]
- [ 2.94391298e+06]
- [ 2.93920374e+06]
- [ 2.93929867e+06]
- [ 2.93935224e+06]
- [ 2.93910019e+06]
- [ 2.93894148e+06]
- [ 1.00592027e+03]]</t>
+          <t>[[-5.07818221e+06]
+ [-1.11628453e+07]
+ [-1.05315145e+07]
+ [ 2.93835943e+06]
+ [ 2.93862513e+06]
+ [ 2.93889787e+06]
+ [ 2.93918769e+06]
+ [ 2.93950797e+06]
+ [ 2.93987774e+06]
+ [ 2.93896391e+06]
+ [ 2.93909033e+06]
+ [ 2.93923417e+06]
+ [ 2.93915952e+06]
+ [ 2.93880262e+06]
+ [ 2.93884621e+06]
+ [ 2.93829540e+06]
+ [ 2.93830586e+06]
+ [ 2.93831619e+06]
+ [ 2.93942342e+06]
+ [ 2.93987293e+06]
+ [ 2.94028250e+06]
+ [ 2.94112359e+06]
+ [ 2.94174247e+06]
+ [ 2.94223356e+06]
+ [ 2.94040217e+06]
+ [ 2.94008760e+06]
+ [ 2.93974271e+06]
+ [ 2.93944031e+06]
+ [ 2.93941838e+06]
+ [ 1.61033438e+03]]</t>
         </is>
       </c>
       <c r="E1411" t="inlineStr"/>
@@ -37584,36 +37584,36 @@
       </c>
       <c r="D1412" t="inlineStr">
         <is>
-          <t>[[-2.16188583e+04]
- [-5.05160789e+04]
- [-5.08806644e+04]
- [ 8.74115955e+03]
- [ 8.74245516e+03]
- [ 8.74379313e+03]
- [ 8.74522098e+03]
- [ 8.74680282e+03]
- [ 8.74863034e+03]
- [ 8.74418810e+03]
- [ 8.74471500e+03]
- [ 8.74531394e+03]
- [ 8.74496475e+03]
- [ 8.74338723e+03]
- [ 8.74357963e+03]
- [ 8.74094920e+03]
- [ 8.74101322e+03]
- [ 8.74107679e+03]
- [ 8.75821492e+03]
- [ 8.76129144e+03]
- [ 8.76420185e+03]
- [ 8.76073543e+03]
- [ 8.76578210e+03]
- [ 8.77031211e+03]
- [ 8.74631311e+03]
- [ 8.74747891e+03]
- [ 8.74855253e+03]
- [ 8.74778166e+03]
- [ 8.74787915e+03]
- [ 8.74057380e+00]]</t>
+          <t>[[-2.16688605e+04]
+ [-4.80440125e+04]
+ [-4.68182370e+04]
+ [ 8.74088172e+03]
+ [ 8.74202686e+03]
+ [ 8.74321394e+03]
+ [ 8.74448727e+03]
+ [ 8.74590660e+03]
+ [ 8.74755755e+03]
+ [ 8.74361523e+03]
+ [ 8.74418465e+03]
+ [ 8.74483411e+03]
+ [ 8.74452638e+03]
+ [ 8.74297104e+03]
+ [ 8.74317935e+03]
+ [ 8.74074656e+03]
+ [ 8.74079728e+03]
+ [ 8.74084757e+03]
+ [ 8.74587491e+03]
+ [ 8.74815951e+03]
+ [ 8.75033110e+03]
+ [ 8.75480691e+03]
+ [ 8.75859562e+03]
+ [ 8.76200471e+03]
+ [ 8.75287222e+03]
+ [ 8.75175334e+03]
+ [ 8.75080727e+03]
+ [ 8.75043594e+03]
+ [ 8.75236411e+03]
+ [ 1.47156308e+01]]</t>
         </is>
       </c>
       <c r="E1412" t="inlineStr"/>
@@ -37636,36 +37636,36 @@
       </c>
       <c r="D1413" t="inlineStr">
         <is>
-          <t>[[-2.87288468e+05]
- [-1.14392570e+06]
- [-2.13418039e+06]
- [-2.43816026e+06]
- [-2.37868308e+06]
- [-2.31892637e+06]
- [-2.25893302e+06]
- [-2.19874691e+06]
- [-2.13841390e+06]
- [-2.10822679e+06]
- [-2.07802188e+06]
- [-2.04780312e+06]
- [-2.01757567e+06]
- [-1.98733466e+06]
- [-1.95707278e+06]
- [-1.94193925e+06]
- [-1.92680147e+06]
- [-1.91165988e+06]
- [-1.80602993e+06]
- [-1.70029791e+06]
- [-1.59463880e+06]
- [-1.44354807e+06]
- [-1.29200561e+06]
- [-1.14045891e+06]
- [-1.04957357e+06]
- [-9.58174805e+05]
- [-8.66295986e+05]
- [-7.80078319e+05]
- [-6.93212345e+05]
- [-1.91398111e-04]]</t>
+          <t>[[-3.23367806e+05]
+ [-1.17594686e+06]
+ [-2.11835781e+06]
+ [-2.43375173e+06]
+ [-2.37455368e+06]
+ [-2.31515449e+06]
+ [-2.25559099e+06]
+ [-2.19590096e+06]
+ [-2.13612415e+06]
+ [-2.10623429e+06]
+ [-2.07634159e+06]
+ [-2.04645197e+06]
+ [-2.01657249e+06]
+ [-1.98670015e+06]
+ [-1.95682945e+06]
+ [-1.94190001e+06]
+ [-1.92697231e+06]
+ [-1.91204668e+06]
+ [-1.80778382e+06]
+ [-1.70292833e+06]
+ [-1.59763026e+06]
+ [-1.44641987e+06]
+ [-1.29447519e+06]
+ [-1.14217232e+06]
+ [-1.05082177e+06]
+ [-9.59320976e+05]
+ [-8.67356821e+05]
+ [-7.80771205e+05]
+ [-6.93324245e+05]
+ [-3.66747129e-04]]</t>
         </is>
       </c>
       <c r="E1413" t="inlineStr"/>
@@ -37688,36 +37688,36 @@
       </c>
       <c r="D1414" t="inlineStr">
         <is>
-          <t>[[ 6.83026425e+07]
- [ 2.70301383e+08]
- [ 4.99748936e+08]
- [ 5.65724592e+08]
- [ 5.45851431e+08]
- [ 5.25914488e+08]
- [ 5.05924455e+08]
- [ 4.85892109e+08]
- [ 4.65828546e+08]
- [ 4.55793105e+08]
- [ 4.45754338e+08]
- [ 4.35713212e+08]
- [ 4.25670952e+08]
- [ 4.15626508e+08]
- [ 4.05578286e+08]
- [ 4.00553959e+08]
- [ 3.95528930e+08]
- [ 3.90503297e+08]
- [ 3.55464951e+08]
- [ 3.20418231e+08]
- [ 2.85401504e+08]
- [ 2.35382349e+08]
- [ 1.85324039e+08]
- [ 1.35317765e+08]
- [ 1.05361356e+08]
- [ 7.53668751e+07]
- [ 4.53515489e+07]
- [ 1.73322866e+07]
- [-1.06794631e+07]
- [ 2.20271772e-02]]</t>
+          <t>[[ 7.68539669e+07]
+ [ 2.77737456e+08]
+ [ 4.95781386e+08]
+ [ 5.64431410e+08]
+ [ 5.44623987e+08]
+ [ 5.24770772e+08]
+ [ 5.04880844e+08]
+ [ 4.84963382e+08]
+ [ 4.65027886e+08]
+ [ 4.55060591e+08]
+ [ 4.45093169e+08]
+ [ 4.35126984e+08]
+ [ 4.25163643e+08]
+ [ 4.15202456e+08]
+ [ 4.05242175e+08]
+ [ 4.00263569e+08]
+ [ 3.95285486e+08]
+ [ 3.90308002e+08]
+ [ 3.55574078e+08]
+ [ 3.20728052e+08]
+ [ 2.85805107e+08]
+ [ 2.35788418e+08]
+ [ 1.85675068e+08]
+ [ 1.35546792e+08]
+ [ 1.05505570e+08]
+ [ 7.54732669e+07]
+ [ 4.54307511e+07]
+ [ 1.73772073e+07]
+ [-1.06682029e+07]
+ [ 4.01331964e-02]]</t>
         </is>
       </c>
       <c r="E1414" t="inlineStr"/>
@@ -37740,35 +37740,35 @@
       </c>
       <c r="D1415" t="inlineStr">
         <is>
-          <t>[[1022561.60576632]
- [2234712.16999949]
- [3861207.29592936]
- [6203619.33921979]
- [6203575.32478702]
- [6203530.91201148]
- [6203485.65831418]
- [6203439.03099028]
- [6203390.3512405 ]
- [6203343.15894746]
- [6203324.66926664]
- [6203304.90582395]
- [6203284.10701434]
- [6203268.10434553]
- [6203257.31623062]
- [6203242.30042478]
- [6203233.15893923]
- [6203224.00386856]
- [6203251.43179612]
- [6203181.56731522]
- [6203111.67607093]
- [6203451.50608727]
- [6203350.84395931]
- [6203250.08383279]
- [6204128.56072882]
- [6204119.69636144]
- [6204112.40598269]
- [6204288.11129269]
- [6204493.51553331]
+          <t>[[1023007.82974812]
+ [2235457.23019551]
+ [3861886.48813949]
+ [6203489.70891149]
+ [6203445.4266583 ]
+ [6203400.72042499]
+ [6203355.11967693]
+ [6203308.05963918]
+ [6203258.82153407]
+ [6203206.44622975]
+ [6203178.73747807]
+ [6203149.71315252]
+ [6203119.10837574]
+ [6203093.36815293]
+ [6203073.3498828 ]
+ [6203053.32132894]
+ [6203043.30412152]
+ [6203033.28529286]
+ [6203724.52230909]
+ [6203654.02380414]
+ [6203583.44723734]
+ [6203778.2816089 ]
+ [6203676.54362904]
+ [6203574.61966567]
+ [6203545.12933958]
+ [6203661.33953819]
+ [6203854.33007697]
+ [6203994.78189874]
+ [6203991.2422785 ]
  [      0.        ]]</t>
         </is>
       </c>
@@ -37792,24 +37792,24 @@
       </c>
       <c r="D1416" t="inlineStr">
         <is>
-          <t>[[-6901207.93915237]
- [15553610.47210908]
- [40994325.05100522]
- [48641117.96845015]
- [47074862.16059494]
- [45512514.07485905]
- [43962031.0772697 ]
- [42433247.36747028]
- [40938930.55204429]
- [40768657.91964471]
- [41168275.49192497]
- [41577915.62869033]
- [41990008.16079162]
- [42396404.00834627]
- [42796574.43618756]
- [43062686.78086589]
- [42688549.28861271]
- [42311426.28588365]]</t>
+          <t>[[-5335524.54444255]
+ [14367882.76017663]
+ [35730171.99027921]
+ [42768229.96308324]
+ [41472291.82741737]
+ [40183478.51026307]
+ [38909865.5343503 ]
+ [37661506.79163316]
+ [36451559.305833  ]
+ [35866076.21903137]
+ [35297401.06304225]
+ [34749048.76188357]
+ [34138784.94274396]
+ [33455582.75973734]
+ [32772599.24388555]
+ [32431290.28465366]
+ [32090051.74097908]
+ [31748888.89283141]]</t>
         </is>
       </c>
       <c r="E1416" t="inlineStr"/>
@@ -37832,24 +37832,24 @@
       </c>
       <c r="D1417" t="inlineStr">
         <is>
-          <t>[[2915735.71802742]
- [6752503.16074469]
- [6691891.59393839]
- [1990608.37038936]
- [1990775.65588085]
- [1990946.73675547]
- [1991127.67012046]
- [1991326.53325905]
- [1991554.77784705]
- [2005510.27443018]
- [2035286.83539913]
- [2065949.07521702]
- [2099183.14063732]
- [2135161.00663787]
- [2172618.85660255]
- [2193326.16909949]
- [2197081.55811071]
- [2200849.41428105]]</t>
+          <t>[[2733403.29094874]
+ [6007932.41365527]
+ [5750774.19531989]
+ [1846121.47716211]
+ [1846259.88505114]
+ [1846401.99192667]
+ [1846553.08944659]
+ [1846720.22822307]
+ [1846913.42884769]
+ [1846427.75522217]
+ [1846493.29562804]
+ [1846567.98546085]
+ [1846527.07213359]
+ [1846337.14270557]
+ [1846359.24372583]
+ [1846067.05262268]
+ [1846072.11169814]
+ [1846077.09932388]]</t>
         </is>
       </c>
       <c r="E1417" t="inlineStr"/>
@@ -37874,22 +37874,22 @@
         <is>
           <t>[[-0.00000000e+00]
  [-0.00000000e+00]
- [-1.98158052e+07]
- [-3.70217809e+07]
- [-3.18200459e+07]
- [-2.66568446e+07]
- [-2.15396977e+07]
- [-1.64810269e+07]
- [-1.14997547e+07]
- [-7.77003319e+06]
- [-5.31029255e+06]
- [-2.94832196e+06]
- [-8.96892735e+05]
- [-7.59352597e+03]
- [-8.51707057e+03]
- [-9.02514905e+03]
- [-9.32822565e+03]
- [-9.59961133e+03]]</t>
+ [-2.11436500e+07]
+ [-3.95025875e+07]
+ [-3.39522875e+07]
+ [-2.84431032e+07]
+ [-2.29830595e+07]
+ [-1.75854103e+07]
+ [-1.22703462e+07]
+ [-8.34257877e+06]
+ [-5.77385050e+06]
+ [-3.24684387e+06]
+ [-1.00127400e+06]
+ [-8.60168256e+03]
+ [-9.79154495e+03]
+ [-1.04610726e+04]
+ [-1.08280517e+04]
+ [-1.11592570e+04]]</t>
         </is>
       </c>
       <c r="E1418" t="inlineStr"/>
@@ -37948,24 +37948,24 @@
       <c r="C1420" t="inlineStr"/>
       <c r="D1420" t="inlineStr">
         <is>
-          <t>[[0.04350202]
- [0.09899375]
- [0.27954576]
- [0.37894374]
- [0.35016489]
- [0.3220123 ]
- [0.29466792]
- [0.26837947]
- [0.2434802 ]
- [0.2303946 ]
- [0.22486816]
- [0.22014272]
- [0.21670945]
- [0.21650686]
- [0.21856588]
- [0.21993166]
- [0.21803956]
- [0.21613246]]</t>
+          <t>[[0.03628619]
+ [0.09024465]
+ [0.25830419]
+ [0.36289851]
+ [0.33322532]
+ [0.30423626]
+ [0.27613768]
+ [0.24921726]
+ [0.22387141]
+ [0.20759629]
+ [0.1965748 ]
+ [0.18628908]
+ [0.17701369]
+ [0.17098461]
+ [0.16752943]
+ [0.16580294]
+ [0.16407647]
+ [0.16235047]]</t>
         </is>
       </c>
       <c r="E1420" t="inlineStr"/>
@@ -37984,24 +37984,24 @@
       <c r="C1421" t="inlineStr"/>
       <c r="D1421" t="inlineStr">
         <is>
-          <t>[[0.07873278]
- [0.09910528]
- [0.35467711]
- [0.38027833]
- [0.33029566]
- [0.28078558]
- [0.23187777]
- [0.18381166]
- [0.1370549 ]
- [0.06321491]
- [0.05485655]
- [0.04782544]
- [0.0423703 ]
- [0.04037164]
- [0.03966382]
- [0.03578666]
- [0.03532064]
- [0.03485547]]</t>
+          <t>[[0.07319824]
+ [0.09101668]
+ [0.37549284]
+ [0.4090086 ]
+ [0.35449291]
+ [0.30043307]
+ [0.24693778]
+ [0.19420613]
+ [0.1426154 ]
+ [0.06047187]
+ [0.05001493]
+ [0.04136886]
+ [0.03472431]
+ [0.03180753]
+ [0.03068237]
+ [0.02647949]
+ [0.02596274]
+ [0.02544793]]</t>
         </is>
       </c>
       <c r="E1421" t="inlineStr"/>
@@ -38020,24 +38020,24 @@
       <c r="C1422" t="inlineStr"/>
       <c r="D1422" t="inlineStr">
         <is>
-          <t>[[0.12299458]
- [0.23318846]
- [0.35853133]
- [0.39245467]
- [0.37763513]
- [0.36272651]
- [0.34769297]
- [0.33248739]
- [0.31704533]
- [0.31288738]
- [0.31225974]
- [0.3114633 ]
- [0.31138296]
- [0.31228601]
- [0.31419345]
- [0.31564226]
- [0.31243427]
- [0.3092064 ]]</t>
+          <t>[[0.11727972]
+ [0.2172642 ]
+ [0.32577203]
+ [0.35789588]
+ [0.3439249 ]
+ [0.32986831]
+ [0.31568511]
+ [0.30132207]
+ [0.28670692]
+ [0.27928091]
+ [0.27175148]
+ [0.26409809]
+ [0.25684459]
+ [0.25005916]
+ [0.24327589]
+ [0.23988576]
+ [0.2364964 ]
+ [0.23310786]]</t>
         </is>
       </c>
       <c r="E1422" t="inlineStr"/>
@@ -38060,36 +38060,36 @@
       </c>
       <c r="D1423" t="inlineStr">
         <is>
-          <t>[[-6.90120794e+06]
- [ 1.55536105e+07]
- [ 4.09943251e+07]
- [ 4.86411180e+07]
- [ 4.70748622e+07]
- [ 4.55125141e+07]
- [ 4.39620311e+07]
- [ 4.24332474e+07]
- [ 4.09389306e+07]
- [ 4.07686579e+07]
- [ 4.11682755e+07]
- [ 4.15779156e+07]
- [ 4.19900082e+07]
- [ 4.23964040e+07]
- [ 4.27965744e+07]
- [ 4.30626868e+07]
- [ 4.26885493e+07]
- [ 4.23114263e+07]
- [ 4.34366839e+07]
- [ 3.93503345e+07]
- [ 3.52688729e+07]
- [ 5.69515011e+07]
- [ 4.41639077e+07]
- [ 3.13922938e+07]
- [ 6.81330069e+07]
- [ 4.83244131e+07]
- [ 2.50690707e+07]
- [ 6.24773328e+05]
- [-5.42417098e+06]
- [ 5.21517210e-02]]</t>
+          <t>[[-5.33552454e+06]
+ [ 1.43678828e+07]
+ [ 3.57301720e+07]
+ [ 4.27682300e+07]
+ [ 4.14722918e+07]
+ [ 4.01834785e+07]
+ [ 3.89098655e+07]
+ [ 3.76615068e+07]
+ [ 3.64515593e+07]
+ [ 3.58660762e+07]
+ [ 3.52974011e+07]
+ [ 3.47490488e+07]
+ [ 3.41387849e+07]
+ [ 3.34555828e+07]
+ [ 3.27725992e+07]
+ [ 3.24312903e+07]
+ [ 3.20900517e+07]
+ [ 3.17488889e+07]
+ [ 8.49345125e+07]
+ [ 7.62283171e+07]
+ [ 6.75026758e+07]
+ [ 7.10584285e+07]
+ [ 5.44114727e+07]
+ [ 3.77616635e+07]
+ [ 3.36468287e+07]
+ [ 3.41219087e+07]
+ [ 2.97816204e+07]
+ [ 6.83593630e+06]
+ [-9.80526466e+05]
+ [ 6.41599557e-02]]</t>
         </is>
       </c>
       <c r="E1423" t="inlineStr"/>
@@ -38112,36 +38112,36 @@
       </c>
       <c r="D1424" t="inlineStr">
         <is>
-          <t>[[2.91573572e+06]
- [6.75250316e+06]
- [6.69189159e+06]
- [1.99060837e+06]
- [1.99077566e+06]
- [1.99094674e+06]
- [1.99112767e+06]
- [1.99132653e+06]
- [1.99155478e+06]
- [2.00551027e+06]
- [2.03528684e+06]
- [2.06594908e+06]
- [2.09918314e+06]
- [2.13516101e+06]
- [2.17261886e+06]
- [2.19332617e+06]
- [2.19708156e+06]
- [2.20084941e+06]
- [2.45697314e+06]
- [2.45738323e+06]
- [2.45775448e+06]
- [4.89307837e+06]
- [4.89419014e+06]
- [4.89506615e+06]
- [1.41243314e+07]
- [1.47495377e+07]
- [1.54309011e+07]
- [1.83342763e+07]
- [2.20844041e+07]
- [6.95430064e+03]]</t>
+          <t>[[2.73340329e+06]
+ [6.00793241e+06]
+ [5.75077420e+06]
+ [1.84612148e+06]
+ [1.84625989e+06]
+ [1.84640199e+06]
+ [1.84655309e+06]
+ [1.84672023e+06]
+ [1.84691343e+06]
+ [1.84642776e+06]
+ [1.84649330e+06]
+ [1.84656799e+06]
+ [1.84652707e+06]
+ [1.84633714e+06]
+ [1.84635924e+06]
+ [1.84606705e+06]
+ [1.84607211e+06]
+ [1.84607710e+06]
+ [5.44536896e+06]
+ [5.44606118e+06]
+ [5.44669101e+06]
+ [7.08386240e+06]
+ [7.08510102e+06]
+ [7.08608007e+06]
+ [7.79514306e+06]
+ [9.74236499e+06]
+ [1.29289267e+07]
+ [1.57956434e+07]
+ [1.66284579e+07]
+ [6.89786480e+03]]</t>
         </is>
       </c>
       <c r="E1424" t="inlineStr"/>
@@ -38166,34 +38166,34 @@
         <is>
           <t>[[-0.00000000e+00]
  [-0.00000000e+00]
- [-1.98158052e+07]
- [-3.70217809e+07]
- [-3.18200459e+07]
- [-2.66568446e+07]
- [-2.15396977e+07]
- [-1.64810269e+07]
- [-1.14997547e+07]
- [-7.77003319e+06]
- [-5.31029255e+06]
- [-2.94832196e+06]
- [-8.96892735e+05]
- [-7.59352597e+03]
- [-8.51707057e+03]
- [-9.02514905e+03]
- [-9.32822565e+03]
- [-9.59961133e+03]
- [-1.16556612e+04]
- [-1.30218484e+04]
- [-1.40339580e+04]
- [-3.00503669e+04]
- [-3.19403891e+04]
- [-3.35275328e+04]
- [-9.67047359e+04]
- [-9.52896253e+04]
- [-9.35935874e+04]
- [-9.33220149e+04]
- [-8.13994254e+04]
- [-6.89957103e+04]]</t>
+ [-2.11436500e+07]
+ [-3.95025875e+07]
+ [-3.39522875e+07]
+ [-2.84431032e+07]
+ [-2.29830595e+07]
+ [-1.75854103e+07]
+ [-1.22703462e+07]
+ [-8.34257877e+06]
+ [-5.77385050e+06]
+ [-3.24684387e+06]
+ [-1.00127400e+06]
+ [-8.60168256e+03]
+ [-9.79154495e+03]
+ [-1.04610726e+04]
+ [-1.08280517e+04]
+ [-1.11592570e+04]
+ [-3.61076255e+04]
+ [-4.03398845e+04]
+ [-4.34752600e+04]
+ [-6.04649815e+04]
+ [-6.42679354e+04]
+ [-6.74614609e+04]
+ [-6.42098648e+04]
+ [-5.43380810e+04]
+ [-4.39183994e+04]
+ [-3.80929694e+04]
+ [-3.71755537e+04]
+ [-3.61817322e+04]]</t>
         </is>
       </c>
       <c r="E1425" t="inlineStr"/>
@@ -38264,36 +38264,36 @@
       <c r="C1427" t="inlineStr"/>
       <c r="D1427" t="inlineStr">
         <is>
-          <t>[[4.35020197e-02]
- [9.89937548e-02]
- [2.79545762e-01]
- [3.78943743e-01]
- [3.50164886e-01]
- [3.22012300e-01]
- [2.94667918e-01]
- [2.68379475e-01]
- [2.43480197e-01]
- [2.30394597e-01]
- [2.24868157e-01]
- [2.20142720e-01]
- [2.16709449e-01]
- [2.16506858e-01]
- [2.18565879e-01]
- [2.19931655e-01]
- [2.18039563e-01]
- [2.16132461e-01]
- [2.22047958e-01]
- [2.01373945e-01]
- [1.80748823e-01]
- [2.92975684e-01]
- [2.28840778e-01]
- [1.65495416e-01]
- [3.68486539e-01]
- [2.78276022e-01]
- [1.86570779e-01]
- [1.61577500e-01]
- [1.96500739e-01]
- [3.56286692e-04]]</t>
+          <t>[[3.62861929e-02]
+ [9.02446461e-02]
+ [2.58304191e-01]
+ [3.62898507e-01]
+ [3.33225319e-01]
+ [3.04236257e-01]
+ [2.76137679e-01]
+ [2.49217259e-01]
+ [2.23871408e-01]
+ [2.07596290e-01]
+ [1.96574797e-01]
+ [1.86289082e-01]
+ [1.77013694e-01]
+ [1.70984614e-01]
+ [1.67529426e-01]
+ [1.65802936e-01]
+ [1.64076465e-01]
+ [1.62350468e-01]
+ [4.34805228e-01]
+ [3.90829639e-01]
+ [3.46829992e-01]
+ [3.66971781e-01]
+ [2.83900732e-01]
+ [2.02147026e-01]
+ [1.84577778e-01]
+ [1.93765823e-01]
+ [1.89636816e-01]
+ [1.43475526e-01]
+ [1.46592919e-01]
+ [1.93829844e-04]]</t>
         </is>
       </c>
       <c r="E1427" t="inlineStr"/>
@@ -38312,36 +38312,36 @@
       <c r="C1428" t="inlineStr"/>
       <c r="D1428" t="inlineStr">
         <is>
-          <t>[[0.07873278]
- [0.09910528]
- [0.35467711]
- [0.38027833]
- [0.33029566]
- [0.28078558]
- [0.23187777]
- [0.18381166]
- [0.1370549 ]
- [0.06321491]
- [0.05485655]
- [0.04782544]
- [0.0423703 ]
- [0.04037164]
- [0.03966382]
- [0.03578666]
- [0.03532064]
- [0.03485547]
- [0.04749131]
- [0.04375788]
- [0.04009168]
- [0.147525  ]
- [0.13896317]
- [0.13049558]
- [1.09980206]
- [1.08657811]
- [1.07510939]
- [1.22483117]
- [1.24833864]
- [0.01297935]]</t>
+          <t>[[0.07319824]
+ [0.09101668]
+ [0.37549284]
+ [0.4090086 ]
+ [0.35449291]
+ [0.30043307]
+ [0.24693778]
+ [0.19420613]
+ [0.1426154 ]
+ [0.06047187]
+ [0.05001493]
+ [0.04136886]
+ [0.03472431]
+ [0.03180753]
+ [0.03068237]
+ [0.02647949]
+ [0.02596274]
+ [0.02544793]
+ [0.26803441]
+ [0.25843604]
+ [0.24874461]
+ [0.47274092]
+ [0.45372621]
+ [0.43458561]
+ [0.3644652 ]
+ [0.36703571]
+ [0.38296451]
+ [0.39119826]
+ [0.39294968]
+ [0.00285741]]</t>
         </is>
       </c>
       <c r="E1428" t="inlineStr"/>
@@ -38360,36 +38360,36 @@
       <c r="C1429" t="inlineStr"/>
       <c r="D1429" t="inlineStr">
         <is>
-          <t>[[2.53001868e-01]
- [4.45386981e-01]
- [6.62250727e-01]
- [7.18464188e-01]
- [6.89147671e-01]
- [6.59769424e-01]
- [6.30231663e-01]
- [6.00410558e-01]
- [5.70141279e-01]
- [5.62240414e-01]
- [5.61462064e-01]
- [5.60271991e-01]
- [5.60775230e-01]
- [5.63253490e-01]
- [5.65740475e-01]
- [5.67876975e-01]
- [5.61600847e-01]
- [5.55294638e-01]
- [5.54393824e-01]
- [4.93908404e-01]
- [4.34161463e-01]
- [7.36934416e-01]
- [5.84510098e-01]
- [4.35093710e-01]
- [1.12947020e+00]
- [9.48714863e-01]
- [7.31724164e-01]
- [6.07724510e-01]
- [8.05918462e-01]
- [4.43289972e-10]]</t>
+          <t>[[2.31604758e-01]
+ [4.07079137e-01]
+ [5.95902890e-01]
+ [6.49942876e-01]
+ [6.22742127e-01]
+ [5.95461846e-01]
+ [5.68001304e-01]
+ [5.40233084e-01]
+ [5.11987587e-01]
+ [4.97629582e-01]
+ [4.83058903e-01]
+ [4.68228614e-01]
+ [4.54383625e-01]
+ [4.41675489e-01]
+ [4.28995595e-01]
+ [4.22667439e-01]
+ [4.16346741e-01]
+ [4.10033580e-01]
+ [1.13377610e+00]
+ [1.02257238e+00]
+ [9.12261487e-01]
+ [1.00479361e+00]
+ [8.05520909e-01]
+ [6.09138932e-01]
+ [6.06161408e-01]
+ [7.11340172e-01]
+ [9.37468216e-01]
+ [9.48197545e-01]
+ [8.91056558e-01]
+ [6.03998656e-10]]</t>
         </is>
       </c>
       <c r="E1429" t="inlineStr"/>
@@ -38478,26 +38478,26 @@
       </c>
       <c r="D1433" t="inlineStr">
         <is>
-          <t>[[2.29583003e+10 6.00709619e+12 2.29583003e+10 6.00709619e+12
-  1.57322018e+10 1.65832412e+11]
- [2.08833530e+10 4.35206587e+12 2.08833530e+10 4.35206587e+12
-  1.46122018e+10 1.65832412e+11]
- [1.88084056e+10 3.05101086e+12 1.88084056e+10 3.05101086e+12
-  1.34922018e+10 1.65832412e+11]
- [1.67334582e+10 2.05968424e+12 1.67334582e+10 2.05968424e+12
-  1.23722018e+10 1.65832412e+11]
- [1.46585109e+10 1.33383911e+12 1.46585109e+10 1.33383911e+12
-  1.12522018e+10 1.65832412e+11]
- [1.25835635e+10 8.29228541e+11 1.25835635e+10 8.29228541e+11
-  1.01322018e+10 1.65832412e+11]
- [1.05086161e+10 5.01605627e+11 1.05086161e+10 5.01605627e+11
-  9.01220182e+09 1.65832412e+11]
- [8.43366875e+09 3.06723454e+11 8.43366875e+09 3.06723454e+11
-  7.89220182e+09 1.65832412e+11]
- [6.35872138e+09 2.00335108e+11 6.35872138e+09 2.00335108e+11
-  6.77220182e+09 1.65832412e+11]
- [4.28377401e+09 1.38193676e+11 4.28377401e+09 1.38193676e+11
-  5.65220182e+09 1.65832412e+11]]</t>
+          <t>[[2.32435285e+10 6.10440261e+12 2.32435285e+10 6.10440261e+12
+  1.61085445e+10 2.01211985e+11]
+ [2.11685811e+10 4.44183635e+12 2.11685811e+10 4.44183635e+12
+  1.49885445e+10 2.01211985e+11]
+ [1.90936337e+10 3.13324540e+12 1.90936337e+10 3.13324540e+12
+  1.38685445e+10 2.01211985e+11]
+ [1.70186864e+10 2.13438284e+12 1.70186864e+10 2.13438284e+12
+  1.27485445e+10 2.01211985e+11]
+ [1.49437390e+10 1.40100177e+12 1.49437390e+10 1.40100177e+12
+  1.16285445e+10 2.01211985e+11]
+ [1.28687916e+10 8.88855266e+11 1.28687916e+10 8.88855266e+11
+  1.05085445e+10 2.01211985e+11]
+ [1.07938442e+10 5.53696416e+11 1.07938442e+10 5.53696416e+11
+  9.38854449e+09 2.01211985e+11]
+ [8.71889688e+09 3.51278306e+11 8.71889688e+09 3.51278306e+11
+  8.26854449e+09 2.01211985e+11]
+ [6.64394951e+09 2.37354023e+11 6.64394951e+09 2.37354023e+11
+  7.14854449e+09 2.01211985e+11]
+ [4.56900214e+09 1.67676654e+11 4.56900214e+09 1.67676654e+11
+  6.02854449e+09 2.01211985e+11]]</t>
         </is>
       </c>
       <c r="E1433" t="inlineStr"/>
@@ -43309,7 +43309,7 @@
       <c r="C1593" t="inlineStr"/>
       <c r="D1593" t="inlineStr">
         <is>
-          <t>[-0.01574466]</t>
+          <t>[-0.05100324]</t>
         </is>
       </c>
       <c r="E1593" t="inlineStr">
@@ -43332,7 +43332,7 @@
       <c r="C1594" t="inlineStr"/>
       <c r="D1594" t="inlineStr">
         <is>
-          <t>[-0.16305656]</t>
+          <t>[-0.13420863]</t>
         </is>
       </c>
       <c r="E1594" t="inlineStr">
@@ -43355,7 +43355,7 @@
       <c r="C1595" t="inlineStr"/>
       <c r="D1595" t="inlineStr">
         <is>
-          <t>[1.05611267]</t>
+          <t>[1.09101079]</t>
         </is>
       </c>
       <c r="E1595" t="inlineStr"/>
@@ -43378,7 +43378,7 @@
       </c>
       <c r="D1596" t="inlineStr">
         <is>
-          <t>[28.17954548]</t>
+          <t>[27.27816739]</t>
         </is>
       </c>
       <c r="E1596" t="inlineStr"/>
@@ -43401,9 +43401,9 @@
       </c>
       <c r="D1597" t="inlineStr">
         <is>
-          <t>[1058.62612625 1220.20669547 1336.59589005 1429.92909802 1539.57410864
- 1631.35079773 1711.06902513 1681.42732924 1646.94911602 1608.49760464
- 1402.18244698 1203.69129954 1007.39469272]</t>
+          <t>[1246.78305078 1446.48399981 1591.66958163 1708.81406164 1847.17223036
+ 1963.54487504 2065.00945692 1709.42839836 1385.52219487 1084.0713091
+ 1060.5672786  1034.9627571  1007.39469272]</t>
         </is>
       </c>
       <c r="E1597" t="inlineStr"/>
@@ -43522,9 +43522,9 @@
       </c>
       <c r="D1602" t="inlineStr">
         <is>
-          <t>[1058.62612625 1220.20669547 1336.59589005 1429.92909802 1539.57410864
- 1631.35079773 1711.06902513 1681.42732924 1646.94911602 1608.49760464
- 1402.18244698 1203.69129954 1007.39469272]</t>
+          <t>[1246.78305078 1446.48399981 1591.66958163 1708.81406164 1847.17223036
+ 1963.54487504 2065.00945692 1709.42839836 1385.52219487 1084.0713091
+ 1060.5672786  1034.9627571  1007.39469272]</t>
         </is>
       </c>
       <c r="E1602" t="inlineStr"/>
@@ -43712,9 +43712,9 @@
       </c>
       <c r="D1610" t="inlineStr">
         <is>
-          <t>[-1058.62612625 -1220.20669547 -1336.59589005 -1429.92909802
- -1539.57410864 -1631.35079773 -1711.06902513 -1681.42732924
- -1646.94911602 -1608.49760464 -1402.18244698 -1203.69129954
+          <t>[-1246.78305078 -1446.48399981 -1591.66958163 -1708.81406164
+ -1847.17223036 -1963.54487504 -2065.00945692 -1709.42839836
+ -1385.52219487 -1084.0713091  -1060.5672786  -1034.9627571
  -1007.39469272]</t>
         </is>
       </c>
@@ -43759,7 +43759,7 @@
       <c r="C1612" t="inlineStr"/>
       <c r="D1612" t="inlineStr">
         <is>
-          <t>[160.96215286 321.51521967 863.22103483 698.80507012]</t>
+          <t>[496.54061531 645.91548152 492.67405488 319.69131412]</t>
         </is>
       </c>
       <c r="E1612" t="inlineStr"/>
@@ -43778,7 +43778,7 @@
       <c r="C1613" t="inlineStr"/>
       <c r="D1613" t="inlineStr">
         <is>
-          <t>[1.         1.         0.89421729 0.60353812]</t>
+          <t>[1.         1.         0.52550626 0.88368052]</t>
         </is>
       </c>
       <c r="E1613" t="inlineStr"/>
@@ -43797,7 +43797,7 @@
       <c r="C1614" t="inlineStr"/>
       <c r="D1614" t="inlineStr">
         <is>
-          <t>[1.         1.         0.89421729 0.60353812]</t>
+          <t>[1.         1.         0.52550626 0.88368052]</t>
         </is>
       </c>
       <c r="E1614" t="inlineStr"/>
@@ -43816,7 +43816,7 @@
       <c r="C1615" t="inlineStr"/>
       <c r="D1615" t="inlineStr">
         <is>
-          <t>[0.50063618 0.35275999 0.935101  ]</t>
+          <t>[0.7687393 1.        1.       ]</t>
         </is>
       </c>
       <c r="E1615" t="inlineStr"/>
@@ -43859,8 +43859,8 @@
       </c>
       <c r="D1617" t="inlineStr">
         <is>
-          <t>[5.55777673 5.55777673 5.55777673 5.55777673 5.55777673 5.55777673
- 5.55777673 5.36180451 5.16583229 4.96986007 4.31307338 3.65628669
+          <t>[6.45915482 6.45915482 6.45915482 6.45915482 6.45915482 6.45915482
+ 6.45915482 5.4375453  4.41593579 3.39432628 3.26271752 3.13110876
  2.9995    ]</t>
         </is>
       </c>
@@ -44112,8 +44112,8 @@
       </c>
       <c r="D1628" t="inlineStr">
         <is>
-          <t>[11.11555345 11.11555345 11.11555345 11.11555345 11.11555345 11.11555345
- 11.11555345 10.72360901 10.33166457  9.93972013  8.62614676  7.31257338
+          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963 10.87509061  8.83187159  6.78865256  6.52543504  6.26221752
   5.999     ]</t>
         </is>
       </c>
@@ -44367,7 +44367,7 @@
       </c>
       <c r="D1639" t="inlineStr">
         <is>
-          <t>[20001.38789402 10044.67803393  3362.5180483   2379.56283728]</t>
+          <t>[8794.46311934 6763.80450929 5156.62483658 3342.40037537]</t>
         </is>
       </c>
       <c r="E1639" t="inlineStr">
@@ -44394,7 +44394,7 @@
       </c>
       <c r="D1640" t="inlineStr">
         <is>
-          <t>[305095.80585701 154172.41865223  46476.15656358  18836.97354829]</t>
+          <t>[182718.04853292 140659.05666912  62329.25273263  16973.57039197]</t>
         </is>
       </c>
       <c r="E1640" t="inlineStr">
@@ -44421,7 +44421,7 @@
       </c>
       <c r="D1641" t="inlineStr">
         <is>
-          <t>[305095.80585701 154172.41865223  46476.15656358  18836.97354829]</t>
+          <t>[182718.04853292 140659.05666912  62329.25273263  16973.57039197]</t>
         </is>
       </c>
       <c r="E1641" t="inlineStr">
@@ -44448,7 +44448,7 @@
       </c>
       <c r="D1642" t="inlineStr">
         <is>
-          <t>[7.31118634e+12 3.69452237e+12 1.11373488e+12 4.51401235e+11]</t>
+          <t>[4.37857773e+12 3.37069391e+12 1.49363175e+12 4.06747433e+11]</t>
         </is>
       </c>
       <c r="E1642" t="inlineStr">
@@ -44475,7 +44475,7 @@
       </c>
       <c r="D1643" t="inlineStr">
         <is>
-          <t>[7.31118634e+12 3.69452237e+12 1.11373488e+12 4.51401235e+11]</t>
+          <t>[4.37857773e+12 3.37069391e+12 1.49363175e+12 4.06747433e+11]</t>
         </is>
       </c>
       <c r="E1643" t="inlineStr">
@@ -44502,7 +44502,7 @@
       </c>
       <c r="D1644" t="inlineStr">
         <is>
-          <t>[5.79777077e+12 2.92975624e+12 8.83191760e+11 3.57961180e+11]</t>
+          <t>[3.47221214e+12 2.67296027e+12 1.18444997e+12 3.22550715e+11]</t>
         </is>
       </c>
       <c r="E1644" t="inlineStr">
@@ -44529,7 +44529,7 @@
       </c>
       <c r="D1645" t="inlineStr">
         <is>
-          <t>[4.79304766e+11 2.40706399e+11 8.05779547e+10 5.70228334e+10]</t>
+          <t>[2.10746780e+11 1.62084939e+11 1.23571168e+11 8.00958633e+10]</t>
         </is>
       </c>
       <c r="E1645" t="inlineStr">
@@ -44637,10 +44637,10 @@
       </c>
       <c r="D1649" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.41727104 0.15203488 0.15203488 0.        ]
- [0.         0.         0.83088776 0.30086578 0.30086578 0.        ]
- [0.         0.         2.48206846 0.94525519 0.94525519 0.        ]
- [0.         0.         3.50736693 1.76547148 1.76547148 0.        ]]</t>
+          <t>[[0.         0.         0.9490062  0.29503438 0.29503438 0.        ]
+ [0.         0.         1.23392094 0.38325372 0.38325372 0.        ]
+ [0.         0.         1.61850052 0.6596995  0.6596995  0.        ]
+ [0.         0.         2.49700786 1.57194017 1.57194017 0.        ]]</t>
         </is>
       </c>
       <c r="E1649" t="inlineStr"/>
@@ -44663,10 +44663,10 @@
       </c>
       <c r="D1650" t="inlineStr">
         <is>
-          <t>[[0.6852973  0.6852973  0.         0.         0.         0.07601744]
- [1.36652278 1.36652278 0.         0.         0.         0.15043289]
- [4.08569404 4.08569404 0.         0.         0.         0.4726276 ]
- [5.77272622 5.77272622 0.         0.         0.         0.88273574]]</t>
+          <t>[[1.56155204 1.56155204 0.         0.         0.         0.14751719]
+ [2.03078785 2.03078785 0.         0.         0.         0.19162686]
+ [2.66315966 2.66315966 0.         0.         0.         0.32984975]
+ [4.10668094 4.10668094 0.         0.         0.         0.78597008]]</t>
         </is>
       </c>
       <c r="E1650" t="inlineStr"/>
@@ -44689,7 +44689,7 @@
       </c>
       <c r="D1651" t="inlineStr">
         <is>
-          <t>[618.43795514]</t>
+          <t>[563.6035098]</t>
         </is>
       </c>
       <c r="E1651" t="inlineStr"/>
@@ -44712,7 +44712,7 @@
       </c>
       <c r="D1652" t="inlineStr">
         <is>
-          <t>[3646837.66209974]</t>
+          <t>[2648516.35740918]</t>
         </is>
       </c>
       <c r="E1652" t="inlineStr"/>
@@ -44735,8 +44735,8 @@
       </c>
       <c r="D1653" t="inlineStr">
         <is>
-          <t>[11.11555345 11.11555345 11.11555345 11.11555345 11.11555345 11.11555345
- 10.91958123 10.52763679 10.13569235  9.28293345  7.96936007  6.65578669]</t>
+          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 11.89670012  9.8534811   7.81026208  6.6570438   6.39382628  6.13060876]</t>
         </is>
       </c>
       <c r="E1653" t="inlineStr"/>
@@ -44759,8 +44759,8 @@
       </c>
       <c r="D1654" t="inlineStr">
         <is>
-          <t>[0.07389092 0.07389092 0.07389092 0.03699247 0.03699247 0.03699247
- 0.01304946 0.01304946 0.01304946 0.01220257 0.01220257 0.01220257]</t>
+          <t>[0.02783779 0.02783779 0.02783779 0.0214     0.0214     0.0214
+ 0.0214     0.0214     0.0214     0.0214     0.0214     0.0214    ]</t>
         </is>
       </c>
       <c r="E1654" t="inlineStr"/>
@@ -44807,18 +44807,18 @@
       </c>
       <c r="D1656" t="inlineStr">
         <is>
-          <t>[[46780462.27096341]
- [42800365.37995026]
- [38810714.97298267]
- [64178246.43045195]
- [51575895.11497289]
- [38958418.34922451]
- [90439538.06769523]
- [72529277.06340644]
- [51376947.20767051]
- [34349962.50040382]
- [ 5327998.75782244]
- [-1506593.64387891]]</t>
+          <t>[[91804080.70304473]
+ [83229706.36031844]
+ [74623754.42759533]
+ [80507736.10258915]
+ [64033996.44192199]
+ [47532836.63093002]
+ [45258421.58923124]
+ [51171163.62693743]
+ [57100249.25743731]
+ [44613954.94700702]
+ [ 8733851.1402094 ]
+ [  466976.9042976 ]]</t>
         </is>
       </c>
       <c r="E1656" t="inlineStr"/>
@@ -44841,18 +44841,18 @@
       </c>
       <c r="D1657" t="inlineStr">
         <is>
-          <t>[[ 2454175.49718835]
- [ 2454612.73605094]
- [ 2455010.3682809 ]
- [ 4889205.42811578]
- [ 4890437.01983929]
- [ 4891434.89527983]
- [14122192.26934924]
- [14747535.40739143]
- [15429066.70138702]
- [18332736.31586897]
- [22083116.20223598]
- [27659895.32581584]]</t>
+          <t>[[ 5443140.46597281]
+ [ 5443882.15991635]
+ [ 5444557.99490807]
+ [ 7080900.65351134]
+ [ 7082276.01532918]
+ [ 7083391.81692702]
+ [ 7793590.00918429]
+ [ 9740868.48261976]
+ [12927598.99209708]
+ [15794695.31407566]
+ [16627907.02085203]
+ [17548798.02757157]]</t>
         </is>
       </c>
       <c r="E1657" t="inlineStr"/>
@@ -44875,18 +44875,18 @@
       </c>
       <c r="D1658" t="inlineStr">
         <is>
-          <t>[[-11655.66115788]
- [-13021.84840787]
- [-14033.95801443]
- [-30050.36689754]
- [-31940.38912602]
- [-33527.53281384]
- [-96704.73592818]
- [-95289.62532105]
- [-93593.58741212]
- [-93322.01491551]
- [-81399.42543012]
- [-68995.71032479]]</t>
+          <t>[[-36107.62545259]
+ [-40339.88451131]
+ [-43475.26002505]
+ [-60464.98153154]
+ [-64267.93540324]
+ [-67461.46092987]
+ [-64209.86481888]
+ [-54338.08104583]
+ [-43918.39941478]
+ [-38092.96941455]
+ [-37175.55370394]
+ [-36181.73215341]]</t>
         </is>
       </c>
       <c r="E1658" t="inlineStr"/>
@@ -44939,18 +44939,18 @@
       <c r="C1660" t="inlineStr"/>
       <c r="D1660" t="inlineStr">
         <is>
-          <t>[[0.23898011]
- [0.21882808]
- [0.19864534]
- [0.32937758]
- [0.26595932]
- [0.20289523]
- [0.47682924]
- [0.39139447]
- [0.29480554]
- [0.2381327 ]
- [0.19647904]
- [0.24382288]]</t>
+          <t>[[0.46955085]
+ [0.42619622]
+ [0.38273662]
+ [0.41441636]
+ [0.33182199]
+ [0.24988843]
+ [0.24040674]
+ [0.2742207 ]
+ [0.31210527]
+ [0.2663022 ]
+ [0.1531223 ]
+ [0.1546399 ]]</t>
         </is>
       </c>
       <c r="E1660" t="inlineStr"/>
@@ -44969,18 +44969,18 @@
       <c r="C1661" t="inlineStr"/>
       <c r="D1661" t="inlineStr">
         <is>
-          <t>[[0.04747546]
- [0.043739  ]
- [0.04007043]
- [0.14744833]
- [0.13887945]
- [0.13040643]
- [1.09941798]
- [1.08622279]
- [1.07478567]
- [1.22455332]
- [1.24818992]
- [1.2977524 ]]</t>
+          <t>[[0.26798375]
+ [0.2583669 ]
+ [0.24866165]
+ [0.47253226]
+ [0.45348593]
+ [0.43431919]
+ [0.36428046]
+ [0.36691873]
+ [0.38290758]
+ [0.39117462]
+ [0.39293663]
+ [0.39566405]]</t>
         </is>
       </c>
       <c r="E1661" t="inlineStr"/>
@@ -44999,18 +44999,18 @@
       <c r="C1662" t="inlineStr"/>
       <c r="D1662" t="inlineStr">
         <is>
-          <t>[[0.76110132]
- [0.68713246]
- [0.61335368]
- [1.03705048]
- [0.84438282]
- [0.65280993]
- [1.64953185]
- [1.43746048]
- [1.17854964]
- [1.06664625]
- [0.81418379]
- [0.96608558]]</t>
+          <t>[[1.76360268]
+ [1.60602175]
+ [1.4484894 ]
+ [1.60601686]
+ [1.31854222]
+ [1.03209774]
+ [1.00820938]
+ [1.1771875 ]
+ [1.50777478]
+ [1.51474152]
+ [0.85731596]
+ [0.71882067]]</t>
         </is>
       </c>
       <c r="E1662" t="inlineStr"/>
@@ -45126,7 +45126,7 @@
       </c>
       <c r="D1667" t="inlineStr">
         <is>
-          <t>[0.31557146]</t>
+          <t>[0.28351821]</t>
         </is>
       </c>
       <c r="E1667" t="inlineStr"/>
@@ -45149,7 +45149,7 @@
       </c>
       <c r="D1668" t="inlineStr">
         <is>
-          <t>[0.32048084]</t>
+          <t>[0.28706534]</t>
         </is>
       </c>
       <c r="E1668" t="inlineStr"/>
@@ -45172,7 +45172,7 @@
       </c>
       <c r="D1669" t="inlineStr">
         <is>
-          <t>[0.31557146 0.32048084 0.8394754  1.04215244 1.22106194 3.03897291]</t>
+          <t>[0.28351821 0.28706534 0.8340336  1.01526608 1.18436792 3.21104156]</t>
         </is>
       </c>
       <c r="E1669" t="inlineStr"/>
@@ -45191,9 +45191,9 @@
       <c r="C1670" t="inlineStr"/>
       <c r="D1670" t="inlineStr">
         <is>
-          <t>[[   0.66326735    1.0713711    -2.8484465     3.51656174   -1.40275369]
- [  10.26070008   24.96705131  -93.09770477  118.95532719  -60.08537381]
- [ -63.69630718  178.20406753 -368.2413291   465.65574826 -210.92217951]]</t>
+          <t>[[   0.95870019    1.37311689   -4.24768655    4.33808453   -1.42221505]
+ [  42.46706284  -63.26780368   48.7347355    15.50531864  -42.4393133 ]
+ [ -83.20978344  280.5387959  -536.31364738  574.74388005 -234.75924512]]</t>
         </is>
       </c>
       <c r="E1670" t="inlineStr"/>
@@ -45212,9 +45212,9 @@
       <c r="C1671" t="inlineStr"/>
       <c r="D1671" t="inlineStr">
         <is>
-          <t>[[   0.65598782    1.01938123   -2.67920584    3.30027361   -1.29643682]
- [   5.5021844    17.79412349  -62.22469492   79.43805875  -39.50967172]
- [ -62.62018086  172.58478949 -355.53834043  449.70680714 -203.13307534]]</t>
+          <t>[[   0.94139985    1.38584088   -4.22549025    4.27236154   -1.37411202]
+ [  19.15349776  -23.36375276    7.82949162   24.62333672  -27.24257334]
+ [ -80.39448611  269.6218948  -515.77645812  551.55297514 -224.00392572]]</t>
         </is>
       </c>
       <c r="E1671" t="inlineStr"/>
@@ -45233,7 +45233,7 @@
       <c r="C1672" t="inlineStr"/>
       <c r="D1672" t="inlineStr">
         <is>
-          <t>[[  3.49465851 -13.74153096  25.10151114 -19.42723607   5.57259738]
+          <t>[[  6.93491407 -22.82714621  34.9456482  -24.83509244   6.78167638]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -45258,7 +45258,7 @@
       </c>
       <c r="D1673" t="inlineStr">
         <is>
-          <t>[0.32048084 1.22106194 3.07879489]</t>
+          <t>[0.28706534 1.18436792 3.27261856]</t>
         </is>
       </c>
       <c r="E1673" t="inlineStr"/>
@@ -45281,7 +45281,7 @@
       </c>
       <c r="D1674" t="inlineStr">
         <is>
-          <t>[0.31557146 1.04215244 3.03897291]</t>
+          <t>[0.28351821 1.01526608 3.21104156]</t>
         </is>
       </c>
       <c r="E1674" t="inlineStr"/>
@@ -45304,7 +45304,7 @@
       </c>
       <c r="D1675" t="inlineStr">
         <is>
-          <t>[4.8089763 0.        0.       ]</t>
+          <t>[4.79595931 0.         0.        ]</t>
         </is>
       </c>
       <c r="E1675" t="inlineStr"/>
@@ -45328,18 +45328,18 @@
       <c r="D1676" t="inlineStr">
         <is>
           <t>[[0.        ]
- [0.00375917]
- [0.0140533 ]
- [0.03029075]
- [0.06810703]
- [0.12410363]
- [0.19483979]
- [0.24765235]
- [0.31092612]
- [0.38327162]
- [0.45824749]
- [0.53978355]
- [0.62530289]]</t>
+ [0.00647899]
+ [0.02391387]
+ [0.05131452]
+ [0.10866161]
+ [0.18601888]
+ [0.27959679]
+ [0.34260578]
+ [0.41211593]
+ [0.49120434]
+ [0.57568315]
+ [0.66858158]
+ [0.76507832]]</t>
         </is>
       </c>
       <c r="E1676" t="inlineStr"/>
@@ -45362,7 +45362,7 @@
       </c>
       <c r="D1677" t="inlineStr">
         <is>
-          <t>[0.62530289]</t>
+          <t>[0.76507832]</t>
         </is>
       </c>
       <c r="E1677" t="inlineStr"/>
@@ -45385,17 +45385,17 @@
       </c>
       <c r="D1678" t="inlineStr">
         <is>
-          <t>[[-18135640.45889496]
- [-15843105.35825697]
- [-13549364.65116301]
- [-11890796.07870679]
- [-10230573.37766991]
- [ -8568942.31262778]
- [ -8211760.44915037]
- [ -7867128.76630011]
- [ -7535090.69704921]
- [ -7268664.65287872]
- [ -7039885.37762156]
+          <t>[[-14781607.61805424]
+ [-13762594.37474667]
+ [-12742073.10375252]
+ [-11612457.84998246]
+ [-10480750.67711409]
+ [ -9347254.56694155]
+ [ -8720703.91903967]
+ [ -8202090.99839579]
+ [ -7791149.13397046]
+ [ -7464194.09425032]
+ [ -7150040.42249746]
  [ -6848706.78611806]]</t>
         </is>
       </c>
@@ -45419,18 +45419,18 @@
       </c>
       <c r="D1679" t="inlineStr">
         <is>
-          <t>[[2938083.50667655]
- [2938728.77378512]
- [2939316.2512196 ]
- [2939603.5248539 ]
- [2940515.13946386]
- [2941255.73491422]
- [2938660.76515943]
- [2938808.69788188]
- [2938920.09060196]
- [2938789.54506018]
- [2938718.50729666]
- [2938594.63983278]]</t>
+          <t>[[2937996.32859235]
+ [2938477.5271477 ]
+ [2938916.56257145]
+ [2939665.20943868]
+ [2940351.44462232]
+ [2940909.88414805]
+ [2939698.04303113]
+ [2939525.78998292]
+ [2939347.77168919]
+ [2939200.0017046 ]
+ [2939284.25483703]
+ [2939278.58814025]]</t>
         </is>
       </c>
       <c r="E1679" t="inlineStr"/>
@@ -45453,18 +45453,18 @@
       </c>
       <c r="D1680" t="inlineStr">
         <is>
-          <t>[[8739.8969871 ]
- [8743.08559229]
- [8746.10294489]
- [8747.83312258]
- [8753.13980924]
- [8757.93611837]
- [8743.74007374]
- [8745.09233951]
- [8746.37451791]
- [8746.13237269]
- [8746.56591426]
- [8747.13525406]]</t>
+          <t>[[8739.47587932]
+ [8741.85440501]
+ [8744.10956291]
+ [8748.08471614]
+ [8752.07687573]
+ [8755.6886084 ]
+ [8749.44990145]
+ [8748.94881462]
+ [8748.72501776]
+ [8749.00798024]
+ [8751.32702121]
+ [8753.47008982]]</t>
         </is>
       </c>
       <c r="E1680" t="inlineStr"/>
@@ -45487,18 +45487,18 @@
       </c>
       <c r="D1681" t="inlineStr">
         <is>
-          <t>[[-1872900.91524215]
- [-1770516.76256794]
- [-1667763.3748648 ]
- [-1520176.63950922]
- [-1371646.56335047]
- [-1222636.323986  ]
- [-1132985.89339216]
- [-1042717.4986719 ]
- [ -951863.33241322]
- [ -866497.50215565]
- [ -780361.39215262]
- [ -693050.82302048]]</t>
+          <t>[[-1880858.33404185]
+ [-1778134.39985465]
+ [-1674791.6647656 ]
+ [-1526110.82723788]
+ [-1376402.42998317]
+ [-1226054.70072509]
+ [-1135720.0120295 ]
+ [-1045131.38826278]
+ [ -953958.42960266]
+ [ -867974.32070463]
+ [ -780980.96311697]
+ [ -693051.0995674 ]]</t>
         </is>
       </c>
       <c r="E1681" t="inlineStr"/>
@@ -45521,18 +45521,18 @@
       </c>
       <c r="D1682" t="inlineStr">
         <is>
-          <t>[[ 3.79004267e+08]
- [ 3.44700955e+08]
- [ 3.10327083e+08]
- [ 2.61077580e+08]
- [ 2.11673556e+08]
- [ 1.62211705e+08]
- [ 1.32515661e+08]
- [ 1.02753287e+08]
- [ 7.29413488e+07]
- [ 4.50831207e+07]
- [ 1.71972065e+07]
- [-1.06981122e+07]]</t>
+          <t>[[ 3.80487292e+08]
+ [ 3.46112971e+08]
+ [ 3.11619262e+08]
+ [ 2.62151223e+08]
+ [ 2.12514797e+08]
+ [ 1.62795914e+08]
+ [ 1.32963653e+08]
+ [ 1.03114736e+08]
+ [ 7.32233168e+07]
+ [ 4.52718456e+07]
+ [ 1.72851413e+07]
+ [-1.06981113e+07]]</t>
         </is>
       </c>
       <c r="E1682" t="inlineStr"/>
@@ -45555,18 +45555,18 @@
       </c>
       <c r="D1683" t="inlineStr">
         <is>
-          <t>[[6203251.53035086]
- [6203181.63753003]
- [6203111.69753537]
- [6203451.47558719]
- [6203350.71219158]
- [6203249.85158057]
- [6204127.64520492]
- [6204118.70192493]
- [6204111.43261997]
- [6204287.05378327]
- [6204492.57216358]
- [6204790.94242566]]</t>
+          <t>[[6203724.58972019]
+ [6203654.01154777]
+ [6203583.29740007]
+ [6203777.95070021]
+ [6203676.02340468]
+ [6203573.91070994]
+ [6203544.18411451]
+ [6203660.3460613 ]
+ [6203853.57616639]
+ [6203994.43733098]
+ [6203991.15638176]
+ [6203990.03108128]]</t>
         </is>
       </c>
       <c r="E1683" t="inlineStr"/>
@@ -45591,7 +45591,7 @@
         <is>
           <t>[[ 2.93771262e+06]
  [ 8.73815973e+03]
- [-2.04265776e+07]]</t>
+ [-1.57986383e+07]]</t>
         </is>
       </c>
       <c r="E1684" t="inlineStr"/>
@@ -45614,8 +45614,8 @@
       </c>
       <c r="D1685" t="inlineStr">
         <is>
-          <t>[[-1.97473643e+06]
- [ 4.13196970e+08]
+          <t>[[-1.98280983e+06]
+ [ 4.14705733e+08]
  [ 6.20262840e+06]]</t>
         </is>
       </c>
@@ -45639,7 +45639,7 @@
       </c>
       <c r="D1686" t="inlineStr">
         <is>
-          <t>[2311916.36645306]</t>
+          <t>[1838587.65765499]</t>
         </is>
       </c>
       <c r="E1686" t="inlineStr"/>
@@ -45662,7 +45662,7 @@
       </c>
       <c r="D1687" t="inlineStr">
         <is>
-          <t>[-2.77239697e+00 -3.93245327e-02  9.25607268e+01]</t>
+          <t>[-3.48612692e+00 -4.94482982e-02  1.12073001e+02]</t>
         </is>
       </c>
       <c r="E1687" t="inlineStr"/>
@@ -45685,7 +45685,7 @@
       </c>
       <c r="D1688" t="inlineStr">
         <is>
-          <t>[2.81602258e+10 2.80292929e+10 3.06810782e+08 5.41253437e+02
+          <t>[2.83314992e+10 2.82005663e+10 2.98073522e+08 5.41253437e+02
  1.42357768e+07 1.69892134e+05]</t>
         </is>
       </c>
@@ -51112,7 +51112,7 @@
       </c>
       <c r="D1860" t="inlineStr">
         <is>
-          <t>[2.67367731]</t>
+          <t>[2.97392115]</t>
         </is>
       </c>
       <c r="E1860" t="inlineStr"/>
@@ -53951,8 +53951,8 @@
       </c>
       <c r="D1981" t="inlineStr">
         <is>
-          <t>[12.11186105 12.11186105 12.11186105 12.11186105 11.66280973 11.16368893
- 11.11555345]</t>
+          <t>[12.91830963 12.91830963 12.91830963 12.91830963 12.91830963 12.91830963
+ 12.91830963]</t>
         </is>
       </c>
       <c r="E1981" t="inlineStr">
@@ -54937,7 +54937,7 @@
       </c>
       <c r="D2018" t="inlineStr">
         <is>
-          <t>[11.11555345 11.11555345 11.11555345  9.93972013  5.999     ]</t>
+          <t>[12.91830963 12.91830963 12.91830963  6.78865256  5.999     ]</t>
         </is>
       </c>
       <c r="E2018" t="inlineStr">
@@ -54987,7 +54987,7 @@
       </c>
       <c r="D2020" t="inlineStr">
         <is>
-          <t>[[0.0853113  0.05280258 0.01634223 0.00804929 0.01475924]]</t>
+          <t>[[0.03203324 0.02       0.02       0.02       0.02      ]]</t>
         </is>
       </c>
       <c r="E2020" t="inlineStr">

--- a/examples/99_tower_gbf/15mw/50m/outputs_mono/mono_turb_output.xlsx
+++ b/examples/99_tower_gbf/15mw/50m/outputs_mono/mono_turb_output.xlsx
@@ -1249,7 +1249,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[11.]</t>
+          <t>[9.51547331]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3435,7 +3435,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>[2.54853495]</t>
+          <t>[2.7493018]</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>[11.        11.         9.4571377  5.999      5.999    ]</t>
+          <t>[8. 8. 8. 6. 6.]</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -4140,8 +4140,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>[[0.11405015 0.13479314 0.13377177 0.135      0.1185456  0.13472322
-  0.11529586]]</t>
+          <t>[[0.07 0.07 0.07 0.07 0.07 0.07 0.07]]</t>
         </is>
       </c>
       <c r="E160" t="inlineStr"/>
@@ -4164,7 +4163,8 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>[11. 11. 11. 11. 11. 11. 11.]</t>
+          <t>[9.51547331 9.51547331 9.51547331 9.51547331 9.51547331 9.5123012
+ 9.21296284]</t>
         </is>
       </c>
       <c r="E161" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>[11.]</t>
+          <t>[8.]</t>
         </is>
       </c>
       <c r="E178" t="inlineStr"/>
@@ -4599,7 +4599,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>[11.]</t>
+          <t>[9.21296284]</t>
         </is>
       </c>
       <c r="E179" t="inlineStr"/>
@@ -6453,7 +6453,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>[[0.055      0.055      0.04728569 0.035      0.035     ]]</t>
+          <t>[[0.06431794 0.02668064 0.025      0.025      0.025     ]]</t>
         </is>
       </c>
       <c r="E249" t="inlineStr"/>
@@ -6476,7 +6476,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>[11.        11.         9.4571377  5.999      5.999    ]</t>
+          <t>[8. 8. 8. 6. 6.]</t>
         </is>
       </c>
       <c r="E250" t="inlineStr"/>
@@ -9843,7 +9843,7 @@
  [  0.   0.  50.]
  [  0.   0. 100.]
  [  0.   0. 130.]
- [  0.   0. 158.]]</t>
+ [  0.   0. 150.]]</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -10160,7 +10160,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>[[  0.   0. -80.]
+          <t>[[  0.   0. -95.]
  [  0.   0. -50.]
  [  0.   0. -30.]
  [  0.   0. -10.]
@@ -10392,7 +10392,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>[5.999]</t>
+          <t>[6.]</t>
         </is>
       </c>
       <c r="E373" t="inlineStr"/>
@@ -13980,7 +13980,7 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>[1162.32585598]</t>
+          <t>[1043.53620067]</t>
         </is>
       </c>
       <c r="E532" t="inlineStr"/>
@@ -14003,7 +14003,7 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>[3624.20815835]</t>
+          <t>[3344.65797799]</t>
         </is>
       </c>
       <c r="E533" t="inlineStr"/>
@@ -14103,7 +14103,7 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>[1162.32585598]</t>
+          <t>[1043.53620067]</t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
@@ -14184,7 +14184,7 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>[1629.32893959]</t>
+          <t>[862.2613398]</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
@@ -14238,7 +14238,7 @@
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>[654.74691929]</t>
+          <t>[654.77302046]</t>
         </is>
       </c>
       <c r="E542" t="inlineStr">
@@ -14292,7 +14292,7 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>[95.]</t>
+          <t>[110.]</t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
@@ -14319,7 +14319,7 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>[3595.90401053]</t>
+          <t>[2005.53319795]</t>
         </is>
       </c>
       <c r="E545" t="inlineStr">
@@ -14346,7 +14346,7 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>[8667844.56472766]</t>
+          <t>[5176980.86317517]</t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
@@ -14419,7 +14419,7 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>[90.98260687]</t>
+          <t>[85.97193576]</t>
         </is>
       </c>
       <c r="E549" t="inlineStr"/>
@@ -14465,10 +14465,10 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>[   0.            0.            0.            0.            0.
-    0.            0.            0.            0.            0.
-    0.            0.            0.          729.034078    860.2225698
-  948.63159706  984.81958944 1017.40298746 1047.13901865]</t>
+          <t>[  0.           0.           0.           0.           0.
+   0.           0.           0.           0.           0.
+   0.           0.           0.         633.53477442 745.88449041
+ 820.88748446 842.73357274 860.8521798  875.98391404]</t>
         </is>
       </c>
       <c r="E551" t="inlineStr"/>
@@ -14563,7 +14563,7 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>[-80.         -70.         -60.         -50.         -43.33333333
+          <t>[-95.         -80.         -65.         -50.         -43.33333333
  -36.66666667 -30.         -23.33333333 -16.66666667 -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
   10.          11.66666667  13.33333333  15.        ]</t>
@@ -14612,11 +14612,11 @@
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          20017.11440126
-  20986.44664575  23999.51560344  29386.86395002  37748.43509814
-  49975.7389429   67453.86707481  78800.07215349  92377.84329724
- 108714.45363716      0.              0.              0.
-      0.              0.              0.        ]</t>
+          <t>[    0.             0.             0.         15001.79811854
+ 15728.78202234 17991.96803786 22045.93628102 28361.67325187
+ 37641.62030854 50939.66078868 59579.87143492 69918.5386986
+ 82348.34784436     0.             0.             0.
+     0.             0.             0.        ]</t>
         </is>
       </c>
       <c r="E557" t="inlineStr"/>
@@ -14712,7 +14712,7 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>[-80.         -70.         -60.         -50.         -43.33333333
+          <t>[-95.         -80.         -65.         -50.         -43.33333333
  -36.66666667 -30.         -23.33333333 -16.66666667 -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
   10.          11.66666667  13.33333333  15.        ]</t>
@@ -14761,7 +14761,7 @@
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>[-80.         -70.         -60.         -50.         -43.33333333
+          <t>[-95.         -80.         -65.         -50.         -43.33333333
  -36.66666667 -30.         -23.33333333 -16.66666667 -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
   10.          11.66666667  13.33333333  15.        ]</t>
@@ -14866,8 +14866,10 @@
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>[11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11.
- 11.]</t>
+          <t>[9.51547331 9.51547331 9.51547331 9.51547331 9.51547331 9.51547331
+ 9.51547331 9.51547331 9.51547331 9.51547331 9.51547331 9.51547331
+ 9.51547331 9.51441594 9.51335857 9.5123012  9.41252175 9.3127423
+ 9.21296284]</t>
         </is>
       </c>
       <c r="E567" t="inlineStr"/>
@@ -14962,7 +14964,7 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>[  0.   0. -80.]</t>
+          <t>[  0.   0. -95.]</t>
         </is>
       </c>
       <c r="E571" t="inlineStr"/>
@@ -15008,9 +15010,9 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>[0.         0.10526316 0.21052632 0.31578947 0.38596491 0.45614035
- 0.52631579 0.59649123 0.66666667 0.73684211 0.77192982 0.80701754
- 0.84210526 0.87719298 0.9122807  0.94736842 0.96491228 0.98245614
+          <t>[0.         0.13636364 0.27272727 0.40909091 0.46969697 0.53030303
+ 0.59090909 0.65151515 0.71212121 0.77272727 0.8030303  0.83333333
+ 0.86363636 0.89393939 0.92424242 0.95454545 0.96969697 0.98484848
  1.        ]</t>
         </is>
       </c>
@@ -15034,11 +15036,11 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          20017.11440126
-  20986.44664575  23999.51560344  29386.86395002  37748.43509814
-  49975.7389429   67453.86707481  78800.07215349  92377.84329724
- 108714.45363716    729.034078      860.2225698     948.63159706
-    984.81958944   1017.40298746   1047.13901865]</t>
+          <t>[    0.             0.             0.         15001.79811854
+ 15728.78202234 17991.96803786 22045.93628102 28361.67325187
+ 37641.62030854 50939.66078868 59579.87143492 69918.5386986
+ 82348.34784436   633.53477442   745.88449041   820.88748446
+   842.73357274   860.8521798    875.98391404]</t>
         </is>
       </c>
       <c r="E574" t="inlineStr"/>
@@ -15180,11 +15182,11 @@
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>[      0.               0.               0.          -20017.11440126
-  -20986.44664575  -23999.51560344  -29386.86395002  -37748.43509814
-  -49975.7389429   -67453.86707481  -78800.07215349  -92377.84329724
- -108714.45363716    -729.034078      -860.2225698     -948.63159706
-    -984.81958944   -1017.40298746   -1047.13901865]</t>
+          <t>[     0.              0.              0.         -15001.79811854
+ -15728.78202234 -17991.96803786 -22045.93628102 -28361.67325187
+ -37641.62030854 -50939.66078868 -59579.87143492 -69918.5386986
+ -82348.34784436   -633.53477442   -745.88449041   -820.88748446
+   -842.73357274   -860.8521798    -875.98391404]</t>
         </is>
       </c>
       <c r="E580" t="inlineStr"/>
@@ -15234,8 +15236,7 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>[-30.         -26.66666667 -23.33333333 -20.         -16.66666667
- -13.33333333 -10.          -6.66666667  -3.33333333  -0.        ]</t>
+          <t>[-45. -40. -35. -30. -25. -20. -15. -10.  -5.  -0.]</t>
         </is>
       </c>
       <c r="E582" t="inlineStr"/>
@@ -15258,26 +15259,26 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>[[2.25650526e+10 5.88608222e+12 2.25650526e+10 5.88608222e+12
-  1.52133333e+10 1.24226667e+11]
- [2.04901053e+10 4.24064551e+12 2.04901053e+10 4.24064551e+12
-  1.40933333e+10 1.24226667e+11]
- [1.84151579e+10 2.94918412e+12 1.84151579e+10 2.94918412e+12
-  1.29733333e+10 1.24226667e+11]
- [1.63402105e+10 1.96745111e+12 1.63402105e+10 1.96745111e+12
-  1.18533333e+10 1.24226667e+11]
- [1.42652632e+10 1.25119959e+12 1.42652632e+10 1.25119959e+12
-  1.07333333e+10 1.24226667e+11]
- [1.21903158e+10 7.56182634e+11 1.21903158e+10 7.56182634e+11
-  9.61333333e+09 1.24226667e+11]
- [1.01153684e+10 4.38153333e+11 1.01153684e+10 4.38153333e+11
-  8.49333333e+09 1.24226667e+11]
- [8.04042105e+09 2.52864774e+11 8.04042105e+09 2.52864774e+11
-  7.37333333e+09 1.24226667e+11]
- [5.96547368e+09 1.56070041e+11 5.96547368e+09 1.56070041e+11
-  6.25333333e+09 1.24226667e+11]
- [3.89052632e+09 1.03522222e+11 3.89052632e+09 1.03522222e+11
-  5.13333333e+09 1.24226667e+11]]</t>
+          <t>[[3.13772621e+10 1.86673540e+13 3.13772621e+10 1.86673540e+13
+  1.95605542e+10 8.04133145e+10]
+ [2.82648411e+10 1.32157604e+13 2.82648411e+10 1.32157604e+13
+  1.78805542e+10 8.04133145e+10]
+ [2.51524200e+10 8.95883338e+12 2.51524200e+10 8.95883338e+12
+  1.62005542e+10 8.04133145e+10]
+ [2.20399990e+10 5.74723972e+12 2.20399990e+10 5.74723972e+12
+  1.45205542e+10 8.04133145e+10]
+ [1.89275779e+10 3.43164606e+12 1.89275779e+10 3.43164606e+12
+  1.28405542e+10 8.04133145e+10]
+ [1.58151569e+10 1.86271906e+12 1.58151569e+10 1.86271906e+12
+  1.11605542e+10 8.04133145e+10]
+ [1.27027358e+10 8.91125406e+11 1.27027358e+10 8.91125406e+11
+  9.48055421e+09 8.04133145e+10]
+ [9.59031477e+09 3.67531747e+11 9.59031477e+09 3.67531747e+11
+  7.80055421e+09 8.04133145e+10]
+ [6.47789372e+09 1.42604754e+11 6.47789372e+09 1.42604754e+11
+  6.12055421e+09 8.04133145e+10]
+ [3.36547267e+09 6.70110954e+10 3.36547267e+09 6.70110954e+10
+  4.44055421e+09 8.04133145e+10]]</t>
         </is>
       </c>
       <c r="E583" t="inlineStr"/>
@@ -15300,9 +15301,9 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>[[  0.           0.         -80.        ]
- [  0.           0.         -70.        ]
- [  0.           0.         -60.        ]
+          <t>[[  0.           0.         -95.        ]
+ [  0.           0.         -80.        ]
+ [  0.           0.         -65.        ]
  [  0.           0.         -50.        ]
  [  0.           0.         -43.33333333]
  [  0.           0.         -36.66666667]
@@ -15341,9 +15342,9 @@
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>[4.54864403 4.54864403 4.54864403 4.90468745 4.90468745 4.90468745
- 4.90841855 4.90841855 4.90841855 4.63359637 4.63359637 4.63359637
- 4.62859702 4.62859702 4.62859702 4.56988944 4.56988944 4.56988944]</t>
+          <t>[2.22256983 2.22256983 2.22256983 2.22256983 2.22256983 2.22256983
+ 2.22256983 2.22256983 2.22256983 2.22256983 2.22256983 2.22256983
+ 2.22244543 2.22219663 2.22194782 2.2100841  2.18660547 2.16312684]</t>
         </is>
       </c>
       <c r="E585" t="inlineStr"/>
@@ -15366,9 +15367,9 @@
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>[2.59466871 2.59466871 2.59466871 2.79897823 2.79897823 2.79897823
- 2.80112026 2.80112026 2.80112026 2.6434002  2.6434002  2.6434002
- 2.64053211 2.64053211 2.64053211 2.60685479 2.60685479 2.60685479]</t>
+          <t>[1.26543934 1.26543934 1.26543934 1.26543934 1.26543934 1.26543934
+ 1.26543934 1.26543934 1.26543934 1.26543934 1.26543934 1.26543934
+ 1.26536875 1.26522757 1.26508639 1.25835468 1.24503245 1.23171025]</t>
         </is>
       </c>
       <c r="E586" t="inlineStr"/>
@@ -15391,9 +15392,9 @@
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>[2.59466871 2.59466871 2.59466871 2.79897823 2.79897823 2.79897823
- 2.80112026 2.80112026 2.80112026 2.6434002  2.6434002  2.6434002
- 2.64053211 2.64053211 2.64053211 2.60685479 2.60685479 2.60685479]</t>
+          <t>[1.26543934 1.26543934 1.26543934 1.26543934 1.26543934 1.26543934
+ 1.26543934 1.26543934 1.26543934 1.26543934 1.26543934 1.26543934
+ 1.26536875 1.26522757 1.26508639 1.25835468 1.24503245 1.23171025]</t>
         </is>
       </c>
       <c r="E587" t="inlineStr"/>
@@ -15416,9 +15417,9 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>[67.25948311 67.25948311 67.25948311 72.39432064 72.39432064 72.39432064
- 72.44803054 72.44803054 72.44803054 68.4863737  68.4863737  68.4863737
- 68.4142023  68.4142023  68.4142023  67.56641223 67.56641223 67.56641223]</t>
+          <t>[24.78772853 24.78772853 24.78772853 24.78772853 24.78772853 24.78772853
+ 24.78772853 24.78772853 24.78772853 24.78772853 24.78772853 24.78772853
+ 24.78356663 24.77524422 24.76692367 24.37233597 23.60383476 22.85166084]</t>
         </is>
       </c>
       <c r="E588" t="inlineStr"/>
@@ -15441,9 +15442,9 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>[67.25948311 67.25948311 67.25948311 72.39432064 72.39432064 72.39432064
- 72.44803054 72.44803054 72.44803054 68.4863737  68.4863737  68.4863737
- 68.4142023  68.4142023  68.4142023  67.56641223 67.56641223 67.56641223]</t>
+          <t>[24.78772853 24.78772853 24.78772853 24.78772853 24.78772853 24.78772853
+ 24.78772853 24.78772853 24.78772853 24.78772853 24.78772853 24.78772853
+ 24.78356663 24.77524422 24.76692367 24.37233597 23.60383476 22.85166084]</t>
         </is>
       </c>
       <c r="E589" t="inlineStr"/>
@@ -15466,10 +15467,9 @@
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>[134.51896622 134.51896622 134.51896622 144.78864128 144.78864128
- 144.78864128 144.89606109 144.89606109 144.89606109 136.97274741
- 136.97274741 136.97274741 136.8284046  136.8284046  136.8284046
- 135.13282446 135.13282446 135.13282446]</t>
+          <t>[49.57545707 49.57545707 49.57545707 49.57545707 49.57545707 49.57545707
+ 49.57545707 49.57545707 49.57545707 49.57545706 49.57545706 49.57545706
+ 49.56713326 49.55048843 49.53384734 48.74467195 47.20766953 45.70332167]</t>
         </is>
       </c>
       <c r="E590" t="inlineStr"/>
@@ -15565,9 +15565,8 @@
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>[0.12442164 0.12442164 0.12442164 0.13428246 0.13428246 0.13428246
- 0.13438589 0.13438589 0.13438589 0.1267728  0.1267728  0.1267728
- 0.12663441 0.12663441 0.12663441 0.12500954 0.12500954 0.12500954]</t>
+          <t>[0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07
+ 0.07 0.07 0.07 0.07]</t>
         </is>
       </c>
       <c r="E594" t="inlineStr"/>
@@ -15680,17 +15679,17 @@
       <c r="D598" t="inlineStr">
         <is>
           <t>[[  0.           0.          15.        ]
- [  0.           0.          26.61331002]
- [  0.           0.          38.22662005]
- [  0.           0.          49.83993007]
- [  0.           0.          66.43037296]
- [  0.           0.          83.02081585]
- [  0.           0.          99.61125874]
- [  0.           0.         109.56552448]
- [  0.           0.         119.51979021]
- [  0.           0.         129.47405594]
- [  0.           0.         138.76470396]
- [  0.           0.         148.05535198]
+ [  0.           0.          27.30150617]
+ [  0.           0.          39.60301235]
+ [  0.           0.          51.90451852]
+ [  0.           0.          69.47809877]
+ [  0.           0.          87.05167901]
+ [  0.           0.         104.62525926]
+ [  0.           0.         115.16940741]
+ [  0.           0.         125.71355556]
+ [  0.           0.         136.2577037 ]
+ [  0.           0.         143.2871358 ]
+ [  0.           0.         150.3165679 ]
  [  0.           0.         157.346     ]]</t>
         </is>
       </c>
@@ -15714,8 +15713,8 @@
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>[2.02354145 2.02354145 2.02354145 1.83808605 1.74967136 1.66125667
- 1.2225383  1.06311603 0.90369376 0.70168037 0.70168037 0.70168037]</t>
+          <t>[1.21660946 1.21660946 1.21660946 0.69265414 0.69265414 0.69265414
+ 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
         </is>
       </c>
       <c r="E599" t="inlineStr"/>
@@ -15738,8 +15737,8 @@
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>[1.15086843 1.15086843 1.15086843 1.04527838 0.99510763 0.94493708
- 0.69518965 0.60472591 0.51426344 0.39922621 0.39922621 0.39922621]</t>
+          <t>[0.69215213 0.69215213 0.69215213 0.39362396 0.39362396 0.39362396
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E600" t="inlineStr"/>
@@ -15762,8 +15761,8 @@
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>[1.15086843 1.15086843 1.15086843 1.04527838 0.99510763 0.94493708
- 0.69518965 0.60472591 0.51426344 0.39922621 0.39922621 0.39922621]</t>
+          <t>[0.69215213 0.69215213 0.69215213 0.39362396 0.39362396 0.39362396
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E601" t="inlineStr"/>
@@ -15786,8 +15785,8 @@
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>[30.30153415 30.30153415 30.30153415 26.26518175 22.65444202 19.39078227
- 11.94128079  7.8525104   4.8231986   3.11989206  3.11989206  3.11989206]</t>
+          <t>[9.62279558 9.62279558 9.62279558 5.50555195 5.50555195 5.50555195
+ 4.68762206 3.56469098 2.63714733 2.24080985 2.24080985 2.24080985]</t>
         </is>
       </c>
       <c r="E602" t="inlineStr"/>
@@ -15810,8 +15809,8 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>[30.30153415 30.30153415 30.30153415 26.26518175 22.65444202 19.39078227
- 11.94128079  7.8525104   4.8231986   3.11989206  3.11989206  3.11989206]</t>
+          <t>[9.62279558 9.62279558 9.62279558 5.50555195 5.50555195 5.50555195
+ 4.68762206 3.56469098 2.63714733 2.24080985 2.24080985 2.24080985]</t>
         </is>
       </c>
       <c r="E603" t="inlineStr"/>
@@ -15834,8 +15833,8 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>[60.60306831 60.60306831 60.60306831 52.5303635  45.30888403 38.78156455
- 23.88256158 15.70502081  9.64639721  6.23978412  6.23978412  6.23978412]</t>
+          <t>[19.24559117 19.24559117 19.24559117 11.0111039  11.0111039  11.0111039
+  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
         </is>
       </c>
       <c r="E604" t="inlineStr"/>
@@ -15929,9 +15928,9 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>[11.         11.         11.         11.         10.48571257  9.97142513
-  9.4571377   8.30442513  7.15171257  5.999       5.999       5.999
-  5.999     ]</t>
+          <t>[8.         8.         8.         8.         8.         8.
+ 8.         7.33333333 6.66666667 6.         6.         6.
+ 6.        ]</t>
         </is>
       </c>
       <c r="E608" t="inlineStr"/>
@@ -15954,8 +15953,8 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>[0.055      0.055      0.055      0.05114284 0.05114284 0.05114284
- 0.04114284 0.04114284 0.04114284 0.035      0.035      0.035     ]</t>
+          <t>[0.04549929 0.04549929 0.04549929 0.02584032 0.02584032 0.02584032
+ 0.025      0.025      0.025      0.025      0.025      0.025     ]</t>
         </is>
       </c>
       <c r="E609" t="inlineStr"/>
@@ -16003,17 +16002,17 @@
       <c r="D611" t="inlineStr">
         <is>
           <t>[[135.7193516 ]
- [155.74123287]
- [169.88212701]
- [181.04996942]
- [193.97594653]
- [204.63727934]
- [213.7833591 ]
- [218.72660661]
- [223.33944433]
- [227.66891335]
- [231.48712289]
- [235.11571637]
+ [156.69843521]
+ [171.33048609]
+ [182.82227714]
+ [196.0755203 ]
+ [206.97905056]
+ [216.31799319]
+ [221.36083569]
+ [226.06408979]
+ [230.47643609]
+ [233.27575427]
+ [235.97256769]
  [238.57517091]]</t>
         </is>
       </c>
@@ -16062,7 +16061,7 @@
         <is>
           <t>[[ 2.93771295e+06]
  [ 8.73816952e+03]
- [-8.98577631e+06]]</t>
+ [-8.98603452e+06]]</t>
         </is>
       </c>
       <c r="E613" t="inlineStr"/>
@@ -16085,9 +16084,9 @@
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>[[  -692939.78155346]
- [-38693034.48001503]
- [  6202666.24461834]]</t>
+          <t>[[  -692940.008576  ]
+ [-38693074.08051626]
+ [  6202665.53278366]]</t>
         </is>
       </c>
       <c r="E614" t="inlineStr"/>
@@ -16112,7 +16111,7 @@
         <is>
           <t>[[ 2.93771295e+06]
  [ 8.73816952e+03]
- [-2.51398897e+07]]</t>
+ [-1.75886903e+07]]</t>
         </is>
       </c>
       <c r="E615" t="inlineStr"/>
@@ -16135,9 +16134,9 @@
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>[[-1.98857883e+06]
- [ 3.86563431e+08]
- [ 6.20266624e+06]]</t>
+          <t>[[-2.07903196e+06]
+ [ 4.00381992e+08]
+ [ 6.20266553e+06]]</t>
         </is>
       </c>
       <c r="E616" t="inlineStr"/>
@@ -16160,7 +16159,8 @@
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>[1512500. 1512500. 3025000.       0.       0.       0.]</t>
+          <t>[1060983.55474312 1060983.55474312 2121967.10948624       0.
+       0.               0.        ]</t>
         </is>
       </c>
       <c r="E617" t="inlineStr"/>
@@ -16229,7 +16229,7 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>[30.]</t>
+          <t>[45.]</t>
         </is>
       </c>
       <c r="E620" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>[2577724.16450102]</t>
+          <t>[1810682.66587496]</t>
         </is>
       </c>
       <c r="E621" t="inlineStr"/>
@@ -16275,7 +16275,7 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>[-2.48651511e+00 -3.52694954e-02  9.59251996e+01]</t>
+          <t>[-3.53985451e+00 -5.02155115e-02  1.12719512e+02]</t>
         </is>
       </c>
       <c r="E622" t="inlineStr"/>
@@ -16298,8 +16298,8 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>[3.15928084e+10 3.14618755e+10 3.05665574e+08 5.41253411e+02
- 1.42357775e+07 1.69892134e+05]</t>
+          <t>[2.83030261e+10 2.81720930e+10 2.78907404e+08 5.41567843e+02
+ 1.42357746e+07 1.69909285e+05]</t>
         </is>
       </c>
       <c r="E623" t="inlineStr"/>
@@ -16322,7 +16322,7 @@
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>[948395.22490771]</t>
+          <t>[948421.32607936]</t>
         </is>
       </c>
       <c r="E624" t="inlineStr"/>
@@ -16345,8 +16345,8 @@
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>[4.16137377e+08 2.85204501e+08 2.66306106e+08 5.41253411e+02
- 1.42357775e+07 1.69892134e+05]</t>
+          <t>[4.16138017e+08 2.85204924e+08 2.66307067e+08 5.41567843e+02
+ 1.42357746e+07 1.69909285e+05]</t>
         </is>
       </c>
       <c r="E625" t="inlineStr"/>
@@ -16369,7 +16369,7 @@
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>[-6.7583112  -0.09586197  4.59784123]</t>
+          <t>[-6.75812851 -0.09586916  4.59772556]</t>
         </is>
       </c>
       <c r="E626" t="inlineStr"/>
@@ -16474,25 +16474,25 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>[[      0.        ]
- [      0.        ]
- [      0.        ]
- [ -20017.11440126]
- [ -20986.44664575]
- [ -23999.51560344]
- [ -29386.86395002]
- [ -37748.43509814]
- [ -49975.7389429 ]
- [ -67453.86707481]
- [ -78800.07215349]
- [ -92377.84329724]
- [-108714.45363716]
- [   -729.034078  ]
- [   -860.2225698 ]
- [   -948.63159706]
- [   -984.81958944]
- [  -1017.40298746]
- [  -1047.13901865]]</t>
+          <t>[[     0.        ]
+ [     0.        ]
+ [     0.        ]
+ [-15001.79811854]
+ [-15728.78202234]
+ [-17991.96803786]
+ [-22045.93628102]
+ [-28361.67325187]
+ [-37641.62030854]
+ [-50939.66078868]
+ [-59579.87143492]
+ [-69918.5386986 ]
+ [-82348.34784436]
+ [  -633.53477442]
+ [  -745.88449041]
+ [  -820.88748446]
+ [  -842.73357274]
+ [  -860.8521798 ]
+ [  -875.98391404]]</t>
         </is>
       </c>
       <c r="E629" t="inlineStr"/>
@@ -16585,19 +16585,19 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>[[-1047.13901865]
- [-1206.50664157]
- [-1321.22751075]
- [-1413.18261726]
- [-1440.97876521]
- [-1441.96074555]
- [-1424.6820857 ]
- [-1272.31084758]
- [-1119.10085911]
- [ -962.19898835]
- [ -978.02680667]
- [ -993.06340443]
- [-1007.39507288]]</t>
+          <t>[[ -764.0675664 ]
+ [ -879.89721404]
+ [ -960.79254611]
+ [-1024.48836201]
+ [-1098.19816289]
+ [-1159.08690457]
+ [-1211.44283474]
+ [-1136.90215108]
+ [-1057.80219044]
+ [ -973.99389388]
+ [ -985.59734665]
+ [ -996.77327326]
+ [-1007.55661265]]</t>
         </is>
       </c>
       <c r="E632" t="inlineStr"/>
@@ -16620,10 +16620,10 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>[ 0.         10.         20.         30.         36.66666667 43.33333333
- 50.         56.66666667 63.33333333 70.         73.33333333 76.66666667
- 80.         83.33333333 86.66666667 90.         91.66666667 93.33333333
- 95.        ]</t>
+          <t>[  0.          15.          30.          45.          51.66666667
+  58.33333333  65.          71.66666667  78.33333333  85.
+  88.33333333  91.66666667  95.          98.33333333 101.66666667
+ 105.         106.66666667 108.33333333 110.        ]</t>
         </is>
       </c>
       <c r="E633" t="inlineStr"/>
@@ -16719,24 +16719,24 @@
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>[[-59427038.98178075]
- [-55947809.88742363]
- [-52369496.07647427]
- [-49733141.21482476]
- [-47083644.43852164]
- [-44406426.28332168]
- [-41681934.16936464]
- [-38889498.76888908]
- [-35999035.42608049]
- [-34576313.54276855]
- [-33112467.11161308]
- [-31599261.93664036]
- [-30238551.86759913]
- [-29055801.27182803]
- [-27872688.33992818]
- [-27288513.30301111]
- [-26704281.52962011]
- [-26119998.34277631]]</t>
+          <t>[[-36627915.02107721]
+ [-34077870.43104244]
+ [-31416437.48909839]
+ [-30181673.42517935]
+ [-28937041.80066063]
+ [-27671563.56081818]
+ [-26371865.30115775]
+ [-25020701.27349097]
+ [-23595029.89846332]
+ [-22845996.09897255]
+ [-22065647.15618427]
+ [-21247730.2147202 ]
+ [-20544165.26461093]
+ [-19975307.83776715]
+ [-19406204.67522477]
+ [-19123085.6091077 ]
+ [-18842926.67343557]
+ [-18565733.40744917]]</t>
         </is>
       </c>
       <c r="E637" t="inlineStr"/>
@@ -16759,24 +16759,24 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>[[ -6371655.76603661]
- [-12819457.02133601]
- [-10638080.97029557]
- [  2938626.46836331]
- [  2938958.97997727]
- [  2939290.52384353]
- [  2939629.05963483]
- [  2939981.24032973]
- [  2940361.09079801]
- [  2939130.76813876]
- [  2939247.25751812]
- [  2939374.97694758]
- [  2939350.61624536]
- [  2939133.17179452]
- [  2939189.69678161]
- [  2938462.58144507]
- [  2938476.12865075]
- [  2938489.49032627]]</t>
+          <t>[[ -1139968.18327461]
+ [ -7664202.16642805]
+ [-17786703.57877248]
+ [  2938757.02508021]
+ [  2939240.09837865]
+ [  2939729.88447285]
+ [  2940241.74796568]
+ [  2940796.55569988]
+ [  2941423.67626866]
+ [  2939848.25211504]
+ [  2940055.65508456]
+ [  2940289.038372  ]
+ [  2940195.82599037]
+ [  2939679.13043947]
+ [  2939759.82847369]
+ [  2938760.62792249]
+ [  2938769.25503379]
+ [  2938777.82451554]]</t>
         </is>
       </c>
       <c r="E638" t="inlineStr"/>
@@ -16799,24 +16799,24 @@
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>[[-28627.78761363]
- [-58175.40952558]
- [-50233.11171769]
- [  8742.22035952]
- [  8743.73340483]
- [  8745.26049112]
- [  8746.83860775]
- [  8748.49974276]
- [  8750.31067929]
- [  8744.7026824 ]
- [  8745.26534781]
- [  8745.88440968]
- [  8745.79967562]
- [  8744.81153447]
- [  8745.10225763]
- [  8741.69883023]
- [  8741.76968279]
- [  8741.83996895]]</t>
+          <t>[[ -5139.34165735]
+ [-34697.54608758]
+ [-82153.95943841]
+ [  8742.84988718]
+ [  8745.06404727]
+ [  8747.33486009]
+ [  8749.73461907]
+ [  8752.36283175]
+ [  8755.36110305]
+ [  8748.11113607]
+ [  8749.11360967]
+ [  8750.24503627]
+ [  8749.84843841]
+ [  8747.45051543]
+ [  8747.86589043]
+ [  8743.14594125]
+ [  8743.19627283]
+ [  8743.24686897]]</t>
         </is>
       </c>
       <c r="E639" t="inlineStr"/>
@@ -16839,24 +16839,24 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>[[ -378096.11583506]
- [-1334014.23629939]
- [-2258733.32049048]
- [-2453918.01556661]
- [-2394270.08624153]
- [-2334350.30075197]
- [-2274207.0975933 ]
- [-2213888.98543325]
- [-2153445.02157073]
- [-2123212.11243226]
- [-2092964.01989335]
- [-2062707.16179165]
- [-2032449.01072391]
- [-2002189.64071241]
- [-1971927.32749755]
- [-1956802.33621415]
- [-1941678.20240907]
- [-1926555.41067595]]</t>
+          <t>[[  -34910.72613862]
+ [ -478863.87868046]
+ [-2287752.88974571]
+ [-2610405.49077696]
+ [-2549919.42097379]
+ [-2488863.73063461]
+ [-2427312.99850895]
+ [-2365343.12113047]
+ [-2303032.96663399]
+ [-2271808.8209694 ]
+ [-2240535.95000616]
+ [-2209225.55531398]
+ [-2177890.84296035]
+ [-2146528.88180912]
+ [-2115132.66356129]
+ [-2099431.96252977]
+ [-2083724.66481494]
+ [-2068010.60610021]]</t>
         </is>
       </c>
       <c r="E640" t="inlineStr"/>
@@ -16879,24 +16879,24 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>[[8.56045164e+07]
- [2.99684197e+08]
- [5.01765898e+08]
- [5.39121118e+08]
- [5.19224298e+08]
- [4.99269050e+08]
- [4.79266832e+08]
- [4.59228946e+08]
- [4.39166633e+08]
- [4.29134313e+08]
- [4.19099576e+08]
- [4.09063843e+08]
- [3.99028737e+08]
- [3.88994283e+08]
- [3.78960123e+08]
- [3.73944699e+08]
- [3.68929690e+08]
- [3.63915200e+08]]</t>
+          <t>[[7.80559851e+06]
+ [1.06894183e+08]
+ [5.04228074e+08]
+ [5.69340045e+08]
+ [5.49260988e+08]
+ [5.29059794e+08]
+ [5.08754286e+08]
+ [4.88362330e+08]
+ [4.67902172e+08]
+ [4.57659423e+08]
+ [4.47407749e+08]
+ [4.37149635e+08]
+ [4.26887960e+08]
+ [4.16622157e+08]
+ [4.06350804e+08]
+ [4.01215230e+08]
+ [3.96078713e+08]
+ [3.90941242e+08]]</t>
         </is>
       </c>
       <c r="E641" t="inlineStr"/>
@@ -16919,24 +16919,24 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>[[1182179.87286127]
- [2502030.36733096]
- [4113274.5197118 ]
- [6203501.52204118]
- [6203459.46761119]
- [6203417.20411932]
- [6203373.96055187]
- [6203330.53501319]
- [6203286.02716093]
- [6203273.98828602]
- [6203249.96732059]
- [6203225.25221028]
- [6203200.28014017]
- [6203177.28190105]
- [6203157.2916084 ]
- [6203143.34720564]
- [6203133.34700732]
- [6203123.34587003]]</t>
+          <t>[[ 809635.57985959]
+ [1867709.23172303]
+ [3498907.81699974]
+ [6203771.35186949]
+ [6203727.88228356]
+ [6203684.06592891]
+ [6203639.51631887]
+ [6203593.76270097]
+ [6203546.19803572]
+ [6203496.01129908]
+ [6203469.64400374]
+ [6203442.1745992 ]
+ [6203413.42489426]
+ [6203388.73845892]
+ [6203368.78971762]
+ [6203352.41938693]
+ [6203349.6659044 ]
+ [6203346.95959337]]</t>
         </is>
       </c>
       <c r="E642" t="inlineStr"/>
@@ -16959,12 +16959,12 @@
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>[-80.         -70.         -60.         -50.         -43.33333333
+          <t>[-95.         -80.         -65.         -50.         -43.33333333
  -36.66666667 -30.         -23.33333333 -16.66666667 -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
-  10.          11.66666667  13.33333333  15.          26.61331002
-  38.22662005  49.83993007  66.43037296  83.02081585  99.61125874
- 109.56552448 119.51979021 129.47405594 138.76470396 148.05535198
+  10.          11.66666667  13.33333333  15.          27.30150617
+  39.60301235  51.90451852  69.47809877  87.05167901 104.62525926
+ 115.16940741 125.71355556 136.2577037  143.2871358  150.3165679
  157.346     ]</t>
         </is>
       </c>
@@ -16988,12 +16988,12 @@
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>[11.         11.         11.         11.         11.         11.
- 11.         11.         11.         11.         11.         11.
- 11.         11.         11.         11.         11.         11.
- 11.         11.         11.         11.         10.48571257  9.97142513
-  9.4571377   8.30442513  7.15171257  5.999       5.999       5.999
-  5.999     ]</t>
+          <t>[9.51547331 9.51547331 9.51547331 9.51547331 9.51547331 9.51547331
+ 9.51547331 9.51547331 9.51547331 9.51547331 9.51547331 9.51547331
+ 9.51547331 9.51441594 9.51335857 9.5123012  9.41252175 9.3127423
+ 8.         8.         8.         8.         8.         8.
+ 8.         7.33333333 6.66666667 6.         6.         6.
+ 6.        ]</t>
         </is>
       </c>
       <c r="E644" t="inlineStr"/>
@@ -17016,11 +17016,11 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>[0.12442164 0.12442164 0.12442164 0.13428246 0.13428246 0.13428246
- 0.13438589 0.13438589 0.13438589 0.1267728  0.1267728  0.1267728
- 0.12663441 0.12663441 0.12663441 0.12500954 0.12500954 0.12500954
- 0.055      0.055      0.055      0.05114284 0.05114284 0.05114284
- 0.04114284 0.04114284 0.04114284 0.035      0.035      0.035     ]</t>
+          <t>[0.07       0.07       0.07       0.07       0.07       0.07
+ 0.07       0.07       0.07       0.07       0.07       0.07
+ 0.07       0.07       0.07       0.07       0.07       0.07
+ 0.04549929 0.04549929 0.04549929 0.02584032 0.02584032 0.02584032
+ 0.025      0.025      0.025      0.025      0.025      0.025     ]</t>
         </is>
       </c>
       <c r="E645" t="inlineStr"/>
@@ -17168,11 +17168,11 @@
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>[4.54864403 4.54864403 4.54864403 4.90468745 4.90468745 4.90468745
- 4.90841855 4.90841855 4.90841855 4.63359637 4.63359637 4.63359637
- 4.62859702 4.62859702 4.62859702 4.56988944 4.56988944 4.56988944
- 2.02354145 2.02354145 2.02354145 1.83808605 1.74967136 1.66125667
- 1.2225383  1.06311603 0.90369376 0.70168037 0.70168037 0.70168037]</t>
+          <t>[2.22256983 2.22256983 2.22256983 2.22256983 2.22256983 2.22256983
+ 2.22256983 2.22256983 2.22256983 2.22256983 2.22256983 2.22256983
+ 2.22244543 2.22219663 2.22194782 2.2100841  2.18660547 2.16312684
+ 1.21660946 1.21660946 1.21660946 0.69265414 0.69265414 0.69265414
+ 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
         </is>
       </c>
       <c r="E651" t="inlineStr"/>
@@ -17195,11 +17195,11 @@
       </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t>[2.59466871 2.59466871 2.59466871 2.79897823 2.79897823 2.79897823
- 2.80112026 2.80112026 2.80112026 2.6434002  2.6434002  2.6434002
- 2.64053211 2.64053211 2.64053211 2.60685479 2.60685479 2.60685479
- 1.15086843 1.15086843 1.15086843 1.04527838 0.99510763 0.94493708
- 0.69518965 0.60472591 0.51426344 0.39922621 0.39922621 0.39922621]</t>
+          <t>[1.26543934 1.26543934 1.26543934 1.26543934 1.26543934 1.26543934
+ 1.26543934 1.26543934 1.26543934 1.26543934 1.26543934 1.26543934
+ 1.26536875 1.26522757 1.26508639 1.25835468 1.24503245 1.23171025
+ 0.69215213 0.69215213 0.69215213 0.39362396 0.39362396 0.39362396
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E652" t="inlineStr"/>
@@ -17222,11 +17222,11 @@
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t>[2.59466871 2.59466871 2.59466871 2.79897823 2.79897823 2.79897823
- 2.80112026 2.80112026 2.80112026 2.6434002  2.6434002  2.6434002
- 2.64053211 2.64053211 2.64053211 2.60685479 2.60685479 2.60685479
- 1.15086843 1.15086843 1.15086843 1.04527838 0.99510763 0.94493708
- 0.69518965 0.60472591 0.51426344 0.39922621 0.39922621 0.39922621]</t>
+          <t>[1.26543934 1.26543934 1.26543934 1.26543934 1.26543934 1.26543934
+ 1.26543934 1.26543934 1.26543934 1.26543934 1.26543934 1.26543934
+ 1.26536875 1.26522757 1.26508639 1.25835468 1.24503245 1.23171025
+ 0.69215213 0.69215213 0.69215213 0.39362396 0.39362396 0.39362396
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E653" t="inlineStr"/>
@@ -17249,11 +17249,11 @@
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>[67.25948311 67.25948311 67.25948311 72.39432064 72.39432064 72.39432064
- 72.44803054 72.44803054 72.44803054 68.4863737  68.4863737  68.4863737
- 68.4142023  68.4142023  68.4142023  67.56641223 67.56641223 67.56641223
- 30.30153415 30.30153415 30.30153415 26.26518175 22.65444202 19.39078227
- 11.94128079  7.8525104   4.8231986   3.11989206  3.11989206  3.11989206]</t>
+          <t>[24.78772853 24.78772853 24.78772853 24.78772853 24.78772853 24.78772853
+ 24.78772853 24.78772853 24.78772853 24.78772853 24.78772853 24.78772853
+ 24.78356663 24.77524422 24.76692367 24.37233597 23.60383476 22.85166084
+  9.62279558  9.62279558  9.62279558  5.50555195  5.50555195  5.50555195
+  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
         </is>
       </c>
       <c r="E654" t="inlineStr"/>
@@ -17276,11 +17276,11 @@
       </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t>[67.25948311 67.25948311 67.25948311 72.39432064 72.39432064 72.39432064
- 72.44803054 72.44803054 72.44803054 68.4863737  68.4863737  68.4863737
- 68.4142023  68.4142023  68.4142023  67.56641223 67.56641223 67.56641223
- 30.30153415 30.30153415 30.30153415 26.26518175 22.65444202 19.39078227
- 11.94128079  7.8525104   4.8231986   3.11989206  3.11989206  3.11989206]</t>
+          <t>[24.78772853 24.78772853 24.78772853 24.78772853 24.78772853 24.78772853
+ 24.78772853 24.78772853 24.78772853 24.78772853 24.78772853 24.78772853
+ 24.78356663 24.77524422 24.76692367 24.37233597 23.60383476 22.85166084
+  9.62279558  9.62279558  9.62279558  5.50555195  5.50555195  5.50555195
+  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
         </is>
       </c>
       <c r="E655" t="inlineStr"/>
@@ -17303,12 +17303,11 @@
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>[134.51896622 134.51896622 134.51896622 144.78864128 144.78864128
- 144.78864128 144.89606109 144.89606109 144.89606109 136.97274741
- 136.97274741 136.97274741 136.8284046  136.8284046  136.8284046
- 135.13282446 135.13282446 135.13282446  60.60306831  60.60306831
-  60.60306831  52.5303635   45.30888403  38.78156455  23.88256158
-  15.70502081   9.64639721   6.23978412   6.23978412   6.23978412]</t>
+          <t>[49.57545707 49.57545707 49.57545707 49.57545707 49.57545707 49.57545707
+ 49.57545707 49.57545707 49.57545707 49.57545706 49.57545706 49.57545706
+ 49.56713326 49.55048843 49.53384734 48.74467195 47.20766953 45.70332167
+ 19.24559117 19.24559117 19.24559117 11.0111039  11.0111039  11.0111039
+  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
         </is>
       </c>
       <c r="E656" t="inlineStr"/>
@@ -17331,36 +17330,36 @@
       </c>
       <c r="D657" t="inlineStr">
         <is>
-          <t>[[-5.94270390e+07]
- [-5.59478099e+07]
- [-5.23694961e+07]
- [-4.97331412e+07]
- [-4.70836444e+07]
- [-4.44064263e+07]
- [-4.16819342e+07]
- [-3.88894988e+07]
- [-3.59990354e+07]
- [-3.45763135e+07]
- [-3.31124671e+07]
- [-3.15992619e+07]
- [-3.02385519e+07]
- [-2.90558013e+07]
- [-2.78726883e+07]
- [-2.72885133e+07]
- [-2.67042815e+07]
- [-2.61199983e+07]
- [-2.33298249e+07]
- [-2.15193683e+07]
- [-1.97073361e+07]
- [-1.73523629e+07]
- [-1.51086038e+07]
- [-1.29768061e+07]
- [-1.20318459e+07]
- [-1.12091049e+07]
- [-1.05092532e+07]
- [-1.00010424e+07]
- [-9.49348031e+06]
- [ 3.90282366e-08]]</t>
+          <t>[[-3.66279150e+07]
+ [-3.40778704e+07]
+ [-3.14164375e+07]
+ [-3.01816734e+07]
+ [-2.89370418e+07]
+ [-2.76715636e+07]
+ [-2.63718653e+07]
+ [-2.50207013e+07]
+ [-2.35950299e+07]
+ [-2.28459961e+07]
+ [-2.20656472e+07]
+ [-2.12477302e+07]
+ [-2.05441653e+07]
+ [-1.99753078e+07]
+ [-1.94062047e+07]
+ [-1.91230856e+07]
+ [-1.88429267e+07]
+ [-1.85657334e+07]
+ [-1.64303640e+07]
+ [-1.52756037e+07]
+ [-1.41196455e+07]
+ [-1.31713155e+07]
+ [-1.22217902e+07]
+ [-1.12710940e+07]
+ [-1.07407875e+07]
+ [-1.02557818e+07]
+ [-9.81676307e+06]
+ [-9.53971248e+06]
+ [-9.26291313e+06]
+ [ 3.87371983e-08]]</t>
         </is>
       </c>
       <c r="E657" t="inlineStr"/>
@@ -17383,36 +17382,36 @@
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>[[-6.37165577e+06]
- [-1.28194570e+07]
- [-1.06380810e+07]
- [ 2.93862647e+06]
- [ 2.93895898e+06]
- [ 2.93929052e+06]
- [ 2.93962906e+06]
- [ 2.93998124e+06]
- [ 2.94036109e+06]
- [ 2.93913077e+06]
- [ 2.93924726e+06]
- [ 2.93937498e+06]
- [ 2.93935062e+06]
- [ 2.93913317e+06]
- [ 2.93918970e+06]
- [ 2.93846258e+06]
- [ 2.93847613e+06]
- [ 2.93848949e+06]
- [ 2.94046069e+06]
- [ 2.94103222e+06]
- [ 2.94154543e+06]
- [ 2.94345332e+06]
- [ 2.94397717e+06]
- [ 2.94433021e+06]
- [ 2.94087475e+06]
- [ 2.94063328e+06]
- [ 2.94033277e+06]
- [ 2.93967234e+06]
- [ 2.93962848e+06]
- [ 1.83607399e+03]]</t>
+          <t>[[-1.13996818e+06]
+ [-7.66420217e+06]
+ [-1.77867036e+07]
+ [ 2.93875703e+06]
+ [ 2.93924010e+06]
+ [ 2.93972988e+06]
+ [ 2.94024175e+06]
+ [ 2.94079656e+06]
+ [ 2.94142368e+06]
+ [ 2.93984825e+06]
+ [ 2.94005566e+06]
+ [ 2.94028904e+06]
+ [ 2.94019583e+06]
+ [ 2.93967913e+06]
+ [ 2.93975983e+06]
+ [ 2.93876063e+06]
+ [ 2.93876926e+06]
+ [ 2.93877782e+06]
+ [ 2.94290464e+06]
+ [ 2.94420500e+06]
+ [ 2.94537401e+06]
+ [ 2.94543287e+06]
+ [ 2.94711091e+06]
+ [ 2.94836708e+06]
+ [ 2.94406786e+06]
+ [ 2.94375830e+06]
+ [ 2.94333440e+06]
+ [ 2.94128389e+06]
+ [ 2.94124381e+06]
+ [ 3.47849457e+03]]</t>
         </is>
       </c>
       <c r="E658" t="inlineStr"/>
@@ -17435,36 +17434,36 @@
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>[[-2.86277876e+04]
- [-5.81754095e+04]
- [-5.02331117e+04]
- [ 8.74222036e+03]
- [ 8.74373340e+03]
- [ 8.74526049e+03]
- [ 8.74683861e+03]
- [ 8.74849974e+03]
- [ 8.75031068e+03]
- [ 8.74470268e+03]
- [ 8.74526535e+03]
- [ 8.74588441e+03]
- [ 8.74579968e+03]
- [ 8.74481153e+03]
- [ 8.74510226e+03]
- [ 8.74169883e+03]
- [ 8.74176968e+03]
- [ 8.74183997e+03]
- [ 8.75133611e+03]
- [ 8.75449940e+03]
- [ 8.75749141e+03]
- [ 8.76804457e+03]
- [ 8.77219329e+03]
- [ 8.77599216e+03]
- [ 8.75726646e+03]
- [ 8.75707855e+03]
- [ 8.75705231e+03]
- [ 8.75467254e+03]
- [ 8.75759715e+03]
- [ 2.07225269e+01]]</t>
+          <t>[[-5.13934166e+03]
+ [-3.46975461e+04]
+ [-8.21539594e+04]
+ [ 8.74284989e+03]
+ [ 8.74506405e+03]
+ [ 8.74733486e+03]
+ [ 8.74973462e+03]
+ [ 8.75236283e+03]
+ [ 8.75536110e+03]
+ [ 8.74811114e+03]
+ [ 8.74911361e+03]
+ [ 8.75024504e+03]
+ [ 8.74984844e+03]
+ [ 8.74745052e+03]
+ [ 8.74786589e+03]
+ [ 8.74314594e+03]
+ [ 8.74319627e+03]
+ [ 8.74324687e+03]
+ [ 8.76333598e+03]
+ [ 8.77052757e+03]
+ [ 8.77733328e+03]
+ [ 8.77928913e+03]
+ [ 8.79098803e+03]
+ [ 8.80135810e+03]
+ [ 8.77773658e+03]
+ [ 8.77773292e+03]
+ [ 8.77762132e+03]
+ [ 8.76518020e+03]
+ [ 8.76681410e+03]
+ [ 2.93678370e+01]]</t>
         </is>
       </c>
       <c r="E659" t="inlineStr"/>
@@ -17487,36 +17486,36 @@
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>[[-3.78096116e+05]
- [-1.33401424e+06]
- [-2.25873332e+06]
- [-2.45391802e+06]
- [-2.39427009e+06]
- [-2.33435030e+06]
- [-2.27420710e+06]
- [-2.21388899e+06]
- [-2.15344502e+06]
- [-2.12321211e+06]
- [-2.09296402e+06]
- [-2.06270716e+06]
- [-2.03244901e+06]
- [-2.00218964e+06]
- [-1.97192733e+06]
- [-1.95680234e+06]
- [-1.94167820e+06]
- [-1.92655541e+06]
- [-1.82083130e+06]
- [-1.71446416e+06]
- [-1.60765517e+06]
- [-1.45439532e+06]
- [-1.30069578e+06]
- [-1.14683296e+06]
- [-1.05462503e+06]
- [-9.62140878e+05]
- [-8.69141971e+05]
- [-7.81621979e+05]
- [-6.93326933e+05]
- [-5.33272244e-04]]</t>
+          <t>[[-3.49107261e+04]
+ [-4.78863879e+05]
+ [-2.28775289e+06]
+ [-2.61040549e+06]
+ [-2.54991942e+06]
+ [-2.48886373e+06]
+ [-2.42731300e+06]
+ [-2.36534312e+06]
+ [-2.30303297e+06]
+ [-2.27180882e+06]
+ [-2.24053595e+06]
+ [-2.20922556e+06]
+ [-2.17789084e+06]
+ [-2.14652888e+06]
+ [-2.11513266e+06]
+ [-2.09943196e+06]
+ [-2.08372466e+06]
+ [-2.06801061e+06]
+ [-1.95109976e+06]
+ [-1.83227875e+06]
+ [-1.71205279e+06]
+ [-1.53698966e+06]
+ [-1.35767943e+06]
+ [-1.17557051e+06]
+ [-1.06569025e+06]
+ [-9.55087596e+05]
+ [-8.43528185e+05]
+ [-7.68654369e+05]
+ [-6.93353731e+05]
+ [-2.53550504e-04]]</t>
         </is>
       </c>
       <c r="E660" t="inlineStr"/>
@@ -17539,36 +17538,36 @@
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>[[ 8.56045164e+07]
- [ 2.99684197e+08]
- [ 5.01765898e+08]
- [ 5.39121118e+08]
- [ 5.19224298e+08]
- [ 4.99269050e+08]
- [ 4.79266832e+08]
- [ 4.59228946e+08]
- [ 4.39166633e+08]
- [ 4.29134313e+08]
- [ 4.19099576e+08]
- [ 4.09063843e+08]
- [ 3.99028737e+08]
- [ 3.88994283e+08]
- [ 3.78960123e+08]
- [ 3.73944699e+08]
- [ 3.68929690e+08]
- [ 3.63915200e+08]
- [ 3.28912675e+08]
- [ 2.93802531e+08]
- [ 2.58628768e+08]
- [ 2.08297823e+08]
- [ 1.57952619e+08]
- [ 1.07658778e+08]
- [ 7.75510983e+07]
- [ 4.74585398e+07]
- [ 1.73809511e+07]
- [-1.06645931e+07]
- [-3.86589968e+07]
- [ 4.72490218e-02]]</t>
+          <t>[[ 7.80559851e+06]
+ [ 1.06894183e+08]
+ [ 5.04228074e+08]
+ [ 5.69340045e+08]
+ [ 5.49260988e+08]
+ [ 5.29059794e+08]
+ [ 5.08754286e+08]
+ [ 4.88362330e+08]
+ [ 4.67902172e+08]
+ [ 4.57659423e+08]
+ [ 4.47407749e+08]
+ [ 4.37149635e+08]
+ [ 4.26887960e+08]
+ [ 4.16622157e+08]
+ [ 4.06350804e+08]
+ [ 4.01215230e+08]
+ [ 3.96078713e+08]
+ [ 3.90941242e+08]
+ [ 3.52859954e+08]
+ [ 3.14448860e+08]
+ [ 2.75819750e+08]
+ [ 2.20156863e+08]
+ [ 1.63949536e+08]
+ [ 1.07510302e+08]
+ [ 7.36853957e+07]
+ [ 3.98880913e+07]
+ [ 6.14492812e+06]
+ [-1.62833336e+07]
+ [-3.86442157e+07]
+ [ 3.00324168e-02]]</t>
         </is>
       </c>
       <c r="E661" t="inlineStr"/>
@@ -17591,36 +17590,36 @@
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>[[ 1.18217987e+06]
- [ 2.50203037e+06]
- [ 4.11327452e+06]
- [ 6.20350152e+06]
- [ 6.20345947e+06]
- [ 6.20341720e+06]
- [ 6.20337396e+06]
- [ 6.20333054e+06]
- [ 6.20328603e+06]
- [ 6.20327399e+06]
- [ 6.20324997e+06]
- [ 6.20322525e+06]
- [ 6.20320028e+06]
- [ 6.20317728e+06]
- [ 6.20315729e+06]
- [ 6.20314335e+06]
- [ 6.20313335e+06]
- [ 6.20312335e+06]
- [ 6.20363813e+06]
- [ 6.20356816e+06]
- [ 6.20349816e+06]
- [ 6.20350498e+06]
- [ 6.20344207e+06]
- [ 6.20337769e+06]
- [ 6.20349661e+06]
- [ 6.20355160e+06]
- [ 6.20363658e+06]
- [ 6.20383795e+06]
- [ 6.20378128e+06]
- [-5.77440212e-09]]</t>
+          <t>[[8.09635580e+05]
+ [1.86770923e+06]
+ [3.49890782e+06]
+ [6.20377135e+06]
+ [6.20372788e+06]
+ [6.20368407e+06]
+ [6.20363952e+06]
+ [6.20359376e+06]
+ [6.20354620e+06]
+ [6.20349601e+06]
+ [6.20346964e+06]
+ [6.20344217e+06]
+ [6.20341342e+06]
+ [6.20338874e+06]
+ [6.20336879e+06]
+ [6.20335242e+06]
+ [6.20334967e+06]
+ [6.20334696e+06]
+ [6.20379631e+06]
+ [6.20372205e+06]
+ [6.20364778e+06]
+ [6.20426040e+06]
+ [6.20415326e+06]
+ [6.20404598e+06]
+ [6.20403864e+06]
+ [6.20409912e+06]
+ [6.20417906e+06]
+ [6.20419510e+06]
+ [6.20415192e+06]
+ [1.09629702e-08]]</t>
         </is>
       </c>
       <c r="E662" t="inlineStr"/>
@@ -17662,17 +17661,17 @@
  [1.27775357e+02]
  [1.31936564e+02]
  [1.35719352e+02]
- [1.55741233e+02]
- [1.69882127e+02]
- [1.81049969e+02]
- [1.93975947e+02]
- [2.04637279e+02]
- [2.13783359e+02]
- [2.18726607e+02]
- [2.23339444e+02]
- [2.27668913e+02]
- [2.31487123e+02]
- [2.35115716e+02]
+ [1.56698435e+02]
+ [1.71330486e+02]
+ [1.82822277e+02]
+ [1.96075520e+02]
+ [2.06979051e+02]
+ [2.16317993e+02]
+ [2.21360836e+02]
+ [2.26064090e+02]
+ [2.30476436e+02]
+ [2.33275754e+02]
+ [2.35972568e+02]
  [2.38575171e+02]]</t>
         </is>
       </c>
@@ -17719,7 +17718,7 @@
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>[40682.04562332]</t>
+          <t>[40686.9261128]</t>
         </is>
       </c>
       <c r="E665" t="inlineStr"/>
@@ -18271,7 +18270,7 @@
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>[117977.93230762]</t>
+          <t>[117992.08572713]</t>
         </is>
       </c>
       <c r="E689" t="inlineStr"/>
@@ -18294,7 +18293,7 @@
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>[209392.02038664]</t>
+          <t>[209453.42241018]</t>
         </is>
       </c>
       <c r="E690" t="inlineStr"/>
@@ -18317,7 +18316,7 @@
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>[25227.95426345]</t>
+          <t>[25235.35209761]</t>
         </is>
       </c>
       <c r="E691" t="inlineStr"/>
@@ -18455,7 +18454,7 @@
       </c>
       <c r="D697" t="inlineStr">
         <is>
-          <t>[41458.177152]</t>
+          <t>[41472.]</t>
         </is>
       </c>
       <c r="E697" t="inlineStr"/>
@@ -18478,7 +18477,7 @@
       </c>
       <c r="D698" t="inlineStr">
         <is>
-          <t>[708934.8292992]</t>
+          <t>[709171.2]</t>
         </is>
       </c>
       <c r="E698" t="inlineStr"/>
@@ -18616,7 +18615,7 @@
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t>[9681293.55277508]</t>
+          <t>[9681605.47891894]</t>
         </is>
       </c>
       <c r="E704" t="inlineStr"/>
@@ -18639,7 +18638,7 @@
       </c>
       <c r="D705" t="inlineStr">
         <is>
-          <t>[654746.91928556]</t>
+          <t>[654773.0204572]</t>
         </is>
       </c>
       <c r="E705" t="inlineStr"/>
@@ -18662,7 +18661,7 @@
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t>[4153853.24925214]</t>
+          <t>[2371696.49350505]</t>
         </is>
       </c>
       <c r="E706" t="inlineStr"/>
@@ -18685,7 +18684,7 @@
       </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t>[1629328.93959332]</t>
+          <t>[862261.33979561]</t>
         </is>
       </c>
       <c r="E707" t="inlineStr"/>
@@ -18708,7 +18707,7 @@
       </c>
       <c r="D708" t="inlineStr">
         <is>
-          <t>[17434887.83963671]</t>
+          <t>[15653043.01003347]</t>
         </is>
       </c>
       <c r="E708" t="inlineStr"/>
@@ -18731,7 +18730,7 @@
       </c>
       <c r="D709" t="inlineStr">
         <is>
-          <t>[1162.32585598]</t>
+          <t>[1043.53620067]</t>
         </is>
       </c>
       <c r="E709" t="inlineStr"/>
@@ -18754,7 +18753,7 @@
       </c>
       <c r="D710" t="inlineStr">
         <is>
-          <t>[2577724.16450102]</t>
+          <t>[1810682.66587496]</t>
         </is>
       </c>
       <c r="E710" t="inlineStr"/>
@@ -18823,7 +18822,7 @@
       </c>
       <c r="D713" t="inlineStr">
         <is>
-          <t>[4153853.24925214]</t>
+          <t>[2371696.49350505]</t>
         </is>
       </c>
       <c r="E713" t="inlineStr"/>
@@ -18846,7 +18845,7 @@
       </c>
       <c r="D714" t="inlineStr">
         <is>
-          <t>[4153853.24925214]</t>
+          <t>[2371696.49350505]</t>
         </is>
       </c>
       <c r="E714" t="inlineStr"/>
@@ -18896,7 +18895,7 @@
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>[0.30780495]</t>
+          <t>[0.17476798]</t>
         </is>
       </c>
       <c r="E716" t="inlineStr"/>
@@ -19018,9 +19017,9 @@
       <c r="D720" t="inlineStr">
         <is>
           <t>[[  0.           0.          15.        ]
- [  0.           0.          49.83993007]
- [  0.           0.          99.61125874]
- [  0.           0.         129.47405594]
+ [  0.           0.          51.90451852]
+ [  0.           0.         104.62525926]
+ [  0.           0.         136.2577037 ]
  [  0.           0.         157.346     ]]</t>
         </is>
       </c>
@@ -19044,9 +19043,9 @@
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>[1047.13901865 1206.50664157 1321.22751075 1413.18261726 1440.97876521
- 1441.96074555 1424.6820857  1272.31084758 1119.10085911  962.19898835
-  978.02680667  993.06340443 1007.39507288]</t>
+          <t>[ 764.0675664   879.89721404  960.79254611 1024.48836201 1098.19816289
+ 1159.08690457 1211.44283474 1136.90215108 1057.80219044  973.99389388
+  985.59734665  996.77327326 1007.55661265]</t>
         </is>
       </c>
       <c r="E721" t="inlineStr"/>
@@ -19115,9 +19114,9 @@
       </c>
       <c r="D724" t="inlineStr">
         <is>
-          <t>[135.7193516  155.74123287 169.88212701 181.04996942 193.97594653
- 204.63727934 213.7833591  218.72660661 223.33944433 227.66891335
- 231.48712289 235.11571637 238.57517091]</t>
+          <t>[135.7193516  156.69843521 171.33048609 182.82227714 196.0755203
+ 206.97905056 216.31799319 221.36083569 226.06408979 230.47643609
+ 233.27575427 235.97256769 238.57517091]</t>
         </is>
       </c>
       <c r="E724" t="inlineStr"/>
@@ -19140,9 +19139,9 @@
       </c>
       <c r="D725" t="inlineStr">
         <is>
-          <t>[ 15.          26.61331002  38.22662005  49.83993007  66.43037296
-  83.02081585  99.61125874 109.56552448 119.51979021 129.47405594
- 138.76470396 148.05535198 157.346     ]</t>
+          <t>[ 15.          27.30150617  39.60301235  51.90451852  69.47809877
+  87.05167901 104.62525926 115.16940741 125.71355556 136.2577037
+ 143.2871358  150.3165679  157.346     ]</t>
         </is>
       </c>
       <c r="E725" t="inlineStr"/>
@@ -19188,9 +19187,9 @@
       </c>
       <c r="D727" t="inlineStr">
         <is>
-          <t>[ 15.          26.61331002  38.22662005  49.83993007  66.43037296
-  83.02081585  99.61125874 109.56552448 119.51979021 129.47405594
- 138.76470396 148.05535198 157.346     ]</t>
+          <t>[ 15.          27.30150617  39.60301235  51.90451852  69.47809877
+  87.05167901 104.62525926 115.16940741 125.71355556 136.2577037
+ 143.2871358  150.3165679  157.346     ]</t>
         </is>
       </c>
       <c r="E727" t="inlineStr"/>
@@ -19259,8 +19258,8 @@
       </c>
       <c r="D730" t="inlineStr">
         <is>
-          <t>[14.88565131 15.94588977 16.65408583 17.19278299 17.79593838 18.27844853
- 18.68245315 18.89721312 19.09543997 19.27963559 19.44063167 19.59240654
+          <t>[14.88565131 15.99481728 16.72492878 17.27672858 17.89198978 18.38273594
+ 18.79287721 19.01066664 19.21156496 19.39814576 19.51559311 19.62807517
  19.73601994]</t>
         </is>
       </c>
@@ -19284,9 +19283,9 @@
       </c>
       <c r="D731" t="inlineStr">
         <is>
-          <t>[11.         11.         11.         11.         10.48571257  9.97142513
-  9.4571377   8.30442513  7.15171257  5.999       5.999       5.999
-  5.999     ]</t>
+          <t>[8.         8.         8.         8.         8.         8.
+ 8.         7.33333333 6.66666667 6.         6.         6.
+ 6.        ]</t>
         </is>
       </c>
       <c r="E731" t="inlineStr"/>
@@ -19355,8 +19354,8 @@
       </c>
       <c r="D734" t="inlineStr">
         <is>
-          <t>[0.         0.08158508 0.16317016 0.24475524 0.36130536 0.47785548
- 0.59440559 0.66433566 0.73426573 0.8041958  0.86946387 0.93473193
+          <t>[0.         0.08641975 0.17283951 0.25925926 0.38271605 0.50617284
+ 0.62962963 0.7037037  0.77777778 0.85185185 0.90123457 0.95061728
  1.        ]</t>
         </is>
       </c>
@@ -19380,9 +19379,9 @@
       </c>
       <c r="D735" t="inlineStr">
         <is>
-          <t>[1047.13901865 1206.50664157 1321.22751075 1413.18261726 1440.97876521
- 1441.96074555 1424.6820857  1272.31084758 1119.10085911  962.19898835
-  978.02680667  993.06340443 1007.39507288]</t>
+          <t>[ 764.0675664   879.89721404  960.79254611 1024.48836201 1098.19816289
+ 1159.08690457 1211.44283474 1136.90215108 1057.80219044  973.99389388
+  985.59734665  996.77327326 1007.55661265]</t>
         </is>
       </c>
       <c r="E735" t="inlineStr"/>
@@ -19451,9 +19450,9 @@
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>[135.7193516  155.74123287 169.88212701 181.04996942 193.97594653
- 204.63727934 213.7833591  218.72660661 223.33944433 227.66891335
- 231.48712289 235.11571637 238.57517091]</t>
+          <t>[135.7193516  156.69843521 171.33048609 182.82227714 196.0755203
+ 206.97905056 216.31799319 221.36083569 226.06408979 230.47643609
+ 233.27575427 235.97256769 238.57517091]</t>
         </is>
       </c>
       <c r="E738" t="inlineStr"/>
@@ -19522,10 +19521,10 @@
       </c>
       <c r="D741" t="inlineStr">
         <is>
-          <t>[-1047.13901865 -1206.50664157 -1321.22751075 -1413.18261726
- -1440.97876521 -1441.96074555 -1424.6820857  -1272.31084758
- -1119.10085911  -962.19898835  -978.02680667  -993.06340443
- -1007.39507288]</t>
+          <t>[ -764.0675664   -879.89721404  -960.79254611 -1024.48836201
+ -1098.19816289 -1159.08690457 -1211.44283474 -1136.90215108
+ -1057.80219044  -973.99389388  -985.59734665  -996.77327326
+ -1007.55661265]</t>
         </is>
       </c>
       <c r="E741" t="inlineStr"/>
@@ -19548,9 +19547,9 @@
       </c>
       <c r="D742" t="inlineStr">
         <is>
-          <t>[135.7193516  155.74123287 169.88212701 181.04996942 193.97594653
- 204.63727934 213.7833591  218.72660661 223.33944433 227.66891335
- 231.48712289 235.11571637 238.57517091]</t>
+          <t>[135.7193516  156.69843521 171.33048609 182.82227714 196.0755203
+ 206.97905056 216.31799319 221.36083569 226.06408979 230.47643609
+ 233.27575427 235.97256769 238.57517091]</t>
         </is>
       </c>
       <c r="E742" t="inlineStr"/>
@@ -19573,9 +19572,9 @@
       </c>
       <c r="D743" t="inlineStr">
         <is>
-          <t>[  0.          11.61331002  23.22662005  34.83993007  51.43037296
-  68.02081585  84.61125874  94.56552448 104.51979021 114.47405594
- 123.76470396 133.05535198 142.346     ]</t>
+          <t>[  0.          12.30150617  24.60301235  36.90451852  54.47809877
+  72.05167901  89.62525926 100.16940741 110.71355556 121.2577037
+ 128.2871358  135.3165679  142.346     ]</t>
         </is>
       </c>
       <c r="E743" t="inlineStr"/>
@@ -19598,8 +19597,8 @@
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t>[0.055      0.055      0.055      0.05114284 0.05114284 0.05114284
- 0.04114284 0.04114284 0.04114284 0.035      0.035      0.035     ]</t>
+          <t>[0.04549929 0.04549929 0.04549929 0.02584032 0.02584032 0.02584032
+ 0.025      0.025      0.025      0.025      0.025      0.025     ]</t>
         </is>
       </c>
       <c r="E744" t="inlineStr"/>
@@ -19740,8 +19739,8 @@
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t>[2.02354145 2.02354145 2.02354145 1.83808605 1.74967136 1.66125667
- 1.2225383  1.06311603 0.90369376 0.70168037 0.70168037 0.70168037]</t>
+          <t>[1.21660946 1.21660946 1.21660946 0.69265414 0.69265414 0.69265414
+ 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
         </is>
       </c>
       <c r="E750" t="inlineStr"/>
@@ -19764,8 +19763,8 @@
       </c>
       <c r="D751" t="inlineStr">
         <is>
-          <t>[1.15086843 1.15086843 1.15086843 1.04527838 0.99510763 0.94493708
- 0.69518965 0.60472591 0.51426344 0.39922621 0.39922621 0.39922621]</t>
+          <t>[0.69215213 0.69215213 0.69215213 0.39362396 0.39362396 0.39362396
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E751" t="inlineStr"/>
@@ -19788,8 +19787,8 @@
       </c>
       <c r="D752" t="inlineStr">
         <is>
-          <t>[1.15086843 1.15086843 1.15086843 1.04527838 0.99510763 0.94493708
- 0.69518965 0.60472591 0.51426344 0.39922621 0.39922621 0.39922621]</t>
+          <t>[0.69215213 0.69215213 0.69215213 0.39362396 0.39362396 0.39362396
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E752" t="inlineStr"/>
@@ -19812,8 +19811,8 @@
       </c>
       <c r="D753" t="inlineStr">
         <is>
-          <t>[30.30153415 30.30153415 30.30153415 26.26518175 22.65444202 19.39078227
- 11.94128079  7.8525104   4.8231986   3.11989206  3.11989206  3.11989206]</t>
+          <t>[9.62279558 9.62279558 9.62279558 5.50555195 5.50555195 5.50555195
+ 4.68762206 3.56469098 2.63714733 2.24080985 2.24080985 2.24080985]</t>
         </is>
       </c>
       <c r="E753" t="inlineStr"/>
@@ -19836,8 +19835,8 @@
       </c>
       <c r="D754" t="inlineStr">
         <is>
-          <t>[30.30153415 30.30153415 30.30153415 26.26518175 22.65444202 19.39078227
- 11.94128079  7.8525104   4.8231986   3.11989206  3.11989206  3.11989206]</t>
+          <t>[9.62279558 9.62279558 9.62279558 5.50555195 5.50555195 5.50555195
+ 4.68762206 3.56469098 2.63714733 2.24080985 2.24080985 2.24080985]</t>
         </is>
       </c>
       <c r="E754" t="inlineStr"/>
@@ -19860,8 +19859,8 @@
       </c>
       <c r="D755" t="inlineStr">
         <is>
-          <t>[60.60306831 60.60306831 60.60306831 52.5303635  45.30888403 38.78156455
- 23.88256158 15.70502081  9.64639721  6.23978412  6.23978412  6.23978412]</t>
+          <t>[19.24559117 19.24559117 19.24559117 11.0111039  11.0111039  11.0111039
+  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
         </is>
       </c>
       <c r="E755" t="inlineStr"/>
@@ -19955,8 +19954,8 @@
       </c>
       <c r="D759" t="inlineStr">
         <is>
-          <t>[11.61331002 11.61331002 11.61331002 16.59044289 16.59044289 16.59044289
-  9.95426573  9.95426573  9.95426573  9.29064802  9.29064802  9.29064802]</t>
+          <t>[12.30150617 12.30150617 12.30150617 17.57358025 17.57358025 17.57358025
+ 10.54414815 10.54414815 10.54414815  7.0294321   7.0294321   7.0294321 ]</t>
         </is>
       </c>
       <c r="E759" t="inlineStr"/>
@@ -19979,18 +19978,18 @@
       </c>
       <c r="D760" t="inlineStr">
         <is>
-          <t>[[-23329433.1050025 ]
- [-21517400.90602   ]
- [-19704180.61160189]
- [-17348223.94066548]
- [-15104228.54973583]
- [-12972564.60442451]
- [-12028440.33566992]
- [-11207205.12784973]
- [-10508881.44745222]
- [-10001319.38229696]
- [ -9493615.37584772]
- [ -8985776.30844629]]</t>
+          <t>[[-16433930.01639228]
+ [-15277971.82466562]
+ [-14121133.18098991]
+ [-13171607.88774643]
+ [-12220911.73147363]
+ [-11269230.46898927]
+ [-10739039.70396255]
+ [-10254835.9241617 ]
+ [ -9816667.50035031]
+ [ -9539868.15269817]
+ [ -9262989.54291176]
+ [ -8986034.52447545]]</t>
         </is>
       </c>
       <c r="E760" t="inlineStr"/>
@@ -20013,18 +20012,18 @@
       </c>
       <c r="D761" t="inlineStr">
         <is>
-          <t>[[2938067.70010377]
- [2938679.84743597]
- [2939232.9459164 ]
- [2940522.14114487]
- [2941281.29284796]
- [2941879.34826771]
- [2939840.40979532]
- [2939788.52935113]
- [2939692.9186245 ]
- [2939296.33417959]
- [2939361.26197765]
- [2939320.69824081]]</t>
+          <t>[[2938461.09493337]
+ [2939806.74382189]
+ [2941017.9430784 ]
+ [2941937.64998769]
+ [2943734.21774617]
+ [2945119.335088  ]
+ [2942320.64761022]
+ [2942213.96491734]
+ [2942013.28068838]
+ [2940503.95073606]
+ [2940516.18434344]
+ [2940480.56721993]]</t>
         </is>
       </c>
       <c r="E761" t="inlineStr"/>
@@ -20047,18 +20046,18 @@
       </c>
       <c r="D762" t="inlineStr">
         <is>
-          <t>[[8739.95229175]
- [8743.22985956]
- [8746.33243318]
- [8753.75889346]
- [8758.86820942]
- [8763.6646536 ]
- [8751.95692687]
- [8752.61714909]
- [8753.4946505 ]
- [8752.36421735]
- [8755.6531382 ]
- [8758.6123588 ]]</t>
+          <t>[[8742.0337991 ]
+ [8749.31743313]
+ [8756.19945521]
+ [8762.14972015]
+ [8774.16393223]
+ [8784.89929003]
+ [8768.73945341]
+ [8769.63938166]
+ [8770.53082684]
+ [8760.8857493 ]
+ [8762.71718422]
+ [8764.39004932]]</t>
         </is>
       </c>
       <c r="E762" t="inlineStr"/>
@@ -20081,18 +20080,18 @@
       </c>
       <c r="D763" t="inlineStr">
         <is>
-          <t>[[-1886528.10719893]
- [-1783535.70936738]
- [-1679806.62800559]
- [-1530516.61809596]
- [-1380238.20509097]
- [-1229275.5640207 ]
- [-1138517.34916064]
- [-1047324.96340669]
- [ -955450.01713634]
- [ -868806.73256586]
- [ -781224.99948119]
- [ -692941.93268697]]</t>
+          <t>[[-1970099.35875949]
+ [-1858707.51820699]
+ [-1745356.66630017]
+ [-1579277.09606907]
+ [-1408191.56562688]
+ [-1233543.2421821 ]
+ [-1127699.72650521]
+ [-1020853.00042802]
+ [ -912755.21098109]
+ [ -840004.48265261]
+ [ -766691.79148636]
+ [ -692940.93580528]]</t>
         </is>
       </c>
       <c r="E763" t="inlineStr"/>
@@ -20115,18 +20114,18 @@
       </c>
       <c r="D764" t="inlineStr">
         <is>
-          <t>[[ 3.52333100e+08]
- [ 3.17927367e+08]
- [ 2.83391820e+08]
- [ 2.33875381e+08]
- [ 1.84222272e+08]
- [ 1.34504978e+08]
- [ 1.04679715e+08]
- [ 7.48320551e+07]
- [ 4.49571244e+07]
- [ 1.70548821e+07]
- [-1.08415425e+07]
- [-3.86931092e+07]]</t>
+          <t>[[ 3.63964972e+08]
+ [ 3.27094366e+08]
+ [ 2.89882254e+08]
+ [ 2.36051032e+08]
+ [ 1.81493708e+08]
+ [ 1.26525703e+08]
+ [ 9.34844424e+07]
+ [ 6.04048626e+07]
+ [ 2.73082560e+07]
+ [ 5.26642029e+06]
+ [-1.67416016e+07]
+ [-3.86931098e+07]]</t>
         </is>
       </c>
       <c r="E764" t="inlineStr"/>
@@ -20149,18 +20148,18 @@
       </c>
       <c r="D765" t="inlineStr">
         <is>
-          <t>[[6203638.15118953]
- [6203568.14887365]
- [6203498.0872173 ]
- [6203504.84776578]
- [6203441.88077658]
- [6203377.48568522]
- [6203496.3374845 ]
- [6203551.35174322]
- [6203636.41765461]
- [6203837.91223762]
- [6203781.31240357]
- [6203724.69777437]]</t>
+          <t>[[6203796.54332661]
+ [6203722.27579757]
+ [6203647.93300702]
+ [6204260.5667625 ]
+ [6204153.28865972]
+ [6204045.88198864]
+ [6204038.41657645]
+ [6204098.8856325 ]
+ [6204178.92503671]
+ [6204195.086665  ]
+ [6204151.94768982]
+ [6204108.79696183]]</t>
         </is>
       </c>
       <c r="E765" t="inlineStr"/>
@@ -20184,17 +20183,17 @@
       <c r="D766" t="inlineStr">
         <is>
           <t>[[135.7193516 ]
- [155.74123287]
- [169.88212701]
- [181.04996942]
- [193.97594653]
- [204.63727934]
- [213.7833591 ]
- [218.72660661]
- [223.33944433]
- [227.66891335]
- [231.48712289]
- [235.11571637]
+ [156.69843521]
+ [171.33048609]
+ [182.82227714]
+ [196.0755203 ]
+ [206.97905056]
+ [216.31799319]
+ [221.36083569]
+ [226.06408979]
+ [230.47643609]
+ [233.27575427]
+ [235.97256769]
  [238.57517091]]</t>
         </is>
       </c>
@@ -20219,17 +20218,17 @@
       <c r="D767" t="inlineStr">
         <is>
           <t>[[  0.           0.          15.        ]
- [  0.           0.          26.61331002]
- [  0.           0.          38.22662005]
- [  0.           0.          49.83993007]
- [  0.           0.          66.43037296]
- [  0.           0.          83.02081585]
- [  0.           0.          99.61125874]
- [  0.           0.         109.56552448]
- [  0.           0.         119.51979021]
- [  0.           0.         129.47405594]
- [  0.           0.         138.76470396]
- [  0.           0.         148.05535198]
+ [  0.           0.          27.30150617]
+ [  0.           0.          39.60301235]
+ [  0.           0.          51.90451852]
+ [  0.           0.          69.47809877]
+ [  0.           0.          87.05167901]
+ [  0.           0.         104.62525926]
+ [  0.           0.         115.16940741]
+ [  0.           0.         125.71355556]
+ [  0.           0.         136.2577037 ]
+ [  0.           0.         143.2871358 ]
+ [  0.           0.         150.3165679 ]
  [  0.           0.         157.346     ]]</t>
         </is>
       </c>
@@ -20253,7 +20252,7 @@
       </c>
       <c r="D768" t="inlineStr">
         <is>
-          <t>[948395.22490771]</t>
+          <t>[948421.32607936]</t>
         </is>
       </c>
       <c r="E768" t="inlineStr"/>
@@ -20276,8 +20275,8 @@
       </c>
       <c r="D769" t="inlineStr">
         <is>
-          <t>[4.16137377e+08 2.85204501e+08 2.66306106e+08 5.41253411e+02
- 1.42357775e+07 1.69892134e+05]</t>
+          <t>[4.16138017e+08 2.85204924e+08 2.66307067e+08 5.41567843e+02
+ 1.42357746e+07 1.69909285e+05]</t>
         </is>
       </c>
       <c r="E769" t="inlineStr"/>
@@ -20300,7 +20299,7 @@
       </c>
       <c r="D770" t="inlineStr">
         <is>
-          <t>[-6.7583112  -0.09586197  4.59784123]</t>
+          <t>[-6.75812851 -0.09586916  4.59772556]</t>
         </is>
       </c>
       <c r="E770" t="inlineStr"/>
@@ -20325,7 +20324,7 @@
         <is>
           <t>[[ 2.93771295e+06]
  [ 8.73816952e+03]
- [-8.98577631e+06]]</t>
+ [-8.98603452e+06]]</t>
         </is>
       </c>
       <c r="E771" t="inlineStr"/>
@@ -20348,9 +20347,9 @@
       </c>
       <c r="D772" t="inlineStr">
         <is>
-          <t>[[  -692939.78155346]
- [-38693034.48001503]
- [  6202666.24461834]]</t>
+          <t>[[  -692940.008576  ]
+ [-38693074.08051626]
+ [  6202665.53278366]]</t>
         </is>
       </c>
       <c r="E772" t="inlineStr"/>
@@ -20443,19 +20442,19 @@
       </c>
       <c r="D775" t="inlineStr">
         <is>
-          <t>[[-1047.13901865]
- [-1206.50664157]
- [-1321.22751075]
- [-1413.18261726]
- [-1440.97876521]
- [-1441.96074555]
- [-1424.6820857 ]
- [-1272.31084758]
- [-1119.10085911]
- [ -962.19898835]
- [ -978.02680667]
- [ -993.06340443]
- [-1007.39507288]]</t>
+          <t>[[ -764.0675664 ]
+ [ -879.89721404]
+ [ -960.79254611]
+ [-1024.48836201]
+ [-1098.19816289]
+ [-1159.08690457]
+ [-1211.44283474]
+ [-1136.90215108]
+ [-1057.80219044]
+ [ -973.99389388]
+ [ -985.59734665]
+ [ -996.77327326]
+ [-1007.55661265]]</t>
         </is>
       </c>
       <c r="E775" t="inlineStr"/>
@@ -20478,7 +20477,7 @@
       </c>
       <c r="D776" t="inlineStr">
         <is>
-          <t>[1629328.93959332]</t>
+          <t>[862261.33979561]</t>
         </is>
       </c>
       <c r="E776" t="inlineStr"/>
@@ -20501,7 +20500,7 @@
       </c>
       <c r="D777" t="inlineStr">
         <is>
-          <t>[57.4972536]</t>
+          <t>[58.5766537]</t>
         </is>
       </c>
       <c r="E777" t="inlineStr"/>
@@ -20524,7 +20523,7 @@
       </c>
       <c r="D778" t="inlineStr">
         <is>
-          <t>[7.69652612e+09 7.69652612e+09 3.93594674e+07 0.00000000e+00
+          <t>[4.40609699e+09 4.40609699e+09 1.26003366e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -20548,7 +20547,8 @@
       </c>
       <c r="D779" t="inlineStr">
         <is>
-          <t>[11. 11. 11. 11. 11. 11. 11.]</t>
+          <t>[9.51547331 9.51547331 9.51547331 9.51547331 9.51547331 9.5123012
+ 9.21296284]</t>
         </is>
       </c>
       <c r="E779" t="inlineStr"/>
@@ -20571,7 +20571,7 @@
       </c>
       <c r="D780" t="inlineStr">
         <is>
-          <t>[0.12442164 0.13428246 0.13438589 0.1267728  0.12663441 0.12500954]</t>
+          <t>[0.07 0.07 0.07 0.07 0.07 0.07]</t>
         </is>
       </c>
       <c r="E780" t="inlineStr"/>
@@ -20590,7 +20590,7 @@
       <c r="C781" t="inlineStr"/>
       <c r="D781" t="inlineStr">
         <is>
-          <t>[0.         0.31578947 0.52631579 0.73684211 0.84210526 0.94736842
+          <t>[0.         0.40909091 0.59090909 0.77272727 0.86363636 0.95454545
  1.        ]</t>
         </is>
       </c>
@@ -20614,7 +20614,7 @@
       </c>
       <c r="D782" t="inlineStr">
         <is>
-          <t>[95.]</t>
+          <t>[110.]</t>
         </is>
       </c>
       <c r="E782" t="inlineStr"/>
@@ -20637,7 +20637,8 @@
       </c>
       <c r="D783" t="inlineStr">
         <is>
-          <t>[11. 11. 11. 11. 11. 11. 11.]</t>
+          <t>[9.51547331 9.51547331 9.51547331 9.51547331 9.51547331 9.5123012
+ 9.21296284]</t>
         </is>
       </c>
       <c r="E783" t="inlineStr"/>
@@ -20660,7 +20661,7 @@
       </c>
       <c r="D784" t="inlineStr">
         <is>
-          <t>[0.12442164 0.13428246 0.13438589 0.1267728  0.12663441 0.12500954]</t>
+          <t>[0.07 0.07 0.07 0.07 0.07 0.07]</t>
         </is>
       </c>
       <c r="E784" t="inlineStr"/>
@@ -20813,7 +20814,7 @@
       <c r="C791" t="inlineStr"/>
       <c r="D791" t="inlineStr">
         <is>
-          <t>[0.         0.31578947 0.52631579 0.73684211 0.84210526 0.94736842
+          <t>[0.         0.40909091 0.59090909 0.77272727 0.86363636 0.95454545
  1.        ]</t>
         </is>
       </c>
@@ -20833,7 +20834,7 @@
       <c r="C792" t="inlineStr"/>
       <c r="D792" t="inlineStr">
         <is>
-          <t>[0.31578947]</t>
+          <t>[0.40909091]</t>
         </is>
       </c>
       <c r="E792" t="inlineStr"/>
@@ -20899,7 +20900,7 @@
       </c>
       <c r="D795" t="inlineStr">
         <is>
-          <t>[3495904.01053304]</t>
+          <t>[1905533.19795188]</t>
         </is>
       </c>
       <c r="E795" t="inlineStr"/>
@@ -20922,7 +20923,7 @@
       </c>
       <c r="D796" t="inlineStr">
         <is>
-          <t>[8167844.56472766]</t>
+          <t>[4676980.86317517]</t>
         </is>
       </c>
       <c r="E796" t="inlineStr"/>
@@ -20945,7 +20946,7 @@
       </c>
       <c r="D797" t="inlineStr">
         <is>
-          <t>[47.71120732]</t>
+          <t>[54.96004263]</t>
         </is>
       </c>
       <c r="E797" t="inlineStr"/>
@@ -20968,7 +20969,7 @@
       </c>
       <c r="D798" t="inlineStr">
         <is>
-          <t>[1.05755398e+10 1.05755398e+10 1.03294922e+08 0.00000000e+00
+          <t>[7.69588717e+09 7.69588717e+09 4.24419286e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -20992,7 +20993,7 @@
       </c>
       <c r="D799" t="inlineStr">
         <is>
-          <t>[1629328.93959332]</t>
+          <t>[862261.33979561]</t>
         </is>
       </c>
       <c r="E799" t="inlineStr"/>
@@ -21015,7 +21016,7 @@
       </c>
       <c r="D800" t="inlineStr">
         <is>
-          <t>[4153853.24925214]</t>
+          <t>[2371696.49350505]</t>
         </is>
       </c>
       <c r="E800" t="inlineStr"/>
@@ -21038,7 +21039,7 @@
       </c>
       <c r="D801" t="inlineStr">
         <is>
-          <t>[95.]</t>
+          <t>[110.]</t>
         </is>
       </c>
       <c r="E801" t="inlineStr"/>
@@ -21084,7 +21085,7 @@
       </c>
       <c r="D803" t="inlineStr">
         <is>
-          <t>[-80.]</t>
+          <t>[-95.]</t>
         </is>
       </c>
       <c r="E803" t="inlineStr"/>
@@ -21107,7 +21108,7 @@
       </c>
       <c r="D804" t="inlineStr">
         <is>
-          <t>[11.]</t>
+          <t>[9.51547331]</t>
         </is>
       </c>
       <c r="E804" t="inlineStr"/>
@@ -22822,7 +22823,7 @@
       </c>
       <c r="D840" t="inlineStr">
         <is>
-          <t>[11.        11.         9.4571377  5.999      5.999    ]</t>
+          <t>[8. 8. 8. 6. 6.]</t>
         </is>
       </c>
       <c r="E840" t="inlineStr"/>
@@ -22845,7 +22846,7 @@
       </c>
       <c r="D841" t="inlineStr">
         <is>
-          <t>[0.055      0.05114284 0.04114284 0.035     ]</t>
+          <t>[0.04549929 0.02584032 0.025      0.025     ]</t>
         </is>
       </c>
       <c r="E841" t="inlineStr"/>
@@ -22864,7 +22865,7 @@
       <c r="C842" t="inlineStr"/>
       <c r="D842" t="inlineStr">
         <is>
-          <t>[0.         0.24475524 0.59440559 0.8041958  1.        ]</t>
+          <t>[0.         0.25925926 0.62962963 0.85185185 1.        ]</t>
         </is>
       </c>
       <c r="E842" t="inlineStr"/>
@@ -22910,7 +22911,7 @@
       </c>
       <c r="D844" t="inlineStr">
         <is>
-          <t>[11.        11.         9.4571377  5.999      5.999    ]</t>
+          <t>[8. 8. 8. 6. 6.]</t>
         </is>
       </c>
       <c r="E844" t="inlineStr"/>
@@ -22933,7 +22934,7 @@
       </c>
       <c r="D845" t="inlineStr">
         <is>
-          <t>[0.055      0.05114284 0.04114284 0.035     ]</t>
+          <t>[0.04549929 0.02584032 0.025      0.025     ]</t>
         </is>
       </c>
       <c r="E845" t="inlineStr"/>
@@ -23086,7 +23087,7 @@
       <c r="C852" t="inlineStr"/>
       <c r="D852" t="inlineStr">
         <is>
-          <t>[0.         0.24475524 0.59440559 0.8041958  1.        ]</t>
+          <t>[0.         0.25925926 0.62962963 0.85185185 1.        ]</t>
         </is>
       </c>
       <c r="E852" t="inlineStr"/>
@@ -24264,9 +24265,9 @@
       <c r="D886" t="inlineStr">
         <is>
           <t>[[  0.           0.          15.        ]
- [  0.           0.          49.83993007]
- [  0.           0.          99.61125874]
- [  0.           0.         129.47405594]
+ [  0.           0.          51.90451852]
+ [  0.           0.         104.62525926]
+ [  0.           0.         136.2577037 ]
  [  0.           0.         157.346     ]]</t>
         </is>
       </c>
@@ -24526,7 +24527,7 @@
       </c>
       <c r="D897" t="inlineStr">
         <is>
-          <t>[0.00718846]</t>
+          <t>[0.00718672]</t>
         </is>
       </c>
       <c r="E897" t="inlineStr"/>
@@ -24618,7 +24619,7 @@
       </c>
       <c r="D901" t="inlineStr">
         <is>
-          <t>[0.02944534]</t>
+          <t>[0.02944651]</t>
         </is>
       </c>
       <c r="E901" t="inlineStr"/>
@@ -25252,7 +25253,7 @@
       </c>
       <c r="D929" t="inlineStr">
         <is>
-          <t>[0.00311439]</t>
+          <t>[0.00311352]</t>
         </is>
       </c>
       <c r="E929" t="inlineStr"/>
@@ -25275,7 +25276,7 @@
       </c>
       <c r="D930" t="inlineStr">
         <is>
-          <t>[0.00090783]</t>
+          <t>[0.0009076]</t>
         </is>
       </c>
       <c r="E930" t="inlineStr"/>
@@ -27122,7 +27123,7 @@
       </c>
       <c r="D1010" t="inlineStr">
         <is>
-          <t>[0.     4.8745 1.875 ]</t>
+          <t>[0.    4.875 1.875]</t>
         </is>
       </c>
       <c r="E1010" t="inlineStr"/>
@@ -27191,7 +27192,7 @@
       </c>
       <c r="D1013" t="inlineStr">
         <is>
-          <t>[ 0.     -4.8745  1.875 ]</t>
+          <t>[ 0.    -4.875  1.875]</t>
         </is>
       </c>
       <c r="E1013" t="inlineStr"/>
@@ -27237,7 +27238,7 @@
       </c>
       <c r="D1015" t="inlineStr">
         <is>
-          <t>[25227.95426345]</t>
+          <t>[25235.35209761]</t>
         </is>
       </c>
       <c r="E1015" t="inlineStr"/>
@@ -27306,7 +27307,7 @@
       </c>
       <c r="D1018" t="inlineStr">
         <is>
-          <t>[33949.45548704]</t>
+          <t>[33954.33597653]</t>
         </is>
       </c>
       <c r="E1018" t="inlineStr"/>
@@ -27329,7 +27330,7 @@
       </c>
       <c r="D1019" t="inlineStr">
         <is>
-          <t>[-0.88537221  0.          2.40318707]</t>
+          <t>[-0.88533715  0.          2.40314516]</t>
         </is>
       </c>
       <c r="E1019" t="inlineStr"/>
@@ -27352,8 +27353,8 @@
       </c>
       <c r="D1020" t="inlineStr">
         <is>
-          <t>[388014.25589214 426867.9023198  247893.0889835       0.
-  87517.08492439      0.        ]</t>
+          <t>[388100.94902959 426951.50388173 247988.45095814      0.
+  87515.58729723      0.        ]</t>
         </is>
       </c>
       <c r="E1020" t="inlineStr"/>
@@ -27445,7 +27446,7 @@
       </c>
       <c r="D1024" t="inlineStr">
         <is>
-          <t>[41458.177152]</t>
+          <t>[41472.]</t>
         </is>
       </c>
       <c r="E1024" t="inlineStr"/>
@@ -27491,7 +27492,7 @@
       </c>
       <c r="D1026" t="inlineStr">
         <is>
-          <t>[497337.83469174 497337.83469174 994664.61386957]</t>
+          <t>[497669.5296 497669.5296 995328.    ]</t>
         </is>
       </c>
       <c r="E1026" t="inlineStr"/>
@@ -27677,8 +27678,8 @@
       </c>
       <c r="D1034" t="inlineStr">
         <is>
-          <t>[-2.9995     -3.00741147 -3.03098483 -3.06974018 -3.12288859 -3.18934811
- -3.2677658  -3.35654532 -3.45387936 -3.55778649 -3.66615146 -3.77676827]</t>
+          <t>[-3.         -3.00790638 -3.03146457 -3.070195   -3.12330922 -3.18972598
+ -3.26809323 -3.35681564 -3.45408707 -3.55792736 -3.66622262 -3.77676827]</t>
         </is>
       </c>
       <c r="E1034" t="inlineStr"/>
@@ -27725,8 +27726,8 @@
       </c>
       <c r="D1036" t="inlineStr">
         <is>
-          <t>[ 2.9995      2.93052736  2.72501352  2.38714216  1.92379135  1.34439359
-  0.66074374 -0.11324105 -0.9618047  -1.86767288 -2.81240475 -3.77676827]</t>
+          <t>[ 3.          2.93102227  2.72549327  2.38759697  1.92421198  1.34477147
+  0.66107117 -0.11297073 -0.96159699 -1.86753202 -2.81233359 -3.77676827]</t>
         </is>
       </c>
       <c r="E1036" t="inlineStr"/>
@@ -27773,8 +27774,8 @@
       </c>
       <c r="D1038" t="inlineStr">
         <is>
-          <t>[5.999      5.9461874  5.78927314 5.53288369 5.18494688 4.75714325
- 4.26586323 3.73421034 3.19612251 2.70412972 2.3389862  2.2       ]</t>
+          <t>[6.         5.94717584 5.79022711 5.53378083 5.1857657  4.75786351
+ 4.26646632 3.73467992 3.19644643 2.70430582 2.33903815 2.2       ]</t>
         </is>
       </c>
       <c r="E1038" t="inlineStr"/>
@@ -27989,7 +27990,7 @@
       </c>
       <c r="D1047" t="inlineStr">
         <is>
-          <t>[136801.54355707]</t>
+          <t>[136822.76423923]</t>
         </is>
       </c>
       <c r="E1047" t="inlineStr"/>
@@ -28127,7 +28128,7 @@
       </c>
       <c r="D1053" t="inlineStr">
         <is>
-          <t>[654746.91928556]</t>
+          <t>[654773.0204572]</t>
         </is>
       </c>
       <c r="E1053" t="inlineStr"/>
@@ -28150,7 +28151,7 @@
       </c>
       <c r="D1054" t="inlineStr">
         <is>
-          <t>[-3.85552185 -0.13885522  4.08556732]</t>
+          <t>[-3.85537294 -0.13886393  4.08542019]</t>
         </is>
       </c>
       <c r="E1054" t="inlineStr"/>
@@ -28173,8 +28174,8 @@
       </c>
       <c r="D1055" t="inlineStr">
         <is>
-          <t>[2.01661599e+07 2.92791485e+07 1.79410345e+07 5.41253411e+02
- 1.20568495e+07 1.69892134e+05]</t>
+          <t>[2.01667992e+07 2.92795715e+07 1.79419955e+07 5.41567843e+02
+ 1.20568466e+07 1.69909285e+05]</t>
         </is>
       </c>
       <c r="E1055" t="inlineStr"/>
@@ -30723,7 +30724,7 @@
       </c>
       <c r="D1130" t="inlineStr">
         <is>
-          <t>[0.09098261]</t>
+          <t>[0.08597194]</t>
         </is>
       </c>
       <c r="E1130" t="inlineStr">
@@ -30800,7 +30801,7 @@
       </c>
       <c r="D1133" t="inlineStr">
         <is>
-          <t>[-226.96971256]</t>
+          <t>[-204.66268177]</t>
         </is>
       </c>
       <c r="E1133" t="inlineStr">
@@ -30827,7 +30828,7 @@
       </c>
       <c r="D1134" t="inlineStr">
         <is>
-          <t>[-0.05098261]</t>
+          <t>[-0.04597194]</t>
         </is>
       </c>
       <c r="E1134" t="inlineStr">
@@ -30854,7 +30855,7 @@
       </c>
       <c r="D1135" t="inlineStr">
         <is>
-          <t>[0.12198261]</t>
+          <t>[0.11697194]</t>
         </is>
       </c>
       <c r="E1135" t="inlineStr">
@@ -30877,7 +30878,7 @@
       <c r="C1136" t="inlineStr"/>
       <c r="D1136" t="inlineStr">
         <is>
-          <t>[0.43964447]</t>
+          <t>[0.46526811]</t>
         </is>
       </c>
       <c r="E1136" t="inlineStr">
@@ -30900,7 +30901,7 @@
       <c r="C1137" t="inlineStr"/>
       <c r="D1137" t="inlineStr">
         <is>
-          <t>[2.27456517]</t>
+          <t>[2.14929839]</t>
         </is>
       </c>
       <c r="E1137" t="inlineStr">
@@ -30923,7 +30924,7 @@
       <c r="C1138" t="inlineStr"/>
       <c r="D1138" t="inlineStr">
         <is>
-          <t>[-0.56035553]</t>
+          <t>[-0.53473189]</t>
         </is>
       </c>
       <c r="E1138" t="inlineStr">
@@ -30946,7 +30947,7 @@
       <c r="C1139" t="inlineStr"/>
       <c r="D1139" t="inlineStr">
         <is>
-          <t>[-1.27456517]</t>
+          <t>[-1.14929839]</t>
         </is>
       </c>
       <c r="E1139" t="inlineStr">
@@ -30973,7 +30974,7 @@
       </c>
       <c r="D1140" t="inlineStr">
         <is>
-          <t>[0.16149413]</t>
+          <t>[0.15260019]</t>
         </is>
       </c>
       <c r="E1140" t="inlineStr">
@@ -31000,7 +31001,7 @@
       </c>
       <c r="D1141" t="inlineStr">
         <is>
-          <t>[8.56274895e+08]</t>
+          <t>[6.88544787e+08]</t>
         </is>
       </c>
       <c r="E1141" t="inlineStr">
@@ -31027,7 +31028,7 @@
       </c>
       <c r="D1142" t="inlineStr">
         <is>
-          <t>[2.1745249e+09]</t>
+          <t>[2.00679479e+09]</t>
         </is>
       </c>
       <c r="E1142" t="inlineStr">
@@ -31054,7 +31055,7 @@
       </c>
       <c r="D1143" t="inlineStr">
         <is>
-          <t>[3624.20815835]</t>
+          <t>[3344.65797799]</t>
         </is>
       </c>
       <c r="E1143" t="inlineStr">
@@ -31081,7 +31082,7 @@
       </c>
       <c r="D1144" t="inlineStr">
         <is>
-          <t>[11049.92932022]</t>
+          <t>[8791.02132022]</t>
         </is>
       </c>
       <c r="E1144" t="inlineStr">
@@ -31108,7 +31109,7 @@
       </c>
       <c r="D1145" t="inlineStr">
         <is>
-          <t>[2.47915487e+08]</t>
+          <t>[2.20978327e+08]</t>
         </is>
       </c>
       <c r="E1145" t="inlineStr">
@@ -31135,11 +31136,11 @@
       </c>
       <c r="D1146" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          20017.11440126
-  20986.44664575  23999.51560344  29386.86395002  37748.43509814
-  49975.7389429   67453.86707481  78800.07215349  92377.84329724
- 108714.45363716    729.034078      860.2225698     948.63159706
-    984.81958944   1017.40298746   1047.13901865]</t>
+          <t>[    0.             0.             0.         15001.79811854
+ 15728.78202234 17991.96803786 22045.93628102 28361.67325187
+ 37641.62030854 50939.66078868 59579.87143492 69918.5386986
+ 82348.34784436   633.53477442   745.88449041   820.88748446
+   842.73357274   860.8521798    875.98391404]</t>
         </is>
       </c>
       <c r="E1146" t="inlineStr"/>
@@ -31389,11 +31390,11 @@
       </c>
       <c r="D1156" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          20017.11440126
-  20986.44664575  23999.51560344  29386.86395002  37748.43509814
-  49975.7389429   67453.86707481  78800.07215349  92377.84329724
- 108714.45363716      0.              0.              0.
-      0.              0.              0.        ]</t>
+          <t>[    0.             0.             0.         15001.79811854
+ 15728.78202234 17991.96803786 22045.93628102 28361.67325187
+ 37641.62030854 50939.66078868 59579.87143492 69918.5386986
+ 82348.34784436     0.             0.             0.
+     0.             0.             0.        ]</t>
         </is>
       </c>
       <c r="E1156" t="inlineStr"/>
@@ -31515,7 +31516,7 @@
       </c>
       <c r="D1161" t="inlineStr">
         <is>
-          <t>[-80.         -70.         -60.         -50.         -43.33333333
+          <t>[-95.         -80.         -65.         -50.         -43.33333333
  -36.66666667 -30.         -23.33333333 -16.66666667 -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
   10.          11.66666667  13.33333333  15.        ]</t>
@@ -31590,10 +31591,10 @@
       </c>
       <c r="D1164" t="inlineStr">
         <is>
-          <t>[   0.            0.            0.            0.            0.
-    0.            0.            0.            0.            0.
-    0.            0.            0.          729.034078    860.2225698
-  948.63159706  984.81958944 1017.40298746 1047.13901865]</t>
+          <t>[  0.           0.           0.           0.           0.
+   0.           0.           0.           0.           0.
+   0.           0.           0.         633.53477442 745.88449041
+ 820.88748446 842.73357274 860.8521798  875.98391404]</t>
         </is>
       </c>
       <c r="E1164" t="inlineStr"/>
@@ -31688,7 +31689,7 @@
       </c>
       <c r="D1168" t="inlineStr">
         <is>
-          <t>[-80.         -70.         -60.         -50.         -43.33333333
+          <t>[-95.         -80.         -65.         -50.         -43.33333333
  -36.66666667 -30.         -23.33333333 -16.66666667 -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
   10.          11.66666667  13.33333333  15.        ]</t>
@@ -31783,11 +31784,11 @@
       </c>
       <c r="D1172" t="inlineStr">
         <is>
-          <t>[      0.               0.               0.          -20017.11440126
-  -20986.44664575  -23999.51560344  -29386.86395002  -37748.43509814
-  -49975.7389429   -67453.86707481  -78800.07215349  -92377.84329724
- -108714.45363716    -729.034078      -860.2225698     -948.63159706
-    -984.81958944   -1017.40298746   -1047.13901865]</t>
+          <t>[     0.              0.              0.         -15001.79811854
+ -15728.78202234 -17991.96803786 -22045.93628102 -28361.67325187
+ -37641.62030854 -50939.66078868 -59579.87143492 -69918.5386986
+ -82348.34784436   -633.53477442   -745.88449041   -820.88748446
+   -842.73357274   -860.8521798    -875.98391404]</t>
         </is>
       </c>
       <c r="E1172" t="inlineStr"/>
@@ -31837,11 +31838,11 @@
       </c>
       <c r="D1174" t="inlineStr">
         <is>
-          <t>[10.         10.         10.          6.66666667  6.66666667  6.66666667
+          <t>[15.         15.         15.          6.66666667  6.66666667  6.66666667
   6.66666667  6.66666667  6.66666667  3.33333333  3.33333333  3.33333333
   3.33333333  3.33333333  3.33333333  1.66666667  1.66666667  1.66666667
- 11.61331002 11.61331002 11.61331002 16.59044289 16.59044289 16.59044289
-  9.95426573  9.95426573  9.95426573  9.29064802  9.29064802  9.29064802]</t>
+ 12.30150617 12.30150617 12.30150617 17.57358025 17.57358025 17.57358025
+ 10.54414815 10.54414815 10.54414815  7.0294321   7.0294321   7.0294321 ]</t>
         </is>
       </c>
       <c r="E1174" t="inlineStr"/>
@@ -31864,7 +31865,7 @@
       </c>
       <c r="D1175" t="inlineStr">
         <is>
-          <t>[0.23041092]</t>
+          <t>[0.13658855]</t>
         </is>
       </c>
       <c r="E1175" t="inlineStr"/>
@@ -31887,7 +31888,7 @@
       </c>
       <c r="D1176" t="inlineStr">
         <is>
-          <t>[0.23143636]</t>
+          <t>[0.13726195]</t>
         </is>
       </c>
       <c r="E1176" t="inlineStr"/>
@@ -31910,7 +31911,7 @@
       </c>
       <c r="D1177" t="inlineStr">
         <is>
-          <t>[0.23041092 0.23143636 0.92692622 0.99996263 1.00195999 1.72332427]</t>
+          <t>[0.13658855 0.13726195 0.6794488  0.73222512 0.79246409 1.39863176]</t>
         </is>
       </c>
       <c r="E1177" t="inlineStr"/>
@@ -31933,7 +31934,7 @@
       </c>
       <c r="D1178" t="inlineStr">
         <is>
-          <t>[0.23143636 0.99996263 1.871089  ]</t>
+          <t>[0.13726195 0.79246409 1.51920634]</t>
         </is>
       </c>
       <c r="E1178" t="inlineStr"/>
@@ -31956,7 +31957,7 @@
       </c>
       <c r="D1179" t="inlineStr">
         <is>
-          <t>[0.23041092 0.92692622 1.72332427]</t>
+          <t>[0.13658855 0.73222512 1.39863176]</t>
         </is>
       </c>
       <c r="E1179" t="inlineStr"/>
@@ -31979,7 +31980,7 @@
       </c>
       <c r="D1180" t="inlineStr">
         <is>
-          <t>[4.693493 0.       0.      ]</t>
+          <t>[3.93876982 0.         0.        ]</t>
         </is>
       </c>
       <c r="E1180" t="inlineStr"/>
@@ -31998,9 +31999,9 @@
       <c r="C1181" t="inlineStr"/>
       <c r="D1181" t="inlineStr">
         <is>
-          <t>[[ 0.87469137  0.14287741 -0.06179274  0.14133303 -0.09710907]
- [-2.69656059  0.91426023  7.69331315 -9.8431373   4.93212451]
- [-6.39285655  7.6631108  16.76504616 -8.96653241 -8.06876801]]</t>
+          <t>[[  0.65676216   0.6660028   -1.31811185   2.22523376  -1.22988687]
+ [ -3.92546227  -2.37240611  16.93750741 -13.67481034   4.03517132]
+ [ -7.47787581   0.07200321  50.08930462 -52.04137518  10.35794316]]</t>
         </is>
       </c>
       <c r="E1181" t="inlineStr"/>
@@ -32019,9 +32020,9 @@
       <c r="C1182" t="inlineStr"/>
       <c r="D1182" t="inlineStr">
         <is>
-          <t>[[  0.86793438   0.14084697  -0.03521658   0.09177585  -0.06534062]
- [ -2.67699483   0.66012046   8.33867066 -11.68789538   6.36609909]
- [ -5.22771589   5.79645037  11.01312884  -2.77269213  -7.80917119]]</t>
+          <t>[[  0.65275559   0.66266892  -1.30440808   2.20874461  -1.21976103]
+ [ -3.95630256  -2.52525338  16.58049871 -13.83316801   4.73422525]
+ [ -6.46016714  -0.73381747  40.10896748 -38.03888252   6.12389965]]</t>
         </is>
       </c>
       <c r="E1182" t="inlineStr"/>
@@ -32040,77 +32041,80 @@
       <c r="C1183" t="inlineStr"/>
       <c r="D1183" t="inlineStr">
         <is>
-          <t>[[-2.7592133   7.9787802  -1.91076993 -5.40239969  3.09360271]
+          <t>[[ -0.84895948  -0.09304226  11.06447953 -13.31589607   4.19341828]
+ [  0.           0.           0.           0.           0.        ]
+ [  0.           0.           0.           0.           0.        ]]</t>
+        </is>
+      </c>
+      <c r="E1183" t="inlineStr"/>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="inlineStr">
+        <is>
+          <t>fixedse.tower_fore_aft_modes</t>
+        </is>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C1184" t="inlineStr"/>
+      <c r="D1184" t="inlineStr">
+        <is>
+          <t>[[ 8.15847624e-01  1.17225001e-01 -2.04463543e-03  1.36200172e-01
+  -6.72281622e-02]
+ [ 3.96006403e+00  4.17485482e-01 -6.41384188e+00  3.99683675e+00
+  -9.60544382e-01]
+ [-1.76258825e+00  1.41914346e-01  7.09008293e+00 -5.68501675e+00
+   1.21560772e+00]]</t>
+        </is>
+      </c>
+      <c r="E1184" t="inlineStr"/>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="inlineStr">
+        <is>
+          <t>fixedse.tower_side_side_modes</t>
+        </is>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C1185" t="inlineStr"/>
+      <c r="D1185" t="inlineStr">
+        <is>
+          <t>[[ 8.13924584e-01  1.17017933e-01  1.42658130e-03  1.33900755e-01
+  -6.62698535e-02]
+ [ 3.25461790e+00  3.59208117e-01 -4.88266712e+00  3.05663648e+00
+  -7.87795390e-01]
+ [-2.44859807e+00  6.73729633e-02  8.49866553e+00 -6.41990288e+00
+   1.30246246e+00]]</t>
+        </is>
+      </c>
+      <c r="E1185" t="inlineStr"/>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="inlineStr">
+        <is>
+          <t>fixedse.tower_torsion_modes</t>
+        </is>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C1186" t="inlineStr"/>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>[[-0.32271939  0.07491439  3.6279418  -3.17384361  0.79370682]
  [ 0.          0.          0.          0.          0.        ]
  [ 0.          0.          0.          0.          0.        ]]</t>
         </is>
       </c>
-      <c r="E1183" t="inlineStr"/>
-    </row>
-    <row r="1184">
-      <c r="A1184" t="inlineStr">
-        <is>
-          <t>fixedse.tower_fore_aft_modes</t>
-        </is>
-      </c>
-      <c r="B1184" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C1184" t="inlineStr"/>
-      <c r="D1184" t="inlineStr">
-        <is>
-          <t>[[ 9.28252380e-01  3.40661969e-02  7.54998654e-02 -4.73299232e-02
-   9.51148132e-03]
- [ 1.22008616e+01 -2.39747500e+00 -2.16305322e+01  1.95794399e+01
-  -6.75229423e+00]
- [-9.27788928e-01  6.14001170e-01  3.62770751e+00 -2.63816191e+00
-   3.24242163e-01]]</t>
-        </is>
-      </c>
-      <c r="E1184" t="inlineStr"/>
-    </row>
-    <row r="1185">
-      <c r="A1185" t="inlineStr">
-        <is>
-          <t>fixedse.tower_side_side_modes</t>
-        </is>
-      </c>
-      <c r="B1185" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C1185" t="inlineStr"/>
-      <c r="D1185" t="inlineStr">
-        <is>
-          <t>[[  0.92588743   0.03447079   0.08323402  -0.05806114   0.01446889]
- [  6.49893536  -1.13565262 -11.21509297  10.88474077  -4.03293053]
- [ -1.20572509   0.65481724   3.86439704  -2.5637935    0.2503043 ]]</t>
-        </is>
-      </c>
-      <c r="E1185" t="inlineStr"/>
-    </row>
-    <row r="1186">
-      <c r="A1186" t="inlineStr">
-        <is>
-          <t>fixedse.tower_torsion_modes</t>
-        </is>
-      </c>
-      <c r="B1186" t="inlineStr">
-        <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C1186" t="inlineStr"/>
-      <c r="D1186" t="inlineStr">
-        <is>
-          <t>[[-0.5112465   1.45943945  2.18624809 -3.24415385  1.10971281]
- [ 0.          0.          0.          0.          0.        ]
- [ 0.          0.          0.          0.          0.        ]]</t>
-        </is>
-      </c>
       <c r="E1186" t="inlineStr"/>
     </row>
     <row r="1187">
@@ -32131,37 +32135,37 @@
       </c>
       <c r="D1187" t="inlineStr">
         <is>
-          <t>[[2.82370290e-04]
- [3.94609017e-04]
- [2.15604222e-04]
- [3.48963138e-03]
- [8.10918889e-03]
- [1.43839556e-02]
- [2.22528072e-02]
- [3.16538116e-02]
- [4.25250616e-02]
- [5.48050474e-02]
- [6.14664130e-02]
- [6.84759055e-02]
- [7.58253776e-02]
- [8.35069064e-02]
- [9.15124671e-02]
- [9.98339129e-02]
- [1.04111329e-01]
- [1.08465612e-01]
- [1.12895730e-01]
- [1.48160851e-01]
- [1.90746953e-01]
- [2.39872308e-01]
- [3.20742585e-01]
- [4.13358595e-01]
- [5.16326570e-01]
- [5.82925627e-01]
- [6.53553510e-01]
- [7.28028196e-01]
- [7.99605488e-01]
- [8.69707651e-01]
- [9.36900000e-01]]</t>
+          <t>[[3.63306833e-05]
+ [2.96019926e-04]
+ [7.96935532e-04]
+ [6.15818970e-03]
+ [1.74302408e-02]
+ [3.38077870e-02]
+ [5.51106572e-02]
+ [8.11575876e-02]
+ [1.11766379e-01]
+ [1.46754054e-01]
+ [1.65832546e-01]
+ [1.85936873e-01]
+ [2.07044031e-01]
+ [2.29131091e-01]
+ [2.52175301e-01]
+ [2.76153973e-01]
+ [2.88488676e-01]
+ [3.01056287e-01]
+ [3.13861353e-01]
+ [4.24433234e-01]
+ [5.62755386e-01]
+ [7.25806482e-01]
+ [1.01182063e+00]
+ [1.35959506e+00]
+ [1.75336389e+00]
+ [2.00604861e+00]
+ [2.26875035e+00]
+ [2.53859391e+00]
+ [2.71968865e+00]
+ [2.89898672e+00]
+ [3.07558168e+00]]</t>
         </is>
       </c>
       <c r="E1187" t="inlineStr"/>
@@ -32184,7 +32188,7 @@
       </c>
       <c r="D1188" t="inlineStr">
         <is>
-          <t>[0.9369]</t>
+          <t>[3.07558168]</t>
         </is>
       </c>
       <c r="E1188" t="inlineStr"/>
@@ -32207,24 +32211,24 @@
       </c>
       <c r="D1189" t="inlineStr">
         <is>
-          <t>[[-59427038.98178075]
- [-55947809.88742363]
- [-52369496.07647427]
- [-49733141.21482476]
- [-47083644.43852164]
- [-44406426.28332168]
- [-41681934.16936464]
- [-38889498.76888908]
- [-35999035.42608049]
- [-34576313.54276855]
- [-33112467.11161308]
- [-31599261.93664036]
- [-30238551.86759913]
- [-29055801.27182803]
- [-27872688.33992818]
- [-27288513.30301111]
- [-26704281.52962011]
- [-26119998.34277631]]</t>
+          <t>[[-36627915.02107721]
+ [-34077870.43104244]
+ [-31416437.48909839]
+ [-30181673.42517935]
+ [-28937041.80066063]
+ [-27671563.56081818]
+ [-26371865.30115775]
+ [-25020701.27349097]
+ [-23595029.89846332]
+ [-22845996.09897255]
+ [-22065647.15618427]
+ [-21247730.2147202 ]
+ [-20544165.26461093]
+ [-19975307.83776715]
+ [-19406204.67522477]
+ [-19123085.6091077 ]
+ [-18842926.67343557]
+ [-18565733.40744917]]</t>
         </is>
       </c>
       <c r="E1189" t="inlineStr"/>
@@ -32247,24 +32251,24 @@
       </c>
       <c r="D1190" t="inlineStr">
         <is>
-          <t>[[ -6371655.76603661]
- [-12819457.02133601]
- [-10638080.97029557]
- [  2938626.46836331]
- [  2938958.97997727]
- [  2939290.52384353]
- [  2939629.05963483]
- [  2939981.24032973]
- [  2940361.09079801]
- [  2939130.76813876]
- [  2939247.25751812]
- [  2939374.97694758]
- [  2939350.61624536]
- [  2939133.17179452]
- [  2939189.69678161]
- [  2938462.58144507]
- [  2938476.12865075]
- [  2938489.49032627]]</t>
+          <t>[[ -1139968.18327461]
+ [ -7664202.16642805]
+ [-17786703.57877248]
+ [  2938757.02508021]
+ [  2939240.09837865]
+ [  2939729.88447285]
+ [  2940241.74796568]
+ [  2940796.55569988]
+ [  2941423.67626866]
+ [  2939848.25211504]
+ [  2940055.65508456]
+ [  2940289.038372  ]
+ [  2940195.82599037]
+ [  2939679.13043947]
+ [  2939759.82847369]
+ [  2938760.62792249]
+ [  2938769.25503379]
+ [  2938777.82451554]]</t>
         </is>
       </c>
       <c r="E1190" t="inlineStr"/>
@@ -32287,24 +32291,24 @@
       </c>
       <c r="D1191" t="inlineStr">
         <is>
-          <t>[[-28627.78761363]
- [-58175.40952558]
- [-50233.11171769]
- [  8742.22035952]
- [  8743.73340483]
- [  8745.26049112]
- [  8746.83860775]
- [  8748.49974276]
- [  8750.31067929]
- [  8744.7026824 ]
- [  8745.26534781]
- [  8745.88440968]
- [  8745.79967562]
- [  8744.81153447]
- [  8745.10225763]
- [  8741.69883023]
- [  8741.76968279]
- [  8741.83996895]]</t>
+          <t>[[ -5139.34165735]
+ [-34697.54608758]
+ [-82153.95943841]
+ [  8742.84988718]
+ [  8745.06404727]
+ [  8747.33486009]
+ [  8749.73461907]
+ [  8752.36283175]
+ [  8755.36110305]
+ [  8748.11113607]
+ [  8749.11360967]
+ [  8750.24503627]
+ [  8749.84843841]
+ [  8747.45051543]
+ [  8747.86589043]
+ [  8743.14594125]
+ [  8743.19627283]
+ [  8743.24686897]]</t>
         </is>
       </c>
       <c r="E1191" t="inlineStr"/>
@@ -32327,24 +32331,24 @@
       </c>
       <c r="D1192" t="inlineStr">
         <is>
-          <t>[[ -378096.11583506]
- [-1334014.23629939]
- [-2258733.32049048]
- [-2453918.01556661]
- [-2394270.08624153]
- [-2334350.30075197]
- [-2274207.0975933 ]
- [-2213888.98543325]
- [-2153445.02157073]
- [-2123212.11243226]
- [-2092964.01989335]
- [-2062707.16179165]
- [-2032449.01072391]
- [-2002189.64071241]
- [-1971927.32749755]
- [-1956802.33621415]
- [-1941678.20240907]
- [-1926555.41067595]]</t>
+          <t>[[  -34910.72613862]
+ [ -478863.87868046]
+ [-2287752.88974571]
+ [-2610405.49077696]
+ [-2549919.42097379]
+ [-2488863.73063461]
+ [-2427312.99850895]
+ [-2365343.12113047]
+ [-2303032.96663399]
+ [-2271808.8209694 ]
+ [-2240535.95000616]
+ [-2209225.55531398]
+ [-2177890.84296035]
+ [-2146528.88180912]
+ [-2115132.66356129]
+ [-2099431.96252977]
+ [-2083724.66481494]
+ [-2068010.60610021]]</t>
         </is>
       </c>
       <c r="E1192" t="inlineStr"/>
@@ -32367,24 +32371,24 @@
       </c>
       <c r="D1193" t="inlineStr">
         <is>
-          <t>[[8.56045164e+07]
- [2.99684197e+08]
- [5.01765898e+08]
- [5.39121118e+08]
- [5.19224298e+08]
- [4.99269050e+08]
- [4.79266832e+08]
- [4.59228946e+08]
- [4.39166633e+08]
- [4.29134313e+08]
- [4.19099576e+08]
- [4.09063843e+08]
- [3.99028737e+08]
- [3.88994283e+08]
- [3.78960123e+08]
- [3.73944699e+08]
- [3.68929690e+08]
- [3.63915200e+08]]</t>
+          <t>[[7.80559851e+06]
+ [1.06894183e+08]
+ [5.04228074e+08]
+ [5.69340045e+08]
+ [5.49260988e+08]
+ [5.29059794e+08]
+ [5.08754286e+08]
+ [4.88362330e+08]
+ [4.67902172e+08]
+ [4.57659423e+08]
+ [4.47407749e+08]
+ [4.37149635e+08]
+ [4.26887960e+08]
+ [4.16622157e+08]
+ [4.06350804e+08]
+ [4.01215230e+08]
+ [3.96078713e+08]
+ [3.90941242e+08]]</t>
         </is>
       </c>
       <c r="E1193" t="inlineStr"/>
@@ -32407,24 +32411,24 @@
       </c>
       <c r="D1194" t="inlineStr">
         <is>
-          <t>[[1182179.87286127]
- [2502030.36733096]
- [4113274.5197118 ]
- [6203501.52204118]
- [6203459.46761119]
- [6203417.20411932]
- [6203373.96055187]
- [6203330.53501319]
- [6203286.02716093]
- [6203273.98828602]
- [6203249.96732059]
- [6203225.25221028]
- [6203200.28014017]
- [6203177.28190105]
- [6203157.2916084 ]
- [6203143.34720564]
- [6203133.34700732]
- [6203123.34587003]]</t>
+          <t>[[ 809635.57985959]
+ [1867709.23172303]
+ [3498907.81699974]
+ [6203771.35186949]
+ [6203727.88228356]
+ [6203684.06592891]
+ [6203639.51631887]
+ [6203593.76270097]
+ [6203546.19803572]
+ [6203496.01129908]
+ [6203469.64400374]
+ [6203442.1745992 ]
+ [6203413.42489426]
+ [6203388.73845892]
+ [6203368.78971762]
+ [6203352.41938693]
+ [6203349.6659044 ]
+ [6203346.95959337]]</t>
         </is>
       </c>
       <c r="E1194" t="inlineStr"/>
@@ -32447,9 +32451,9 @@
       </c>
       <c r="D1195" t="inlineStr">
         <is>
-          <t>[[ 2.93862647e+06]
- [ 8.74222036e+03]
- [-5.23694961e+07]]</t>
+          <t>[[ 2.93875703e+06]
+ [ 8.74284989e+03]
+ [-3.14164375e+07]]</t>
         </is>
       </c>
       <c r="E1195" t="inlineStr"/>
@@ -32472,9 +32476,9 @@
       </c>
       <c r="D1196" t="inlineStr">
         <is>
-          <t>[[-2.51324525e+06]
- [ 5.58947793e+08]
- [ 6.20350152e+06]]</t>
+          <t>[[-2.67024743e+06]
+ [ 5.89278923e+08]
+ [ 6.20377135e+06]]</t>
         </is>
       </c>
       <c r="E1196" t="inlineStr"/>
@@ -32497,12 +32501,12 @@
       </c>
       <c r="D1197" t="inlineStr">
         <is>
-          <t>[-80.         -70.         -60.         -50.         -43.33333333
+          <t>[-95.         -80.         -65.         -50.         -43.33333333
  -36.66666667 -30.         -23.33333333 -16.66666667 -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
-  10.          11.66666667  13.33333333  15.          26.61331002
-  38.22662005  49.83993007  66.43037296  83.02081585  99.61125874
- 109.56552448 119.51979021 129.47405594 138.76470396 148.05535198
+  10.          11.66666667  13.33333333  15.          27.30150617
+  39.60301235  51.90451852  69.47809877  87.05167901 104.62525926
+ 115.16940741 125.71355556 136.2577037  143.2871358  150.3165679
  157.346     ]</t>
         </is>
       </c>
@@ -32526,12 +32530,12 @@
       </c>
       <c r="D1198" t="inlineStr">
         <is>
-          <t>[11.         11.         11.         11.         11.         11.
- 11.         11.         11.         11.         11.         11.
- 11.         11.         11.         11.         11.         11.
- 11.         11.         11.         11.         10.48571257  9.97142513
-  9.4571377   8.30442513  7.15171257  5.999       5.999       5.999
-  5.999     ]</t>
+          <t>[9.51547331 9.51547331 9.51547331 9.51547331 9.51547331 9.51547331
+ 9.51547331 9.51547331 9.51547331 9.51547331 9.51547331 9.51547331
+ 9.51547331 9.51441594 9.51335857 9.5123012  9.41252175 9.3127423
+ 8.         8.         8.         8.         8.         8.
+ 8.         7.33333333 6.66666667 6.         6.         6.
+ 6.        ]</t>
         </is>
       </c>
       <c r="E1198" t="inlineStr"/>
@@ -32554,11 +32558,11 @@
       </c>
       <c r="D1199" t="inlineStr">
         <is>
-          <t>[0.12442164 0.12442164 0.12442164 0.13428246 0.13428246 0.13428246
- 0.13438589 0.13438589 0.13438589 0.1267728  0.1267728  0.1267728
- 0.12663441 0.12663441 0.12663441 0.12500954 0.12500954 0.12500954
- 0.055      0.055      0.055      0.05114284 0.05114284 0.05114284
- 0.04114284 0.04114284 0.04114284 0.035      0.035      0.035     ]</t>
+          <t>[0.07       0.07       0.07       0.07       0.07       0.07
+ 0.07       0.07       0.07       0.07       0.07       0.07
+ 0.07       0.07       0.07       0.07       0.07       0.07
+ 0.04549929 0.04549929 0.04549929 0.02584032 0.02584032 0.02584032
+ 0.025      0.025      0.025      0.025      0.025      0.025     ]</t>
         </is>
       </c>
       <c r="E1199" t="inlineStr"/>
@@ -32657,11 +32661,11 @@
       </c>
       <c r="D1203" t="inlineStr">
         <is>
-          <t>[4.54864403 4.54864403 4.54864403 4.90468745 4.90468745 4.90468745
- 4.90841855 4.90841855 4.90841855 4.63359637 4.63359637 4.63359637
- 4.62859702 4.62859702 4.62859702 4.56988944 4.56988944 4.56988944
- 2.02354145 2.02354145 2.02354145 1.83808605 1.74967136 1.66125667
- 1.2225383  1.06311603 0.90369376 0.70168037 0.70168037 0.70168037]</t>
+          <t>[2.22256983 2.22256983 2.22256983 2.22256983 2.22256983 2.22256983
+ 2.22256983 2.22256983 2.22256983 2.22256983 2.22256983 2.22256983
+ 2.22244543 2.22219663 2.22194782 2.2100841  2.18660547 2.16312684
+ 1.21660946 1.21660946 1.21660946 0.69265414 0.69265414 0.69265414
+ 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
         </is>
       </c>
       <c r="E1203" t="inlineStr"/>
@@ -32684,11 +32688,11 @@
       </c>
       <c r="D1204" t="inlineStr">
         <is>
-          <t>[2.59466871 2.59466871 2.59466871 2.79897823 2.79897823 2.79897823
- 2.80112026 2.80112026 2.80112026 2.6434002  2.6434002  2.6434002
- 2.64053211 2.64053211 2.64053211 2.60685479 2.60685479 2.60685479
- 1.15086843 1.15086843 1.15086843 1.04527838 0.99510763 0.94493708
- 0.69518965 0.60472591 0.51426344 0.39922621 0.39922621 0.39922621]</t>
+          <t>[1.26543934 1.26543934 1.26543934 1.26543934 1.26543934 1.26543934
+ 1.26543934 1.26543934 1.26543934 1.26543934 1.26543934 1.26543934
+ 1.26536875 1.26522757 1.26508639 1.25835468 1.24503245 1.23171025
+ 0.69215213 0.69215213 0.69215213 0.39362396 0.39362396 0.39362396
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E1204" t="inlineStr"/>
@@ -32711,11 +32715,11 @@
       </c>
       <c r="D1205" t="inlineStr">
         <is>
-          <t>[2.59466871 2.59466871 2.59466871 2.79897823 2.79897823 2.79897823
- 2.80112026 2.80112026 2.80112026 2.6434002  2.6434002  2.6434002
- 2.64053211 2.64053211 2.64053211 2.60685479 2.60685479 2.60685479
- 1.15086843 1.15086843 1.15086843 1.04527838 0.99510763 0.94493708
- 0.69518965 0.60472591 0.51426344 0.39922621 0.39922621 0.39922621]</t>
+          <t>[1.26543934 1.26543934 1.26543934 1.26543934 1.26543934 1.26543934
+ 1.26543934 1.26543934 1.26543934 1.26543934 1.26543934 1.26543934
+ 1.26536875 1.26522757 1.26508639 1.25835468 1.24503245 1.23171025
+ 0.69215213 0.69215213 0.69215213 0.39362396 0.39362396 0.39362396
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E1205" t="inlineStr"/>
@@ -32738,12 +32742,11 @@
       </c>
       <c r="D1206" t="inlineStr">
         <is>
-          <t>[134.51896622 134.51896622 134.51896622 144.78864128 144.78864128
- 144.78864128 144.89606109 144.89606109 144.89606109 136.97274741
- 136.97274741 136.97274741 136.8284046  136.8284046  136.8284046
- 135.13282446 135.13282446 135.13282446  60.60306831  60.60306831
-  60.60306831  52.5303635   45.30888403  38.78156455  23.88256158
-  15.70502081   9.64639721   6.23978412   6.23978412   6.23978412]</t>
+          <t>[49.57545707 49.57545707 49.57545707 49.57545707 49.57545707 49.57545707
+ 49.57545707 49.57545707 49.57545707 49.57545706 49.57545706 49.57545706
+ 49.56713326 49.55048843 49.53384734 48.74467195 47.20766953 45.70332167
+ 19.24559117 19.24559117 19.24559117 11.0111039  11.0111039  11.0111039
+  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
         </is>
       </c>
       <c r="E1206" t="inlineStr"/>
@@ -32766,11 +32769,11 @@
       </c>
       <c r="D1207" t="inlineStr">
         <is>
-          <t>[67.25948311 67.25948311 67.25948311 72.39432064 72.39432064 72.39432064
- 72.44803054 72.44803054 72.44803054 68.4863737  68.4863737  68.4863737
- 68.4142023  68.4142023  68.4142023  67.56641223 67.56641223 67.56641223
- 30.30153415 30.30153415 30.30153415 26.26518175 22.65444202 19.39078227
- 11.94128079  7.8525104   4.8231986   3.11989206  3.11989206  3.11989206]</t>
+          <t>[24.78772853 24.78772853 24.78772853 24.78772853 24.78772853 24.78772853
+ 24.78772853 24.78772853 24.78772853 24.78772853 24.78772853 24.78772853
+ 24.78356663 24.77524422 24.76692367 24.37233597 23.60383476 22.85166084
+  9.62279558  9.62279558  9.62279558  5.50555195  5.50555195  5.50555195
+  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
         </is>
       </c>
       <c r="E1207" t="inlineStr"/>
@@ -32793,11 +32796,11 @@
       </c>
       <c r="D1208" t="inlineStr">
         <is>
-          <t>[67.25948311 67.25948311 67.25948311 72.39432064 72.39432064 72.39432064
- 72.44803054 72.44803054 72.44803054 68.4863737  68.4863737  68.4863737
- 68.4142023  68.4142023  68.4142023  67.56641223 67.56641223 67.56641223
- 30.30153415 30.30153415 30.30153415 26.26518175 22.65444202 19.39078227
- 11.94128079  7.8525104   4.8231986   3.11989206  3.11989206  3.11989206]</t>
+          <t>[24.78772853 24.78772853 24.78772853 24.78772853 24.78772853 24.78772853
+ 24.78772853 24.78772853 24.78772853 24.78772853 24.78772853 24.78772853
+ 24.78356663 24.77524422 24.76692367 24.37233597 23.60383476 22.85166084
+  9.62279558  9.62279558  9.62279558  5.50555195  5.50555195  5.50555195
+  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
         </is>
       </c>
       <c r="E1208" t="inlineStr"/>
@@ -32888,17 +32891,17 @@
  [1.27775357e+02]
  [1.31936564e+02]
  [1.35719352e+02]
- [1.55741233e+02]
- [1.69882127e+02]
- [1.81049969e+02]
- [1.93975947e+02]
- [2.04637279e+02]
- [2.13783359e+02]
- [2.18726607e+02]
- [2.23339444e+02]
- [2.27668913e+02]
- [2.31487123e+02]
- [2.35115716e+02]
+ [1.56698435e+02]
+ [1.71330486e+02]
+ [1.82822277e+02]
+ [1.96075520e+02]
+ [2.06979051e+02]
+ [2.16317993e+02]
+ [2.21360836e+02]
+ [2.26064090e+02]
+ [2.30476436e+02]
+ [2.33275754e+02]
+ [2.35972568e+02]
  [2.38575171e+02]]</t>
         </is>
       </c>
@@ -32922,36 +32925,36 @@
       </c>
       <c r="D1212" t="inlineStr">
         <is>
-          <t>[[-5.94270390e+07]
- [-5.59478099e+07]
- [-5.23694961e+07]
- [-4.97331412e+07]
- [-4.70836444e+07]
- [-4.44064263e+07]
- [-4.16819342e+07]
- [-3.88894988e+07]
- [-3.59990354e+07]
- [-3.45763135e+07]
- [-3.31124671e+07]
- [-3.15992619e+07]
- [-3.02385519e+07]
- [-2.90558013e+07]
- [-2.78726883e+07]
- [-2.72885133e+07]
- [-2.67042815e+07]
- [-2.61199983e+07]
- [-2.33298249e+07]
- [-2.15193683e+07]
- [-1.97073361e+07]
- [-1.73523629e+07]
- [-1.51086038e+07]
- [-1.29768061e+07]
- [-1.20318459e+07]
- [-1.12091049e+07]
- [-1.05092532e+07]
- [-1.00010424e+07]
- [-9.49348031e+06]
- [ 3.90282366e-08]]</t>
+          <t>[[-3.66279150e+07]
+ [-3.40778704e+07]
+ [-3.14164375e+07]
+ [-3.01816734e+07]
+ [-2.89370418e+07]
+ [-2.76715636e+07]
+ [-2.63718653e+07]
+ [-2.50207013e+07]
+ [-2.35950299e+07]
+ [-2.28459961e+07]
+ [-2.20656472e+07]
+ [-2.12477302e+07]
+ [-2.05441653e+07]
+ [-1.99753078e+07]
+ [-1.94062047e+07]
+ [-1.91230856e+07]
+ [-1.88429267e+07]
+ [-1.85657334e+07]
+ [-1.64303640e+07]
+ [-1.52756037e+07]
+ [-1.41196455e+07]
+ [-1.31713155e+07]
+ [-1.22217902e+07]
+ [-1.12710940e+07]
+ [-1.07407875e+07]
+ [-1.02557818e+07]
+ [-9.81676307e+06]
+ [-9.53971248e+06]
+ [-9.26291313e+06]
+ [ 3.87371983e-08]]</t>
         </is>
       </c>
       <c r="E1212" t="inlineStr"/>
@@ -32974,36 +32977,36 @@
       </c>
       <c r="D1213" t="inlineStr">
         <is>
-          <t>[[-6.37165577e+06]
- [-1.28194570e+07]
- [-1.06380810e+07]
- [ 2.93862647e+06]
- [ 2.93895898e+06]
- [ 2.93929052e+06]
- [ 2.93962906e+06]
- [ 2.93998124e+06]
- [ 2.94036109e+06]
- [ 2.93913077e+06]
- [ 2.93924726e+06]
- [ 2.93937498e+06]
- [ 2.93935062e+06]
- [ 2.93913317e+06]
- [ 2.93918970e+06]
- [ 2.93846258e+06]
- [ 2.93847613e+06]
- [ 2.93848949e+06]
- [ 2.94046069e+06]
- [ 2.94103222e+06]
- [ 2.94154543e+06]
- [ 2.94345332e+06]
- [ 2.94397717e+06]
- [ 2.94433021e+06]
- [ 2.94087475e+06]
- [ 2.94063328e+06]
- [ 2.94033277e+06]
- [ 2.93967234e+06]
- [ 2.93962848e+06]
- [ 1.83607399e+03]]</t>
+          <t>[[-1.13996818e+06]
+ [-7.66420217e+06]
+ [-1.77867036e+07]
+ [ 2.93875703e+06]
+ [ 2.93924010e+06]
+ [ 2.93972988e+06]
+ [ 2.94024175e+06]
+ [ 2.94079656e+06]
+ [ 2.94142368e+06]
+ [ 2.93984825e+06]
+ [ 2.94005566e+06]
+ [ 2.94028904e+06]
+ [ 2.94019583e+06]
+ [ 2.93967913e+06]
+ [ 2.93975983e+06]
+ [ 2.93876063e+06]
+ [ 2.93876926e+06]
+ [ 2.93877782e+06]
+ [ 2.94290464e+06]
+ [ 2.94420500e+06]
+ [ 2.94537401e+06]
+ [ 2.94543287e+06]
+ [ 2.94711091e+06]
+ [ 2.94836708e+06]
+ [ 2.94406786e+06]
+ [ 2.94375830e+06]
+ [ 2.94333440e+06]
+ [ 2.94128389e+06]
+ [ 2.94124381e+06]
+ [ 3.47849457e+03]]</t>
         </is>
       </c>
       <c r="E1213" t="inlineStr"/>
@@ -33026,36 +33029,36 @@
       </c>
       <c r="D1214" t="inlineStr">
         <is>
-          <t>[[-2.86277876e+04]
- [-5.81754095e+04]
- [-5.02331117e+04]
- [ 8.74222036e+03]
- [ 8.74373340e+03]
- [ 8.74526049e+03]
- [ 8.74683861e+03]
- [ 8.74849974e+03]
- [ 8.75031068e+03]
- [ 8.74470268e+03]
- [ 8.74526535e+03]
- [ 8.74588441e+03]
- [ 8.74579968e+03]
- [ 8.74481153e+03]
- [ 8.74510226e+03]
- [ 8.74169883e+03]
- [ 8.74176968e+03]
- [ 8.74183997e+03]
- [ 8.75133611e+03]
- [ 8.75449940e+03]
- [ 8.75749141e+03]
- [ 8.76804457e+03]
- [ 8.77219329e+03]
- [ 8.77599216e+03]
- [ 8.75726646e+03]
- [ 8.75707855e+03]
- [ 8.75705231e+03]
- [ 8.75467254e+03]
- [ 8.75759715e+03]
- [ 2.07225269e+01]]</t>
+          <t>[[-5.13934166e+03]
+ [-3.46975461e+04]
+ [-8.21539594e+04]
+ [ 8.74284989e+03]
+ [ 8.74506405e+03]
+ [ 8.74733486e+03]
+ [ 8.74973462e+03]
+ [ 8.75236283e+03]
+ [ 8.75536110e+03]
+ [ 8.74811114e+03]
+ [ 8.74911361e+03]
+ [ 8.75024504e+03]
+ [ 8.74984844e+03]
+ [ 8.74745052e+03]
+ [ 8.74786589e+03]
+ [ 8.74314594e+03]
+ [ 8.74319627e+03]
+ [ 8.74324687e+03]
+ [ 8.76333598e+03]
+ [ 8.77052757e+03]
+ [ 8.77733328e+03]
+ [ 8.77928913e+03]
+ [ 8.79098803e+03]
+ [ 8.80135810e+03]
+ [ 8.77773658e+03]
+ [ 8.77773292e+03]
+ [ 8.77762132e+03]
+ [ 8.76518020e+03]
+ [ 8.76681410e+03]
+ [ 2.93678370e+01]]</t>
         </is>
       </c>
       <c r="E1214" t="inlineStr"/>
@@ -33078,36 +33081,36 @@
       </c>
       <c r="D1215" t="inlineStr">
         <is>
-          <t>[[-3.78096116e+05]
- [-1.33401424e+06]
- [-2.25873332e+06]
- [-2.45391802e+06]
- [-2.39427009e+06]
- [-2.33435030e+06]
- [-2.27420710e+06]
- [-2.21388899e+06]
- [-2.15344502e+06]
- [-2.12321211e+06]
- [-2.09296402e+06]
- [-2.06270716e+06]
- [-2.03244901e+06]
- [-2.00218964e+06]
- [-1.97192733e+06]
- [-1.95680234e+06]
- [-1.94167820e+06]
- [-1.92655541e+06]
- [-1.82083130e+06]
- [-1.71446416e+06]
- [-1.60765517e+06]
- [-1.45439532e+06]
- [-1.30069578e+06]
- [-1.14683296e+06]
- [-1.05462503e+06]
- [-9.62140878e+05]
- [-8.69141971e+05]
- [-7.81621979e+05]
- [-6.93326933e+05]
- [-5.33272244e-04]]</t>
+          <t>[[-3.49107261e+04]
+ [-4.78863879e+05]
+ [-2.28775289e+06]
+ [-2.61040549e+06]
+ [-2.54991942e+06]
+ [-2.48886373e+06]
+ [-2.42731300e+06]
+ [-2.36534312e+06]
+ [-2.30303297e+06]
+ [-2.27180882e+06]
+ [-2.24053595e+06]
+ [-2.20922556e+06]
+ [-2.17789084e+06]
+ [-2.14652888e+06]
+ [-2.11513266e+06]
+ [-2.09943196e+06]
+ [-2.08372466e+06]
+ [-2.06801061e+06]
+ [-1.95109976e+06]
+ [-1.83227875e+06]
+ [-1.71205279e+06]
+ [-1.53698966e+06]
+ [-1.35767943e+06]
+ [-1.17557051e+06]
+ [-1.06569025e+06]
+ [-9.55087596e+05]
+ [-8.43528185e+05]
+ [-7.68654369e+05]
+ [-6.93353731e+05]
+ [-2.53550504e-04]]</t>
         </is>
       </c>
       <c r="E1215" t="inlineStr"/>
@@ -33130,36 +33133,36 @@
       </c>
       <c r="D1216" t="inlineStr">
         <is>
-          <t>[[ 8.56045164e+07]
- [ 2.99684197e+08]
- [ 5.01765898e+08]
- [ 5.39121118e+08]
- [ 5.19224298e+08]
- [ 4.99269050e+08]
- [ 4.79266832e+08]
- [ 4.59228946e+08]
- [ 4.39166633e+08]
- [ 4.29134313e+08]
- [ 4.19099576e+08]
- [ 4.09063843e+08]
- [ 3.99028737e+08]
- [ 3.88994283e+08]
- [ 3.78960123e+08]
- [ 3.73944699e+08]
- [ 3.68929690e+08]
- [ 3.63915200e+08]
- [ 3.28912675e+08]
- [ 2.93802531e+08]
- [ 2.58628768e+08]
- [ 2.08297823e+08]
- [ 1.57952619e+08]
- [ 1.07658778e+08]
- [ 7.75510983e+07]
- [ 4.74585398e+07]
- [ 1.73809511e+07]
- [-1.06645931e+07]
- [-3.86589968e+07]
- [ 4.72490218e-02]]</t>
+          <t>[[ 7.80559851e+06]
+ [ 1.06894183e+08]
+ [ 5.04228074e+08]
+ [ 5.69340045e+08]
+ [ 5.49260988e+08]
+ [ 5.29059794e+08]
+ [ 5.08754286e+08]
+ [ 4.88362330e+08]
+ [ 4.67902172e+08]
+ [ 4.57659423e+08]
+ [ 4.47407749e+08]
+ [ 4.37149635e+08]
+ [ 4.26887960e+08]
+ [ 4.16622157e+08]
+ [ 4.06350804e+08]
+ [ 4.01215230e+08]
+ [ 3.96078713e+08]
+ [ 3.90941242e+08]
+ [ 3.52859954e+08]
+ [ 3.14448860e+08]
+ [ 2.75819750e+08]
+ [ 2.20156863e+08]
+ [ 1.63949536e+08]
+ [ 1.07510302e+08]
+ [ 7.36853957e+07]
+ [ 3.98880913e+07]
+ [ 6.14492812e+06]
+ [-1.62833336e+07]
+ [-3.86442157e+07]
+ [ 3.00324168e-02]]</t>
         </is>
       </c>
       <c r="E1216" t="inlineStr"/>
@@ -33182,36 +33185,36 @@
       </c>
       <c r="D1217" t="inlineStr">
         <is>
-          <t>[[ 1.18217987e+06]
- [ 2.50203037e+06]
- [ 4.11327452e+06]
- [ 6.20350152e+06]
- [ 6.20345947e+06]
- [ 6.20341720e+06]
- [ 6.20337396e+06]
- [ 6.20333054e+06]
- [ 6.20328603e+06]
- [ 6.20327399e+06]
- [ 6.20324997e+06]
- [ 6.20322525e+06]
- [ 6.20320028e+06]
- [ 6.20317728e+06]
- [ 6.20315729e+06]
- [ 6.20314335e+06]
- [ 6.20313335e+06]
- [ 6.20312335e+06]
- [ 6.20363813e+06]
- [ 6.20356816e+06]
- [ 6.20349816e+06]
- [ 6.20350498e+06]
- [ 6.20344207e+06]
- [ 6.20337769e+06]
- [ 6.20349661e+06]
- [ 6.20355160e+06]
- [ 6.20363658e+06]
- [ 6.20383795e+06]
- [ 6.20378128e+06]
- [-5.77440212e-09]]</t>
+          <t>[[8.09635580e+05]
+ [1.86770923e+06]
+ [3.49890782e+06]
+ [6.20377135e+06]
+ [6.20372788e+06]
+ [6.20368407e+06]
+ [6.20363952e+06]
+ [6.20359376e+06]
+ [6.20354620e+06]
+ [6.20349601e+06]
+ [6.20346964e+06]
+ [6.20344217e+06]
+ [6.20341342e+06]
+ [6.20338874e+06]
+ [6.20336879e+06]
+ [6.20335242e+06]
+ [6.20334967e+06]
+ [6.20334696e+06]
+ [6.20379631e+06]
+ [6.20372205e+06]
+ [6.20364778e+06]
+ [6.20426040e+06]
+ [6.20415326e+06]
+ [6.20404598e+06]
+ [6.20403864e+06]
+ [6.20409912e+06]
+ [6.20417906e+06]
+ [6.20419510e+06]
+ [6.20415192e+06]
+ [1.09629702e-08]]</t>
         </is>
       </c>
       <c r="E1217" t="inlineStr"/>
@@ -33234,24 +33237,24 @@
       </c>
       <c r="D1218" t="inlineStr">
         <is>
-          <t>[[-6064587.17104821]
- [12206387.86383135]
- [29518035.57101457]
- [30819050.22163664]
- [29847624.873842  ]
- [28877412.64144308]
- [27892736.6012264 ]
- [26940433.51911747]
- [26006247.67452884]
- [27001226.92232628]
- [26511275.89100238]
- [26031897.25730756]
- [25546415.10712633]
- [24995247.84931058]
- [24444182.56751272]
- [24468662.99678882]
- [24188277.19884113]
- [23907944.90874307]]</t>
+          <t>[[-14981768.58815307]
+ [  5184745.9521996 ]
+ [ 82646940.96792844]
+ [ 95700189.69502833]
+ [ 92406215.70178485]
+ [ 89098178.46492599]
+ [ 85785516.09739694]
+ [ 82479417.2101474 ]
+ [ 79193751.26609673]
+ [ 77564773.06575584]
+ [ 75948171.58897328]
+ [ 74347237.23664948]
+ [ 72702858.34515303]
+ [ 71005150.56634429]
+ [ 69305664.93546149]
+ [ 69233104.1375748 ]
+ [ 69937398.86529051]
+ [ 70651719.4931896 ]]</t>
         </is>
       </c>
       <c r="E1218" t="inlineStr"/>
@@ -33274,24 +33277,24 @@
       </c>
       <c r="D1219" t="inlineStr">
         <is>
-          <t>[[2504032.08126137]
- [5043041.22644634]
- [4268199.40701582]
- [1285545.94525052]
- [1285663.14633547]
- [1285779.99374504]
- [1284921.4727262 ]
- [1285045.55409373]
- [1285179.47260377]
- [1360966.0816428 ]
- [1361009.18555116]
- [1361056.50996672]
- [1362516.84355144]
- [1362433.56963343]
- [1362454.17299508]
- [1379683.3244605 ]
- [1379688.11426601]
- [1379692.83286286]]</t>
+          <t>[[  978557.30898914]
+ [ 6235859.75899255]
+ [14391692.3620866 ]
+ [ 2917705.25388529]
+ [ 2918082.82919296]
+ [ 2918465.67604685]
+ [ 2918865.89918654]
+ [ 2919299.94339608]
+ [ 2919790.95886745]
+ [ 2918541.16872343]
+ [ 2918702.53789603]
+ [ 2918884.33218245]
+ [ 2919004.41939998]
+ [ 2918986.75534627]
+ [ 2919441.77715944]
+ [ 2937513.10254159]
+ [ 2975557.04274439]
+ [ 3014570.35202414]]</t>
         </is>
       </c>
       <c r="E1219" t="inlineStr"/>
@@ -33316,22 +33319,22 @@
         <is>
           <t>[[-0.00000000e+00]
  [-0.00000000e+00]
- [-1.10819910e+07]
- [-1.91666445e+07]
- [-1.64736404e+07]
- [-1.38005858e+07]
- [-1.11426853e+07]
- [-8.52578800e+06]
- [-5.94892972e+06]
- [-4.29056118e+06]
- [-2.96947257e+06]
- [-1.66984126e+06]
- [-5.15521293e+05]
- [-4.42871002e+03]
- [-5.04132917e+03]
- [-5.45686888e+03]
- [-5.64829824e+03]
- [-5.82106679e+03]]</t>
+ [-1.71075199e+07]
+ [-3.19619035e+07]
+ [-2.74711052e+07]
+ [-2.30135740e+07]
+ [-1.85958029e+07]
+ [-1.42285157e+07]
+ [-9.92804889e+06]
+ [-6.75005651e+06]
+ [-4.67167506e+06]
+ [-2.62705096e+06]
+ [-8.10094577e+05]
+ [-6.95853377e+03]
+ [-7.92021411e+03]
+ [-8.41660338e+03]
+ [-8.61931185e+03]
+ [-8.78757634e+03]]</t>
         </is>
       </c>
       <c r="E1220" t="inlineStr"/>
@@ -33390,24 +33393,24 @@
       <c r="C1222" t="inlineStr"/>
       <c r="D1222" t="inlineStr">
         <is>
-          <t>[[0.0379276 ]
- [0.07635396]
- [0.18869085]
- [0.22248267]
- [0.20719089]
- [0.19222006]
- [0.17752802]
- [0.16350577]
- [0.15016253]
- [0.14994725]
- [0.14351593]
- [0.13739253]
- [0.1318321 ]
- [0.12772636]
- [0.12493737]
- [0.12507704]
- [0.12365805]
- [0.12223944]]</t>
+          <t>[[0.07669776]
+ [0.06094578]
+ [0.48682016]
+ [0.58587052]
+ [0.55393235]
+ [0.52235216]
+ [0.49124749]
+ [0.46076796]
+ [0.43110362]
+ [0.41360984]
+ [0.39958718]
+ [0.38591487]
+ [0.37280207]
+ [0.36213225]
+ [0.35351214]
+ [0.35315689]
+ [0.35675506]
+ [0.36040465]]</t>
         </is>
       </c>
       <c r="E1222" t="inlineStr"/>
@@ -33426,24 +33429,24 @@
       <c r="C1223" t="inlineStr"/>
       <c r="D1223" t="inlineStr">
         <is>
-          <t>[[0.05468695]
- [0.06140094]
- [0.11143189]
- [0.10413244]
- [0.09088727]
- [0.07797779]
- [0.06545021]
- [0.05375962]
- [0.04301225]
- [0.03015697]
- [0.02812189]
- [0.02663192]
- [0.02583093]
- [0.02516037]
- [0.02425623]
- [0.0230449 ]
- [0.02261193]
- [0.02218012]]</t>
+          <t>[[0.07508477]
+ [0.10239696]
+ [0.51943046]
+ [0.3525773 ]
+ [0.30727526]
+ [0.26248221]
+ [0.21835837]
+ [0.17519737]
+ [0.1335729 ]
+ [0.0684991 ]
+ [0.06152557]
+ [0.05401154]
+ [0.04870627]
+ [0.04635546]
+ [0.04534658]
+ [0.04123492]
+ [0.04108554]
+ [0.04094374]]</t>
         </is>
       </c>
       <c r="E1223" t="inlineStr"/>
@@ -33462,24 +33465,24 @@
       <c r="C1224" t="inlineStr"/>
       <c r="D1224" t="inlineStr">
         <is>
-          <t>[[0.09504678]
- [0.1665221 ]
- [0.23351497]
- [0.22608778]
- [0.21679841]
- [0.2074702 ]
- [0.1979377 ]
- [0.18848776]
- [0.17893693]
- [0.18437897]
- [0.17930499]
- [0.1741787 ]
- [0.16940535]
- [0.16464706]
- [0.15989082]
- [0.15951695]
- [0.15711881]
- [0.15472139]]</t>
+          <t>[[0.12143387]
+ [0.22260568]
+ [0.65008269]
+ [0.7168932 ]
+ [0.69024365]
+ [0.66344481]
+ [0.63646883]
+ [0.609275  ]
+ [0.58180364]
+ [0.56794987]
+ [0.55399218]
+ [0.53991202]
+ [0.52632564]
+ [0.51329541]
+ [0.5002653 ]
+ [0.49985373]
+ [0.50558404]
+ [0.51146252]]</t>
         </is>
       </c>
       <c r="E1224" t="inlineStr"/>
@@ -33502,36 +33505,36 @@
       </c>
       <c r="D1225" t="inlineStr">
         <is>
-          <t>[[-6.06458717e+06]
- [ 1.22063879e+07]
- [ 2.95180356e+07]
- [ 3.08190502e+07]
- [ 2.98476249e+07]
- [ 2.88774126e+07]
- [ 2.78927366e+07]
- [ 2.69404335e+07]
- [ 2.60062477e+07]
- [ 2.70012269e+07]
- [ 2.65112759e+07]
- [ 2.60318973e+07]
- [ 2.55464151e+07]
- [ 2.49952478e+07]
- [ 2.44441826e+07]
- [ 2.44686630e+07]
- [ 2.41882772e+07]
- [ 2.39079449e+07]
- [ 4.81723076e+07]
- [ 4.26941920e+07]
- [ 3.72053134e+07]
- [ 3.31590653e+07]
- [ 2.70242110e+07]
- [ 1.91572250e+07]
- [ 1.89985152e+07]
- [ 1.28143896e+07]
- [ 2.33110146e+05]
- [-3.97242567e+06]
- [ 2.36435432e+07]
- [ 4.54287001e-02]]</t>
+          <t>[[-1.49817686e+07]
+ [ 5.18474595e+06]
+ [ 8.26469410e+07]
+ [ 9.57001897e+07]
+ [ 9.24062157e+07]
+ [ 8.90981785e+07]
+ [ 8.57855161e+07]
+ [ 8.24794172e+07]
+ [ 7.91937513e+07]
+ [ 7.75647731e+07]
+ [ 7.59481716e+07]
+ [ 7.43472372e+07]
+ [ 7.27028583e+07]
+ [ 7.10051506e+07]
+ [ 6.93056649e+07]
+ [ 6.92331041e+07]
+ [ 6.99373989e+07]
+ [ 6.54638708e+07]
+ [ 1.33173890e+08]
+ [ 1.18156320e+08]
+ [ 1.03049123e+08]
+ [ 1.40940799e+08]
+ [ 1.01475003e+08]
+ [ 6.18428056e+07]
+ [ 4.35376941e+07]
+ [ 2.16789504e+07]
+ [-1.10694197e+07]
+ [ 2.82573713e+06]
+ [ 3.32978315e+07]
+ [ 4.02089603e-02]]</t>
         </is>
       </c>
       <c r="E1225" t="inlineStr"/>
@@ -33554,36 +33557,36 @@
       </c>
       <c r="D1226" t="inlineStr">
         <is>
-          <t>[[2.50403208e+06]
- [5.04304123e+06]
- [4.26819941e+06]
- [1.28554595e+06]
- [1.28566315e+06]
- [1.28577999e+06]
- [1.28492147e+06]
- [1.28504555e+06]
- [1.28517947e+06]
- [1.36096608e+06]
- [1.36100919e+06]
- [1.36105651e+06]
- [1.36251684e+06]
- [1.36243357e+06]
- [1.36245417e+06]
- [1.37968332e+06]
- [1.37968811e+06]
- [1.37969283e+06]
- [3.11801219e+06]
- [3.11850246e+06]
- [3.11894204e+06]
- [3.45029591e+06]
- [3.65868372e+06]
- [3.89284768e+06]
- [5.38373055e+06]
- [6.38908587e+06]
- [7.83190563e+06]
- [1.03456784e+07]
- [1.03455413e+07]
- [4.59937472e+03]]</t>
+          <t>[[9.78557309e+05]
+ [6.23585976e+06]
+ [1.43916924e+07]
+ [2.91770525e+06]
+ [2.91808283e+06]
+ [2.91846568e+06]
+ [2.91886590e+06]
+ [2.91929994e+06]
+ [2.91979096e+06]
+ [2.91854117e+06]
+ [2.91870254e+06]
+ [2.91888433e+06]
+ [2.91900442e+06]
+ [2.91898676e+06]
+ [2.91944178e+06]
+ [2.93751310e+06]
+ [2.97555704e+06]
+ [2.97341126e+06]
+ [5.54123232e+06]
+ [5.54309563e+06]
+ [5.54476916e+06]
+ [9.73671256e+06]
+ [9.74093675e+06]
+ [9.74408915e+06]
+ [1.06037861e+07]
+ [1.18817264e+07]
+ [1.34916597e+07]
+ [1.44564441e+07]
+ [1.44562748e+07]
+ [1.21855859e+04]]</t>
         </is>
       </c>
       <c r="E1226" t="inlineStr"/>
@@ -33608,34 +33611,34 @@
         <is>
           <t>[[-0.00000000e+00]
  [-0.00000000e+00]
- [-1.10819910e+07]
- [-1.91666445e+07]
- [-1.64736404e+07]
- [-1.38005858e+07]
- [-1.11426853e+07]
- [-8.52578800e+06]
- [-5.94892972e+06]
- [-4.29056118e+06]
- [-2.96947257e+06]
- [-1.66984126e+06]
- [-5.15521293e+05]
- [-4.42871002e+03]
- [-5.04132917e+03]
- [-5.45686888e+03]
- [-5.64829824e+03]
- [-5.82106679e+03]
- [-1.45001641e+04]
- [-1.61997622e+04]
- [-1.74588718e+04]
- [-1.96003452e+04]
- [-1.98310079e+04]
- [-1.97645274e+04]
- [-2.32314502e+04]
- [-2.06483598e+04]
- [-1.79070316e+04]
- [-1.95600471e+04]
- [-1.98772810e+04]
- [-2.01792318e+04]]</t>
+ [-1.71075199e+07]
+ [-3.19619035e+07]
+ [-2.74711052e+07]
+ [-2.30135740e+07]
+ [-1.85958029e+07]
+ [-1.42285157e+07]
+ [-9.92804889e+06]
+ [-6.75005651e+06]
+ [-4.67167506e+06]
+ [-2.62705096e+06]
+ [-8.10094577e+05]
+ [-6.95853377e+03]
+ [-7.92021411e+03]
+ [-8.41660338e+03]
+ [-8.61931185e+03]
+ [-8.20783226e+03]
+ [-1.27806254e+04]
+ [-1.43370717e+04]
+ [-1.54788594e+04]
+ [-2.92313694e+04]
+ [-3.10950265e+04]
+ [-3.26567014e+04]
+ [-3.34459572e+04]
+ [-3.12078886e+04]
+ [-2.88000982e+04]
+ [-2.77091934e+04]
+ [-2.80375872e+04]
+ [-2.83542274e+04]]</t>
         </is>
       </c>
       <c r="E1227" t="inlineStr"/>
@@ -33706,36 +33709,36 @@
       <c r="C1229" t="inlineStr"/>
       <c r="D1229" t="inlineStr">
         <is>
-          <t>[[3.79276013e-02]
- [7.63539633e-02]
- [1.88690854e-01]
- [2.22482670e-01]
- [2.07190894e-01]
- [1.92220063e-01]
- [1.77528023e-01]
- [1.63505772e-01]
- [1.50162535e-01]
- [1.49947246e-01]
- [1.43515933e-01]
- [1.37392528e-01]
- [1.31832104e-01]
- [1.27726358e-01]
- [1.24937367e-01]
- [1.25077038e-01]
- [1.23658046e-01]
- [1.22239437e-01]
- [2.46622238e-01]
- [2.18955580e-01]
- [1.91290440e-01]
- [1.71445344e-01]
- [1.41249146e-01]
- [1.03359281e-01]
- [1.07711322e-01]
- [8.61687277e-02]
- [6.90169108e-02]
- [9.33566753e-02]
- [1.50953082e-01]
- [1.10360587e-04]]</t>
+          <t>[[7.66977615e-02]
+ [6.09457796e-02]
+ [4.86820163e-01]
+ [5.85870523e-01]
+ [5.53932353e-01]
+ [5.22352164e-01]
+ [4.91247487e-01]
+ [4.60767961e-01]
+ [4.31103625e-01]
+ [4.13609844e-01]
+ [3.99587185e-01]
+ [3.85914865e-01]
+ [3.72802072e-01]
+ [3.62132249e-01]
+ [3.53512135e-01]
+ [3.53156894e-01]
+ [3.56755063e-01]
+ [3.34061612e-01]
+ [6.79239246e-01]
+ [6.03073401e-01]
+ [5.26517215e-01]
+ [7.22147910e-01]
+ [5.23363285e-01]
+ [3.26176472e-01]
+ [2.40452688e-01]
+ [1.52114519e-01]
+ [1.31504342e-01]
+ [1.28190314e-01]
+ [2.11988292e-01]
+ [1.79809980e-04]]</t>
         </is>
       </c>
       <c r="E1229" t="inlineStr"/>
@@ -33754,36 +33757,36 @@
       <c r="C1230" t="inlineStr"/>
       <c r="D1230" t="inlineStr">
         <is>
-          <t>[[0.05468695]
- [0.06140094]
- [0.11143189]
- [0.10413244]
- [0.09088727]
- [0.07797779]
- [0.06545021]
- [0.05375962]
- [0.04301225]
- [0.03015697]
- [0.02812189]
- [0.02663192]
- [0.02583093]
- [0.02516037]
- [0.02425623]
- [0.0230449 ]
- [0.02261193]
- [0.02218012]
- [0.08391507]
- [0.07930139]
- [0.07471992]
- [0.08360427]
- [0.07916642]
- [0.07518393]
- [0.10143144]
- [0.10559936]
- [0.11364904]
- [0.15371012]
- [0.15086004]
- [0.00068847]]</t>
+          <t>[[0.07508477]
+ [0.10239696]
+ [0.51943046]
+ [0.3525773 ]
+ [0.30727526]
+ [0.26248221]
+ [0.21835837]
+ [0.17519737]
+ [0.1335729 ]
+ [0.0684991 ]
+ [0.06152557]
+ [0.05401154]
+ [0.04870627]
+ [0.04635546]
+ [0.04534658]
+ [0.04123492]
+ [0.04108554]
+ [0.04233434]
+ [0.1094061 ]
+ [0.10511974]
+ [0.1008834 ]
+ [0.31486437]
+ [0.30618823]
+ [0.29751334]
+ [0.27417848]
+ [0.27859793]
+ [0.28620553]
+ [0.26166384]
+ [0.25891557]
+ [0.00126409]]</t>
         </is>
       </c>
       <c r="E1230" t="inlineStr"/>
@@ -33802,36 +33805,36 @@
       <c r="C1231" t="inlineStr"/>
       <c r="D1231" t="inlineStr">
         <is>
-          <t>[[2.17911609e-01]
- [3.21776927e-01]
- [4.17373101e-01]
- [3.95728489e-01]
- [3.77728005e-01]
- [3.59716775e-01]
- [3.41373230e-01]
- [3.23190473e-01]
- [3.04802738e-01]
- [3.13663606e-01]
- [3.03891036e-01]
- [2.93989645e-01]
- [2.84922983e-01]
- [2.76130473e-01]
- [2.67360792e-01]
- [2.66441749e-01]
- [2.62036794e-01]
- [2.57637899e-01]
- [5.37425335e-01]
- [4.81706403e-01]
- [4.26595835e-01]
- [4.01319579e-01]
- [3.58395230e-01]
- [3.03341108e-01]
- [3.90311997e-01]
- [4.45312648e-01]
- [5.20783330e-01]
- [7.25966014e-01]
- [9.41445139e-01]
- [2.66696797e-10]]</t>
+          <t>[[3.40162892e-01]
+ [4.90280479e-01]
+ [1.14489776e+00]
+ [1.23759788e+00]
+ [1.18468954e+00]
+ [1.13195021e+00]
+ [1.07922534e+00]
+ [1.02632088e+00]
+ [9.72982486e-01]
+ [9.46075180e-01]
+ [9.18922955e-01]
+ [8.91457982e-01]
+ [8.65820384e-01]
+ [8.42212674e-01]
+ [8.18710364e-01]
+ [8.17770025e-01]
+ [8.27674494e-01]
+ [8.12747941e-01]
+ [1.79261661e+00]
+ [1.58548631e+00]
+ [1.38491922e+00]
+ [2.29168953e+00]
+ [1.75898260e+00]
+ [1.25714996e+00]
+ [1.15808570e+00]
+ [1.11658657e+00]
+ [9.37504344e-01]
+ [1.33180850e+00]
+ [1.80111312e+00]
+ [2.96957090e-10]]</t>
         </is>
       </c>
       <c r="E1231" t="inlineStr"/>
@@ -33850,7 +33853,7 @@
       <c r="C1232" t="inlineStr"/>
       <c r="D1232" t="inlineStr">
         <is>
-          <t>[-0.02428783]</t>
+          <t>[-0.17062849]</t>
         </is>
       </c>
       <c r="E1232" t="inlineStr">
@@ -33873,7 +33876,7 @@
       <c r="C1233" t="inlineStr"/>
       <c r="D1233" t="inlineStr">
         <is>
-          <t>[-0.1560667]</t>
+          <t>[-0.03633343]</t>
         </is>
       </c>
       <c r="E1233" t="inlineStr">
@@ -33896,7 +33899,7 @@
       <c r="C1234" t="inlineStr"/>
       <c r="D1234" t="inlineStr">
         <is>
-          <t>[1.05395188]</t>
+          <t>[1.0007888]</t>
         </is>
       </c>
       <c r="E1234" t="inlineStr"/>
@@ -33919,7 +33922,7 @@
       </c>
       <c r="D1235" t="inlineStr">
         <is>
-          <t>[28.23732221]</t>
+          <t>[29.73732221]</t>
         </is>
       </c>
       <c r="E1235" t="inlineStr"/>
@@ -33942,9 +33945,9 @@
       </c>
       <c r="D1236" t="inlineStr">
         <is>
-          <t>[1047.13901865 1206.50664157 1321.22751075 1413.18261726 1440.97876521
- 1441.96074555 1424.6820857  1272.31084758 1119.10085911  962.19898835
-  978.02680667  993.06340443 1007.39507288]</t>
+          <t>[ 764.0675664   879.89721404  960.79254611 1024.48836201 1098.19816289
+ 1159.08690457 1211.44283474 1136.90215108 1057.80219044  973.99389388
+  985.59734665  996.77327326 1007.55661265]</t>
         </is>
       </c>
       <c r="E1236" t="inlineStr"/>
@@ -34013,9 +34016,9 @@
       </c>
       <c r="D1239" t="inlineStr">
         <is>
-          <t>[135.7193516  155.74123287 169.88212701 181.04996942 193.97594653
- 204.63727934 213.7833591  218.72660661 223.33944433 227.66891335
- 231.48712289 235.11571637 238.57517091]</t>
+          <t>[135.7193516  156.69843521 171.33048609 182.82227714 196.0755203
+ 206.97905056 216.31799319 221.36083569 226.06408979 230.47643609
+ 233.27575427 235.97256769 238.57517091]</t>
         </is>
       </c>
       <c r="E1239" t="inlineStr"/>
@@ -34038,8 +34041,8 @@
       </c>
       <c r="D1240" t="inlineStr">
         <is>
-          <t>[14.88565131 15.94588977 16.65408583 17.19278299 17.79593838 18.27844853
- 18.68245315 18.89721312 19.09543997 19.27963559 19.44063167 19.59240654
+          <t>[14.88565131 15.99481728 16.72492878 17.27672858 17.89198978 18.38273594
+ 18.79287721 19.01066664 19.21156496 19.39814576 19.51559311 19.62807517
  19.73601994]</t>
         </is>
       </c>
@@ -34063,9 +34066,9 @@
       </c>
       <c r="D1241" t="inlineStr">
         <is>
-          <t>[1047.13901865 1206.50664157 1321.22751075 1413.18261726 1440.97876521
- 1441.96074555 1424.6820857  1272.31084758 1119.10085911  962.19898835
-  978.02680667  993.06340443 1007.39507288]</t>
+          <t>[ 764.0675664   879.89721404  960.79254611 1024.48836201 1098.19816289
+ 1159.08690457 1211.44283474 1136.90215108 1057.80219044  973.99389388
+  985.59734665  996.77327326 1007.55661265]</t>
         </is>
       </c>
       <c r="E1241" t="inlineStr"/>
@@ -34134,9 +34137,9 @@
       </c>
       <c r="D1244" t="inlineStr">
         <is>
-          <t>[135.7193516  155.74123287 169.88212701 181.04996942 193.97594653
- 204.63727934 213.7833591  218.72660661 223.33944433 227.66891335
- 231.48712289 235.11571637 238.57517091]</t>
+          <t>[135.7193516  156.69843521 171.33048609 182.82227714 196.0755203
+ 206.97905056 216.31799319 221.36083569 226.06408979 230.47643609
+ 233.27575427 235.97256769 238.57517091]</t>
         </is>
       </c>
       <c r="E1244" t="inlineStr"/>
@@ -34159,9 +34162,9 @@
       </c>
       <c r="D1245" t="inlineStr">
         <is>
-          <t>[ 15.          26.61331002  38.22662005  49.83993007  66.43037296
-  83.02081585  99.61125874 109.56552448 119.51979021 129.47405594
- 138.76470396 148.05535198 157.346     ]</t>
+          <t>[ 15.          27.30150617  39.60301235  51.90451852  69.47809877
+  87.05167901 104.62525926 115.16940741 125.71355556 136.2577037
+ 143.2871358  150.3165679  157.346     ]</t>
         </is>
       </c>
       <c r="E1245" t="inlineStr"/>
@@ -34253,10 +34256,10 @@
       </c>
       <c r="D1249" t="inlineStr">
         <is>
-          <t>[-1047.13901865 -1206.50664157 -1321.22751075 -1413.18261726
- -1440.97876521 -1441.96074555 -1424.6820857  -1272.31084758
- -1119.10085911  -962.19898835  -978.02680667  -993.06340443
- -1007.39507288]</t>
+          <t>[ -764.0675664   -879.89721404  -960.79254611 -1024.48836201
+ -1098.19816289 -1159.08690457 -1211.44283474 -1136.90215108
+ -1057.80219044  -973.99389388  -985.59734665  -996.77327326
+ -1007.55661265]</t>
         </is>
       </c>
       <c r="E1249" t="inlineStr"/>
@@ -34279,9 +34282,9 @@
       </c>
       <c r="D1250" t="inlineStr">
         <is>
-          <t>[135.7193516  155.74123287 169.88212701 181.04996942 193.97594653
- 204.63727934 213.7833591  218.72660661 223.33944433 227.66891335
- 231.48712289 235.11571637 238.57517091]</t>
+          <t>[135.7193516  156.69843521 171.33048609 182.82227714 196.0755203
+ 206.97905056 216.31799319 221.36083569 226.06408979 230.47643609
+ 233.27575427 235.97256769 238.57517091]</t>
         </is>
       </c>
       <c r="E1250" t="inlineStr"/>
@@ -34304,18 +34307,18 @@
       </c>
       <c r="D1251" t="inlineStr">
         <is>
-          <t>[[52423520.23329906]
- [47074038.31125768]
- [41701585.45609667]
- [38392106.74852514]
- [32957095.2422654 ]
- [25884281.70918088]
- [29088770.42399377]
- [26284842.84415708]
- [19022620.94595829]
- [ 2164637.40820354]
- [-3079619.81514079]
- [24399881.88578805]]</t>
+          <t>[[ 1.37787062e+08]
+ [ 1.23410829e+08]
+ [ 1.08893372e+08]
+ [ 1.52488056e+08]
+ [ 1.14222686e+08]
+ [ 7.56606317e+07]
+ [ 5.97304748e+07]
+ [ 4.18222468e+07]
+ [ 1.42926400e+07]
+ [-1.18591857e+07]
+ [ 3.98958694e+06]
+ [ 3.39146847e+07]]</t>
         </is>
       </c>
       <c r="E1251" t="inlineStr"/>
@@ -34338,18 +34341,18 @@
       </c>
       <c r="D1252" t="inlineStr">
         <is>
-          <t>[[ 3115932.88592784]
- [ 3116458.43938305]
- [ 3116932.67914614]
- [ 3447491.66812365]
- [ 3655974.54147363]
- [ 3890253.94560498]
- [ 5382242.62699115]
- [ 6387688.87839598]
- [ 7830661.35655405]
- [10344736.52811482]
- [10344871.97817221]
- [10344743.17983283]]</t>
+          <t>[[ 5534812.4077702 ]
+ [ 5536741.1466318 ]
+ [ 5538475.62031879]
+ [ 9727832.93361937]
+ [ 9732358.20620165]
+ [ 9735838.13903547]
+ [10598998.39981338]
+ [11877090.76475836]
+ [13487275.77079466]
+ [14453711.94073175]
+ [14453725.93666575]
+ [14453572.30291894]]</t>
         </is>
       </c>
       <c r="E1252" t="inlineStr"/>
@@ -34372,18 +34375,18 @@
       </c>
       <c r="D1253" t="inlineStr">
         <is>
-          <t>[[-14500.16407755]
- [-16199.76215416]
- [-17458.87179718]
- [-19600.34518497]
- [-19831.00787976]
- [-19764.52741295]
- [-23231.45020468]
- [-20648.35977149]
- [-17907.03162411]
- [-19560.04714398]
- [-19877.28095268]
- [-20179.23179818]]</t>
+          <t>[[-12780.62541633]
+ [-14337.07167602]
+ [-15478.85939621]
+ [-29231.36937859]
+ [-31095.02646917]
+ [-32656.70142791]
+ [-33445.9571736 ]
+ [-31207.8885523 ]
+ [-28800.09817433]
+ [-27709.19337349]
+ [-28037.58723658]
+ [-28354.227381  ]]</t>
         </is>
       </c>
       <c r="E1253" t="inlineStr"/>
@@ -34436,18 +34439,18 @@
       <c r="C1255" t="inlineStr"/>
       <c r="D1255" t="inlineStr">
         <is>
-          <t>[[0.26812232]
- [0.2410737 ]
- [0.21394849]
- [0.19769633]
- [0.17076744]
- [0.13610915]
- [0.15544282]
- [0.14512043]
- [0.11888238]
- [0.09181486]
- [0.09247527]
- [0.15403386]]</t>
+          <t>[[0.62457213]
+ [0.55974617]
+ [0.49432922]
+ [0.69377328]
+ [0.52214891]
+ [0.3505839 ]
+ [0.28262659]
+ [0.21081211]
+ [0.12386692]
+ [0.12523192]
+ [0.11463835]
+ [0.19065904]]</t>
         </is>
       </c>
       <c r="E1255" t="inlineStr"/>
@@ -34466,18 +34469,18 @@
       <c r="C1256" t="inlineStr"/>
       <c r="D1256" t="inlineStr">
         <is>
-          <t>[[0.0838984 ]
- [0.07928064]
- [0.07469613]
- [0.08356462]
- [0.07912723]
- [0.07514642]
- [0.10140325]
- [0.10557866]
- [0.11363666]
- [0.1537029 ]
- [0.1508545 ]
- [0.14804523]]</t>
+          <t>[[0.10936523]
+ [0.1050738 ]
+ [0.1008336 ]
+ [0.31469643]
+ [0.30601434]
+ [0.29733596]
+ [0.27408659]
+ [0.27852034]
+ [0.2861438 ]
+ [0.26163413]
+ [0.25888707]
+ [0.25615158]]</t>
         </is>
       </c>
       <c r="E1256" t="inlineStr"/>
@@ -34496,18 +34499,18 @@
       <c r="C1257" t="inlineStr"/>
       <c r="D1257" t="inlineStr">
         <is>
-          <t>[[0.52050894]
- [0.47051216]
- [0.42058352]
- [0.39825342]
- [0.3575162 ]
- [0.30397527]
- [0.37994399]
- [0.40149622]
- [0.40197393]
- [0.36345145]
- [0.30116669]
- [0.51002857]]</t>
+          <t>[[1.61522455]
+ [1.44936412]
+ [1.28387448]
+ [1.93003393]
+ [1.50998173]
+ [1.09370252]
+ [0.97917936]
+ [0.87233068]
+ [0.6484247 ]
+ [0.39512571]
+ [0.55808152]
+ [0.87656232]]</t>
         </is>
       </c>
       <c r="E1257" t="inlineStr"/>
@@ -34530,7 +34533,7 @@
       </c>
       <c r="D1258" t="inlineStr">
         <is>
-          <t>[0.30780495]</t>
+          <t>[0.17476798]</t>
         </is>
       </c>
       <c r="E1258" t="inlineStr"/>
@@ -34553,7 +34556,7 @@
       </c>
       <c r="D1259" t="inlineStr">
         <is>
-          <t>[0.31139421]</t>
+          <t>[0.17632047]</t>
         </is>
       </c>
       <c r="E1259" t="inlineStr"/>
@@ -34576,7 +34579,7 @@
       </c>
       <c r="D1260" t="inlineStr">
         <is>
-          <t>[0.30780495 0.31139421 0.95447762 1.12910044 1.28845193 2.88643053]</t>
+          <t>[0.17476798 0.17632047 0.68437701 0.93106151 1.07507298 2.59397625]</t>
         </is>
       </c>
       <c r="E1260" t="inlineStr"/>
@@ -34595,12 +34598,12 @@
       <c r="C1261" t="inlineStr"/>
       <c r="D1261" t="inlineStr">
         <is>
-          <t>[[ 1.01068011e+00  9.78569542e-01 -3.95971917e+00  4.80461776e+00
-  -1.83414825e+00]
- [-3.92335480e+02  9.41309755e+02 -1.63898804e+03  1.45881238e+03
-  -3.67798613e+02]
- [-5.43453335e+01  1.65167553e+02 -2.98364530e+02  3.39524820e+02
-  -1.50982510e+02]]</t>
+          <t>[[ 1.01907003e+00 -1.10656287e-01  9.24471382e-01 -1.40660477e+00
+   5.73719653e-01]
+ [ 2.19408061e+02 -2.68309169e+02  2.31629460e+02 -2.30462397e+02
+   4.87340446e+01]
+ [-8.89838271e+01  1.39466142e+02 -2.39218621e+01  6.37252258e+00
+  -3.19329751e+01]]</t>
         </is>
       </c>
       <c r="E1261" t="inlineStr"/>
@@ -34619,9 +34622,12 @@
       <c r="C1262" t="inlineStr"/>
       <c r="D1262" t="inlineStr">
         <is>
-          <t>[[   0.99115755    1.01590486   -4.01254264    4.83187958   -1.82639936]
- [  59.92475431 -134.17712047  224.07074402 -185.85832721   37.03994935]
- [ -50.4453208   153.84675378 -282.34256626  320.26154982 -140.32041654]]</t>
+          <t>[[ 1.01030713e+00 -1.01708294e-01  9.17378467e-01 -1.40175186e+00
+   5.75774561e-01]
+ [ 4.82929031e+01 -5.60315945e+01  4.88926286e+01 -4.66802154e+01
+   6.52627814e+00]
+ [-8.32006295e+01  1.30280791e+02 -3.10204699e+01  1.93531081e+01
+  -3.44128001e+01]]</t>
         </is>
       </c>
       <c r="E1262" t="inlineStr"/>
@@ -34640,7 +34646,7 @@
       <c r="C1263" t="inlineStr"/>
       <c r="D1263" t="inlineStr">
         <is>
-          <t>[[  8.0830151  -29.6698498   48.82557079 -36.60281036  10.36407427]
+          <t>[[  5.53232062 -16.1759019   25.05893768 -19.08204978   5.66669338]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -34665,7 +34671,7 @@
       </c>
       <c r="D1264" t="inlineStr">
         <is>
-          <t>[0.31139421 1.28845193 2.99795023]</t>
+          <t>[0.17632047 1.07507298 2.67164223]</t>
         </is>
       </c>
       <c r="E1264" t="inlineStr"/>
@@ -34688,7 +34694,7 @@
       </c>
       <c r="D1265" t="inlineStr">
         <is>
-          <t>[0.30780495 1.12910044 2.88643053]</t>
+          <t>[0.17476798 0.93106151 2.59397625]</t>
         </is>
       </c>
       <c r="E1265" t="inlineStr"/>
@@ -34711,7 +34717,7 @@
       </c>
       <c r="D1266" t="inlineStr">
         <is>
-          <t>[6.08912966 0.         0.        ]</t>
+          <t>[4.71855004 0.         0.        ]</t>
         </is>
       </c>
       <c r="E1266" t="inlineStr"/>
@@ -34735,18 +34741,18 @@
       <c r="D1267" t="inlineStr">
         <is>
           <t>[[0.        ]
- [0.00454974]
- [0.0169422 ]
- [0.03641129]
- [0.07596184]
- [0.12870619]
- [0.19353368]
- [0.23837441]
- [0.28866328]
- [0.34506964]
- [0.40301299]
- [0.46331662]
- [0.52212096]]</t>
+ [0.01592911]
+ [0.0604824 ]
+ [0.13075968]
+ [0.28703975]
+ [0.50953672]
+ [0.78294756]
+ [0.96612098]
+ [1.16203262]
+ [1.36885311]
+ [1.51057954]
+ [1.65288646]
+ [1.79334657]]</t>
         </is>
       </c>
       <c r="E1267" t="inlineStr"/>
@@ -34769,7 +34775,7 @@
       </c>
       <c r="D1268" t="inlineStr">
         <is>
-          <t>[0.52212096]</t>
+          <t>[1.79334657]</t>
         </is>
       </c>
       <c r="E1268" t="inlineStr"/>
@@ -34792,18 +34798,18 @@
       </c>
       <c r="D1269" t="inlineStr">
         <is>
-          <t>[[-23329433.1050025 ]
- [-21517400.90602   ]
- [-19704180.61160189]
- [-17348223.94066548]
- [-15104228.54973583]
- [-12972564.60442451]
- [-12028440.33566992]
- [-11207205.12784973]
- [-10508881.44745222]
- [-10001319.38229696]
- [ -9493615.37584772]
- [ -8985776.30844629]]</t>
+          <t>[[-16433930.01639228]
+ [-15277971.82466562]
+ [-14121133.18098991]
+ [-13171607.88774643]
+ [-12220911.73147363]
+ [-11269230.46898927]
+ [-10739039.70396255]
+ [-10254835.9241617 ]
+ [ -9816667.50035031]
+ [ -9539868.15269817]
+ [ -9262989.54291176]
+ [ -8986034.52447545]]</t>
         </is>
       </c>
       <c r="E1269" t="inlineStr"/>
@@ -34826,18 +34832,18 @@
       </c>
       <c r="D1270" t="inlineStr">
         <is>
-          <t>[[2938067.70010377]
- [2938679.84743597]
- [2939232.9459164 ]
- [2940522.14114487]
- [2941281.29284796]
- [2941879.34826771]
- [2939840.40979532]
- [2939788.52935113]
- [2939692.9186245 ]
- [2939296.33417959]
- [2939361.26197765]
- [2939320.69824081]]</t>
+          <t>[[2938461.09493337]
+ [2939806.74382189]
+ [2941017.9430784 ]
+ [2941937.64998769]
+ [2943734.21774617]
+ [2945119.335088  ]
+ [2942320.64761022]
+ [2942213.96491734]
+ [2942013.28068838]
+ [2940503.95073606]
+ [2940516.18434344]
+ [2940480.56721993]]</t>
         </is>
       </c>
       <c r="E1270" t="inlineStr"/>
@@ -34860,18 +34866,18 @@
       </c>
       <c r="D1271" t="inlineStr">
         <is>
-          <t>[[8739.95229175]
- [8743.22985956]
- [8746.33243318]
- [8753.75889346]
- [8758.86820942]
- [8763.6646536 ]
- [8751.95692687]
- [8752.61714909]
- [8753.4946505 ]
- [8752.36421735]
- [8755.6531382 ]
- [8758.6123588 ]]</t>
+          <t>[[8742.0337991 ]
+ [8749.31743313]
+ [8756.19945521]
+ [8762.14972015]
+ [8774.16393223]
+ [8784.89929003]
+ [8768.73945341]
+ [8769.63938166]
+ [8770.53082684]
+ [8760.8857493 ]
+ [8762.71718422]
+ [8764.39004932]]</t>
         </is>
       </c>
       <c r="E1271" t="inlineStr"/>
@@ -34894,18 +34900,18 @@
       </c>
       <c r="D1272" t="inlineStr">
         <is>
-          <t>[[-1886528.10719893]
- [-1783535.70936738]
- [-1679806.62800559]
- [-1530516.61809596]
- [-1380238.20509097]
- [-1229275.5640207 ]
- [-1138517.34916064]
- [-1047324.96340669]
- [ -955450.01713634]
- [ -868806.73256586]
- [ -781224.99948119]
- [ -692941.93268697]]</t>
+          <t>[[-1970099.35875949]
+ [-1858707.51820699]
+ [-1745356.66630017]
+ [-1579277.09606907]
+ [-1408191.56562688]
+ [-1233543.2421821 ]
+ [-1127699.72650521]
+ [-1020853.00042802]
+ [ -912755.21098109]
+ [ -840004.48265261]
+ [ -766691.79148636]
+ [ -692940.93580528]]</t>
         </is>
       </c>
       <c r="E1272" t="inlineStr"/>
@@ -34928,18 +34934,18 @@
       </c>
       <c r="D1273" t="inlineStr">
         <is>
-          <t>[[ 3.52333100e+08]
- [ 3.17927367e+08]
- [ 2.83391820e+08]
- [ 2.33875381e+08]
- [ 1.84222272e+08]
- [ 1.34504978e+08]
- [ 1.04679715e+08]
- [ 7.48320551e+07]
- [ 4.49571244e+07]
- [ 1.70548821e+07]
- [-1.08415425e+07]
- [-3.86931092e+07]]</t>
+          <t>[[ 3.63964972e+08]
+ [ 3.27094366e+08]
+ [ 2.89882254e+08]
+ [ 2.36051032e+08]
+ [ 1.81493708e+08]
+ [ 1.26525703e+08]
+ [ 9.34844424e+07]
+ [ 6.04048626e+07]
+ [ 2.73082560e+07]
+ [ 5.26642029e+06]
+ [-1.67416016e+07]
+ [-3.86931098e+07]]</t>
         </is>
       </c>
       <c r="E1273" t="inlineStr"/>
@@ -34962,18 +34968,18 @@
       </c>
       <c r="D1274" t="inlineStr">
         <is>
-          <t>[[6203638.15118953]
- [6203568.14887365]
- [6203498.0872173 ]
- [6203504.84776578]
- [6203441.88077658]
- [6203377.48568522]
- [6203496.3374845 ]
- [6203551.35174322]
- [6203636.41765461]
- [6203837.91223762]
- [6203781.31240357]
- [6203724.69777437]]</t>
+          <t>[[6203796.54332661]
+ [6203722.27579757]
+ [6203647.93300702]
+ [6204260.5667625 ]
+ [6204153.28865972]
+ [6204045.88198864]
+ [6204038.41657645]
+ [6204098.8856325 ]
+ [6204178.92503671]
+ [6204195.086665  ]
+ [6204151.94768982]
+ [6204108.79696183]]</t>
         </is>
       </c>
       <c r="E1274" t="inlineStr"/>
@@ -34998,7 +35004,7 @@
         <is>
           <t>[[ 2.93771295e+06]
  [ 8.73816952e+03]
- [-2.51398897e+07]]</t>
+ [-1.75886903e+07]]</t>
         </is>
       </c>
       <c r="E1275" t="inlineStr"/>
@@ -35021,9 +35027,9 @@
       </c>
       <c r="D1276" t="inlineStr">
         <is>
-          <t>[[-1.98857883e+06]
- [ 3.86563431e+08]
- [ 6.20266624e+06]]</t>
+          <t>[[-2.07903196e+06]
+ [ 4.00381992e+08]
+ [ 6.20266553e+06]]</t>
         </is>
       </c>
       <c r="E1276" t="inlineStr"/>
@@ -35046,7 +35052,7 @@
       </c>
       <c r="D1277" t="inlineStr">
         <is>
-          <t>[2577724.16450102]</t>
+          <t>[1810682.66587496]</t>
         </is>
       </c>
       <c r="E1277" t="inlineStr"/>
@@ -35069,7 +35075,7 @@
       </c>
       <c r="D1278" t="inlineStr">
         <is>
-          <t>[-2.48651511e+00 -3.52694954e-02  9.59251996e+01]</t>
+          <t>[-3.53985451e+00 -5.02155115e-02  1.12719512e+02]</t>
         </is>
       </c>
       <c r="E1278" t="inlineStr"/>
@@ -35092,8 +35098,8 @@
       </c>
       <c r="D1279" t="inlineStr">
         <is>
-          <t>[3.15928084e+10 3.14618755e+10 3.05665574e+08 5.41253411e+02
- 1.42357775e+07 1.69892134e+05]</t>
+          <t>[2.83030261e+10 2.81720930e+10 2.78907404e+08 5.41567843e+02
+ 1.42357746e+07 1.69909285e+05]</t>
         </is>
       </c>
       <c r="E1279" t="inlineStr"/>
@@ -35112,7 +35118,8 @@
       <c r="C1280" t="inlineStr"/>
       <c r="D1280" t="inlineStr">
         <is>
-          <t>[88.40905465 81.91688132 81.85383356 86.76940073 86.86422598 87.99328414]</t>
+          <t>[135.93533306 135.93533305 135.93533305 135.93533305 135.91267507
+ 133.75188601]</t>
         </is>
       </c>
       <c r="E1280" t="inlineStr"/>
@@ -35131,7 +35138,7 @@
       <c r="C1281" t="inlineStr"/>
       <c r="D1281" t="inlineStr">
         <is>
-          <t>[1. 1. 1. 1. 1. 1.]</t>
+          <t>[1.         1.         1.         1.         0.99966664 0.96853145]</t>
         </is>
       </c>
       <c r="E1281" t="inlineStr"/>
@@ -35150,7 +35157,7 @@
       <c r="C1282" t="inlineStr"/>
       <c r="D1282" t="inlineStr">
         <is>
-          <t>[1. 1. 1. 1. 1. 1.]</t>
+          <t>[1.         1.         1.         1.         0.99966664 0.96853145]</t>
         </is>
       </c>
       <c r="E1282" t="inlineStr"/>
@@ -35169,7 +35176,7 @@
       <c r="C1283" t="inlineStr"/>
       <c r="D1283" t="inlineStr">
         <is>
-          <t>[1.07925318 1.00077025 0.94334907 0.99890835 0.98716881]</t>
+          <t>[1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="E1283" t="inlineStr"/>
@@ -35251,8 +35258,10 @@
       </c>
       <c r="D1287" t="inlineStr">
         <is>
-          <t>[5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5
- 5.5]</t>
+          <t>[4.75773666 4.75773666 4.75773666 4.75773666 4.75773666 4.75773666
+ 4.75773666 4.75773666 4.75773666 4.75773666 4.75773666 4.75773666
+ 4.75773666 4.75720797 4.75667928 4.7561506  4.70626087 4.65637115
+ 4.60648142]</t>
         </is>
       </c>
       <c r="E1287" t="inlineStr"/>
@@ -35275,7 +35284,7 @@
       </c>
       <c r="D1288" t="inlineStr">
         <is>
-          <t>[  0.   0. -40.]</t>
+          <t>[  0.    0.  -47.5]</t>
         </is>
       </c>
       <c r="E1288" t="inlineStr"/>
@@ -35298,7 +35307,7 @@
       </c>
       <c r="D1289" t="inlineStr">
         <is>
-          <t>[7602.65422169]</t>
+          <t>[6755.76101314]</t>
         </is>
       </c>
       <c r="E1289" t="inlineStr"/>
@@ -35321,7 +35330,7 @@
       </c>
       <c r="D1290" t="inlineStr">
         <is>
-          <t>[76417989.5781028]</t>
+          <t>[67905452.44340861]</t>
         </is>
       </c>
       <c r="E1290" t="inlineStr"/>
@@ -35340,7 +35349,7 @@
       <c r="C1291" t="inlineStr"/>
       <c r="D1291" t="inlineStr">
         <is>
-          <t>[4.]</t>
+          <t>[3.]</t>
         </is>
       </c>
       <c r="E1291" t="inlineStr"/>
@@ -35363,7 +35372,7 @@
       </c>
       <c r="D1292" t="inlineStr">
         <is>
-          <t>[95.03317777]</t>
+          <t>[71.11327382]</t>
         </is>
       </c>
       <c r="E1292" t="inlineStr"/>
@@ -35386,7 +35395,7 @@
       </c>
       <c r="D1293" t="inlineStr">
         <is>
-          <t>[718.68840689]</t>
+          <t>[402.4310494]</t>
         </is>
       </c>
       <c r="E1293" t="inlineStr"/>
@@ -35409,7 +35418,7 @@
       </c>
       <c r="D1294" t="inlineStr">
         <is>
-          <t>[718.68840689]</t>
+          <t>[402.4310494]</t>
         </is>
       </c>
       <c r="E1294" t="inlineStr"/>
@@ -35432,8 +35441,8 @@
       </c>
       <c r="D1295" t="inlineStr">
         <is>
-          <t>[7.79272058e+06 7.79272058e+06 2.27379167e+05 4.15632754e+09
- 4.15632754e+09 0.00000000e+00]</t>
+          <t>[6.92465504e+06 6.92465504e+06 1.47185085e+05 5.20818066e+09
+ 5.20818066e+09 0.00000000e+00]</t>
         </is>
       </c>
       <c r="E1295" t="inlineStr"/>
@@ -35479,7 +35488,7 @@
       </c>
       <c r="D1297" t="inlineStr">
         <is>
-          <t>[-80.         -70.         -60.         -50.         -43.33333333
+          <t>[-95.         -80.         -65.         -50.         -43.33333333
  -36.66666667 -30.         -23.33333333 -16.66666667 -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
   10.          11.66666667  13.33333333  15.        ]</t>
@@ -35505,8 +35514,10 @@
       </c>
       <c r="D1298" t="inlineStr">
         <is>
-          <t>[11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11.
- 11.]</t>
+          <t>[9.51547331 9.51547331 9.51547331 9.51547331 9.51547331 9.51547331
+ 9.51547331 9.51547331 9.51547331 9.51547331 9.51547331 9.51547331
+ 9.51547331 9.51441594 9.51335857 9.5123012  9.41252175 9.3127423
+ 9.21296284]</t>
         </is>
       </c>
       <c r="E1298" t="inlineStr"/>
@@ -35529,7 +35540,7 @@
       </c>
       <c r="D1299" t="inlineStr">
         <is>
-          <t>[30. 20. 20. 10. 10.  5.]</t>
+          <t>[45. 20. 20. 10. 10.  5.]</t>
         </is>
       </c>
       <c r="E1299" t="inlineStr"/>
@@ -35660,7 +35671,7 @@
       </c>
       <c r="D1305" t="inlineStr">
         <is>
-          <t>[-80. -50. -30. -10.   0.  10.  15.]</t>
+          <t>[-95. -50. -30. -10.   0.  10.  15.]</t>
         </is>
       </c>
       <c r="E1305" t="inlineStr"/>
@@ -35679,7 +35690,7 @@
       <c r="C1306" t="inlineStr"/>
       <c r="D1306" t="inlineStr">
         <is>
-          <t>[0.         0.32258065 0.58064516 0.77419355 0.90322581 1.        ]</t>
+          <t>[0.         0.38235294 0.61764706 0.79411765 0.91176471 1.        ]</t>
         </is>
       </c>
       <c r="E1306" t="inlineStr">
@@ -35760,8 +35771,8 @@
       </c>
       <c r="D1309" t="inlineStr">
         <is>
-          <t>[35479.42339787 38256.56208798 38285.66468494 36142.05171573
- 36103.05678571 35645.13762482]</t>
+          <t>[17336.04471288 17336.04471281 17336.04471274 17336.04471266
+ 17333.13368991 17055.52266707]</t>
         </is>
       </c>
       <c r="E1309" t="inlineStr">
@@ -35788,8 +35799,8 @@
       </c>
       <c r="D1310" t="inlineStr">
         <is>
-          <t>[524623.96827731 564675.70098642 565094.63825065 534193.71489019
- 533630.77795537 527018.0154108 ]</t>
+          <t>[193344.28255993 193344.28255745 193344.28255498 193344.28255251
+ 193246.90489068 184109.91115131]</t>
         </is>
       </c>
       <c r="E1310" t="inlineStr">
@@ -35816,8 +35827,8 @@
       </c>
       <c r="D1311" t="inlineStr">
         <is>
-          <t>[524623.96827731 564675.70098642 565094.63825065 534193.71489019
- 533630.77795537 527018.0154108 ]</t>
+          <t>[193344.28255993 193344.28255745 193344.28255498 193344.28255251
+ 193246.90489068 184109.91115131]</t>
         </is>
       </c>
       <c r="E1311" t="inlineStr">
@@ -35844,8 +35855,8 @@
       </c>
       <c r="D1312" t="inlineStr">
         <is>
-          <t>[1.25718660e+13 1.35316487e+13 1.35416880e+13 1.28011913e+13
- 1.27877014e+13 1.26292359e+13]</t>
+          <t>[4.63322029e+12 4.63322029e+12 4.63322029e+12 4.63322029e+12
+ 4.63088677e+12 4.41193173e+12]</t>
         </is>
       </c>
       <c r="E1312" t="inlineStr">
@@ -35872,8 +35883,8 @@
       </c>
       <c r="D1313" t="inlineStr">
         <is>
-          <t>[1.25718660e+13 1.35316487e+13 1.35416880e+13 1.28011913e+13
- 1.27877014e+13 1.26292359e+13]</t>
+          <t>[4.63322029e+12 4.63322029e+12 4.63322029e+12 4.63322029e+12
+ 4.63088677e+12 4.41193173e+12]</t>
         </is>
       </c>
       <c r="E1313" t="inlineStr">
@@ -35900,8 +35911,8 @@
       </c>
       <c r="D1314" t="inlineStr">
         <is>
-          <t>[9.96948974e+12 1.07305974e+13 1.07385585e+13 1.01513447e+13
- 1.01406472e+13 1.00149841e+13]</t>
+          <t>[3.67414369e+12 3.67414369e+12 3.67414369e+12 3.67414369e+12
+ 3.67229321e+12 3.49866186e+12]</t>
         </is>
       </c>
       <c r="E1314" t="inlineStr">
@@ -35928,8 +35939,8 @@
       </c>
       <c r="D1315" t="inlineStr">
         <is>
-          <t>[8.50213837e+11 9.16764009e+11 9.17461411e+11 8.66092780e+11
- 8.65158322e+11 8.54184942e+11]</t>
+          <t>[4.15433614e+11 4.15433614e+11 4.15433614e+11 4.15433614e+11
+ 4.15363855e+11 4.08711303e+11]</t>
         </is>
       </c>
       <c r="E1315" t="inlineStr">
@@ -36037,12 +36048,12 @@
       </c>
       <c r="D1319" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.23523494 0.08749696 0.08749696 0.        ]
- [0.         0.         0.21815865 0.08129091 0.08129091 0.        ]
- [0.         0.         0.21799282 0.08123064 0.08123064 0.        ]
- [0.         0.         0.23092214 0.0859295  0.0859295  0.        ]
- [0.         0.         0.23117156 0.08602015 0.08602015 0.        ]
- [0.         0.         0.23414133 0.08709949 0.08709949 0.        ]]</t>
+          <t>[[0.         0.         0.48142469 0.20537494 0.20537494 0.        ]
+ [0.         0.         0.48142469 0.20537494 0.20537494 0.        ]
+ [0.         0.         0.48142469 0.20537494 0.20537494 0.        ]
+ [0.         0.         0.48142469 0.20537494 0.20537494 0.        ]
+ [0.         0.         0.48150555 0.20544418 0.20544418 0.        ]
+ [0.         0.         0.48934296 0.21221162 0.21221162 0.        ]]</t>
         </is>
       </c>
       <c r="E1319" t="inlineStr"/>
@@ -36065,12 +36076,12 @@
       </c>
       <c r="D1320" t="inlineStr">
         <is>
-          <t>[[0.38540566 0.38540566 0.         0.         0.         0.04374848]
- [0.35727323 0.35727323 0.         0.         0.         0.04064545]
- [0.35700002 0.35700002 0.         0.         0.         0.04061532]
- [0.37830064 0.37830064 0.         0.         0.         0.04296475]
- [0.37871155 0.37871155 0.         0.         0.         0.04301008]
- [0.38360403 0.38360403 0.         0.         0.         0.04354974]]</t>
+          <t>[[0.79023938 0.79023938 0.         0.         0.         0.10268747]
+ [0.79023938 0.79023938 0.         0.         0.         0.10268747]
+ [0.79023938 0.79023938 0.         0.         0.         0.10268747]
+ [0.79023938 0.79023938 0.         0.         0.         0.10268747]
+ [0.79037165 0.79037165 0.         0.         0.         0.10272209]
+ [0.80319191 0.80319191 0.         0.         0.         0.10610581]]</t>
         </is>
       </c>
       <c r="E1320" t="inlineStr"/>
@@ -36093,7 +36104,7 @@
       </c>
       <c r="D1321" t="inlineStr">
         <is>
-          <t>[1431.73538545]</t>
+          <t>[1099.81367604]</t>
         </is>
       </c>
       <c r="E1321" t="inlineStr"/>
@@ -36116,7 +36127,7 @@
       </c>
       <c r="D1322" t="inlineStr">
         <is>
-          <t>[8167844.56472766]</t>
+          <t>[4676980.86317517]</t>
         </is>
       </c>
       <c r="E1322" t="inlineStr"/>
@@ -36139,7 +36150,7 @@
       </c>
       <c r="D1323" t="inlineStr">
         <is>
-          <t>[3495904.01053304]</t>
+          <t>[1905533.19795188]</t>
         </is>
       </c>
       <c r="E1323" t="inlineStr"/>
@@ -36162,7 +36173,7 @@
       </c>
       <c r="D1324" t="inlineStr">
         <is>
-          <t>[47.71120732]</t>
+          <t>[54.96004263]</t>
         </is>
       </c>
       <c r="E1324" t="inlineStr"/>
@@ -36185,7 +36196,7 @@
       </c>
       <c r="D1325" t="inlineStr">
         <is>
-          <t>[1.05755398e+10 1.05755398e+10 1.03294922e+08 0.00000000e+00
+          <t>[7.69588717e+09 7.69588717e+09 4.24419286e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -36209,7 +36220,9 @@
       </c>
       <c r="D1326" t="inlineStr">
         <is>
-          <t>[11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11.]</t>
+          <t>[9.51547331 9.51547331 9.51547331 9.51547331 9.51547331 9.51547331
+ 9.51547331 9.51547331 9.51547331 9.51547331 9.51547331 9.51547331
+ 9.51494463 9.51388725 9.51282988 9.46241147 9.36263202 9.26285257]</t>
         </is>
       </c>
       <c r="E1326" t="inlineStr"/>
@@ -36232,9 +36245,8 @@
       </c>
       <c r="D1327" t="inlineStr">
         <is>
-          <t>[0.13313116 0.13313116 0.13313116 0.14368223 0.14368223 0.14368223
- 0.1437929  0.1437929  0.1437929  0.1356469  0.1356469  0.1356469
- 0.13549882 0.13549882 0.13549882 0.13376021 0.13376021 0.13376021]</t>
+          <t>[0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749
+ 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749]</t>
         </is>
       </c>
       <c r="E1327" t="inlineStr"/>
@@ -36282,7 +36294,7 @@
       </c>
       <c r="D1329" t="inlineStr">
         <is>
-          <t>[3595904.01053304]</t>
+          <t>[2005533.19795188]</t>
         </is>
       </c>
       <c r="E1329" t="inlineStr"/>
@@ -36305,7 +36317,7 @@
       </c>
       <c r="D1330" t="inlineStr">
         <is>
-          <t>[8667844.56472766]</t>
+          <t>[5176980.86317517]</t>
         </is>
       </c>
       <c r="E1330" t="inlineStr"/>
@@ -36328,7 +36340,7 @@
       </c>
       <c r="D1331" t="inlineStr">
         <is>
-          <t>[49.02628116]</t>
+          <t>[57.70444783]</t>
         </is>
       </c>
       <c r="E1331" t="inlineStr"/>
@@ -36351,7 +36363,7 @@
       </c>
       <c r="D1332" t="inlineStr">
         <is>
-          <t>[1.14795523e+10 1.14795523e+10 1.06319922e+08 0.00000000e+00
+          <t>[8.90694815e+09 8.90694815e+09 4.45638957e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -36375,7 +36387,7 @@
       </c>
       <c r="D1333" t="inlineStr">
         <is>
-          <t>[5225232.95012636]</t>
+          <t>[2867794.53774749]</t>
         </is>
       </c>
       <c r="E1333" t="inlineStr"/>
@@ -36398,7 +36410,7 @@
       </c>
       <c r="D1334" t="inlineStr">
         <is>
-          <t>[12821697.8139798]</t>
+          <t>[7548677.35668022]</t>
         </is>
       </c>
       <c r="E1334" t="inlineStr"/>
@@ -36421,7 +36433,7 @@
       </c>
       <c r="D1335" t="inlineStr">
         <is>
-          <t>[-80.]</t>
+          <t>[-95.]</t>
         </is>
       </c>
       <c r="E1335" t="inlineStr"/>
@@ -36440,7 +36452,7 @@
       <c r="C1336" t="inlineStr"/>
       <c r="D1336" t="inlineStr">
         <is>
-          <t>[1.]</t>
+          <t>[0.86834172]</t>
         </is>
       </c>
       <c r="E1336" t="inlineStr"/>
@@ -36463,8 +36475,7 @@
       </c>
       <c r="D1337" t="inlineStr">
         <is>
-          <t>[-30.         -26.66666667 -23.33333333 -20.         -16.66666667
- -13.33333333 -10.          -6.66666667  -3.33333333  -0.        ]</t>
+          <t>[-45. -40. -35. -30. -25. -20. -15. -10.  -5.  -0.]</t>
         </is>
       </c>
       <c r="E1337" t="inlineStr"/>
@@ -36487,26 +36498,26 @@
       </c>
       <c r="D1338" t="inlineStr">
         <is>
-          <t>[[2.25650526e+10 5.88608222e+12 2.25650526e+10 5.88608222e+12
-  1.52133333e+10 1.24226667e+11]
- [2.04901053e+10 4.24064551e+12 2.04901053e+10 4.24064551e+12
-  1.40933333e+10 1.24226667e+11]
- [1.84151579e+10 2.94918412e+12 1.84151579e+10 2.94918412e+12
-  1.29733333e+10 1.24226667e+11]
- [1.63402105e+10 1.96745111e+12 1.63402105e+10 1.96745111e+12
-  1.18533333e+10 1.24226667e+11]
- [1.42652632e+10 1.25119959e+12 1.42652632e+10 1.25119959e+12
-  1.07333333e+10 1.24226667e+11]
- [1.21903158e+10 7.56182634e+11 1.21903158e+10 7.56182634e+11
-  9.61333333e+09 1.24226667e+11]
- [1.01153684e+10 4.38153333e+11 1.01153684e+10 4.38153333e+11
-  8.49333333e+09 1.24226667e+11]
- [8.04042105e+09 2.52864774e+11 8.04042105e+09 2.52864774e+11
-  7.37333333e+09 1.24226667e+11]
- [5.96547368e+09 1.56070041e+11 5.96547368e+09 1.56070041e+11
-  6.25333333e+09 1.24226667e+11]
- [3.89052632e+09 1.03522222e+11 3.89052632e+09 1.03522222e+11
-  5.13333333e+09 1.24226667e+11]]</t>
+          <t>[[3.13772621e+10 1.86673540e+13 3.13772621e+10 1.86673540e+13
+  1.95605542e+10 8.04133145e+10]
+ [2.82648411e+10 1.32157604e+13 2.82648411e+10 1.32157604e+13
+  1.78805542e+10 8.04133145e+10]
+ [2.51524200e+10 8.95883338e+12 2.51524200e+10 8.95883338e+12
+  1.62005542e+10 8.04133145e+10]
+ [2.20399990e+10 5.74723972e+12 2.20399990e+10 5.74723972e+12
+  1.45205542e+10 8.04133145e+10]
+ [1.89275779e+10 3.43164606e+12 1.89275779e+10 3.43164606e+12
+  1.28405542e+10 8.04133145e+10]
+ [1.58151569e+10 1.86271906e+12 1.58151569e+10 1.86271906e+12
+  1.11605542e+10 8.04133145e+10]
+ [1.27027358e+10 8.91125406e+11 1.27027358e+10 8.91125406e+11
+  9.48055421e+09 8.04133145e+10]
+ [9.59031477e+09 3.67531747e+11 9.59031477e+09 3.67531747e+11
+  7.80055421e+09 8.04133145e+10]
+ [6.47789372e+09 1.42604754e+11 6.47789372e+09 1.42604754e+11
+  6.12055421e+09 8.04133145e+10]
+ [3.36547267e+09 6.70110954e+10 3.36547267e+09 6.70110954e+10
+  4.44055421e+09 8.04133145e+10]]</t>
         </is>
       </c>
       <c r="E1338" t="inlineStr"/>
@@ -38612,7 +38623,7 @@
       <c r="C1408" t="inlineStr"/>
       <c r="D1408" t="inlineStr">
         <is>
-          <t>[200.         199.99999892 187.83506437 171.4       ]</t>
+          <t>[175.8269222 309.5937113 280.        240.       ]</t>
         </is>
       </c>
       <c r="E1408" t="inlineStr"/>
@@ -38631,7 +38642,7 @@
       <c r="C1409" t="inlineStr"/>
       <c r="D1409" t="inlineStr">
         <is>
-          <t>[1.         0.85973979 0.63433569 1.        ]</t>
+          <t>[1.   1.   0.75 1.  ]</t>
         </is>
       </c>
       <c r="E1409" t="inlineStr"/>
@@ -38650,7 +38661,7 @@
       <c r="C1410" t="inlineStr"/>
       <c r="D1410" t="inlineStr">
         <is>
-          <t>[1.         0.85973979 0.63433569 1.        ]</t>
+          <t>[1.   1.   0.75 1.  ]</t>
         </is>
       </c>
       <c r="E1410" t="inlineStr"/>
@@ -38669,7 +38680,7 @@
       <c r="C1411" t="inlineStr"/>
       <c r="D1411" t="inlineStr">
         <is>
-          <t>[0.9298699  0.80446923 0.85069471]</t>
+          <t>[0.56792795 0.96748035 1.        ]</t>
         </is>
       </c>
       <c r="E1411" t="inlineStr"/>
@@ -38750,9 +38761,9 @@
       </c>
       <c r="D1415" t="inlineStr">
         <is>
-          <t>[5.5        5.5        5.5        5.5        5.24285628 4.98571257
- 4.72856885 4.15221257 3.57585628 2.9995     2.9995     2.9995
- 2.9995    ]</t>
+          <t>[4.         4.         4.         4.         4.         4.
+ 4.         3.66666667 3.33333333 3.         3.         3.
+ 3.        ]</t>
         </is>
       </c>
       <c r="E1415" t="inlineStr"/>
@@ -38978,9 +38989,9 @@
       </c>
       <c r="D1425" t="inlineStr">
         <is>
-          <t>[ 15.          26.61331002  38.22662005  49.83993007  66.43037296
-  83.02081585  99.61125874 109.56552448 119.51979021 129.47405594
- 138.76470396 148.05535198 157.346     ]</t>
+          <t>[ 15.          27.30150617  39.60301235  51.90451852  69.47809877
+  87.05167901 104.62525926 115.16940741 125.71355556 136.2577037
+ 143.2871358  150.3165679  157.346     ]</t>
         </is>
       </c>
       <c r="E1425" t="inlineStr"/>
@@ -39003,9 +39014,9 @@
       </c>
       <c r="D1426" t="inlineStr">
         <is>
-          <t>[11.         11.         11.         11.         10.48571257  9.97142513
-  9.4571377   8.30442513  7.15171257  5.999       5.999       5.999
-  5.999     ]</t>
+          <t>[8.         8.         8.         8.         8.         8.
+ 8.         7.33333333 6.66666667 6.         6.         6.
+ 6.        ]</t>
         </is>
       </c>
       <c r="E1426" t="inlineStr"/>
@@ -39028,7 +39039,7 @@
       </c>
       <c r="D1427" t="inlineStr">
         <is>
-          <t>[34.83993007 49.77132867 29.8627972  27.87194406]</t>
+          <t>[36.90451852 52.72074074 31.63244444 21.0882963 ]</t>
         </is>
       </c>
       <c r="E1427" t="inlineStr"/>
@@ -39158,7 +39169,7 @@
       </c>
       <c r="D1433" t="inlineStr">
         <is>
-          <t>[ 15.          49.83993007  99.61125874 129.47405594 157.346     ]</t>
+          <t>[ 15.          51.90451852 104.62525926 136.2577037  157.346     ]</t>
         </is>
       </c>
       <c r="E1433" t="inlineStr"/>
@@ -39177,7 +39188,7 @@
       <c r="C1434" t="inlineStr"/>
       <c r="D1434" t="inlineStr">
         <is>
-          <t>[0.         0.38116592 0.73991031 1.        ]</t>
+          <t>[0.         0.39534884 0.76744186 1.        ]</t>
         </is>
       </c>
       <c r="E1434" t="inlineStr">
@@ -39258,7 +39269,7 @@
       </c>
       <c r="D1437" t="inlineStr">
         <is>
-          <t>[15783.62334338 13647.43661716  8292.30500967  5473.10691756]</t>
+          <t>[9489.55377232 5402.70230154 4572.06581752 3916.57251035]</t>
         </is>
       </c>
       <c r="E1437" t="inlineStr">
@@ -39285,7 +39296,7 @@
       </c>
       <c r="D1438" t="inlineStr">
         <is>
-          <t>[236351.96640313 176704.64773522  61249.58115612  24335.15806829]</t>
+          <t>[75057.80555751 42943.30519543 27804.58963809 17478.31679189]</t>
         </is>
       </c>
       <c r="E1438" t="inlineStr">
@@ -39312,7 +39323,7 @@
       </c>
       <c r="D1439" t="inlineStr">
         <is>
-          <t>[236351.96640313 176704.64773522  61249.58115612  24335.15806829]</t>
+          <t>[75057.80555751 42943.30519543 27804.58963809 17478.31679189]</t>
         </is>
       </c>
       <c r="E1439" t="inlineStr">
@@ -39339,7 +39350,7 @@
       </c>
       <c r="D1440" t="inlineStr">
         <is>
-          <t>[5.66383816e+12 4.23447514e+12 1.46775895e+12 5.83157394e+11]</t>
+          <t>[1.79865338e+12 1.02907513e+12 6.66297379e+11 4.18842962e+11]</t>
         </is>
       </c>
       <c r="E1440" t="inlineStr">
@@ -39366,7 +39377,7 @@
       </c>
       <c r="D1441" t="inlineStr">
         <is>
-          <t>[5.66383816e+12 4.23447514e+12 1.46775895e+12 5.83157394e+11]</t>
+          <t>[1.79865338e+12 1.02907513e+12 6.66297379e+11 4.18842962e+11]</t>
         </is>
       </c>
       <c r="E1441" t="inlineStr">
@@ -39393,7 +39404,7 @@
       </c>
       <c r="D1442" t="inlineStr">
         <is>
-          <t>[4.49142366e+12 3.35793879e+12 1.16393285e+12 4.62443814e+11]</t>
+          <t>[1.42633213e+12 8.16056578e+11 5.28373822e+11 3.32142469e+11]</t>
         </is>
       </c>
       <c r="E1442" t="inlineStr">
@@ -39420,7 +39431,7 @@
       </c>
       <c r="D1443" t="inlineStr">
         <is>
-          <t>[3.78232048e+11 3.27041376e+11 1.98713276e+11 1.31155210e+11]</t>
+          <t>[2.27403637e+11 1.29468064e+11 1.09563044e+11 9.38550805e+10]</t>
         </is>
       </c>
       <c r="E1443" t="inlineStr">
@@ -39528,10 +39539,10 @@
       </c>
       <c r="D1447" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.52877592 0.19421459 0.19421459 0.        ]
- [0.         0.         0.61154342 0.24155458 0.24155458 0.        ]
- [0.         0.         1.00647528 0.52652166 0.52652166 0.        ]
- [0.         0.         1.52491083 1.02871027 1.02871027 0.        ]]</t>
+          <t>[[0.         0.         0.87949341 0.44477719 0.44477719 0.        ]
+ [0.         0.         1.54478251 0.77739708 0.77739708 0.        ]
+ [0.         0.         1.82543304 1.05058195 1.05058195 0.        ]
+ [0.         0.         2.13094484 1.4325178  1.4325178  0.        ]]</t>
         </is>
       </c>
       <c r="E1447" t="inlineStr"/>
@@ -39554,10 +39565,10 @@
       </c>
       <c r="D1448" t="inlineStr">
         <is>
-          <t>[[0.86890906 0.86890906 0.         0.         0.         0.09710729]
- [1.00491643 1.00491643 0.         0.         0.         0.12077729]
- [1.65364172 1.65364172 0.         0.         0.         0.26326083]
- [2.50484558 2.50484558 0.         0.         0.         0.51435513]]</t>
+          <t>[[1.44476908 1.44476908 0.         0.         0.         0.2223886 ]
+ [2.54049576 2.54049576 0.         0.         0.         0.38869854]
+ [3.00158224 3.00158224 0.         0.         0.         0.52529097]
+ [3.50299574 3.50299574 0.         0.         0.         0.7162589 ]]</t>
         </is>
       </c>
       <c r="E1448" t="inlineStr"/>
@@ -39580,7 +39591,7 @@
       </c>
       <c r="D1449" t="inlineStr">
         <is>
-          <t>[723.40517862]</t>
+          <t>[534.35743012]</t>
         </is>
       </c>
       <c r="E1449" t="inlineStr"/>
@@ -39603,7 +39614,7 @@
       </c>
       <c r="D1450" t="inlineStr">
         <is>
-          <t>[4153853.24925214]</t>
+          <t>[2371696.49350505]</t>
         </is>
       </c>
       <c r="E1450" t="inlineStr"/>
@@ -39626,8 +39637,8 @@
       </c>
       <c r="D1451" t="inlineStr">
         <is>
-          <t>[11.         11.         11.         10.74285628 10.22856885  9.71428141
-  8.88078141  7.72806885  6.57535628  5.999       5.999       5.999     ]</t>
+          <t>[8.         8.         8.         8.         8.         8.
+ 7.66666667 7.         6.33333333 6.         6.         6.        ]</t>
         </is>
       </c>
       <c r="E1451" t="inlineStr"/>
@@ -39650,8 +39661,8 @@
       </c>
       <c r="D1452" t="inlineStr">
         <is>
-          <t>[0.05885    0.05885    0.05885    0.05472284 0.05472284 0.05472284
- 0.04402284 0.04402284 0.04402284 0.03745    0.03745    0.03745   ]</t>
+          <t>[0.04868424 0.04868424 0.04868424 0.02764914 0.02764914 0.02764914
+ 0.02675    0.02675    0.02675    0.02675    0.02675    0.02675   ]</t>
         </is>
       </c>
       <c r="E1452" t="inlineStr"/>
@@ -45170,7 +45181,7 @@
       </c>
       <c r="D1628" t="inlineStr">
         <is>
-          <t>[2.54853495]</t>
+          <t>[2.7493018]</t>
         </is>
       </c>
       <c r="E1628" t="inlineStr"/>
@@ -47074,9 +47085,9 @@
       <c r="D1713" t="inlineStr">
         <is>
           <t>[[  0.           0.          15.        ]
- [  0.           0.          49.83993007]
- [  0.           0.          99.61125874]
- [  0.           0.         129.47405594]
+ [  0.           0.          51.90451852]
+ [  0.           0.         104.62525926]
+ [  0.           0.         136.2577037 ]
  [  0.           0.         157.346     ]]</t>
         </is>
       </c>
@@ -47900,7 +47911,7 @@
       <c r="C1745" t="inlineStr"/>
       <c r="D1745" t="inlineStr">
         <is>
-          <t>[0.         0.31578947 0.52631579 0.73684211 0.84210526 0.94736842
+          <t>[0.         0.40909091 0.59090909 0.77272727 0.86363636 0.95454545
  1.        ]</t>
         </is>
       </c>
@@ -47928,7 +47939,7 @@
       </c>
       <c r="D1746" t="inlineStr">
         <is>
-          <t>[95.]</t>
+          <t>[110.]</t>
         </is>
       </c>
       <c r="E1746" t="inlineStr">
@@ -47955,7 +47966,7 @@
       </c>
       <c r="D1747" t="inlineStr">
         <is>
-          <t>[95.]</t>
+          <t>[110.]</t>
         </is>
       </c>
       <c r="E1747" t="inlineStr">
@@ -47982,7 +47993,7 @@
       </c>
       <c r="D1748" t="inlineStr">
         <is>
-          <t>[-80.]</t>
+          <t>[-95.]</t>
         </is>
       </c>
       <c r="E1748" t="inlineStr">
@@ -48009,7 +48020,8 @@
       </c>
       <c r="D1749" t="inlineStr">
         <is>
-          <t>[11. 11. 11. 11. 11. 11. 11.]</t>
+          <t>[9.51547331 9.51547331 9.51547331 9.51547331 9.51547331 9.5123012
+ 9.21296284]</t>
         </is>
       </c>
       <c r="E1749" t="inlineStr">
@@ -48036,8 +48048,7 @@
       </c>
       <c r="D1750" t="inlineStr">
         <is>
-          <t>[[0.11405015 0.13479314 0.13377177 0.135      0.1185456  0.13472322
-  0.11529586]]</t>
+          <t>[[0.07 0.07 0.07 0.07 0.07 0.07 0.07]]</t>
         </is>
       </c>
       <c r="E1750" t="inlineStr">
@@ -48968,7 +48979,7 @@
  [  0.   0.  50.]
  [  0.   0. 100.]
  [  0.   0. 130.]
- [  0.   0. 158.]]</t>
+ [  0.   0. 150.]]</t>
         </is>
       </c>
       <c r="E1785" t="inlineStr">
@@ -48995,7 +49006,7 @@
       </c>
       <c r="D1786" t="inlineStr">
         <is>
-          <t>[11.        11.         9.4571377  5.999      5.999    ]</t>
+          <t>[8. 8. 8. 6. 6.]</t>
         </is>
       </c>
       <c r="E1786" t="inlineStr">
@@ -49045,7 +49056,7 @@
       </c>
       <c r="D1788" t="inlineStr">
         <is>
-          <t>[[0.055      0.055      0.04728569 0.035      0.035     ]]</t>
+          <t>[[0.06431794 0.02668064 0.025      0.025      0.025     ]]</t>
         </is>
       </c>
       <c r="E1788" t="inlineStr">
@@ -49145,7 +49156,7 @@
       <c r="C1792" t="inlineStr"/>
       <c r="D1792" t="inlineStr">
         <is>
-          <t>[0.         0.24475524 0.59440559 0.8041958  1.        ]</t>
+          <t>[0.         0.25925926 0.62962963 0.85185185 1.        ]</t>
         </is>
       </c>
       <c r="E1792" t="inlineStr">
@@ -49502,7 +49513,7 @@
       </c>
       <c r="D1807" t="inlineStr">
         <is>
-          <t>[-0.006317]</t>
+          <t>[-0.00631526]</t>
         </is>
       </c>
       <c r="E1807" t="inlineStr"/>
@@ -49548,7 +49559,7 @@
       </c>
       <c r="D1809" t="inlineStr">
         <is>
-          <t>[-0.00544265]</t>
+          <t>[-0.00544382]</t>
         </is>
       </c>
       <c r="E1809" t="inlineStr"/>
@@ -51045,7 +51056,7 @@
       </c>
       <c r="D1877" t="inlineStr">
         <is>
-          <t>[0.77726827]</t>
+          <t>[0.77676827]</t>
         </is>
       </c>
       <c r="E1877" t="inlineStr"/>
@@ -52035,7 +52046,7 @@
       </c>
       <c r="D1921" t="inlineStr">
         <is>
-          <t>[40682.04562332]</t>
+          <t>[40686.9261128]</t>
         </is>
       </c>
       <c r="E1921" t="inlineStr"/>
@@ -52058,7 +52069,7 @@
       </c>
       <c r="D1922" t="inlineStr">
         <is>
-          <t>[629518.96502211]</t>
+          <t>[629537.66835959]</t>
         </is>
       </c>
       <c r="E1922" t="inlineStr"/>
@@ -52081,7 +52092,7 @@
       </c>
       <c r="D1923" t="inlineStr">
         <is>
-          <t>[-4.01003178 -0.14441984  4.24929631]</t>
+          <t>[-4.00991761 -0.14443037  4.24918643]</t>
         </is>
       </c>
       <c r="E1923" t="inlineStr"/>
@@ -52104,8 +52115,8 @@
       </c>
       <c r="D1924" t="inlineStr">
         <is>
-          <t>[9224591.7416582  8617359.56999176 8195565.62370818  351066.14056623
- 1743279.93471595 -201547.34360018]</t>
+          <t>[9225580.40494873 8618497.83646925 8196888.37923555  351088.87030514
+ 1743635.62842814 -201554.91603401]</t>
         </is>
       </c>
       <c r="E1924" t="inlineStr"/>
@@ -52128,8 +52139,8 @@
       </c>
       <c r="D1925" t="inlineStr">
         <is>
-          <t>[8803003.83878226 7821243.31218108 7820064.43983148  364572.16184084
- 1345889.34905671 -215859.22180367]</t>
+          <t>[8803899.15124393 7822207.43852207 7821305.99873213  364599.1774316
+ 1346158.17883116 -215871.37321263]</t>
         </is>
       </c>
       <c r="E1925" t="inlineStr"/>
@@ -52152,8 +52163,8 @@
       </c>
       <c r="D1926" t="inlineStr">
         <is>
-          <t>[ 2.01830550e+07  2.93110529e+07  1.79560827e+07 -5.82076609e-11
-  1.20727749e+07  1.70465683e+05]</t>
+          <t>[2.01837025e+07 2.93114912e+07 1.79570509e+07 1.16415322e-10
+ 1.20727797e+07 1.70483168e+05]</t>
         </is>
       </c>
       <c r="E1926" t="inlineStr"/>
@@ -52176,7 +52187,7 @@
       </c>
       <c r="D1927" t="inlineStr">
         <is>
-          <t>[0.00466215]</t>
+          <t>[0.00466098]</t>
         </is>
       </c>
       <c r="E1927" t="inlineStr"/>
@@ -52199,7 +52210,7 @@
       </c>
       <c r="D1928" t="inlineStr">
         <is>
-          <t>[0.00330808]</t>
+          <t>[0.00330717]</t>
         </is>
       </c>
       <c r="E1928" t="inlineStr"/>
@@ -52222,7 +52233,7 @@
       </c>
       <c r="D1929" t="inlineStr">
         <is>
-          <t>[0.00311439]</t>
+          <t>[0.00311352]</t>
         </is>
       </c>
       <c r="E1929" t="inlineStr"/>
@@ -52245,7 +52256,7 @@
       </c>
       <c r="D1930" t="inlineStr">
         <is>
-          <t>[-0.0009661]</t>
+          <t>[-0.00096587]</t>
         </is>
       </c>
       <c r="E1930" t="inlineStr"/>
@@ -52268,7 +52279,7 @@
       </c>
       <c r="D1931" t="inlineStr">
         <is>
-          <t>[-0.00093224]</t>
+          <t>[-0.00093202]</t>
         </is>
       </c>
       <c r="E1931" t="inlineStr"/>
@@ -52291,7 +52302,7 @@
       </c>
       <c r="D1932" t="inlineStr">
         <is>
-          <t>[0.00090783]</t>
+          <t>[0.0009076]</t>
         </is>
       </c>
       <c r="E1932" t="inlineStr"/>
@@ -52316,7 +52327,7 @@
         <is>
           <t>[[ 2.93771295e+06]
  [ 8.73816952e+03]
- [-8.98577631e+06]]</t>
+ [-8.98603452e+06]]</t>
         </is>
       </c>
       <c r="E1933" t="inlineStr"/>
@@ -52339,9 +52350,9 @@
       </c>
       <c r="D1934" t="inlineStr">
         <is>
-          <t>[[  -692939.78155346]
- [-38693034.48001503]
- [  6202666.24461834]]</t>
+          <t>[[  -692940.008576  ]
+ [-38693074.08051626]
+ [  6202665.53278366]]</t>
         </is>
       </c>
       <c r="E1934" t="inlineStr"/>
@@ -52364,20 +52375,20 @@
       </c>
       <c r="D1935" t="inlineStr">
         <is>
-          <t>[[3.77212692e+07]
- [3.94409121e+07]
- [4.19929289e+07]
- [4.56090199e+07]
- [5.06449418e+07]
- [5.76402722e+07]
- [6.73768708e+07]
- [8.07951237e+07]
- [9.81304395e+07]
- [1.15412630e+08]
- [1.18612497e+08]
- [6.31659015e+07]
- [6.13025412e+07]
- [1.12867568e+07]
+          <t>[[3.77100750e+07]
+ [3.94292335e+07]
+ [4.19805835e+07]
+ [4.55957996e+07]
+ [5.06306239e+07]
+ [5.76246670e+07]
+ [6.73599764e+07]
+ [8.07775573e+07]
+ [9.81143750e+07]
+ [1.15402369e+08]
+ [1.18609783e+08]
+ [6.31658991e+07]
+ [6.13025391e+07]
+ [1.12867557e+07]
  [3.67595980e+06]]</t>
         </is>
       </c>
@@ -52401,21 +52412,21 @@
       </c>
       <c r="D1936" t="inlineStr">
         <is>
-          <t>[[ 8198781.70594297]
- [ 5095327.15811212]
- [ 3047782.37602239]
- [ 7003274.18581238]
- [11730989.02670427]
- [17602448.15078774]
- [25094691.22252726]
- [34742153.56517183]
- [46807042.36370879]
- [60107631.68236361]
- [70031275.85325268]
- [36800928.55476876]
- [25411892.47588418]
- [24647897.46562164]
- [24524781.53624108]]</t>
+          <t>[[ 8196999.31830916]
+ [ 5094051.80087558]
+ [ 3046911.15812881]
+ [ 7001757.54569469]
+ [11728746.17396683]
+ [17599404.23607993]
+ [25090836.93232333]
+ [34737694.3872863 ]
+ [46802685.79137163]
+ [60104720.92907161]
+ [70030447.54624267]
+ [36800928.55531872]
+ [25411892.47643425]
+ [24647897.46745445]
+ [24524781.53807375]]</t>
         </is>
       </c>
       <c r="E1936" t="inlineStr"/>
@@ -52438,17 +52449,17 @@
       </c>
       <c r="D1937" t="inlineStr">
         <is>
-          <t>[[19541743.00755712]
- [20787724.11727618]
- [22799392.78851027]
- [25699411.44681294]
- [29729542.03579063]
- [35347827.62194533]
- [43372175.51898514]
- [55104178.23484337]
- [71764285.95271723]
- [90596108.96297488]
- [97575448.40726511]
+          <t>[[19533470.81272292]
+ [20779111.50768383]
+ [22790297.47511837]
+ [25689644.04409209]
+ [29718870.44041621]
+ [35335991.44334316]
+ [43358968.86778108]
+ [55089814.72863077]
+ [71750489.6970504 ]
+ [90587113.57082447]
+ [97572896.30561961]
  [       0.        ]
  [       0.        ]
  [       0.        ]
@@ -52471,19 +52482,19 @@
       <c r="C1938" t="inlineStr"/>
       <c r="D1938" t="inlineStr">
         <is>
-          <t>[[0.1289189 ]
- [0.12771584]
- [0.13313496]
- [0.14988231]
- [0.17563809]
- [0.21297135]
- [0.26560644]
- [0.33816037]
- [0.43286972]
- [0.53562679]
- [0.59160208]
+          <t>[[0.1288821 ]
+ [0.12767813]
+ [0.13309542]
+ [0.14983922]
+ [0.17559051]
+ [0.21291838]
+ [0.26554777]
+ [0.33809798]
+ [0.4328115 ]
+ [0.53558914]
+ [0.59159187]
  [0.32472098]
- [0.27308225]
+ [0.27308224]
  [0.15978898]
  [0.15428413]]</t>
         </is>
@@ -52504,7 +52515,7 @@
       <c r="C1939" t="inlineStr"/>
       <c r="D1939" t="inlineStr">
         <is>
-          <t>[0.11070637]</t>
+          <t>[0.11068017]</t>
         </is>
       </c>
       <c r="E1939" t="inlineStr"/>
@@ -52523,7 +52534,7 @@
       <c r="C1940" t="inlineStr"/>
       <c r="D1940" t="inlineStr">
         <is>
-          <t>[0.01195186]</t>
+          <t>[0.01194893]</t>
         </is>
       </c>
       <c r="E1940" t="inlineStr"/>
@@ -52542,7 +52553,7 @@
       <c r="C1941" t="inlineStr"/>
       <c r="D1941" t="inlineStr">
         <is>
-          <t>[54.65752477]</t>
+          <t>[54.64230165]</t>
         </is>
       </c>
       <c r="E1941" t="inlineStr"/>
@@ -52561,7 +52572,7 @@
       <c r="C1942" t="inlineStr"/>
       <c r="D1942" t="inlineStr">
         <is>
-          <t>[1.59324322]</t>
+          <t>[1.59284205]</t>
         </is>
       </c>
       <c r="E1942" t="inlineStr"/>
@@ -52607,7 +52618,7 @@
       </c>
       <c r="D1944" t="inlineStr">
         <is>
-          <t>[948395.22490771]</t>
+          <t>[948421.32607936]</t>
         </is>
       </c>
       <c r="E1944" t="inlineStr"/>
@@ -52630,7 +52641,7 @@
       </c>
       <c r="D1945" t="inlineStr">
         <is>
-          <t>[-6.7583112  -0.09586197  4.59784123]</t>
+          <t>[-6.75812851 -0.09586916  4.59772556]</t>
         </is>
       </c>
       <c r="E1945" t="inlineStr"/>
@@ -52653,8 +52664,8 @@
       </c>
       <c r="D1946" t="inlineStr">
         <is>
-          <t>[4.16137377e+08 2.85204501e+08 2.66306106e+08 5.41253411e+02
- 1.42357775e+07 1.69892134e+05]</t>
+          <t>[4.16138017e+08 2.85204924e+08 2.66307067e+08 5.41567843e+02
+ 1.42357746e+07 1.69909285e+05]</t>
         </is>
       </c>
       <c r="E1946" t="inlineStr"/>
